--- a/database/industries/darou/deshimi/product/monthly.xlsx
+++ b/database/industries/darou/deshimi/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\deshimi\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CAAD03-5428-42D4-B4EC-47BDB6994EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="91">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -186,6 +184,9 @@
     <t>ماه 7 منتهی به 1401/07</t>
   </si>
   <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
     <t>مواد موثره دارویی پلت ها</t>
   </si>
   <si>
@@ -297,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,7 +485,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -496,7 +497,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -543,6 +544,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -578,6 +596,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -729,17 +764,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BB122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:BB123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -794,7 +829,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -851,7 +886,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -908,7 +943,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -963,7 +998,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1020,7 +1055,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1077,7 +1112,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1132,7 +1167,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1344,7 +1379,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1401,7 +1436,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1410,157 +1445,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1877</v>
+        <v>1244</v>
       </c>
       <c r="F11" s="11">
-        <v>1244</v>
+        <v>4290</v>
       </c>
       <c r="G11" s="11">
-        <v>4290</v>
+        <v>0</v>
       </c>
       <c r="H11" s="11">
         <v>0</v>
       </c>
       <c r="I11" s="11">
-        <v>0</v>
+        <v>2082</v>
       </c>
       <c r="J11" s="11">
-        <v>2082</v>
+        <v>1586</v>
       </c>
       <c r="K11" s="11">
-        <v>1586</v>
+        <v>703</v>
       </c>
       <c r="L11" s="11">
-        <v>703</v>
+        <v>1413</v>
       </c>
       <c r="M11" s="11">
-        <v>1413</v>
+        <v>0</v>
       </c>
       <c r="N11" s="11">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="O11" s="11">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="P11" s="11">
-        <v>1152</v>
+        <v>1716</v>
       </c>
       <c r="Q11" s="11">
-        <v>1716</v>
+        <v>3617</v>
       </c>
       <c r="R11" s="11">
-        <v>3617</v>
+        <v>5172</v>
       </c>
       <c r="S11" s="11">
+        <v>5165</v>
+      </c>
+      <c r="T11" s="11">
+        <v>2567</v>
+      </c>
+      <c r="U11" s="11">
+        <v>2610</v>
+      </c>
+      <c r="V11" s="11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11">
+        <v>567</v>
+      </c>
+      <c r="X11" s="11">
         <v>5172</v>
       </c>
-      <c r="T11" s="11">
-        <v>5165</v>
-      </c>
-      <c r="U11" s="11">
-        <v>2567</v>
-      </c>
-      <c r="V11" s="11">
-        <v>2610</v>
-      </c>
-      <c r="W11" s="11">
-        <v>0</v>
-      </c>
-      <c r="X11" s="11">
-        <v>567</v>
-      </c>
       <c r="Y11" s="11">
-        <v>5172</v>
+        <v>1913</v>
       </c>
       <c r="Z11" s="11">
-        <v>1913</v>
+        <v>2279</v>
       </c>
       <c r="AA11" s="11">
-        <v>2279</v>
+        <v>772</v>
       </c>
       <c r="AB11" s="11">
-        <v>772</v>
+        <v>1872</v>
       </c>
       <c r="AC11" s="11">
-        <v>1872</v>
+        <v>2158</v>
       </c>
       <c r="AD11" s="11">
-        <v>2158</v>
+        <v>566</v>
       </c>
       <c r="AE11" s="11">
-        <v>566</v>
+        <v>2302</v>
       </c>
       <c r="AF11" s="11">
-        <v>2302</v>
+        <v>3424</v>
       </c>
       <c r="AG11" s="11">
-        <v>3424</v>
+        <v>2891</v>
       </c>
       <c r="AH11" s="11">
-        <v>2891</v>
+        <v>2325</v>
       </c>
       <c r="AI11" s="11">
-        <v>2325</v>
+        <v>3863</v>
       </c>
       <c r="AJ11" s="11">
-        <v>3863</v>
+        <v>1446</v>
       </c>
       <c r="AK11" s="11">
-        <v>1446</v>
+        <v>2513</v>
       </c>
       <c r="AL11" s="11">
-        <v>2513</v>
+        <v>3838</v>
       </c>
       <c r="AM11" s="11">
-        <v>3838</v>
+        <v>3913</v>
       </c>
       <c r="AN11" s="11">
-        <v>3913</v>
+        <v>3634</v>
       </c>
       <c r="AO11" s="11">
-        <v>3634</v>
+        <v>2461</v>
       </c>
       <c r="AP11" s="11">
-        <v>2461</v>
+        <v>4026</v>
       </c>
       <c r="AQ11" s="11">
-        <v>4026</v>
+        <v>3649</v>
       </c>
       <c r="AR11" s="11">
-        <v>3649</v>
+        <v>2859</v>
       </c>
       <c r="AS11" s="11">
-        <v>2859</v>
+        <v>3629</v>
       </c>
       <c r="AT11" s="11">
-        <v>3629</v>
+        <v>4017</v>
       </c>
       <c r="AU11" s="11">
-        <v>4017</v>
+        <v>3643</v>
       </c>
       <c r="AV11" s="11">
-        <v>3643</v>
+        <v>4992</v>
       </c>
       <c r="AW11" s="11">
+        <v>3264</v>
+      </c>
+      <c r="AX11" s="11">
+        <v>5760</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>5618</v>
+      </c>
+      <c r="AZ11" s="11">
+        <v>4800</v>
+      </c>
+      <c r="BA11" s="11">
+        <v>8832</v>
+      </c>
+      <c r="BB11" s="11">
         <v>4992</v>
       </c>
-      <c r="AX11" s="11">
-        <v>3264</v>
-      </c>
-      <c r="AY11" s="11">
-        <v>5760</v>
-      </c>
-      <c r="AZ11" s="11">
-        <v>5618</v>
-      </c>
-      <c r="BA11" s="11">
-        <v>4800</v>
-      </c>
-      <c r="BB11" s="11">
-        <v>8832</v>
-      </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1569,157 +1604,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>1831</v>
+        <v>0</v>
       </c>
       <c r="F12" s="13">
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>0</v>
+        <v>1178</v>
       </c>
       <c r="H12" s="13">
-        <v>1178</v>
+        <v>0</v>
       </c>
       <c r="I12" s="13">
-        <v>0</v>
+        <v>5726</v>
       </c>
       <c r="J12" s="13">
-        <v>5726</v>
+        <v>5238</v>
       </c>
       <c r="K12" s="13">
-        <v>5238</v>
+        <v>0</v>
       </c>
       <c r="L12" s="13">
-        <v>0</v>
+        <v>3475</v>
       </c>
       <c r="M12" s="13">
-        <v>3475</v>
+        <v>1822</v>
       </c>
       <c r="N12" s="13">
-        <v>1822</v>
+        <v>176</v>
       </c>
       <c r="O12" s="13">
-        <v>176</v>
+        <v>6981</v>
       </c>
       <c r="P12" s="13">
-        <v>6981</v>
+        <v>5482</v>
       </c>
       <c r="Q12" s="13">
-        <v>5482</v>
+        <v>9175</v>
       </c>
       <c r="R12" s="13">
-        <v>9175</v>
+        <v>4500</v>
       </c>
       <c r="S12" s="13">
-        <v>4500</v>
+        <v>4067</v>
       </c>
       <c r="T12" s="13">
-        <v>4067</v>
+        <v>9231</v>
       </c>
       <c r="U12" s="13">
-        <v>9231</v>
+        <v>8517</v>
       </c>
       <c r="V12" s="13">
-        <v>8517</v>
+        <v>3626</v>
       </c>
       <c r="W12" s="13">
-        <v>3626</v>
+        <v>1018</v>
       </c>
       <c r="X12" s="13">
-        <v>1018</v>
+        <v>1985</v>
       </c>
       <c r="Y12" s="13">
-        <v>1985</v>
+        <v>10410</v>
       </c>
       <c r="Z12" s="13">
-        <v>10410</v>
+        <v>7925</v>
       </c>
       <c r="AA12" s="13">
-        <v>7925</v>
+        <v>4598</v>
       </c>
       <c r="AB12" s="13">
-        <v>4598</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="13">
-        <v>0</v>
+        <v>4850</v>
       </c>
       <c r="AD12" s="13">
-        <v>4850</v>
+        <v>7420</v>
       </c>
       <c r="AE12" s="13">
-        <v>7420</v>
+        <v>4552</v>
       </c>
       <c r="AF12" s="13">
-        <v>4552</v>
+        <v>3977</v>
       </c>
       <c r="AG12" s="13">
-        <v>3977</v>
+        <v>4082</v>
       </c>
       <c r="AH12" s="13">
-        <v>4082</v>
+        <v>1373</v>
       </c>
       <c r="AI12" s="13">
-        <v>1373</v>
+        <v>2667</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2667</v>
+        <v>1737</v>
       </c>
       <c r="AK12" s="13">
-        <v>1737</v>
+        <v>1521</v>
       </c>
       <c r="AL12" s="13">
-        <v>1521</v>
+        <v>10142</v>
       </c>
       <c r="AM12" s="13">
-        <v>10142</v>
+        <v>8072</v>
       </c>
       <c r="AN12" s="13">
-        <v>8072</v>
+        <v>12499</v>
       </c>
       <c r="AO12" s="13">
-        <v>12499</v>
+        <v>9201</v>
       </c>
       <c r="AP12" s="13">
-        <v>9201</v>
+        <v>15270</v>
       </c>
       <c r="AQ12" s="13">
-        <v>15270</v>
+        <v>11387</v>
       </c>
       <c r="AR12" s="13">
-        <v>11387</v>
+        <v>17955</v>
       </c>
       <c r="AS12" s="13">
-        <v>17955</v>
+        <v>25208</v>
       </c>
       <c r="AT12" s="13">
-        <v>25208</v>
+        <v>15176</v>
       </c>
       <c r="AU12" s="13">
-        <v>15176</v>
+        <v>8790</v>
       </c>
       <c r="AV12" s="13">
-        <v>6215</v>
+        <v>3155</v>
       </c>
       <c r="AW12" s="13">
-        <v>3155</v>
+        <v>11324</v>
       </c>
       <c r="AX12" s="13">
-        <v>11324</v>
+        <v>9686</v>
       </c>
       <c r="AY12" s="13">
-        <v>6984</v>
+        <v>15438</v>
       </c>
       <c r="AZ12" s="13">
-        <v>15438</v>
+        <v>5004</v>
       </c>
       <c r="BA12" s="13">
-        <v>5004</v>
+        <v>9398</v>
       </c>
       <c r="BB12" s="13">
-        <v>9398</v>
+        <v>13028</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1728,157 +1763,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>9040</v>
+        <v>8108</v>
       </c>
       <c r="F13" s="11">
+        <v>3710</v>
+      </c>
+      <c r="G13" s="11">
+        <v>3118</v>
+      </c>
+      <c r="H13" s="11">
+        <v>5888</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1814</v>
+      </c>
+      <c r="J13" s="11">
+        <v>2082</v>
+      </c>
+      <c r="K13" s="11">
+        <v>5672</v>
+      </c>
+      <c r="L13" s="11">
+        <v>8701</v>
+      </c>
+      <c r="M13" s="11">
+        <v>3776</v>
+      </c>
+      <c r="N13" s="11">
+        <v>2312</v>
+      </c>
+      <c r="O13" s="11">
+        <v>5173</v>
+      </c>
+      <c r="P13" s="11">
+        <v>4506</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>4251</v>
+      </c>
+      <c r="R13" s="11">
+        <v>8735</v>
+      </c>
+      <c r="S13" s="11">
+        <v>16547</v>
+      </c>
+      <c r="T13" s="11">
+        <v>11754</v>
+      </c>
+      <c r="U13" s="11">
+        <v>3053</v>
+      </c>
+      <c r="V13" s="11">
+        <v>390</v>
+      </c>
+      <c r="W13" s="11">
+        <v>2817</v>
+      </c>
+      <c r="X13" s="11">
+        <v>2806</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>4490</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>3504</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>1910</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>9360</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>6399</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>1382</v>
+      </c>
+      <c r="AE13" s="11">
         <v>8108</v>
       </c>
-      <c r="G13" s="11">
-        <v>3710</v>
-      </c>
-      <c r="H13" s="11">
-        <v>3118</v>
-      </c>
-      <c r="I13" s="11">
-        <v>5888</v>
-      </c>
-      <c r="J13" s="11">
-        <v>1814</v>
-      </c>
-      <c r="K13" s="11">
-        <v>2082</v>
-      </c>
-      <c r="L13" s="11">
-        <v>5672</v>
-      </c>
-      <c r="M13" s="11">
-        <v>8701</v>
-      </c>
-      <c r="N13" s="11">
-        <v>3776</v>
-      </c>
-      <c r="O13" s="11">
-        <v>2312</v>
-      </c>
-      <c r="P13" s="11">
-        <v>5173</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>4506</v>
-      </c>
-      <c r="R13" s="11">
-        <v>4251</v>
-      </c>
-      <c r="S13" s="11">
-        <v>8735</v>
-      </c>
-      <c r="T13" s="11">
-        <v>16547</v>
-      </c>
-      <c r="U13" s="11">
-        <v>11754</v>
-      </c>
-      <c r="V13" s="11">
-        <v>3053</v>
-      </c>
-      <c r="W13" s="11">
-        <v>390</v>
-      </c>
-      <c r="X13" s="11">
-        <v>2817</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>2806</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>4490</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>3504</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>1910</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>9360</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>6399</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>1382</v>
-      </c>
       <c r="AF13" s="11">
-        <v>8108</v>
+        <v>1953</v>
       </c>
       <c r="AG13" s="11">
-        <v>1953</v>
+        <v>1732</v>
       </c>
       <c r="AH13" s="11">
-        <v>1732</v>
+        <v>3140</v>
       </c>
       <c r="AI13" s="11">
-        <v>3140</v>
+        <v>8562</v>
       </c>
       <c r="AJ13" s="11">
-        <v>8562</v>
+        <v>2619</v>
       </c>
       <c r="AK13" s="11">
-        <v>2619</v>
+        <v>8539</v>
       </c>
       <c r="AL13" s="11">
-        <v>8539</v>
+        <v>2530</v>
       </c>
       <c r="AM13" s="11">
-        <v>2530</v>
+        <v>5146</v>
       </c>
       <c r="AN13" s="11">
-        <v>5146</v>
+        <v>31066</v>
       </c>
       <c r="AO13" s="11">
-        <v>31066</v>
+        <v>6923</v>
       </c>
       <c r="AP13" s="11">
-        <v>6923</v>
+        <v>13834</v>
       </c>
       <c r="AQ13" s="11">
-        <v>13834</v>
+        <v>6513</v>
       </c>
       <c r="AR13" s="11">
-        <v>6513</v>
+        <v>2226</v>
       </c>
       <c r="AS13" s="11">
-        <v>2226</v>
+        <v>8713</v>
       </c>
       <c r="AT13" s="11">
-        <v>8713</v>
+        <v>1644</v>
       </c>
       <c r="AU13" s="11">
-        <v>1644</v>
+        <v>1962</v>
       </c>
       <c r="AV13" s="11">
-        <v>1962</v>
+        <v>9998</v>
       </c>
       <c r="AW13" s="11">
-        <v>9998</v>
+        <v>13074</v>
       </c>
       <c r="AX13" s="11">
-        <v>13074</v>
+        <v>2446</v>
       </c>
       <c r="AY13" s="11">
-        <v>5148</v>
+        <v>343</v>
       </c>
       <c r="AZ13" s="11">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="11">
-        <v>0</v>
+        <v>2074</v>
       </c>
       <c r="BB13" s="11">
-        <v>2074</v>
+        <v>4659</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>59</v>
       </c>
@@ -1904,8 +1939,8 @@
       <c r="J14" s="13">
         <v>0</v>
       </c>
-      <c r="K14" s="13">
-        <v>0</v>
+      <c r="K14" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="L14" s="13" t="s">
         <v>60</v>
@@ -2000,11 +2035,11 @@
       <c r="AP14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AQ14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>0</v>
+      <c r="AQ14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AS14" s="13" t="s">
         <v>60</v>
@@ -2012,8 +2047,8 @@
       <c r="AT14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AU14" s="13" t="s">
-        <v>60</v>
+      <c r="AU14" s="13">
+        <v>0</v>
       </c>
       <c r="AV14" s="13">
         <v>0</v>
@@ -2037,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2046,157 +2081,157 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>11734</v>
+        <v>5169</v>
       </c>
       <c r="F15" s="11">
-        <v>5169</v>
+        <v>1744</v>
       </c>
       <c r="G15" s="11">
-        <v>1744</v>
+        <v>2518</v>
       </c>
       <c r="H15" s="11">
-        <v>2518</v>
+        <v>4983</v>
       </c>
       <c r="I15" s="11">
-        <v>4983</v>
+        <v>2223</v>
       </c>
       <c r="J15" s="11">
-        <v>2223</v>
+        <v>1440</v>
       </c>
       <c r="K15" s="11">
-        <v>1440</v>
+        <v>1413</v>
       </c>
       <c r="L15" s="11">
-        <v>1413</v>
+        <v>154</v>
       </c>
       <c r="M15" s="11">
-        <v>154</v>
+        <v>9551</v>
       </c>
       <c r="N15" s="11">
-        <v>9551</v>
+        <v>15234</v>
       </c>
       <c r="O15" s="11">
-        <v>15234</v>
+        <v>12248</v>
       </c>
       <c r="P15" s="11">
-        <v>12248</v>
+        <v>8249</v>
       </c>
       <c r="Q15" s="11">
-        <v>8249</v>
+        <v>3583</v>
       </c>
       <c r="R15" s="11">
-        <v>3583</v>
+        <v>1960</v>
       </c>
       <c r="S15" s="11">
-        <v>1960</v>
+        <v>7685</v>
       </c>
       <c r="T15" s="11">
-        <v>7685</v>
+        <v>16842</v>
       </c>
       <c r="U15" s="11">
-        <v>16842</v>
+        <v>7170</v>
       </c>
       <c r="V15" s="11">
-        <v>7170</v>
+        <v>3166</v>
       </c>
       <c r="W15" s="11">
-        <v>3166</v>
+        <v>2200</v>
       </c>
       <c r="X15" s="11">
-        <v>2200</v>
+        <v>10781</v>
       </c>
       <c r="Y15" s="11">
-        <v>10781</v>
+        <v>11550</v>
       </c>
       <c r="Z15" s="11">
-        <v>11550</v>
+        <v>11245</v>
       </c>
       <c r="AA15" s="11">
-        <v>11245</v>
+        <v>9804</v>
       </c>
       <c r="AB15" s="11">
-        <v>9804</v>
+        <v>6777</v>
       </c>
       <c r="AC15" s="11">
-        <v>6777</v>
+        <v>2308</v>
       </c>
       <c r="AD15" s="11">
-        <v>2308</v>
+        <v>5989</v>
       </c>
       <c r="AE15" s="11">
-        <v>5989</v>
+        <v>449</v>
       </c>
       <c r="AF15" s="11">
-        <v>449</v>
+        <v>4304</v>
       </c>
       <c r="AG15" s="11">
-        <v>4304</v>
+        <v>9043</v>
       </c>
       <c r="AH15" s="11">
-        <v>9043</v>
+        <v>6887</v>
       </c>
       <c r="AI15" s="11">
-        <v>6887</v>
+        <v>19379</v>
       </c>
       <c r="AJ15" s="11">
-        <v>19379</v>
+        <v>11034</v>
       </c>
       <c r="AK15" s="11">
-        <v>11034</v>
+        <v>5694</v>
       </c>
       <c r="AL15" s="11">
-        <v>5694</v>
+        <v>6540</v>
       </c>
       <c r="AM15" s="11">
-        <v>6540</v>
+        <v>7896</v>
       </c>
       <c r="AN15" s="11">
-        <v>7896</v>
+        <v>4797</v>
       </c>
       <c r="AO15" s="11">
-        <v>4797</v>
+        <v>4413</v>
       </c>
       <c r="AP15" s="11">
-        <v>4413</v>
+        <v>7452</v>
       </c>
       <c r="AQ15" s="11">
-        <v>7452</v>
+        <v>4236</v>
       </c>
       <c r="AR15" s="11">
-        <v>4236</v>
+        <v>9416</v>
       </c>
       <c r="AS15" s="11">
-        <v>9416</v>
+        <v>2425</v>
       </c>
       <c r="AT15" s="11">
-        <v>2425</v>
+        <v>9613</v>
       </c>
       <c r="AU15" s="11">
-        <v>9613</v>
+        <v>9280</v>
       </c>
       <c r="AV15" s="11">
-        <v>9280</v>
+        <v>5862</v>
       </c>
       <c r="AW15" s="11">
-        <v>5862</v>
+        <v>11442</v>
       </c>
       <c r="AX15" s="11">
-        <v>11442</v>
+        <v>8393</v>
       </c>
       <c r="AY15" s="11">
-        <v>8393</v>
+        <v>720</v>
       </c>
       <c r="AZ15" s="11">
-        <v>720</v>
+        <v>11726</v>
       </c>
       <c r="BA15" s="11">
-        <v>11726</v>
+        <v>7465</v>
       </c>
       <c r="BB15" s="11">
-        <v>7465</v>
+        <v>3269</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2205,115 +2240,115 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>20857</v>
+        <v>3540</v>
       </c>
       <c r="F16" s="13">
-        <v>3540</v>
+        <v>5398</v>
       </c>
       <c r="G16" s="13">
-        <v>5398</v>
+        <v>23130</v>
       </c>
       <c r="H16" s="13">
-        <v>23130</v>
+        <v>16187</v>
       </c>
       <c r="I16" s="13">
-        <v>16187</v>
+        <v>22135</v>
       </c>
       <c r="J16" s="13">
-        <v>22135</v>
+        <v>10898</v>
       </c>
       <c r="K16" s="13">
-        <v>10898</v>
+        <v>653</v>
       </c>
       <c r="L16" s="13">
-        <v>653</v>
+        <v>8914</v>
       </c>
       <c r="M16" s="13">
-        <v>8914</v>
+        <v>27856</v>
       </c>
       <c r="N16" s="13">
-        <v>27856</v>
+        <v>17552</v>
       </c>
       <c r="O16" s="13">
-        <v>17552</v>
+        <v>1183</v>
       </c>
       <c r="P16" s="13">
-        <v>1183</v>
+        <v>13509</v>
       </c>
       <c r="Q16" s="13">
-        <v>13509</v>
+        <v>14543</v>
       </c>
       <c r="R16" s="13">
-        <v>14543</v>
+        <v>20247</v>
       </c>
       <c r="S16" s="13">
-        <v>20247</v>
+        <v>17191</v>
       </c>
       <c r="T16" s="13">
-        <v>17191</v>
+        <v>7077</v>
       </c>
       <c r="U16" s="13">
-        <v>7077</v>
+        <v>9773</v>
       </c>
       <c r="V16" s="13">
-        <v>9773</v>
+        <v>169996</v>
       </c>
       <c r="W16" s="13">
-        <v>169996</v>
+        <v>40562</v>
       </c>
       <c r="X16" s="13">
-        <v>40562</v>
+        <v>8772</v>
       </c>
       <c r="Y16" s="13">
-        <v>8772</v>
+        <v>24753</v>
       </c>
       <c r="Z16" s="13">
-        <v>24753</v>
+        <v>8742</v>
       </c>
       <c r="AA16" s="13">
-        <v>8742</v>
+        <v>15423</v>
       </c>
       <c r="AB16" s="13">
-        <v>15423</v>
+        <v>20176</v>
       </c>
       <c r="AC16" s="13">
-        <v>20176</v>
+        <v>30749</v>
       </c>
       <c r="AD16" s="13">
-        <v>30749</v>
+        <v>19302</v>
       </c>
       <c r="AE16" s="13">
-        <v>19302</v>
+        <v>20850</v>
       </c>
       <c r="AF16" s="13">
-        <v>20850</v>
+        <v>53637</v>
       </c>
       <c r="AG16" s="13">
-        <v>53637</v>
+        <v>19022</v>
       </c>
       <c r="AH16" s="13">
-        <v>19022</v>
+        <v>26100</v>
       </c>
       <c r="AI16" s="13">
-        <v>26100</v>
+        <v>13451</v>
       </c>
       <c r="AJ16" s="13">
-        <v>13451</v>
+        <v>7546</v>
       </c>
       <c r="AK16" s="13">
-        <v>7546</v>
+        <v>7267</v>
       </c>
       <c r="AL16" s="13">
-        <v>7267</v>
+        <v>14672</v>
       </c>
       <c r="AM16" s="13">
-        <v>14672</v>
+        <v>22614</v>
       </c>
       <c r="AN16" s="13">
-        <v>22614</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AP16" s="13" t="s">
         <v>60</v>
@@ -2355,7 +2390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2444,14 +2479,14 @@
       <c r="AE17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF17" s="11" t="s">
-        <v>60</v>
+      <c r="AF17" s="11">
+        <v>2000</v>
       </c>
       <c r="AG17" s="11">
-        <v>2000</v>
+        <v>2229</v>
       </c>
       <c r="AH17" s="11">
-        <v>2229</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="11">
         <v>0</v>
@@ -2460,61 +2495,61 @@
         <v>0</v>
       </c>
       <c r="AK17" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL17" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AM17" s="11">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="AN17" s="11">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP17" s="11">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AQ17" s="11">
-        <v>51</v>
+        <v>3836</v>
       </c>
       <c r="AR17" s="11">
-        <v>3836</v>
+        <v>2314</v>
       </c>
       <c r="AS17" s="11">
-        <v>2314</v>
+        <v>7501</v>
       </c>
       <c r="AT17" s="11">
-        <v>7501</v>
+        <v>1084</v>
       </c>
       <c r="AU17" s="11">
-        <v>1084</v>
+        <v>4227</v>
       </c>
       <c r="AV17" s="11">
-        <v>4227</v>
+        <v>5023</v>
       </c>
       <c r="AW17" s="11">
-        <v>5023</v>
+        <v>4258</v>
       </c>
       <c r="AX17" s="11">
-        <v>4258</v>
+        <v>1431</v>
       </c>
       <c r="AY17" s="11">
-        <v>1431</v>
+        <v>6237</v>
       </c>
       <c r="AZ17" s="11">
-        <v>6237</v>
+        <v>7471</v>
       </c>
       <c r="BA17" s="11">
-        <v>7471</v>
+        <v>7158</v>
       </c>
       <c r="BB17" s="11">
-        <v>7158</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2603,14 +2638,14 @@
       <c r="AE18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AF18" s="13" t="s">
-        <v>60</v>
+      <c r="AF18" s="13">
+        <v>335</v>
       </c>
       <c r="AG18" s="13">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AH18" s="13">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="13">
         <v>0</v>
@@ -2622,28 +2657,28 @@
         <v>0</v>
       </c>
       <c r="AL18" s="13">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="AM18" s="13">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="AN18" s="13">
-        <v>303</v>
+        <v>565</v>
       </c>
       <c r="AO18" s="13">
-        <v>565</v>
+        <v>337</v>
       </c>
       <c r="AP18" s="13">
-        <v>337</v>
+        <v>1419</v>
       </c>
       <c r="AQ18" s="13">
-        <v>1419</v>
+        <v>1148</v>
       </c>
       <c r="AR18" s="13">
-        <v>1148</v>
+        <v>1585</v>
       </c>
       <c r="AS18" s="13">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="13">
         <v>0</v>
@@ -2652,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="AV18" s="13">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="AW18" s="13">
-        <v>568</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="13">
         <v>0</v>
@@ -2667,13 +2702,13 @@
         <v>0</v>
       </c>
       <c r="BA18" s="13">
-        <v>0</v>
+        <v>1474</v>
       </c>
       <c r="BB18" s="13">
-        <v>1474</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2762,8 +2797,8 @@
       <c r="AE19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF19" s="11" t="s">
-        <v>60</v>
+      <c r="AF19" s="11">
+        <v>0</v>
       </c>
       <c r="AG19" s="11">
         <v>0</v>
@@ -2778,61 +2813,61 @@
         <v>0</v>
       </c>
       <c r="AK19" s="11">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="AL19" s="11">
-        <v>1400</v>
+        <v>7846</v>
       </c>
       <c r="AM19" s="11">
-        <v>7846</v>
+        <v>1716</v>
       </c>
       <c r="AN19" s="11">
-        <v>1716</v>
+        <v>5</v>
       </c>
       <c r="AO19" s="11">
         <v>5</v>
       </c>
       <c r="AP19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>8</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="11">
+        <v>63</v>
+      </c>
+      <c r="AW19" s="11">
+        <v>536</v>
+      </c>
+      <c r="AX19" s="11">
+        <v>4400</v>
+      </c>
+      <c r="AY19" s="11">
+        <v>351</v>
+      </c>
+      <c r="AZ19" s="11">
+        <v>-19</v>
+      </c>
+      <c r="BA19" s="11">
         <v>5</v>
       </c>
-      <c r="AQ19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>8</v>
-      </c>
-      <c r="AU19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="11">
-        <v>63</v>
-      </c>
-      <c r="AX19" s="11">
-        <v>536</v>
-      </c>
-      <c r="AY19" s="11">
-        <v>4400</v>
-      </c>
-      <c r="AZ19" s="11">
-        <v>351</v>
-      </c>
-      <c r="BA19" s="11">
-        <v>43</v>
-      </c>
       <c r="BB19" s="11">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2945,53 +2980,53 @@
       <c r="AM20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AN20" s="13" t="s">
-        <v>60</v>
+      <c r="AN20" s="13">
+        <v>3375</v>
       </c>
       <c r="AO20" s="13">
-        <v>3375</v>
+        <v>15819</v>
       </c>
       <c r="AP20" s="13">
-        <v>15819</v>
+        <v>9435</v>
       </c>
       <c r="AQ20" s="13">
-        <v>9435</v>
+        <v>15649</v>
       </c>
       <c r="AR20" s="13">
-        <v>15649</v>
+        <v>15900</v>
       </c>
       <c r="AS20" s="13">
-        <v>15900</v>
+        <v>17815</v>
       </c>
       <c r="AT20" s="13">
-        <v>17815</v>
+        <v>4080</v>
       </c>
       <c r="AU20" s="13">
-        <v>4080</v>
+        <v>5600</v>
       </c>
       <c r="AV20" s="13">
-        <v>5600</v>
+        <v>7120</v>
       </c>
       <c r="AW20" s="13">
-        <v>7120</v>
+        <v>7180</v>
       </c>
       <c r="AX20" s="13">
-        <v>7180</v>
+        <v>3200</v>
       </c>
       <c r="AY20" s="13">
-        <v>11872</v>
+        <v>5025</v>
       </c>
       <c r="AZ20" s="13">
-        <v>5025</v>
+        <v>12820</v>
       </c>
       <c r="BA20" s="13">
-        <v>12820</v>
+        <v>900</v>
       </c>
       <c r="BB20" s="13">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3104,8 +3139,8 @@
       <c r="AM21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AN21" s="11" t="s">
-        <v>60</v>
+      <c r="AN21" s="11">
+        <v>0</v>
       </c>
       <c r="AO21" s="11">
         <v>0</v>
@@ -3117,22 +3152,22 @@
         <v>0</v>
       </c>
       <c r="AR21" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS21" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="11">
         <v>0</v>
       </c>
       <c r="AV21" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AW21" s="11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="11">
         <v>0</v>
@@ -3150,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3263,53 +3298,53 @@
       <c r="AM22" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AN22" s="13" t="s">
-        <v>60</v>
+      <c r="AN22" s="13">
+        <v>0</v>
       </c>
       <c r="AO22" s="13">
         <v>0</v>
       </c>
       <c r="AP22" s="13">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AQ22" s="13">
-        <v>99</v>
+        <v>3640</v>
       </c>
       <c r="AR22" s="13">
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="AS22" s="13">
-        <v>0</v>
+        <v>3714</v>
       </c>
       <c r="AT22" s="13">
-        <v>3714</v>
+        <v>1246</v>
       </c>
       <c r="AU22" s="13">
-        <v>1246</v>
+        <v>0</v>
       </c>
       <c r="AV22" s="13">
         <v>0</v>
       </c>
       <c r="AW22" s="13">
-        <v>0</v>
+        <v>5384</v>
       </c>
       <c r="AX22" s="13">
-        <v>5384</v>
+        <v>3793</v>
       </c>
       <c r="AY22" s="13">
-        <v>3793</v>
+        <v>22</v>
       </c>
       <c r="AZ22" s="13">
         <v>57</v>
       </c>
       <c r="BA22" s="13">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="BB22" s="13">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3422,53 +3457,53 @@
       <c r="AM23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AN23" s="11" t="s">
-        <v>60</v>
+      <c r="AN23" s="11">
+        <v>2690</v>
       </c>
       <c r="AO23" s="11">
-        <v>2690</v>
+        <v>525</v>
       </c>
       <c r="AP23" s="11">
-        <v>525</v>
+        <v>1650</v>
       </c>
       <c r="AQ23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="11">
+        <v>1631</v>
+      </c>
+      <c r="AU23" s="11">
+        <v>618</v>
+      </c>
+      <c r="AV23" s="11">
+        <v>4571</v>
+      </c>
+      <c r="AW23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="11">
+        <v>1302</v>
+      </c>
+      <c r="AY23" s="11">
         <v>1650</v>
       </c>
-      <c r="AR23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="11">
-        <v>1631</v>
-      </c>
-      <c r="AV23" s="11">
-        <v>3193</v>
-      </c>
-      <c r="AW23" s="11">
-        <v>5180</v>
-      </c>
-      <c r="AX23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="11">
-        <v>1702</v>
-      </c>
       <c r="AZ23" s="11">
-        <v>0</v>
+        <v>13510</v>
       </c>
       <c r="BA23" s="11">
-        <v>13528</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="11">
-        <v>0</v>
+        <v>1660</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>70</v>
       </c>
@@ -3581,44 +3616,44 @@
       <c r="AM24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AN24" s="13" t="s">
-        <v>60</v>
+      <c r="AN24" s="13">
+        <v>888</v>
       </c>
       <c r="AO24" s="13">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="13">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AQ24" s="13">
-        <v>105</v>
+        <v>954</v>
       </c>
       <c r="AR24" s="13">
-        <v>954</v>
+        <v>0</v>
       </c>
       <c r="AS24" s="13">
         <v>0</v>
       </c>
       <c r="AT24" s="13">
-        <v>0</v>
+        <v>7314</v>
       </c>
       <c r="AU24" s="13">
-        <v>7314</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="13">
         <v>0</v>
       </c>
       <c r="AW24" s="13">
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="AX24" s="13">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="13">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="AZ24" s="13">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="13">
         <v>0</v>
@@ -3627,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
@@ -3740,8 +3775,8 @@
       <c r="AM25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AN25" s="11" t="s">
-        <v>60</v>
+      <c r="AN25" s="11">
+        <v>0</v>
       </c>
       <c r="AO25" s="11">
         <v>0</v>
@@ -3753,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="AR25" s="11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AS25" s="11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="11">
         <v>0</v>
@@ -3786,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>72</v>
       </c>
@@ -3908,11 +3943,11 @@
       <c r="AP26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AQ26" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR26" s="13">
-        <v>0</v>
+      <c r="AQ26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AS26" s="13" t="s">
         <v>60</v>
@@ -3920,8 +3955,8 @@
       <c r="AT26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AU26" s="13" t="s">
-        <v>60</v>
+      <c r="AU26" s="13">
+        <v>0</v>
       </c>
       <c r="AV26" s="13">
         <v>0</v>
@@ -3945,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>73</v>
       </c>
@@ -4002,7 +4037,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>74</v>
       </c>
@@ -4134,23 +4169,23 @@
       <c r="AT28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AU28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV28" s="11" t="s">
-        <v>60</v>
+      <c r="AU28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="11">
+        <v>0</v>
       </c>
       <c r="AW28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ28" s="11" t="s">
-        <v>60</v>
+      <c r="AX28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="11">
+        <v>0</v>
       </c>
       <c r="BA28" s="11" t="s">
         <v>60</v>
@@ -4159,7 +4194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>75</v>
       </c>
@@ -4228,8 +4263,8 @@
       <c r="Y29" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Z29" s="15" t="s">
-        <v>60</v>
+      <c r="Z29" s="15">
+        <v>0</v>
       </c>
       <c r="AA29" s="15">
         <v>0</v>
@@ -4316,164 +4351,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17">
-        <v>45339</v>
+        <v>18061</v>
       </c>
       <c r="F30" s="17">
-        <v>18061</v>
+        <v>15142</v>
       </c>
       <c r="G30" s="17">
-        <v>15142</v>
+        <v>29944</v>
       </c>
       <c r="H30" s="17">
-        <v>29944</v>
+        <v>27058</v>
       </c>
       <c r="I30" s="17">
-        <v>27058</v>
+        <v>33980</v>
       </c>
       <c r="J30" s="17">
-        <v>33980</v>
+        <v>21244</v>
       </c>
       <c r="K30" s="17">
-        <v>21244</v>
+        <v>8441</v>
       </c>
       <c r="L30" s="17">
-        <v>8441</v>
+        <v>22657</v>
       </c>
       <c r="M30" s="17">
-        <v>22657</v>
+        <v>43005</v>
       </c>
       <c r="N30" s="17">
-        <v>43005</v>
+        <v>36423</v>
       </c>
       <c r="O30" s="17">
-        <v>36423</v>
+        <v>26737</v>
       </c>
       <c r="P30" s="17">
-        <v>26737</v>
+        <v>33462</v>
       </c>
       <c r="Q30" s="17">
-        <v>33462</v>
+        <v>35169</v>
       </c>
       <c r="R30" s="17">
-        <v>35169</v>
+        <v>40614</v>
       </c>
       <c r="S30" s="17">
-        <v>40614</v>
+        <v>50655</v>
       </c>
       <c r="T30" s="17">
-        <v>50655</v>
+        <v>47471</v>
       </c>
       <c r="U30" s="17">
-        <v>47471</v>
+        <v>31123</v>
       </c>
       <c r="V30" s="17">
-        <v>31123</v>
+        <v>177178</v>
       </c>
       <c r="W30" s="17">
-        <v>177178</v>
+        <v>47164</v>
       </c>
       <c r="X30" s="17">
-        <v>47164</v>
+        <v>29516</v>
       </c>
       <c r="Y30" s="17">
-        <v>29516</v>
+        <v>53116</v>
       </c>
       <c r="Z30" s="17">
-        <v>53116</v>
+        <v>33695</v>
       </c>
       <c r="AA30" s="17">
-        <v>33695</v>
+        <v>32507</v>
       </c>
       <c r="AB30" s="17">
-        <v>32507</v>
+        <v>38185</v>
       </c>
       <c r="AC30" s="17">
-        <v>38185</v>
+        <v>46464</v>
       </c>
       <c r="AD30" s="17">
-        <v>46464</v>
+        <v>34659</v>
       </c>
       <c r="AE30" s="17">
-        <v>34659</v>
+        <v>36261</v>
       </c>
       <c r="AF30" s="17">
-        <v>36261</v>
+        <v>69630</v>
       </c>
       <c r="AG30" s="17">
-        <v>69630</v>
+        <v>39329</v>
       </c>
       <c r="AH30" s="17">
-        <v>39329</v>
+        <v>39825</v>
       </c>
       <c r="AI30" s="17">
-        <v>39825</v>
+        <v>47922</v>
       </c>
       <c r="AJ30" s="17">
-        <v>47922</v>
+        <v>24382</v>
       </c>
       <c r="AK30" s="17">
-        <v>24382</v>
+        <v>26937</v>
       </c>
       <c r="AL30" s="17">
-        <v>26937</v>
+        <v>45906</v>
       </c>
       <c r="AM30" s="17">
-        <v>45906</v>
+        <v>49780</v>
       </c>
       <c r="AN30" s="17">
-        <v>49780</v>
+        <v>59519</v>
       </c>
       <c r="AO30" s="17">
-        <v>59519</v>
+        <v>39714</v>
       </c>
       <c r="AP30" s="17">
-        <v>39714</v>
+        <v>53341</v>
       </c>
       <c r="AQ30" s="17">
-        <v>53341</v>
+        <v>51012</v>
       </c>
       <c r="AR30" s="17">
-        <v>51012</v>
+        <v>52281</v>
       </c>
       <c r="AS30" s="17">
-        <v>52281</v>
+        <v>69014</v>
       </c>
       <c r="AT30" s="17">
-        <v>69014</v>
+        <v>45805</v>
       </c>
       <c r="AU30" s="17">
-        <v>45805</v>
+        <v>34120</v>
       </c>
       <c r="AV30" s="17">
-        <v>34120</v>
+        <v>41364</v>
       </c>
       <c r="AW30" s="17">
-        <v>41973</v>
+        <v>60622</v>
       </c>
       <c r="AX30" s="17">
-        <v>60622</v>
+        <v>40411</v>
       </c>
       <c r="AY30" s="17">
-        <v>49483</v>
+        <v>38604</v>
       </c>
       <c r="AZ30" s="17">
-        <v>37318</v>
+        <v>55369</v>
       </c>
       <c r="BA30" s="17">
-        <v>55449</v>
+        <v>37350</v>
       </c>
       <c r="BB30" s="17">
-        <v>37350</v>
+        <v>28053</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4528,7 +4563,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4583,7 +4618,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4638,7 +4673,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>77</v>
       </c>
@@ -4795,7 +4830,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4850,7 +4885,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>77</v>
       </c>
@@ -4907,7 +4942,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>55</v>
       </c>
@@ -4916,13 +4951,13 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>2870</v>
+        <v>2232</v>
       </c>
       <c r="F37" s="11">
-        <v>2232</v>
+        <v>4454</v>
       </c>
       <c r="G37" s="11">
-        <v>4454</v>
+        <v>0</v>
       </c>
       <c r="H37" s="11">
         <v>0</v>
@@ -4931,142 +4966,142 @@
         <v>0</v>
       </c>
       <c r="J37" s="11">
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="K37" s="11">
-        <v>1014</v>
+        <v>0</v>
       </c>
       <c r="L37" s="11">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="M37" s="11">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="N37" s="11">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="O37" s="11">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="P37" s="11">
-        <v>0</v>
+        <v>3444</v>
       </c>
       <c r="Q37" s="11">
-        <v>3444</v>
+        <v>0</v>
       </c>
       <c r="R37" s="11">
-        <v>0</v>
+        <v>5528</v>
       </c>
       <c r="S37" s="11">
-        <v>5528</v>
+        <v>9366</v>
       </c>
       <c r="T37" s="11">
-        <v>9366</v>
+        <v>809</v>
       </c>
       <c r="U37" s="11">
-        <v>809</v>
+        <v>1054</v>
       </c>
       <c r="V37" s="11">
-        <v>1054</v>
+        <v>577</v>
       </c>
       <c r="W37" s="11">
-        <v>577</v>
+        <v>0</v>
       </c>
       <c r="X37" s="11">
-        <v>0</v>
+        <v>3449</v>
       </c>
       <c r="Y37" s="11">
-        <v>3449</v>
+        <v>2507</v>
       </c>
       <c r="Z37" s="11">
-        <v>2507</v>
+        <v>2584</v>
       </c>
       <c r="AA37" s="11">
-        <v>2584</v>
+        <v>3806</v>
       </c>
       <c r="AB37" s="11">
-        <v>3806</v>
+        <v>727</v>
       </c>
       <c r="AC37" s="11">
-        <v>727</v>
+        <v>1158</v>
       </c>
       <c r="AD37" s="11">
-        <v>1158</v>
+        <v>2816</v>
       </c>
       <c r="AE37" s="11">
-        <v>2816</v>
+        <v>2064</v>
       </c>
       <c r="AF37" s="11">
-        <v>2064</v>
+        <v>2092</v>
       </c>
       <c r="AG37" s="11">
-        <v>2092</v>
+        <v>257</v>
       </c>
       <c r="AH37" s="11">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="11">
-        <v>0</v>
+        <v>5551</v>
       </c>
       <c r="AJ37" s="11">
-        <v>5551</v>
+        <v>2635</v>
       </c>
       <c r="AK37" s="11">
-        <v>2635</v>
+        <v>768</v>
       </c>
       <c r="AL37" s="11">
-        <v>768</v>
+        <v>4470</v>
       </c>
       <c r="AM37" s="11">
-        <v>4470</v>
+        <v>5089</v>
       </c>
       <c r="AN37" s="11">
-        <v>5089</v>
+        <v>4799</v>
       </c>
       <c r="AO37" s="11">
-        <v>4799</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="11">
-        <v>0</v>
+        <v>6839</v>
       </c>
       <c r="AQ37" s="11">
-        <v>6839</v>
+        <v>5062</v>
       </c>
       <c r="AR37" s="11">
-        <v>5062</v>
+        <v>3054</v>
       </c>
       <c r="AS37" s="11">
-        <v>3054</v>
+        <v>2411</v>
       </c>
       <c r="AT37" s="11">
-        <v>2411</v>
+        <v>1152</v>
       </c>
       <c r="AU37" s="11">
-        <v>1152</v>
+        <v>4208</v>
       </c>
       <c r="AV37" s="11">
-        <v>4208</v>
+        <v>5359</v>
       </c>
       <c r="AW37" s="11">
-        <v>5359</v>
+        <v>5105</v>
       </c>
       <c r="AX37" s="11">
-        <v>5105</v>
+        <v>5880</v>
       </c>
       <c r="AY37" s="11">
-        <v>5880</v>
+        <v>7615</v>
       </c>
       <c r="AZ37" s="11">
-        <v>7615</v>
+        <v>5832</v>
       </c>
       <c r="BA37" s="11">
-        <v>5832</v>
+        <v>5416</v>
       </c>
       <c r="BB37" s="11">
-        <v>5416</v>
+        <v>5504</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>57</v>
       </c>
@@ -5075,157 +5110,157 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>1573</v>
+        <v>567</v>
       </c>
       <c r="F38" s="13">
-        <v>567</v>
+        <v>332</v>
       </c>
       <c r="G38" s="13">
-        <v>332</v>
+        <v>1392</v>
       </c>
       <c r="H38" s="13">
-        <v>1392</v>
+        <v>655</v>
       </c>
       <c r="I38" s="13">
-        <v>655</v>
+        <v>3170</v>
       </c>
       <c r="J38" s="13">
-        <v>3170</v>
+        <v>3472</v>
       </c>
       <c r="K38" s="13">
-        <v>3472</v>
+        <v>2192</v>
       </c>
       <c r="L38" s="13">
-        <v>2192</v>
+        <v>1475</v>
       </c>
       <c r="M38" s="13">
-        <v>1475</v>
+        <v>3722</v>
       </c>
       <c r="N38" s="13">
-        <v>3722</v>
+        <v>0</v>
       </c>
       <c r="O38" s="13">
-        <v>0</v>
+        <v>5381</v>
       </c>
       <c r="P38" s="13">
-        <v>5381</v>
+        <v>4950</v>
       </c>
       <c r="Q38" s="13">
-        <v>4950</v>
+        <v>9247</v>
       </c>
       <c r="R38" s="13">
-        <v>9247</v>
+        <v>7205</v>
       </c>
       <c r="S38" s="13">
-        <v>7205</v>
+        <v>1409</v>
       </c>
       <c r="T38" s="13">
-        <v>1409</v>
+        <v>7669</v>
       </c>
       <c r="U38" s="13">
-        <v>7669</v>
+        <v>9012</v>
       </c>
       <c r="V38" s="13">
-        <v>9012</v>
+        <v>732</v>
       </c>
       <c r="W38" s="13">
-        <v>732</v>
+        <v>3347</v>
       </c>
       <c r="X38" s="13">
-        <v>3347</v>
+        <v>480</v>
       </c>
       <c r="Y38" s="13">
-        <v>480</v>
+        <v>961</v>
       </c>
       <c r="Z38" s="13">
-        <v>961</v>
+        <v>6905</v>
       </c>
       <c r="AA38" s="13">
-        <v>6905</v>
+        <v>4090</v>
       </c>
       <c r="AB38" s="13">
-        <v>4090</v>
+        <v>4184</v>
       </c>
       <c r="AC38" s="13">
-        <v>4184</v>
+        <v>9692</v>
       </c>
       <c r="AD38" s="13">
-        <v>9692</v>
+        <v>4175</v>
       </c>
       <c r="AE38" s="13">
-        <v>4175</v>
+        <v>9050</v>
       </c>
       <c r="AF38" s="13">
-        <v>9050</v>
+        <v>4712</v>
       </c>
       <c r="AG38" s="13">
-        <v>4712</v>
+        <v>3825</v>
       </c>
       <c r="AH38" s="13">
-        <v>3825</v>
+        <v>966</v>
       </c>
       <c r="AI38" s="13">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="13">
-        <v>0</v>
+        <v>2557</v>
       </c>
       <c r="AK38" s="13">
-        <v>2557</v>
+        <v>1534</v>
       </c>
       <c r="AL38" s="13">
-        <v>1534</v>
+        <v>3258</v>
       </c>
       <c r="AM38" s="13">
-        <v>3258</v>
+        <v>9019</v>
       </c>
       <c r="AN38" s="13">
-        <v>9019</v>
+        <v>10163</v>
       </c>
       <c r="AO38" s="13">
-        <v>10163</v>
+        <v>7728</v>
       </c>
       <c r="AP38" s="13">
-        <v>7728</v>
+        <v>5328</v>
       </c>
       <c r="AQ38" s="13">
-        <v>5328</v>
+        <v>21140</v>
       </c>
       <c r="AR38" s="13">
-        <v>21140</v>
+        <v>7902</v>
       </c>
       <c r="AS38" s="13">
-        <v>7902</v>
+        <v>10733</v>
       </c>
       <c r="AT38" s="13">
-        <v>10733</v>
+        <v>1699</v>
       </c>
       <c r="AU38" s="13">
-        <v>1699</v>
+        <v>8918</v>
       </c>
       <c r="AV38" s="13">
-        <v>8918</v>
+        <v>14776</v>
       </c>
       <c r="AW38" s="13">
-        <v>14776</v>
+        <v>10415</v>
       </c>
       <c r="AX38" s="13">
-        <v>10415</v>
+        <v>8360</v>
       </c>
       <c r="AY38" s="13">
-        <v>8360</v>
+        <v>12128</v>
       </c>
       <c r="AZ38" s="13">
-        <v>12128</v>
+        <v>1206</v>
       </c>
       <c r="BA38" s="13">
-        <v>1206</v>
+        <v>3362</v>
       </c>
       <c r="BB38" s="13">
-        <v>3362</v>
+        <v>5528</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>58</v>
       </c>
@@ -5234,157 +5269,157 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>9261</v>
+        <v>7716</v>
       </c>
       <c r="F39" s="11">
-        <v>7716</v>
+        <v>3481</v>
       </c>
       <c r="G39" s="11">
-        <v>3481</v>
+        <v>3423</v>
       </c>
       <c r="H39" s="11">
-        <v>3423</v>
+        <v>4591</v>
       </c>
       <c r="I39" s="11">
-        <v>4591</v>
+        <v>3058</v>
       </c>
       <c r="J39" s="11">
-        <v>3058</v>
+        <v>1234</v>
       </c>
       <c r="K39" s="11">
-        <v>1234</v>
+        <v>5248</v>
       </c>
       <c r="L39" s="11">
-        <v>5248</v>
+        <v>9473</v>
       </c>
       <c r="M39" s="11">
-        <v>9473</v>
+        <v>3674</v>
       </c>
       <c r="N39" s="11">
-        <v>3674</v>
+        <v>3282</v>
       </c>
       <c r="O39" s="11">
-        <v>3282</v>
+        <v>4955</v>
       </c>
       <c r="P39" s="11">
-        <v>4955</v>
+        <v>4626</v>
       </c>
       <c r="Q39" s="11">
-        <v>4626</v>
+        <v>400</v>
       </c>
       <c r="R39" s="11">
-        <v>400</v>
+        <v>11722</v>
       </c>
       <c r="S39" s="11">
-        <v>11722</v>
+        <v>14654</v>
       </c>
       <c r="T39" s="11">
-        <v>14654</v>
+        <v>8916</v>
       </c>
       <c r="U39" s="11">
-        <v>8916</v>
+        <v>6179</v>
       </c>
       <c r="V39" s="11">
-        <v>6179</v>
+        <v>391</v>
       </c>
       <c r="W39" s="11">
-        <v>391</v>
+        <v>2085</v>
       </c>
       <c r="X39" s="11">
-        <v>2085</v>
+        <v>3013</v>
       </c>
       <c r="Y39" s="11">
-        <v>3013</v>
+        <v>5123</v>
       </c>
       <c r="Z39" s="11">
-        <v>5123</v>
+        <v>3604</v>
       </c>
       <c r="AA39" s="11">
-        <v>3604</v>
+        <v>1990</v>
       </c>
       <c r="AB39" s="11">
-        <v>1990</v>
+        <v>7713</v>
       </c>
       <c r="AC39" s="11">
-        <v>7713</v>
+        <v>5768</v>
       </c>
       <c r="AD39" s="11">
-        <v>5768</v>
+        <v>3071</v>
       </c>
       <c r="AE39" s="11">
-        <v>3071</v>
+        <v>6235</v>
       </c>
       <c r="AF39" s="11">
-        <v>6235</v>
+        <v>1351</v>
       </c>
       <c r="AG39" s="11">
-        <v>1351</v>
+        <v>620</v>
       </c>
       <c r="AH39" s="11">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="11">
-        <v>0</v>
+        <v>7620</v>
       </c>
       <c r="AJ39" s="11">
-        <v>7620</v>
+        <v>3730</v>
       </c>
       <c r="AK39" s="11">
-        <v>3730</v>
+        <v>6071</v>
       </c>
       <c r="AL39" s="11">
-        <v>6071</v>
+        <v>7434</v>
       </c>
       <c r="AM39" s="11">
-        <v>7434</v>
+        <v>1614</v>
       </c>
       <c r="AN39" s="11">
-        <v>1614</v>
+        <v>13301</v>
       </c>
       <c r="AO39" s="11">
-        <v>13301</v>
+        <v>5798</v>
       </c>
       <c r="AP39" s="11">
-        <v>5798</v>
+        <v>1400</v>
       </c>
       <c r="AQ39" s="11">
-        <v>1400</v>
+        <v>11253</v>
       </c>
       <c r="AR39" s="11">
-        <v>11253</v>
+        <v>2834</v>
       </c>
       <c r="AS39" s="11">
-        <v>2834</v>
+        <v>3031</v>
       </c>
       <c r="AT39" s="11">
-        <v>3031</v>
+        <v>3276</v>
       </c>
       <c r="AU39" s="11">
-        <v>3276</v>
+        <v>5100</v>
       </c>
       <c r="AV39" s="11">
-        <v>5100</v>
+        <v>4076</v>
       </c>
       <c r="AW39" s="11">
-        <v>4076</v>
+        <v>4630</v>
       </c>
       <c r="AX39" s="11">
-        <v>4630</v>
+        <v>4820</v>
       </c>
       <c r="AY39" s="11">
-        <v>4820</v>
+        <v>5114</v>
       </c>
       <c r="AZ39" s="11">
-        <v>5114</v>
+        <v>3710</v>
       </c>
       <c r="BA39" s="11">
-        <v>3710</v>
+        <v>6849</v>
       </c>
       <c r="BB39" s="11">
-        <v>6849</v>
+        <v>4461</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>59</v>
       </c>
@@ -5410,8 +5445,8 @@
       <c r="J40" s="13">
         <v>0</v>
       </c>
-      <c r="K40" s="13">
-        <v>0</v>
+      <c r="K40" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="L40" s="13" t="s">
         <v>60</v>
@@ -5506,11 +5541,11 @@
       <c r="AP40" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AQ40" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR40" s="13">
-        <v>0</v>
+      <c r="AQ40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AS40" s="13" t="s">
         <v>60</v>
@@ -5518,8 +5553,8 @@
       <c r="AT40" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AU40" s="13" t="s">
-        <v>60</v>
+      <c r="AU40" s="13">
+        <v>0</v>
       </c>
       <c r="AV40" s="13">
         <v>0</v>
@@ -5543,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>61</v>
       </c>
@@ -5552,157 +5587,157 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>9790</v>
+        <v>9529</v>
       </c>
       <c r="F41" s="11">
-        <v>9529</v>
+        <v>1595</v>
       </c>
       <c r="G41" s="11">
-        <v>1595</v>
+        <v>4803</v>
       </c>
       <c r="H41" s="11">
+        <v>4983</v>
+      </c>
+      <c r="I41" s="11">
+        <v>2223</v>
+      </c>
+      <c r="J41" s="11">
+        <v>1440</v>
+      </c>
+      <c r="K41" s="11">
+        <v>1413</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0</v>
+      </c>
+      <c r="M41" s="11">
+        <v>7385</v>
+      </c>
+      <c r="N41" s="11">
+        <v>13689</v>
+      </c>
+      <c r="O41" s="11">
+        <v>6245</v>
+      </c>
+      <c r="P41" s="11">
+        <v>5628</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>11849</v>
+      </c>
+      <c r="R41" s="11">
+        <v>1960</v>
+      </c>
+      <c r="S41" s="11">
+        <v>7803</v>
+      </c>
+      <c r="T41" s="11">
+        <v>13523</v>
+      </c>
+      <c r="U41" s="11">
+        <v>10814</v>
+      </c>
+      <c r="V41" s="11">
+        <v>1569</v>
+      </c>
+      <c r="W41" s="11">
+        <v>2992</v>
+      </c>
+      <c r="X41" s="11">
+        <v>14099</v>
+      </c>
+      <c r="Y41" s="11">
+        <v>9782</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>11043</v>
+      </c>
+      <c r="AA41" s="11">
+        <v>12023</v>
+      </c>
+      <c r="AB41" s="11">
+        <v>7519</v>
+      </c>
+      <c r="AC41" s="11">
+        <v>2405</v>
+      </c>
+      <c r="AD41" s="11">
+        <v>4339</v>
+      </c>
+      <c r="AE41" s="11">
+        <v>2059</v>
+      </c>
+      <c r="AF41" s="11">
+        <v>4304</v>
+      </c>
+      <c r="AG41" s="11">
+        <v>8042</v>
+      </c>
+      <c r="AH41" s="11">
+        <v>7586</v>
+      </c>
+      <c r="AI41" s="11">
+        <v>7799</v>
+      </c>
+      <c r="AJ41" s="11">
+        <v>13137</v>
+      </c>
+      <c r="AK41" s="11">
+        <v>11907</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>9032</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>7254</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>1465</v>
+      </c>
+      <c r="AO41" s="11">
+        <v>7809</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>8396</v>
+      </c>
+      <c r="AQ41" s="11">
+        <v>719</v>
+      </c>
+      <c r="AR41" s="11">
+        <v>10040</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>5225</v>
+      </c>
+      <c r="AT41" s="11">
+        <v>3008</v>
+      </c>
+      <c r="AU41" s="11">
+        <v>7207</v>
+      </c>
+      <c r="AV41" s="11">
         <v>4803</v>
       </c>
-      <c r="I41" s="11">
-        <v>4983</v>
-      </c>
-      <c r="J41" s="11">
-        <v>2223</v>
-      </c>
-      <c r="K41" s="11">
-        <v>1440</v>
-      </c>
-      <c r="L41" s="11">
-        <v>1413</v>
-      </c>
-      <c r="M41" s="11">
-        <v>0</v>
-      </c>
-      <c r="N41" s="11">
-        <v>7385</v>
-      </c>
-      <c r="O41" s="11">
-        <v>13689</v>
-      </c>
-      <c r="P41" s="11">
-        <v>6245</v>
-      </c>
-      <c r="Q41" s="11">
-        <v>5628</v>
-      </c>
-      <c r="R41" s="11">
-        <v>11849</v>
-      </c>
-      <c r="S41" s="11">
-        <v>1960</v>
-      </c>
-      <c r="T41" s="11">
-        <v>7803</v>
-      </c>
-      <c r="U41" s="11">
-        <v>13523</v>
-      </c>
-      <c r="V41" s="11">
-        <v>10814</v>
-      </c>
-      <c r="W41" s="11">
-        <v>1569</v>
-      </c>
-      <c r="X41" s="11">
-        <v>2992</v>
-      </c>
-      <c r="Y41" s="11">
-        <v>14099</v>
-      </c>
-      <c r="Z41" s="11">
-        <v>9782</v>
-      </c>
-      <c r="AA41" s="11">
-        <v>11043</v>
-      </c>
-      <c r="AB41" s="11">
-        <v>12023</v>
-      </c>
-      <c r="AC41" s="11">
-        <v>7519</v>
-      </c>
-      <c r="AD41" s="11">
-        <v>2405</v>
-      </c>
-      <c r="AE41" s="11">
-        <v>4339</v>
-      </c>
-      <c r="AF41" s="11">
-        <v>2059</v>
-      </c>
-      <c r="AG41" s="11">
-        <v>4304</v>
-      </c>
-      <c r="AH41" s="11">
-        <v>8042</v>
-      </c>
-      <c r="AI41" s="11">
-        <v>7586</v>
-      </c>
-      <c r="AJ41" s="11">
-        <v>7799</v>
-      </c>
-      <c r="AK41" s="11">
-        <v>13137</v>
-      </c>
-      <c r="AL41" s="11">
-        <v>11907</v>
-      </c>
-      <c r="AM41" s="11">
-        <v>9032</v>
-      </c>
-      <c r="AN41" s="11">
-        <v>7254</v>
-      </c>
-      <c r="AO41" s="11">
-        <v>1465</v>
-      </c>
-      <c r="AP41" s="11">
-        <v>7809</v>
-      </c>
-      <c r="AQ41" s="11">
-        <v>8396</v>
-      </c>
-      <c r="AR41" s="11">
-        <v>719</v>
-      </c>
-      <c r="AS41" s="11">
-        <v>10040</v>
-      </c>
-      <c r="AT41" s="11">
-        <v>5225</v>
-      </c>
-      <c r="AU41" s="11">
-        <v>3008</v>
-      </c>
-      <c r="AV41" s="11">
-        <v>7207</v>
-      </c>
       <c r="AW41" s="11">
-        <v>4803</v>
+        <v>3900</v>
       </c>
       <c r="AX41" s="11">
-        <v>3900</v>
+        <v>6406</v>
       </c>
       <c r="AY41" s="11">
-        <v>6406</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="11">
-        <v>0</v>
+        <v>6114</v>
       </c>
       <c r="BA41" s="11">
-        <v>6114</v>
+        <v>3813</v>
       </c>
       <c r="BB41" s="11">
-        <v>3813</v>
+        <v>30790</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>62</v>
       </c>
@@ -5711,115 +5746,115 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>22855</v>
+        <v>4189</v>
       </c>
       <c r="F42" s="13">
-        <v>4189</v>
+        <v>15118</v>
       </c>
       <c r="G42" s="13">
-        <v>15118</v>
+        <v>19134</v>
       </c>
       <c r="H42" s="13">
-        <v>19134</v>
+        <v>16576</v>
       </c>
       <c r="I42" s="13">
-        <v>16576</v>
+        <v>21553</v>
       </c>
       <c r="J42" s="13">
-        <v>21553</v>
+        <v>8714</v>
       </c>
       <c r="K42" s="13">
-        <v>8714</v>
+        <v>1393</v>
       </c>
       <c r="L42" s="13">
-        <v>1393</v>
+        <v>10819</v>
       </c>
       <c r="M42" s="13">
-        <v>10819</v>
+        <v>14883</v>
       </c>
       <c r="N42" s="13">
-        <v>14883</v>
+        <v>11157</v>
       </c>
       <c r="O42" s="13">
-        <v>11157</v>
+        <v>13075</v>
       </c>
       <c r="P42" s="13">
-        <v>13075</v>
+        <v>9241</v>
       </c>
       <c r="Q42" s="13">
-        <v>9241</v>
+        <v>15188</v>
       </c>
       <c r="R42" s="13">
-        <v>15188</v>
+        <v>20558</v>
       </c>
       <c r="S42" s="13">
-        <v>20558</v>
+        <v>16965</v>
       </c>
       <c r="T42" s="13">
-        <v>16965</v>
+        <v>13426</v>
       </c>
       <c r="U42" s="13">
-        <v>13426</v>
+        <v>8666</v>
       </c>
       <c r="V42" s="13">
-        <v>8666</v>
+        <v>152446</v>
       </c>
       <c r="W42" s="13">
-        <v>152446</v>
+        <v>46188</v>
       </c>
       <c r="X42" s="13">
-        <v>46188</v>
+        <v>14057</v>
       </c>
       <c r="Y42" s="13">
-        <v>14057</v>
+        <v>22681</v>
       </c>
       <c r="Z42" s="13">
-        <v>22681</v>
+        <v>14890</v>
       </c>
       <c r="AA42" s="13">
-        <v>14890</v>
+        <v>13568</v>
       </c>
       <c r="AB42" s="13">
-        <v>13568</v>
+        <v>15641</v>
       </c>
       <c r="AC42" s="13">
-        <v>15641</v>
+        <v>25479</v>
       </c>
       <c r="AD42" s="13">
-        <v>25479</v>
+        <v>17013</v>
       </c>
       <c r="AE42" s="13">
-        <v>17013</v>
+        <v>25571</v>
       </c>
       <c r="AF42" s="13">
-        <v>25571</v>
+        <v>41191</v>
       </c>
       <c r="AG42" s="13">
-        <v>41191</v>
+        <v>11889</v>
       </c>
       <c r="AH42" s="13">
-        <v>11889</v>
+        <v>1500</v>
       </c>
       <c r="AI42" s="13">
-        <v>1500</v>
+        <v>14205</v>
       </c>
       <c r="AJ42" s="13">
-        <v>14205</v>
+        <v>22150</v>
       </c>
       <c r="AK42" s="13">
-        <v>22150</v>
+        <v>13826</v>
       </c>
       <c r="AL42" s="13">
-        <v>13826</v>
+        <v>13249</v>
       </c>
       <c r="AM42" s="13">
-        <v>13249</v>
+        <v>16490</v>
       </c>
       <c r="AN42" s="13">
-        <v>16490</v>
-      </c>
-      <c r="AO42" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO42" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AP42" s="13" t="s">
         <v>60</v>
@@ -5861,7 +5896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>63</v>
       </c>
@@ -5950,77 +5985,77 @@
       <c r="AE43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF43" s="11" t="s">
-        <v>60</v>
+      <c r="AF43" s="11">
+        <v>39</v>
       </c>
       <c r="AG43" s="11">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AH43" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AI43" s="11">
         <v>10</v>
       </c>
       <c r="AJ43" s="11">
-        <v>10</v>
+        <v>678</v>
       </c>
       <c r="AK43" s="11">
-        <v>678</v>
+        <v>1581</v>
       </c>
       <c r="AL43" s="11">
-        <v>1581</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="11">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="AN43" s="11">
-        <v>134</v>
+        <v>1912</v>
       </c>
       <c r="AO43" s="11">
-        <v>1912</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="11">
         <v>0</v>
       </c>
       <c r="AQ43" s="11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR43" s="11">
-        <v>31</v>
+        <v>3815</v>
       </c>
       <c r="AS43" s="11">
-        <v>3815</v>
+        <v>1526</v>
       </c>
       <c r="AT43" s="11">
-        <v>1526</v>
+        <v>795</v>
       </c>
       <c r="AU43" s="11">
-        <v>795</v>
+        <v>4545</v>
       </c>
       <c r="AV43" s="11">
-        <v>4545</v>
+        <v>2187</v>
       </c>
       <c r="AW43" s="11">
-        <v>2187</v>
+        <v>7654</v>
       </c>
       <c r="AX43" s="11">
-        <v>7654</v>
+        <v>4516</v>
       </c>
       <c r="AY43" s="11">
-        <v>4516</v>
+        <v>26</v>
       </c>
       <c r="AZ43" s="11">
-        <v>26</v>
+        <v>654</v>
       </c>
       <c r="BA43" s="11">
-        <v>654</v>
+        <v>10396</v>
       </c>
       <c r="BB43" s="11">
-        <v>10396</v>
+        <v>2381</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>64</v>
       </c>
@@ -6109,14 +6144,14 @@
       <c r="AE44" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AF44" s="13" t="s">
-        <v>60</v>
+      <c r="AF44" s="13">
+        <v>147</v>
       </c>
       <c r="AG44" s="13">
-        <v>147</v>
+        <v>360</v>
       </c>
       <c r="AH44" s="13">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="AI44" s="13">
         <v>0</v>
@@ -6137,49 +6172,49 @@
         <v>0</v>
       </c>
       <c r="AO44" s="13">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="AP44" s="13">
-        <v>381</v>
+        <v>1006</v>
       </c>
       <c r="AQ44" s="13">
-        <v>1006</v>
+        <v>1076</v>
       </c>
       <c r="AR44" s="13">
-        <v>1076</v>
+        <v>365</v>
       </c>
       <c r="AS44" s="13">
-        <v>365</v>
+        <v>448</v>
       </c>
       <c r="AT44" s="13">
-        <v>448</v>
+        <v>134</v>
       </c>
       <c r="AU44" s="13">
-        <v>134</v>
+        <v>810</v>
       </c>
       <c r="AV44" s="13">
-        <v>810</v>
+        <v>634</v>
       </c>
       <c r="AW44" s="13">
-        <v>634</v>
+        <v>130</v>
       </c>
       <c r="AX44" s="13">
-        <v>130</v>
+        <v>371</v>
       </c>
       <c r="AY44" s="13">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="AZ44" s="13">
-        <v>406</v>
+        <v>146</v>
       </c>
       <c r="BA44" s="13">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="BB44" s="13">
-        <v>50</v>
+        <v>930</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>65</v>
       </c>
@@ -6268,77 +6303,77 @@
       <c r="AE45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF45" s="11" t="s">
-        <v>60</v>
+      <c r="AF45" s="11">
+        <v>5</v>
       </c>
       <c r="AG45" s="11">
+        <v>3</v>
+      </c>
+      <c r="AH45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="11">
+        <v>20</v>
+      </c>
+      <c r="AK45" s="11">
         <v>5</v>
       </c>
-      <c r="AH45" s="11">
-        <v>3</v>
-      </c>
-      <c r="AI45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK45" s="11">
-        <v>20</v>
-      </c>
       <c r="AL45" s="11">
-        <v>5</v>
+        <v>1300</v>
       </c>
       <c r="AM45" s="11">
-        <v>1300</v>
+        <v>2513</v>
       </c>
       <c r="AN45" s="11">
-        <v>2513</v>
+        <v>1726</v>
       </c>
       <c r="AO45" s="11">
-        <v>1726</v>
+        <v>2053</v>
       </c>
       <c r="AP45" s="11">
-        <v>2053</v>
+        <v>1641</v>
       </c>
       <c r="AQ45" s="11">
-        <v>1641</v>
+        <v>311</v>
       </c>
       <c r="AR45" s="11">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="AS45" s="11">
         <v>1</v>
       </c>
       <c r="AT45" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU45" s="11">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AV45" s="11">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="AW45" s="11">
-        <v>54</v>
+        <v>654</v>
       </c>
       <c r="AX45" s="11">
-        <v>654</v>
+        <v>6</v>
       </c>
       <c r="AY45" s="11">
-        <v>6</v>
+        <v>291</v>
       </c>
       <c r="AZ45" s="11">
-        <v>1265</v>
+        <v>37</v>
       </c>
       <c r="BA45" s="11">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="BB45" s="11">
-        <v>260</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>66</v>
       </c>
@@ -6451,53 +6486,53 @@
       <c r="AM46" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AN46" s="13" t="s">
-        <v>60</v>
+      <c r="AN46" s="13">
+        <v>11325</v>
       </c>
       <c r="AO46" s="13">
-        <v>11325</v>
+        <v>7153</v>
       </c>
       <c r="AP46" s="13">
-        <v>7153</v>
+        <v>8165</v>
       </c>
       <c r="AQ46" s="13">
-        <v>8165</v>
+        <v>4875</v>
       </c>
       <c r="AR46" s="13">
-        <v>4875</v>
+        <v>6469</v>
       </c>
       <c r="AS46" s="13">
-        <v>6469</v>
+        <v>4095</v>
       </c>
       <c r="AT46" s="13">
-        <v>4095</v>
+        <v>3240</v>
       </c>
       <c r="AU46" s="13">
-        <v>3240</v>
+        <v>3680</v>
       </c>
       <c r="AV46" s="13">
-        <v>3680</v>
+        <v>5110</v>
       </c>
       <c r="AW46" s="13">
-        <v>5110</v>
+        <v>10380</v>
       </c>
       <c r="AX46" s="13">
-        <v>10380</v>
+        <v>8753</v>
       </c>
       <c r="AY46" s="13">
-        <v>8753</v>
+        <v>4425</v>
       </c>
       <c r="AZ46" s="13">
-        <v>4425</v>
+        <v>14110</v>
       </c>
       <c r="BA46" s="13">
-        <v>14110</v>
+        <v>6525</v>
       </c>
       <c r="BB46" s="13">
-        <v>6525</v>
+        <v>7114</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>67</v>
       </c>
@@ -6610,8 +6645,8 @@
       <c r="AM47" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AN47" s="11" t="s">
-        <v>60</v>
+      <c r="AN47" s="11">
+        <v>0</v>
       </c>
       <c r="AO47" s="11">
         <v>0</v>
@@ -6626,37 +6661,37 @@
         <v>0</v>
       </c>
       <c r="AS47" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT47" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV47" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="11">
         <v>0</v>
       </c>
       <c r="AX47" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY47" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ47" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BA47" s="11">
         <v>0</v>
       </c>
       <c r="BB47" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>68</v>
       </c>
@@ -6769,8 +6804,8 @@
       <c r="AM48" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AN48" s="13" t="s">
-        <v>60</v>
+      <c r="AN48" s="13">
+        <v>0</v>
       </c>
       <c r="AO48" s="13">
         <v>0</v>
@@ -6779,43 +6814,43 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="13">
-        <v>0</v>
+        <v>3640</v>
       </c>
       <c r="AR48" s="13">
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="AS48" s="13">
-        <v>0</v>
+        <v>3676</v>
       </c>
       <c r="AT48" s="13">
-        <v>3676</v>
+        <v>1257</v>
       </c>
       <c r="AU48" s="13">
-        <v>1257</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AW48" s="13">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="AX48" s="13">
-        <v>99</v>
+        <v>5373</v>
       </c>
       <c r="AY48" s="13">
-        <v>5373</v>
+        <v>3793</v>
       </c>
       <c r="AZ48" s="13">
-        <v>3793</v>
+        <v>58</v>
       </c>
       <c r="BA48" s="13">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="BB48" s="13">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>69</v>
       </c>
@@ -6928,26 +6963,26 @@
       <c r="AM49" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AN49" s="11" t="s">
-        <v>60</v>
+      <c r="AN49" s="11">
+        <v>1634</v>
       </c>
       <c r="AO49" s="11">
-        <v>1634</v>
+        <v>2365</v>
       </c>
       <c r="AP49" s="11">
-        <v>2365</v>
+        <v>4724</v>
       </c>
       <c r="AQ49" s="11">
-        <v>4724</v>
+        <v>0</v>
       </c>
       <c r="AR49" s="11">
         <v>0</v>
       </c>
       <c r="AS49" s="11">
-        <v>0</v>
+        <v>3765</v>
       </c>
       <c r="AT49" s="11">
-        <v>3765</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="11">
         <v>0</v>
@@ -6956,25 +6991,25 @@
         <v>0</v>
       </c>
       <c r="AW49" s="11">
-        <v>0</v>
+        <v>4371</v>
       </c>
       <c r="AX49" s="11">
-        <v>4371</v>
+        <v>601</v>
       </c>
       <c r="AY49" s="11">
-        <v>601</v>
+        <v>3149</v>
       </c>
       <c r="AZ49" s="11">
-        <v>3149</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="11">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="BB49" s="11">
-        <v>1050</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>70</v>
       </c>
@@ -7087,8 +7122,8 @@
       <c r="AM50" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AN50" s="13" t="s">
-        <v>60</v>
+      <c r="AN50" s="13">
+        <v>0</v>
       </c>
       <c r="AO50" s="13">
         <v>0</v>
@@ -7097,34 +7132,34 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="13">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AR50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT50" s="13">
+        <v>6080</v>
+      </c>
+      <c r="AU50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="13">
         <v>960</v>
       </c>
-      <c r="AS50" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT50" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU50" s="13">
-        <v>6080</v>
-      </c>
-      <c r="AV50" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW50" s="13">
-        <v>0</v>
-      </c>
       <c r="AX50" s="13">
-        <v>960</v>
+        <v>3200</v>
       </c>
       <c r="AY50" s="13">
         <v>3200</v>
       </c>
       <c r="AZ50" s="13">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="13">
         <v>0</v>
@@ -7133,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>71</v>
       </c>
@@ -7246,8 +7281,8 @@
       <c r="AM51" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AN51" s="11" t="s">
-        <v>60</v>
+      <c r="AN51" s="11">
+        <v>0</v>
       </c>
       <c r="AO51" s="11">
         <v>0</v>
@@ -7289,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="BB51" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>72</v>
       </c>
@@ -7414,11 +7449,11 @@
       <c r="AP52" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AQ52" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR52" s="13">
-        <v>0</v>
+      <c r="AQ52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AS52" s="13" t="s">
         <v>60</v>
@@ -7426,8 +7461,8 @@
       <c r="AT52" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AU52" s="13" t="s">
-        <v>60</v>
+      <c r="AU52" s="13">
+        <v>0</v>
       </c>
       <c r="AV52" s="13">
         <v>0</v>
@@ -7451,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>73</v>
       </c>
@@ -7508,7 +7543,7 @@
       <c r="BA53" s="9"/>
       <c r="BB53" s="9"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>74</v>
       </c>
@@ -7640,23 +7675,23 @@
       <c r="AT54" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AU54" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV54" s="11" t="s">
-        <v>60</v>
+      <c r="AU54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV54" s="11">
+        <v>0</v>
       </c>
       <c r="AW54" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX54" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY54" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ54" s="11" t="s">
-        <v>60</v>
+      <c r="AX54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ54" s="11">
+        <v>0</v>
       </c>
       <c r="BA54" s="11" t="s">
         <v>60</v>
@@ -7665,7 +7700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>75</v>
       </c>
@@ -7734,8 +7769,8 @@
       <c r="Y55" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Z55" s="15" t="s">
-        <v>60</v>
+      <c r="Z55" s="15">
+        <v>0</v>
       </c>
       <c r="AA55" s="15">
         <v>0</v>
@@ -7822,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>78</v>
       </c>
@@ -7879,7 +7914,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>55</v>
       </c>
@@ -7950,8 +7985,8 @@
       <c r="Y57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Z57" s="11" t="s">
-        <v>60</v>
+      <c r="Z57" s="11">
+        <v>0</v>
       </c>
       <c r="AA57" s="11">
         <v>0</v>
@@ -7977,8 +8012,8 @@
       <c r="AH57" s="11">
         <v>0</v>
       </c>
-      <c r="AI57" s="11">
-        <v>0</v>
+      <c r="AI57" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AJ57" s="11" t="s">
         <v>60</v>
@@ -7986,11 +8021,11 @@
       <c r="AK57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AL57" s="11" t="s">
-        <v>60</v>
+      <c r="AL57" s="11">
+        <v>-576</v>
       </c>
       <c r="AM57" s="11">
-        <v>-576</v>
+        <v>0</v>
       </c>
       <c r="AN57" s="11">
         <v>0</v>
@@ -7998,17 +8033,17 @@
       <c r="AO57" s="11">
         <v>0</v>
       </c>
-      <c r="AP57" s="11">
-        <v>0</v>
+      <c r="AP57" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AQ57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR57" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS57" s="11">
-        <v>0</v>
+      <c r="AR57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AT57" s="11" t="s">
         <v>60</v>
@@ -8022,14 +8057,14 @@
       <c r="AW57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX57" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY57" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ57" s="11" t="s">
-        <v>60</v>
+      <c r="AX57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ57" s="11">
+        <v>0</v>
       </c>
       <c r="BA57" s="11" t="s">
         <v>60</v>
@@ -8038,7 +8073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>57</v>
       </c>
@@ -8172,23 +8207,23 @@
       <c r="AT58" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AU58" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV58" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW58" s="13">
+      <c r="AU58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV58" s="13">
         <v>-599</v>
       </c>
-      <c r="AX58" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY58" s="13" t="s">
-        <v>60</v>
+      <c r="AW58" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY58" s="13">
+        <v>-483</v>
       </c>
       <c r="AZ58" s="13">
-        <v>-483</v>
+        <v>0</v>
       </c>
       <c r="BA58" s="13" t="s">
         <v>60</v>
@@ -8197,7 +8232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>58</v>
       </c>
@@ -8280,23 +8315,23 @@
       <c r="AC59" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AD59" s="11" t="s">
-        <v>60</v>
+      <c r="AD59" s="11">
+        <v>-120</v>
       </c>
       <c r="AE59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="11">
         <v>-120</v>
       </c>
-      <c r="AF59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="11">
-        <v>-120</v>
+      <c r="AI59" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AJ59" s="11" t="s">
         <v>60</v>
@@ -8307,47 +8342,47 @@
       <c r="AL59" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AM59" s="11" t="s">
-        <v>60</v>
+      <c r="AM59" s="11">
+        <v>-855</v>
       </c>
       <c r="AN59" s="11">
-        <v>-855</v>
+        <v>0</v>
       </c>
       <c r="AO59" s="11">
         <v>0</v>
       </c>
-      <c r="AP59" s="11">
-        <v>0</v>
+      <c r="AP59" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AQ59" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR59" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT59" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU59" s="11">
+      <c r="AR59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS59" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT59" s="11">
         <v>-40</v>
       </c>
+      <c r="AU59" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AV59" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AW59" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX59" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY59" s="11" t="s">
-        <v>60</v>
+      <c r="AX59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY59" s="11">
+        <v>-525</v>
       </c>
       <c r="AZ59" s="11">
-        <v>-525</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="11" t="s">
         <v>60</v>
@@ -8356,7 +8391,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>61</v>
       </c>
@@ -8433,8 +8468,8 @@
       <c r="AA60" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AB60" s="13" t="s">
-        <v>60</v>
+      <c r="AB60" s="13">
+        <v>0</v>
       </c>
       <c r="AC60" s="13">
         <v>0</v>
@@ -8454,8 +8489,8 @@
       <c r="AH60" s="13">
         <v>0</v>
       </c>
-      <c r="AI60" s="13">
-        <v>0</v>
+      <c r="AI60" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AJ60" s="13" t="s">
         <v>60</v>
@@ -8484,12 +8519,12 @@
       <c r="AR60" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AS60" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT60" s="13">
+      <c r="AS60" s="13">
         <v>-12</v>
       </c>
+      <c r="AT60" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AU60" s="13" t="s">
         <v>60</v>
       </c>
@@ -8515,7 +8550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>63</v>
       </c>
@@ -8622,29 +8657,29 @@
       <c r="AK61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AL61" s="11" t="s">
-        <v>60</v>
+      <c r="AL61" s="11">
+        <v>-25</v>
       </c>
       <c r="AM61" s="11">
-        <v>-25</v>
+        <v>-125</v>
       </c>
       <c r="AN61" s="11">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="AO61" s="11">
         <v>0</v>
       </c>
-      <c r="AP61" s="11">
-        <v>0</v>
+      <c r="AP61" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AQ61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR61" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS61" s="11">
-        <v>0</v>
+      <c r="AR61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AT61" s="11" t="s">
         <v>60</v>
@@ -8658,14 +8693,14 @@
       <c r="AW61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX61" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY61" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ61" s="11" t="s">
-        <v>60</v>
+      <c r="AX61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ61" s="11">
+        <v>0</v>
       </c>
       <c r="BA61" s="11" t="s">
         <v>60</v>
@@ -8674,7 +8709,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>65</v>
       </c>
@@ -8781,8 +8816,8 @@
       <c r="AK62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AL62" s="13" t="s">
-        <v>60</v>
+      <c r="AL62" s="13">
+        <v>0</v>
       </c>
       <c r="AM62" s="13">
         <v>0</v>
@@ -8793,38 +8828,38 @@
       <c r="AO62" s="13">
         <v>0</v>
       </c>
-      <c r="AP62" s="13">
-        <v>0</v>
+      <c r="AP62" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AQ62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AR62" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS62" s="13">
+      <c r="AR62" s="13">
         <v>-8</v>
       </c>
+      <c r="AS62" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AT62" s="13" t="s">
         <v>60</v>
       </c>
       <c r="AU62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AV62" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW62" s="13" t="s">
-        <v>60</v>
+      <c r="AV62" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW62" s="13">
+        <v>-12</v>
       </c>
       <c r="AX62" s="13">
-        <v>-12</v>
-      </c>
-      <c r="AY62" s="13" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="AY62" s="13">
+        <v>-1</v>
       </c>
       <c r="AZ62" s="13">
-        <v>-975</v>
+        <v>0</v>
       </c>
       <c r="BA62" s="13" t="s">
         <v>60</v>
@@ -8833,7 +8868,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="16" t="s">
         <v>79</v>
       </c>
@@ -8902,8 +8937,8 @@
       <c r="Y63" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Z63" s="17" t="s">
-        <v>60</v>
+      <c r="Z63" s="17">
+        <v>0</v>
       </c>
       <c r="AA63" s="17">
         <v>0</v>
@@ -8915,22 +8950,22 @@
         <v>0</v>
       </c>
       <c r="AD63" s="17">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="AE63" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="17">
         <v>-120</v>
       </c>
-      <c r="AF63" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH63" s="17">
-        <v>0</v>
-      </c>
       <c r="AI63" s="17">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="17">
         <v>0</v>
@@ -8939,13 +8974,13 @@
         <v>0</v>
       </c>
       <c r="AL63" s="17">
-        <v>0</v>
+        <v>-601</v>
       </c>
       <c r="AM63" s="17">
-        <v>-601</v>
+        <v>-980</v>
       </c>
       <c r="AN63" s="17">
-        <v>-980</v>
+        <v>0</v>
       </c>
       <c r="AO63" s="17">
         <v>0</v>
@@ -8957,31 +8992,31 @@
         <v>0</v>
       </c>
       <c r="AR63" s="17">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AS63" s="17">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AT63" s="17">
+        <v>-40</v>
+      </c>
+      <c r="AU63" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV63" s="17">
+        <v>-599</v>
+      </c>
+      <c r="AW63" s="17">
         <v>-12</v>
       </c>
-      <c r="AU63" s="17">
-        <v>-40</v>
-      </c>
-      <c r="AV63" s="17">
-        <v>0</v>
-      </c>
-      <c r="AW63" s="17">
-        <v>-599</v>
-      </c>
       <c r="AX63" s="17">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AY63" s="17">
-        <v>0</v>
+        <v>-1009</v>
       </c>
       <c r="AZ63" s="17">
-        <v>-1983</v>
+        <v>0</v>
       </c>
       <c r="BA63" s="17">
         <v>0</v>
@@ -8990,164 +9025,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
-        <v>46349</v>
+        <v>24233</v>
       </c>
       <c r="F64" s="15">
-        <v>24233</v>
+        <v>24980</v>
       </c>
       <c r="G64" s="15">
-        <v>24980</v>
+        <v>28752</v>
       </c>
       <c r="H64" s="15">
-        <v>28752</v>
+        <v>26805</v>
       </c>
       <c r="I64" s="15">
-        <v>26805</v>
+        <v>30004</v>
       </c>
       <c r="J64" s="15">
-        <v>30004</v>
+        <v>15874</v>
       </c>
       <c r="K64" s="15">
-        <v>15874</v>
+        <v>10246</v>
       </c>
       <c r="L64" s="15">
-        <v>10246</v>
+        <v>22470</v>
       </c>
       <c r="M64" s="15">
-        <v>22470</v>
+        <v>29664</v>
       </c>
       <c r="N64" s="15">
-        <v>29664</v>
+        <v>29043</v>
       </c>
       <c r="O64" s="15">
-        <v>29043</v>
+        <v>29656</v>
       </c>
       <c r="P64" s="15">
-        <v>29656</v>
+        <v>27889</v>
       </c>
       <c r="Q64" s="15">
-        <v>27889</v>
+        <v>36684</v>
       </c>
       <c r="R64" s="15">
-        <v>36684</v>
+        <v>46973</v>
       </c>
       <c r="S64" s="15">
-        <v>46973</v>
+        <v>50197</v>
       </c>
       <c r="T64" s="15">
-        <v>50197</v>
+        <v>44343</v>
       </c>
       <c r="U64" s="15">
-        <v>44343</v>
+        <v>35725</v>
       </c>
       <c r="V64" s="15">
-        <v>35725</v>
+        <v>155715</v>
       </c>
       <c r="W64" s="15">
-        <v>155715</v>
+        <v>54612</v>
       </c>
       <c r="X64" s="15">
-        <v>54612</v>
+        <v>35098</v>
       </c>
       <c r="Y64" s="15">
-        <v>35098</v>
+        <v>41054</v>
       </c>
       <c r="Z64" s="15">
-        <v>41054</v>
+        <v>39026</v>
       </c>
       <c r="AA64" s="15">
-        <v>39026</v>
+        <v>35477</v>
       </c>
       <c r="AB64" s="15">
-        <v>35477</v>
+        <v>35784</v>
       </c>
       <c r="AC64" s="15">
-        <v>35784</v>
+        <v>44502</v>
       </c>
       <c r="AD64" s="15">
-        <v>44502</v>
+        <v>31294</v>
       </c>
       <c r="AE64" s="15">
-        <v>31294</v>
+        <v>44979</v>
       </c>
       <c r="AF64" s="15">
-        <v>44979</v>
+        <v>53841</v>
       </c>
       <c r="AG64" s="15">
-        <v>53841</v>
+        <v>24999</v>
       </c>
       <c r="AH64" s="15">
-        <v>24999</v>
+        <v>9942</v>
       </c>
       <c r="AI64" s="15">
-        <v>9942</v>
+        <v>35185</v>
       </c>
       <c r="AJ64" s="15">
-        <v>35185</v>
+        <v>44907</v>
       </c>
       <c r="AK64" s="15">
-        <v>44907</v>
+        <v>35692</v>
       </c>
       <c r="AL64" s="15">
-        <v>35692</v>
+        <v>38142</v>
       </c>
       <c r="AM64" s="15">
-        <v>38142</v>
+        <v>41133</v>
       </c>
       <c r="AN64" s="15">
-        <v>41133</v>
+        <v>46325</v>
       </c>
       <c r="AO64" s="15">
-        <v>46325</v>
+        <v>33287</v>
       </c>
       <c r="AP64" s="15">
-        <v>33287</v>
+        <v>37499</v>
       </c>
       <c r="AQ64" s="15">
-        <v>37499</v>
+        <v>49067</v>
       </c>
       <c r="AR64" s="15">
-        <v>49067</v>
+        <v>34472</v>
       </c>
       <c r="AS64" s="15">
-        <v>34472</v>
+        <v>34906</v>
       </c>
       <c r="AT64" s="15">
-        <v>34906</v>
+        <v>20604</v>
       </c>
       <c r="AU64" s="15">
-        <v>20604</v>
+        <v>34489</v>
       </c>
       <c r="AV64" s="15">
-        <v>34489</v>
+        <v>36416</v>
       </c>
       <c r="AW64" s="15">
-        <v>36416</v>
+        <v>48286</v>
       </c>
       <c r="AX64" s="15">
-        <v>48286</v>
+        <v>48291</v>
       </c>
       <c r="AY64" s="15">
-        <v>48291</v>
+        <v>39141</v>
       </c>
       <c r="AZ64" s="15">
-        <v>39141</v>
+        <v>31867</v>
       </c>
       <c r="BA64" s="15">
-        <v>31867</v>
+        <v>37776</v>
       </c>
       <c r="BB64" s="15">
-        <v>37776</v>
+        <v>56842</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -9202,7 +9237,7 @@
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -9257,7 +9292,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -9312,7 +9347,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>80</v>
       </c>
@@ -9469,7 +9504,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -9524,7 +9559,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>80</v>
       </c>
@@ -9581,7 +9616,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>55</v>
       </c>
@@ -9590,13 +9625,13 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>3874</v>
+        <v>3821</v>
       </c>
       <c r="F71" s="11">
-        <v>3821</v>
+        <v>13251</v>
       </c>
       <c r="G71" s="11">
-        <v>13251</v>
+        <v>0</v>
       </c>
       <c r="H71" s="11">
         <v>0</v>
@@ -9605,142 +9640,142 @@
         <v>0</v>
       </c>
       <c r="J71" s="11">
-        <v>0</v>
+        <v>3397</v>
       </c>
       <c r="K71" s="11">
-        <v>3397</v>
+        <v>228</v>
       </c>
       <c r="L71" s="11">
-        <v>228</v>
+        <v>3914</v>
       </c>
       <c r="M71" s="11">
-        <v>3914</v>
+        <v>0</v>
       </c>
       <c r="N71" s="11">
-        <v>0</v>
+        <v>3588</v>
       </c>
       <c r="O71" s="11">
-        <v>3588</v>
+        <v>0</v>
       </c>
       <c r="P71" s="11">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="Q71" s="11">
-        <v>8850</v>
+        <v>0</v>
       </c>
       <c r="R71" s="11">
-        <v>0</v>
+        <v>17643</v>
       </c>
       <c r="S71" s="11">
-        <v>17643</v>
+        <v>26212</v>
       </c>
       <c r="T71" s="11">
-        <v>26212</v>
+        <v>2710</v>
       </c>
       <c r="U71" s="11">
-        <v>2710</v>
+        <v>2084</v>
       </c>
       <c r="V71" s="11">
-        <v>2084</v>
+        <v>1932</v>
       </c>
       <c r="W71" s="11">
-        <v>1932</v>
+        <v>0</v>
       </c>
       <c r="X71" s="11">
-        <v>0</v>
+        <v>12682</v>
       </c>
       <c r="Y71" s="11">
-        <v>12682</v>
+        <v>8163</v>
       </c>
       <c r="Z71" s="11">
-        <v>8163</v>
+        <v>10244</v>
       </c>
       <c r="AA71" s="11">
-        <v>10244</v>
+        <v>15544</v>
       </c>
       <c r="AB71" s="11">
-        <v>15544</v>
+        <v>3053</v>
       </c>
       <c r="AC71" s="11">
-        <v>3053</v>
+        <v>5616</v>
       </c>
       <c r="AD71" s="11">
-        <v>5616</v>
+        <v>15220</v>
       </c>
       <c r="AE71" s="11">
-        <v>15220</v>
+        <v>10491</v>
       </c>
       <c r="AF71" s="11">
-        <v>10491</v>
+        <v>10458</v>
       </c>
       <c r="AG71" s="11">
-        <v>10458</v>
+        <v>1414</v>
       </c>
       <c r="AH71" s="11">
-        <v>1414</v>
+        <v>0</v>
       </c>
       <c r="AI71" s="11">
-        <v>0</v>
+        <v>24693</v>
       </c>
       <c r="AJ71" s="11">
-        <v>24693</v>
+        <v>15811</v>
       </c>
       <c r="AK71" s="11">
-        <v>15811</v>
+        <v>4608</v>
       </c>
       <c r="AL71" s="11">
-        <v>4608</v>
+        <v>26527</v>
       </c>
       <c r="AM71" s="11">
-        <v>26527</v>
+        <v>27943</v>
       </c>
       <c r="AN71" s="11">
-        <v>27943</v>
+        <v>23993</v>
       </c>
       <c r="AO71" s="11">
-        <v>23993</v>
+        <v>0</v>
       </c>
       <c r="AP71" s="11">
-        <v>0</v>
+        <v>39319</v>
       </c>
       <c r="AQ71" s="11">
-        <v>39319</v>
+        <v>29764</v>
       </c>
       <c r="AR71" s="11">
-        <v>29764</v>
+        <v>17181</v>
       </c>
       <c r="AS71" s="11">
-        <v>17181</v>
+        <v>13326</v>
       </c>
       <c r="AT71" s="11">
-        <v>13326</v>
+        <v>8064</v>
       </c>
       <c r="AU71" s="11">
-        <v>8064</v>
+        <v>26400</v>
       </c>
       <c r="AV71" s="11">
-        <v>26400</v>
+        <v>34386</v>
       </c>
       <c r="AW71" s="11">
-        <v>34386</v>
+        <v>34479</v>
       </c>
       <c r="AX71" s="11">
-        <v>34479</v>
+        <v>38508</v>
       </c>
       <c r="AY71" s="11">
-        <v>38508</v>
+        <v>56804</v>
       </c>
       <c r="AZ71" s="11">
-        <v>56804</v>
+        <v>34992</v>
       </c>
       <c r="BA71" s="11">
-        <v>34992</v>
+        <v>37952</v>
       </c>
       <c r="BB71" s="11">
-        <v>37952</v>
+        <v>38456</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>57</v>
       </c>
@@ -9749,157 +9784,157 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>4991</v>
+        <v>2002</v>
       </c>
       <c r="F72" s="13">
-        <v>2002</v>
+        <v>1410</v>
       </c>
       <c r="G72" s="13">
-        <v>1410</v>
+        <v>3345</v>
       </c>
       <c r="H72" s="13">
-        <v>3345</v>
+        <v>952</v>
       </c>
       <c r="I72" s="13">
-        <v>952</v>
+        <v>4755</v>
       </c>
       <c r="J72" s="13">
-        <v>4755</v>
+        <v>5039</v>
       </c>
       <c r="K72" s="13">
-        <v>5039</v>
+        <v>3166</v>
       </c>
       <c r="L72" s="13">
-        <v>3166</v>
+        <v>2121</v>
       </c>
       <c r="M72" s="13">
-        <v>2121</v>
+        <v>6264</v>
       </c>
       <c r="N72" s="13">
-        <v>6264</v>
+        <v>0</v>
       </c>
       <c r="O72" s="13">
-        <v>0</v>
+        <v>10408</v>
       </c>
       <c r="P72" s="13">
-        <v>10408</v>
+        <v>7975</v>
       </c>
       <c r="Q72" s="13">
-        <v>7975</v>
+        <v>17111</v>
       </c>
       <c r="R72" s="13">
-        <v>17111</v>
+        <v>15136</v>
       </c>
       <c r="S72" s="13">
-        <v>15136</v>
+        <v>2818</v>
       </c>
       <c r="T72" s="13">
-        <v>2818</v>
+        <v>12906</v>
       </c>
       <c r="U72" s="13">
-        <v>12906</v>
+        <v>19462</v>
       </c>
       <c r="V72" s="13">
-        <v>19462</v>
+        <v>1630</v>
       </c>
       <c r="W72" s="13">
-        <v>1630</v>
+        <v>8215</v>
       </c>
       <c r="X72" s="13">
-        <v>8215</v>
+        <v>2830</v>
       </c>
       <c r="Y72" s="13">
-        <v>2830</v>
+        <v>2178</v>
       </c>
       <c r="Z72" s="13">
-        <v>2178</v>
+        <v>16366</v>
       </c>
       <c r="AA72" s="13">
-        <v>16366</v>
+        <v>7215</v>
       </c>
       <c r="AB72" s="13">
-        <v>7215</v>
+        <v>8223</v>
       </c>
       <c r="AC72" s="13">
-        <v>8223</v>
+        <v>33619</v>
       </c>
       <c r="AD72" s="13">
-        <v>33619</v>
+        <v>9785</v>
       </c>
       <c r="AE72" s="13">
-        <v>9785</v>
+        <v>23520</v>
       </c>
       <c r="AF72" s="13">
-        <v>23520</v>
+        <v>15422</v>
       </c>
       <c r="AG72" s="13">
-        <v>15422</v>
+        <v>14101</v>
       </c>
       <c r="AH72" s="13">
-        <v>14101</v>
+        <v>9287</v>
       </c>
       <c r="AI72" s="13">
-        <v>9287</v>
+        <v>0</v>
       </c>
       <c r="AJ72" s="13">
-        <v>0</v>
+        <v>24291</v>
       </c>
       <c r="AK72" s="13">
-        <v>24291</v>
+        <v>22948</v>
       </c>
       <c r="AL72" s="13">
-        <v>22948</v>
+        <v>27976</v>
       </c>
       <c r="AM72" s="13">
-        <v>27976</v>
+        <v>72693</v>
       </c>
       <c r="AN72" s="13">
-        <v>72693</v>
+        <v>70591</v>
       </c>
       <c r="AO72" s="13">
-        <v>70591</v>
+        <v>65857</v>
       </c>
       <c r="AP72" s="13">
-        <v>65857</v>
+        <v>39543</v>
       </c>
       <c r="AQ72" s="13">
-        <v>39543</v>
+        <v>152659</v>
       </c>
       <c r="AR72" s="13">
-        <v>152659</v>
+        <v>51635</v>
       </c>
       <c r="AS72" s="13">
-        <v>51635</v>
+        <v>62547</v>
       </c>
       <c r="AT72" s="13">
-        <v>62547</v>
+        <v>27457</v>
       </c>
       <c r="AU72" s="13">
-        <v>27457</v>
+        <v>49877</v>
       </c>
       <c r="AV72" s="13">
-        <v>49877</v>
+        <v>112185</v>
       </c>
       <c r="AW72" s="13">
-        <v>112185</v>
+        <v>69989</v>
       </c>
       <c r="AX72" s="13">
-        <v>69989</v>
+        <v>53377</v>
       </c>
       <c r="AY72" s="13">
-        <v>53377</v>
+        <v>164290</v>
       </c>
       <c r="AZ72" s="13">
-        <v>164290</v>
+        <v>49799</v>
       </c>
       <c r="BA72" s="13">
-        <v>49799</v>
+        <v>21713</v>
       </c>
       <c r="BB72" s="13">
-        <v>21713</v>
+        <v>71893</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>58</v>
       </c>
@@ -9908,157 +9943,157 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>63011</v>
+        <v>30266</v>
       </c>
       <c r="F73" s="11">
-        <v>30266</v>
+        <v>14834</v>
       </c>
       <c r="G73" s="11">
-        <v>14834</v>
+        <v>24219</v>
       </c>
       <c r="H73" s="11">
-        <v>24219</v>
+        <v>22366</v>
       </c>
       <c r="I73" s="11">
-        <v>22366</v>
+        <v>17019</v>
       </c>
       <c r="J73" s="11">
-        <v>17019</v>
+        <v>8636</v>
       </c>
       <c r="K73" s="11">
-        <v>8636</v>
+        <v>26926</v>
       </c>
       <c r="L73" s="11">
-        <v>26926</v>
+        <v>56622</v>
       </c>
       <c r="M73" s="11">
-        <v>56622</v>
+        <v>24898</v>
       </c>
       <c r="N73" s="11">
-        <v>24898</v>
+        <v>26253</v>
       </c>
       <c r="O73" s="11">
-        <v>26253</v>
+        <v>39641</v>
       </c>
       <c r="P73" s="11">
-        <v>39641</v>
+        <v>38668</v>
       </c>
       <c r="Q73" s="11">
-        <v>38668</v>
+        <v>3200</v>
       </c>
       <c r="R73" s="11">
-        <v>3200</v>
+        <v>66880</v>
       </c>
       <c r="S73" s="11">
-        <v>66880</v>
+        <v>65645</v>
       </c>
       <c r="T73" s="11">
-        <v>65645</v>
+        <v>54815</v>
       </c>
       <c r="U73" s="11">
-        <v>54815</v>
+        <v>30596</v>
       </c>
       <c r="V73" s="11">
-        <v>30596</v>
+        <v>816</v>
       </c>
       <c r="W73" s="11">
-        <v>816</v>
+        <v>14035</v>
       </c>
       <c r="X73" s="11">
-        <v>14035</v>
+        <v>28433</v>
       </c>
       <c r="Y73" s="11">
-        <v>28433</v>
+        <v>48150</v>
       </c>
       <c r="Z73" s="11">
-        <v>48150</v>
+        <v>31790</v>
       </c>
       <c r="AA73" s="11">
-        <v>31790</v>
+        <v>16629</v>
       </c>
       <c r="AB73" s="11">
-        <v>16629</v>
+        <v>56998</v>
       </c>
       <c r="AC73" s="11">
-        <v>56998</v>
+        <v>40413</v>
       </c>
       <c r="AD73" s="11">
-        <v>40413</v>
+        <v>16935</v>
       </c>
       <c r="AE73" s="11">
-        <v>16935</v>
+        <v>36019</v>
       </c>
       <c r="AF73" s="11">
-        <v>36019</v>
+        <v>12899</v>
       </c>
       <c r="AG73" s="11">
-        <v>12899</v>
+        <v>4650</v>
       </c>
       <c r="AH73" s="11">
-        <v>4650</v>
+        <v>0</v>
       </c>
       <c r="AI73" s="11">
-        <v>0</v>
+        <v>67282</v>
       </c>
       <c r="AJ73" s="11">
-        <v>67282</v>
+        <v>42368</v>
       </c>
       <c r="AK73" s="11">
-        <v>42368</v>
+        <v>80167</v>
       </c>
       <c r="AL73" s="11">
-        <v>80167</v>
+        <v>94134</v>
       </c>
       <c r="AM73" s="11">
-        <v>94134</v>
+        <v>5650</v>
       </c>
       <c r="AN73" s="11">
-        <v>5650</v>
+        <v>169268</v>
       </c>
       <c r="AO73" s="11">
-        <v>169268</v>
+        <v>69272</v>
       </c>
       <c r="AP73" s="11">
-        <v>69272</v>
+        <v>16800</v>
       </c>
       <c r="AQ73" s="11">
-        <v>16800</v>
+        <v>130551</v>
       </c>
       <c r="AR73" s="11">
-        <v>130551</v>
+        <v>24930</v>
       </c>
       <c r="AS73" s="11">
-        <v>24930</v>
+        <v>45272</v>
       </c>
       <c r="AT73" s="11">
-        <v>45272</v>
+        <v>39323</v>
       </c>
       <c r="AU73" s="11">
-        <v>39323</v>
+        <v>55145</v>
       </c>
       <c r="AV73" s="11">
-        <v>55145</v>
+        <v>75072</v>
       </c>
       <c r="AW73" s="11">
-        <v>75072</v>
+        <v>47245</v>
       </c>
       <c r="AX73" s="11">
-        <v>47245</v>
+        <v>65173</v>
       </c>
       <c r="AY73" s="11">
-        <v>65173</v>
+        <v>111485</v>
       </c>
       <c r="AZ73" s="11">
-        <v>111485</v>
+        <v>37744</v>
       </c>
       <c r="BA73" s="11">
-        <v>37744</v>
+        <v>146165</v>
       </c>
       <c r="BB73" s="11">
-        <v>146165</v>
+        <v>124817</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>59</v>
       </c>
@@ -10084,8 +10119,8 @@
       <c r="J74" s="13">
         <v>0</v>
       </c>
-      <c r="K74" s="13">
-        <v>0</v>
+      <c r="K74" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="L74" s="13" t="s">
         <v>60</v>
@@ -10180,11 +10215,11 @@
       <c r="AP74" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AQ74" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR74" s="13">
-        <v>0</v>
+      <c r="AQ74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR74" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AS74" s="13" t="s">
         <v>60</v>
@@ -10192,8 +10227,8 @@
       <c r="AT74" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AU74" s="13" t="s">
-        <v>60</v>
+      <c r="AU74" s="13">
+        <v>0</v>
       </c>
       <c r="AV74" s="13">
         <v>0</v>
@@ -10217,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>61</v>
       </c>
@@ -10226,157 +10261,157 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>72654</v>
+        <v>74264</v>
       </c>
       <c r="F75" s="11">
-        <v>74264</v>
+        <v>13010</v>
       </c>
       <c r="G75" s="11">
-        <v>13010</v>
+        <v>47149</v>
       </c>
       <c r="H75" s="11">
-        <v>47149</v>
+        <v>49825</v>
       </c>
       <c r="I75" s="11">
-        <v>49825</v>
+        <v>22233</v>
       </c>
       <c r="J75" s="11">
-        <v>22233</v>
+        <v>14399</v>
       </c>
       <c r="K75" s="11">
-        <v>14399</v>
+        <v>21937</v>
       </c>
       <c r="L75" s="11">
-        <v>21937</v>
+        <v>0</v>
       </c>
       <c r="M75" s="11">
-        <v>0</v>
+        <v>79945</v>
       </c>
       <c r="N75" s="11">
-        <v>79945</v>
+        <v>101996</v>
       </c>
       <c r="O75" s="11">
-        <v>101996</v>
+        <v>60757</v>
       </c>
       <c r="P75" s="11">
-        <v>60757</v>
+        <v>42579</v>
       </c>
       <c r="Q75" s="11">
-        <v>42579</v>
+        <v>108670</v>
       </c>
       <c r="R75" s="11">
-        <v>108670</v>
+        <v>12735</v>
       </c>
       <c r="S75" s="11">
-        <v>12735</v>
+        <v>64730</v>
       </c>
       <c r="T75" s="11">
-        <v>64730</v>
+        <v>95978</v>
       </c>
       <c r="U75" s="11">
-        <v>95978</v>
+        <v>95126</v>
       </c>
       <c r="V75" s="11">
-        <v>95126</v>
+        <v>14467</v>
       </c>
       <c r="W75" s="11">
-        <v>14467</v>
+        <v>28342</v>
       </c>
       <c r="X75" s="11">
-        <v>28342</v>
+        <v>130099</v>
       </c>
       <c r="Y75" s="11">
-        <v>130099</v>
+        <v>92005</v>
       </c>
       <c r="Z75" s="11">
-        <v>92005</v>
+        <v>130038</v>
       </c>
       <c r="AA75" s="11">
-        <v>130038</v>
+        <v>131357</v>
       </c>
       <c r="AB75" s="11">
-        <v>131357</v>
+        <v>73617</v>
       </c>
       <c r="AC75" s="11">
-        <v>73617</v>
+        <v>18037</v>
       </c>
       <c r="AD75" s="11">
-        <v>18037</v>
+        <v>57129</v>
       </c>
       <c r="AE75" s="11">
-        <v>57129</v>
+        <v>21808</v>
       </c>
       <c r="AF75" s="11">
-        <v>21808</v>
+        <v>40891</v>
       </c>
       <c r="AG75" s="11">
-        <v>40891</v>
+        <v>76756</v>
       </c>
       <c r="AH75" s="11">
-        <v>76756</v>
+        <v>77988</v>
       </c>
       <c r="AI75" s="11">
-        <v>77988</v>
+        <v>88866</v>
       </c>
       <c r="AJ75" s="11">
-        <v>88866</v>
+        <v>161189</v>
       </c>
       <c r="AK75" s="11">
-        <v>161189</v>
+        <v>161051</v>
       </c>
       <c r="AL75" s="11">
-        <v>161051</v>
+        <v>111029</v>
       </c>
       <c r="AM75" s="11">
-        <v>111029</v>
+        <v>112500</v>
       </c>
       <c r="AN75" s="11">
-        <v>112500</v>
+        <v>22722</v>
       </c>
       <c r="AO75" s="11">
-        <v>22722</v>
+        <v>122743</v>
       </c>
       <c r="AP75" s="11">
-        <v>122743</v>
+        <v>127244</v>
       </c>
       <c r="AQ75" s="11">
-        <v>127244</v>
+        <v>11504</v>
       </c>
       <c r="AR75" s="11">
-        <v>11504</v>
+        <v>158191</v>
       </c>
       <c r="AS75" s="11">
-        <v>158191</v>
+        <v>80980</v>
       </c>
       <c r="AT75" s="11">
-        <v>80980</v>
+        <v>47536</v>
       </c>
       <c r="AU75" s="11">
-        <v>47536</v>
+        <v>114300</v>
       </c>
       <c r="AV75" s="11">
-        <v>114300</v>
+        <v>76651</v>
       </c>
       <c r="AW75" s="11">
-        <v>76651</v>
+        <v>63568</v>
       </c>
       <c r="AX75" s="11">
-        <v>63568</v>
+        <v>96730</v>
       </c>
       <c r="AY75" s="11">
-        <v>96730</v>
+        <v>0</v>
       </c>
       <c r="AZ75" s="11">
-        <v>0</v>
+        <v>261127</v>
       </c>
       <c r="BA75" s="11">
-        <v>261127</v>
+        <v>176825</v>
       </c>
       <c r="BB75" s="11">
-        <v>176825</v>
+        <v>1453748</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>62</v>
       </c>
@@ -10385,115 +10420,115 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
-        <v>85323</v>
+        <v>2702</v>
       </c>
       <c r="F76" s="13">
-        <v>2702</v>
+        <v>19968</v>
       </c>
       <c r="G76" s="13">
-        <v>19968</v>
+        <v>47017</v>
       </c>
       <c r="H76" s="13">
-        <v>47017</v>
+        <v>45326</v>
       </c>
       <c r="I76" s="13">
-        <v>45326</v>
+        <v>56030</v>
       </c>
       <c r="J76" s="13">
-        <v>56030</v>
+        <v>17987</v>
       </c>
       <c r="K76" s="13">
-        <v>17987</v>
+        <v>3656</v>
       </c>
       <c r="L76" s="13">
-        <v>3656</v>
+        <v>47823</v>
       </c>
       <c r="M76" s="13">
-        <v>47823</v>
+        <v>59851</v>
       </c>
       <c r="N76" s="13">
-        <v>59851</v>
+        <v>23904</v>
       </c>
       <c r="O76" s="13">
-        <v>23904</v>
+        <v>38229</v>
       </c>
       <c r="P76" s="13">
-        <v>38229</v>
+        <v>27904</v>
       </c>
       <c r="Q76" s="13">
-        <v>27904</v>
+        <v>31349</v>
       </c>
       <c r="R76" s="13">
-        <v>31349</v>
+        <v>46028</v>
       </c>
       <c r="S76" s="13">
-        <v>46028</v>
+        <v>30795</v>
       </c>
       <c r="T76" s="13">
-        <v>30795</v>
+        <v>32053</v>
       </c>
       <c r="U76" s="13">
-        <v>32053</v>
+        <v>12872</v>
       </c>
       <c r="V76" s="13">
-        <v>12872</v>
+        <v>82339</v>
       </c>
       <c r="W76" s="13">
-        <v>82339</v>
+        <v>52669</v>
       </c>
       <c r="X76" s="13">
-        <v>52669</v>
+        <v>74481</v>
       </c>
       <c r="Y76" s="13">
-        <v>74481</v>
+        <v>103212</v>
       </c>
       <c r="Z76" s="13">
-        <v>103212</v>
+        <v>64872</v>
       </c>
       <c r="AA76" s="13">
-        <v>64872</v>
+        <v>49255</v>
       </c>
       <c r="AB76" s="13">
-        <v>49255</v>
+        <v>73759</v>
       </c>
       <c r="AC76" s="13">
-        <v>73759</v>
+        <v>123764</v>
       </c>
       <c r="AD76" s="13">
-        <v>123764</v>
+        <v>110748</v>
       </c>
       <c r="AE76" s="13">
-        <v>110748</v>
+        <v>129549</v>
       </c>
       <c r="AF76" s="13">
-        <v>129549</v>
+        <v>134919</v>
       </c>
       <c r="AG76" s="13">
-        <v>134919</v>
+        <v>57758</v>
       </c>
       <c r="AH76" s="13">
-        <v>57758</v>
+        <v>13489</v>
       </c>
       <c r="AI76" s="13">
-        <v>13489</v>
+        <v>100525</v>
       </c>
       <c r="AJ76" s="13">
-        <v>100525</v>
+        <v>75515</v>
       </c>
       <c r="AK76" s="13">
-        <v>75515</v>
+        <v>72533</v>
       </c>
       <c r="AL76" s="13">
-        <v>72533</v>
+        <v>77914</v>
       </c>
       <c r="AM76" s="13">
-        <v>77914</v>
+        <v>95525</v>
       </c>
       <c r="AN76" s="13">
-        <v>95525</v>
-      </c>
-      <c r="AO76" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO76" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AP76" s="13" t="s">
         <v>60</v>
@@ -10535,7 +10570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>63</v>
       </c>
@@ -10624,77 +10659,77 @@
       <c r="AE77" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF77" s="11" t="s">
-        <v>60</v>
+      <c r="AF77" s="11">
+        <v>3955</v>
       </c>
       <c r="AG77" s="11">
-        <v>3955</v>
+        <v>12</v>
       </c>
       <c r="AH77" s="11">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="AI77" s="11">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="AJ77" s="11">
-        <v>1025</v>
+        <v>3672</v>
       </c>
       <c r="AK77" s="11">
-        <v>3672</v>
+        <v>9200</v>
       </c>
       <c r="AL77" s="11">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="AM77" s="11">
-        <v>0</v>
+        <v>1930</v>
       </c>
       <c r="AN77" s="11">
-        <v>1930</v>
+        <v>17778</v>
       </c>
       <c r="AO77" s="11">
-        <v>17778</v>
+        <v>0</v>
       </c>
       <c r="AP77" s="11">
         <v>0</v>
       </c>
       <c r="AQ77" s="11">
-        <v>0</v>
+        <v>3116</v>
       </c>
       <c r="AR77" s="11">
-        <v>3116</v>
+        <v>17230</v>
       </c>
       <c r="AS77" s="11">
-        <v>17230</v>
+        <v>10048</v>
       </c>
       <c r="AT77" s="11">
-        <v>10048</v>
+        <v>5528</v>
       </c>
       <c r="AU77" s="11">
-        <v>5528</v>
+        <v>24735</v>
       </c>
       <c r="AV77" s="11">
-        <v>24735</v>
+        <v>26181</v>
       </c>
       <c r="AW77" s="11">
-        <v>26181</v>
+        <v>49098</v>
       </c>
       <c r="AX77" s="11">
-        <v>49098</v>
+        <v>23172</v>
       </c>
       <c r="AY77" s="11">
-        <v>23172</v>
+        <v>17901</v>
       </c>
       <c r="AZ77" s="11">
-        <v>17901</v>
+        <v>42798</v>
       </c>
       <c r="BA77" s="11">
-        <v>42798</v>
+        <v>122273</v>
       </c>
       <c r="BB77" s="11">
-        <v>122273</v>
+        <v>68053</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>64</v>
       </c>
@@ -10783,14 +10818,14 @@
       <c r="AE78" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AF78" s="13" t="s">
-        <v>60</v>
+      <c r="AF78" s="13">
+        <v>1177</v>
       </c>
       <c r="AG78" s="13">
-        <v>1177</v>
+        <v>17398</v>
       </c>
       <c r="AH78" s="13">
-        <v>17398</v>
+        <v>0</v>
       </c>
       <c r="AI78" s="13">
         <v>0</v>
@@ -10811,49 +10846,49 @@
         <v>0</v>
       </c>
       <c r="AO78" s="13">
-        <v>0</v>
+        <v>21353</v>
       </c>
       <c r="AP78" s="13">
-        <v>21353</v>
+        <v>30220</v>
       </c>
       <c r="AQ78" s="13">
-        <v>30220</v>
+        <v>46680</v>
       </c>
       <c r="AR78" s="13">
-        <v>46680</v>
+        <v>9844</v>
       </c>
       <c r="AS78" s="13">
-        <v>9844</v>
+        <v>12781</v>
       </c>
       <c r="AT78" s="13">
-        <v>12781</v>
+        <v>3890</v>
       </c>
       <c r="AU78" s="13">
-        <v>3890</v>
+        <v>45435</v>
       </c>
       <c r="AV78" s="13">
-        <v>45435</v>
+        <v>17375</v>
       </c>
       <c r="AW78" s="13">
-        <v>17375</v>
+        <v>11173</v>
       </c>
       <c r="AX78" s="13">
-        <v>11173</v>
+        <v>17311</v>
       </c>
       <c r="AY78" s="13">
-        <v>17311</v>
+        <v>11430</v>
       </c>
       <c r="AZ78" s="13">
-        <v>11430</v>
+        <v>9533</v>
       </c>
       <c r="BA78" s="13">
-        <v>9533</v>
+        <v>2900</v>
       </c>
       <c r="BB78" s="13">
-        <v>2900</v>
+        <v>54332</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>65</v>
       </c>
@@ -10942,77 +10977,77 @@
       <c r="AE79" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF79" s="11" t="s">
-        <v>60</v>
+      <c r="AF79" s="11">
+        <v>645</v>
       </c>
       <c r="AG79" s="11">
-        <v>645</v>
+        <v>1719</v>
       </c>
       <c r="AH79" s="11">
-        <v>1719</v>
+        <v>0</v>
       </c>
       <c r="AI79" s="11">
         <v>0</v>
       </c>
       <c r="AJ79" s="11">
-        <v>0</v>
+        <v>1523</v>
       </c>
       <c r="AK79" s="11">
-        <v>1523</v>
+        <v>336</v>
       </c>
       <c r="AL79" s="11">
-        <v>336</v>
+        <v>46475</v>
       </c>
       <c r="AM79" s="11">
-        <v>46475</v>
+        <v>91274</v>
       </c>
       <c r="AN79" s="11">
-        <v>91274</v>
+        <v>62623</v>
       </c>
       <c r="AO79" s="11">
-        <v>62623</v>
+        <v>75018</v>
       </c>
       <c r="AP79" s="11">
-        <v>75018</v>
+        <v>56545</v>
       </c>
       <c r="AQ79" s="11">
-        <v>56545</v>
+        <v>10701</v>
       </c>
       <c r="AR79" s="11">
-        <v>10701</v>
+        <v>16</v>
       </c>
       <c r="AS79" s="11">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="AT79" s="11">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="AU79" s="11">
-        <v>254</v>
+        <v>10086</v>
       </c>
       <c r="AV79" s="11">
-        <v>10086</v>
+        <v>4158</v>
       </c>
       <c r="AW79" s="11">
-        <v>4158</v>
+        <v>23238</v>
       </c>
       <c r="AX79" s="11">
-        <v>23238</v>
+        <v>5789</v>
       </c>
       <c r="AY79" s="11">
-        <v>5789</v>
+        <v>9935</v>
       </c>
       <c r="AZ79" s="11">
-        <v>9935</v>
+        <v>8998</v>
       </c>
       <c r="BA79" s="11">
-        <v>8998</v>
+        <v>61298</v>
       </c>
       <c r="BB79" s="11">
-        <v>61298</v>
+        <v>9673</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>66</v>
       </c>
@@ -11125,53 +11160,53 @@
       <c r="AM80" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AN80" s="13" t="s">
-        <v>60</v>
+      <c r="AN80" s="13">
+        <v>58236</v>
       </c>
       <c r="AO80" s="13">
-        <v>58236</v>
+        <v>59344</v>
       </c>
       <c r="AP80" s="13">
-        <v>59344</v>
+        <v>48835</v>
       </c>
       <c r="AQ80" s="13">
-        <v>48835</v>
+        <v>26710</v>
       </c>
       <c r="AR80" s="13">
-        <v>26710</v>
+        <v>42642</v>
       </c>
       <c r="AS80" s="13">
-        <v>42642</v>
+        <v>25062</v>
       </c>
       <c r="AT80" s="13">
-        <v>25062</v>
+        <v>15592</v>
       </c>
       <c r="AU80" s="13">
-        <v>15592</v>
+        <v>31625</v>
       </c>
       <c r="AV80" s="13">
-        <v>31625</v>
+        <v>55558</v>
       </c>
       <c r="AW80" s="13">
-        <v>55558</v>
+        <v>86141</v>
       </c>
       <c r="AX80" s="13">
-        <v>86141</v>
+        <v>102480</v>
       </c>
       <c r="AY80" s="13">
-        <v>102480</v>
+        <v>32670</v>
       </c>
       <c r="AZ80" s="13">
-        <v>32670</v>
+        <v>100453</v>
       </c>
       <c r="BA80" s="13">
-        <v>100453</v>
+        <v>11350</v>
       </c>
       <c r="BB80" s="13">
-        <v>11350</v>
+        <v>19008</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>67</v>
       </c>
@@ -11284,8 +11319,8 @@
       <c r="AM81" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AN81" s="11" t="s">
-        <v>60</v>
+      <c r="AN81" s="11">
+        <v>0</v>
       </c>
       <c r="AO81" s="11">
         <v>0</v>
@@ -11300,37 +11335,37 @@
         <v>0</v>
       </c>
       <c r="AS81" s="11">
-        <v>0</v>
+        <v>8450</v>
       </c>
       <c r="AT81" s="11">
-        <v>8450</v>
+        <v>0</v>
       </c>
       <c r="AU81" s="11">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="AV81" s="11">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="AW81" s="11">
         <v>0</v>
       </c>
       <c r="AX81" s="11">
-        <v>0</v>
+        <v>6825</v>
       </c>
       <c r="AY81" s="11">
-        <v>6825</v>
+        <v>4485</v>
       </c>
       <c r="AZ81" s="11">
-        <v>4485</v>
+        <v>0</v>
       </c>
       <c r="BA81" s="11">
         <v>0</v>
       </c>
       <c r="BB81" s="11">
-        <v>0</v>
+        <v>4550</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>68</v>
       </c>
@@ -11443,8 +11478,8 @@
       <c r="AM82" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AN82" s="13" t="s">
-        <v>60</v>
+      <c r="AN82" s="13">
+        <v>0</v>
       </c>
       <c r="AO82" s="13">
         <v>0</v>
@@ -11453,43 +11488,43 @@
         <v>0</v>
       </c>
       <c r="AQ82" s="13">
-        <v>0</v>
+        <v>11604</v>
       </c>
       <c r="AR82" s="13">
-        <v>11604</v>
+        <v>0</v>
       </c>
       <c r="AS82" s="13">
-        <v>0</v>
+        <v>12887</v>
       </c>
       <c r="AT82" s="13">
-        <v>12887</v>
+        <v>7398</v>
       </c>
       <c r="AU82" s="13">
-        <v>7398</v>
+        <v>0</v>
       </c>
       <c r="AV82" s="13">
-        <v>0</v>
+        <v>2288</v>
       </c>
       <c r="AW82" s="13">
-        <v>2288</v>
+        <v>78</v>
       </c>
       <c r="AX82" s="13">
-        <v>78</v>
+        <v>30753</v>
       </c>
       <c r="AY82" s="13">
-        <v>30753</v>
+        <v>18621</v>
       </c>
       <c r="AZ82" s="13">
-        <v>18621</v>
+        <v>89</v>
       </c>
       <c r="BA82" s="13">
-        <v>89</v>
+        <v>19009</v>
       </c>
       <c r="BB82" s="13">
-        <v>19009</v>
+        <v>7699</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>69</v>
       </c>
@@ -11602,26 +11637,26 @@
       <c r="AM83" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AN83" s="11" t="s">
-        <v>60</v>
+      <c r="AN83" s="11">
+        <v>18953</v>
       </c>
       <c r="AO83" s="11">
-        <v>18953</v>
+        <v>35459</v>
       </c>
       <c r="AP83" s="11">
-        <v>35459</v>
+        <v>70860</v>
       </c>
       <c r="AQ83" s="11">
-        <v>70860</v>
+        <v>0</v>
       </c>
       <c r="AR83" s="11">
         <v>0</v>
       </c>
       <c r="AS83" s="11">
-        <v>0</v>
+        <v>56474</v>
       </c>
       <c r="AT83" s="11">
-        <v>56474</v>
+        <v>0</v>
       </c>
       <c r="AU83" s="11">
         <v>0</v>
@@ -11630,25 +11665,25 @@
         <v>0</v>
       </c>
       <c r="AW83" s="11">
-        <v>0</v>
+        <v>65565</v>
       </c>
       <c r="AX83" s="11">
-        <v>65565</v>
+        <v>9216</v>
       </c>
       <c r="AY83" s="11">
-        <v>9216</v>
+        <v>40338</v>
       </c>
       <c r="AZ83" s="11">
-        <v>40338</v>
+        <v>0</v>
       </c>
       <c r="BA83" s="11">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="BB83" s="11">
-        <v>15900</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>70</v>
       </c>
@@ -11761,8 +11796,8 @@
       <c r="AM84" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AN84" s="13" t="s">
-        <v>60</v>
+      <c r="AN84" s="13">
+        <v>0</v>
       </c>
       <c r="AO84" s="13">
         <v>0</v>
@@ -11771,34 +11806,34 @@
         <v>0</v>
       </c>
       <c r="AQ84" s="13">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="AR84" s="13">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="AS84" s="13">
         <v>0</v>
       </c>
       <c r="AT84" s="13">
-        <v>0</v>
+        <v>4560</v>
       </c>
       <c r="AU84" s="13">
-        <v>4560</v>
+        <v>0</v>
       </c>
       <c r="AV84" s="13">
         <v>0</v>
       </c>
       <c r="AW84" s="13">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="AX84" s="13">
-        <v>864</v>
+        <v>2880</v>
       </c>
       <c r="AY84" s="13">
         <v>2880</v>
       </c>
       <c r="AZ84" s="13">
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="BA84" s="13">
         <v>0</v>
@@ -11807,7 +11842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>71</v>
       </c>
@@ -11920,8 +11955,8 @@
       <c r="AM85" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AN85" s="11" t="s">
-        <v>60</v>
+      <c r="AN85" s="11">
+        <v>0</v>
       </c>
       <c r="AO85" s="11">
         <v>0</v>
@@ -11963,10 +11998,10 @@
         <v>0</v>
       </c>
       <c r="BB85" s="11">
-        <v>0</v>
+        <v>3960</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>72</v>
       </c>
@@ -12088,11 +12123,11 @@
       <c r="AP86" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AQ86" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR86" s="13">
-        <v>0</v>
+      <c r="AQ86" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR86" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AS86" s="13" t="s">
         <v>60</v>
@@ -12100,8 +12135,8 @@
       <c r="AT86" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AU86" s="13" t="s">
-        <v>60</v>
+      <c r="AU86" s="13">
+        <v>0</v>
       </c>
       <c r="AV86" s="13">
         <v>0</v>
@@ -12125,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>82</v>
       </c>
@@ -12182,7 +12217,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>74</v>
       </c>
@@ -12301,11 +12336,11 @@
       <c r="AO88" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AP88" s="11" t="s">
-        <v>60</v>
+      <c r="AP88" s="11">
+        <v>1326</v>
       </c>
       <c r="AQ88" s="11">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="AR88" s="11">
         <v>0</v>
@@ -12341,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="14" t="s">
         <v>75</v>
       </c>
@@ -12412,8 +12447,8 @@
       <c r="Y89" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Z89" s="15" t="s">
-        <v>60</v>
+      <c r="Z89" s="15">
+        <v>0</v>
       </c>
       <c r="AA89" s="15">
         <v>0</v>
@@ -12461,10 +12496,10 @@
         <v>0</v>
       </c>
       <c r="AP89" s="15">
-        <v>0</v>
+        <v>1326</v>
       </c>
       <c r="AQ89" s="15">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="AR89" s="15">
         <v>0</v>
@@ -12500,7 +12535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>83</v>
       </c>
@@ -12557,7 +12592,7 @@
       <c r="BA90" s="9"/>
       <c r="BB90" s="9"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>55</v>
       </c>
@@ -12628,8 +12663,8 @@
       <c r="Y91" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Z91" s="11" t="s">
-        <v>60</v>
+      <c r="Z91" s="11">
+        <v>0</v>
       </c>
       <c r="AA91" s="11">
         <v>0</v>
@@ -12655,8 +12690,8 @@
       <c r="AH91" s="11">
         <v>0</v>
       </c>
-      <c r="AI91" s="11">
-        <v>0</v>
+      <c r="AI91" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AJ91" s="11" t="s">
         <v>60</v>
@@ -12664,11 +12699,11 @@
       <c r="AK91" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AL91" s="11" t="s">
-        <v>60</v>
+      <c r="AL91" s="11">
+        <v>-3456</v>
       </c>
       <c r="AM91" s="11">
-        <v>-3456</v>
+        <v>0</v>
       </c>
       <c r="AN91" s="11">
         <v>0</v>
@@ -12691,8 +12726,8 @@
       <c r="AT91" s="11">
         <v>0</v>
       </c>
-      <c r="AU91" s="11">
-        <v>0</v>
+      <c r="AU91" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AV91" s="11" t="s">
         <v>60</v>
@@ -12700,8 +12735,8 @@
       <c r="AW91" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX91" s="11" t="s">
-        <v>60</v>
+      <c r="AX91" s="11">
+        <v>0</v>
       </c>
       <c r="AY91" s="11">
         <v>0</v>
@@ -12716,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>57</v>
       </c>
@@ -12850,23 +12885,23 @@
       <c r="AT92" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AU92" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV92" s="13" t="s">
-        <v>60</v>
+      <c r="AU92" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV92" s="13">
+        <v>-3596</v>
       </c>
       <c r="AW92" s="13">
-        <v>-3596</v>
+        <v>0</v>
       </c>
       <c r="AX92" s="13">
         <v>0</v>
       </c>
       <c r="AY92" s="13">
-        <v>0</v>
+        <v>-3623</v>
       </c>
       <c r="AZ92" s="13">
-        <v>-3623</v>
+        <v>0</v>
       </c>
       <c r="BA92" s="13">
         <v>0</v>
@@ -12875,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>58</v>
       </c>
@@ -12958,11 +12993,11 @@
       <c r="AC93" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AD93" s="11" t="s">
-        <v>60</v>
+      <c r="AD93" s="11">
+        <v>-1056</v>
       </c>
       <c r="AE93" s="11">
-        <v>-1056</v>
+        <v>0</v>
       </c>
       <c r="AF93" s="11">
         <v>0</v>
@@ -12971,11 +13006,11 @@
         <v>0</v>
       </c>
       <c r="AH93" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI93" s="11">
         <v>-992</v>
       </c>
+      <c r="AI93" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AJ93" s="11" t="s">
         <v>60</v>
       </c>
@@ -12985,11 +13020,11 @@
       <c r="AL93" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AM93" s="11" t="s">
-        <v>60</v>
+      <c r="AM93" s="11">
+        <v>-1668</v>
       </c>
       <c r="AN93" s="11">
-        <v>-1668</v>
+        <v>0</v>
       </c>
       <c r="AO93" s="11">
         <v>0</v>
@@ -13007,25 +13042,25 @@
         <v>0</v>
       </c>
       <c r="AT93" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU93" s="11">
         <v>-480</v>
       </c>
+      <c r="AU93" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AV93" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AW93" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX93" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY93" s="11" t="s">
-        <v>60</v>
+      <c r="AX93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY93" s="11">
+        <v>-15225</v>
       </c>
       <c r="AZ93" s="11">
-        <v>-15225</v>
+        <v>0</v>
       </c>
       <c r="BA93" s="11">
         <v>0</v>
@@ -13034,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>61</v>
       </c>
@@ -13111,8 +13146,8 @@
       <c r="AA94" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AB94" s="13" t="s">
-        <v>60</v>
+      <c r="AB94" s="13">
+        <v>0</v>
       </c>
       <c r="AC94" s="13">
         <v>0</v>
@@ -13132,8 +13167,8 @@
       <c r="AH94" s="13">
         <v>0</v>
       </c>
-      <c r="AI94" s="13">
-        <v>0</v>
+      <c r="AI94" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AJ94" s="13" t="s">
         <v>60</v>
@@ -13162,14 +13197,14 @@
       <c r="AR94" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AS94" s="13" t="s">
-        <v>60</v>
+      <c r="AS94" s="13">
+        <v>-194</v>
       </c>
       <c r="AT94" s="13">
-        <v>-194</v>
-      </c>
-      <c r="AU94" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AU94" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AV94" s="13" t="s">
         <v>60</v>
@@ -13193,7 +13228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>63</v>
       </c>
@@ -13300,14 +13335,14 @@
       <c r="AK95" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AL95" s="11" t="s">
-        <v>60</v>
+      <c r="AL95" s="11">
+        <v>-100</v>
       </c>
       <c r="AM95" s="11">
-        <v>-100</v>
+        <v>-520</v>
       </c>
       <c r="AN95" s="11">
-        <v>-520</v>
+        <v>0</v>
       </c>
       <c r="AO95" s="11">
         <v>0</v>
@@ -13327,8 +13362,8 @@
       <c r="AT95" s="11">
         <v>0</v>
       </c>
-      <c r="AU95" s="11">
-        <v>0</v>
+      <c r="AU95" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AV95" s="11" t="s">
         <v>60</v>
@@ -13336,8 +13371,8 @@
       <c r="AW95" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX95" s="11" t="s">
-        <v>60</v>
+      <c r="AX95" s="11">
+        <v>0</v>
       </c>
       <c r="AY95" s="11">
         <v>0</v>
@@ -13352,7 +13387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>65</v>
       </c>
@@ -13459,11 +13494,11 @@
       <c r="AK96" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AL96" s="13" t="s">
-        <v>60</v>
+      <c r="AL96" s="13">
+        <v>-542</v>
       </c>
       <c r="AM96" s="13">
-        <v>-542</v>
+        <v>0</v>
       </c>
       <c r="AN96" s="13">
         <v>0</v>
@@ -13478,31 +13513,31 @@
         <v>0</v>
       </c>
       <c r="AR96" s="13">
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="AS96" s="13">
-        <v>-630</v>
+        <v>0</v>
       </c>
       <c r="AT96" s="13">
         <v>0</v>
       </c>
-      <c r="AU96" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV96" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW96" s="13" t="s">
-        <v>60</v>
+      <c r="AU96" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW96" s="13">
+        <v>-901</v>
       </c>
       <c r="AX96" s="13">
-        <v>-901</v>
+        <v>0</v>
       </c>
       <c r="AY96" s="13">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="AZ96" s="13">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="BA96" s="13">
         <v>0</v>
@@ -13511,7 +13546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="16" t="s">
         <v>79</v>
       </c>
@@ -13582,8 +13617,8 @@
       <c r="Y97" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Z97" s="17" t="s">
-        <v>60</v>
+      <c r="Z97" s="17">
+        <v>0</v>
       </c>
       <c r="AA97" s="17">
         <v>0</v>
@@ -13595,10 +13630,10 @@
         <v>0</v>
       </c>
       <c r="AD97" s="17">
-        <v>0</v>
+        <v>-1056</v>
       </c>
       <c r="AE97" s="17">
-        <v>-1056</v>
+        <v>0</v>
       </c>
       <c r="AF97" s="17">
         <v>0</v>
@@ -13607,10 +13642,10 @@
         <v>0</v>
       </c>
       <c r="AH97" s="17">
-        <v>0</v>
+        <v>-992</v>
       </c>
       <c r="AI97" s="17">
-        <v>-992</v>
+        <v>0</v>
       </c>
       <c r="AJ97" s="17">
         <v>0</v>
@@ -13619,13 +13654,13 @@
         <v>0</v>
       </c>
       <c r="AL97" s="17">
-        <v>0</v>
+        <v>-4098</v>
       </c>
       <c r="AM97" s="17">
-        <v>-4098</v>
+        <v>-2188</v>
       </c>
       <c r="AN97" s="17">
-        <v>-2188</v>
+        <v>0</v>
       </c>
       <c r="AO97" s="17">
         <v>0</v>
@@ -13637,31 +13672,31 @@
         <v>0</v>
       </c>
       <c r="AR97" s="17">
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="AS97" s="17">
-        <v>-630</v>
+        <v>-194</v>
       </c>
       <c r="AT97" s="17">
-        <v>-194</v>
+        <v>-480</v>
       </c>
       <c r="AU97" s="17">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AV97" s="17">
-        <v>0</v>
+        <v>-3596</v>
       </c>
       <c r="AW97" s="17">
-        <v>-3596</v>
+        <v>-901</v>
       </c>
       <c r="AX97" s="17">
-        <v>-901</v>
+        <v>0</v>
       </c>
       <c r="AY97" s="17">
-        <v>0</v>
+        <v>-18921</v>
       </c>
       <c r="AZ97" s="17">
-        <v>-18921</v>
+        <v>0</v>
       </c>
       <c r="BA97" s="17">
         <v>0</v>
@@ -13670,7 +13705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>84</v>
       </c>
@@ -13727,7 +13762,7 @@
       <c r="BA98" s="9"/>
       <c r="BB98" s="9"/>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>85</v>
       </c>
@@ -13798,8 +13833,8 @@
       <c r="Y99" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Z99" s="11" t="s">
-        <v>60</v>
+      <c r="Z99" s="11">
+        <v>0</v>
       </c>
       <c r="AA99" s="11">
         <v>0</v>
@@ -13886,164 +13921,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15">
-        <v>229853</v>
+        <v>113055</v>
       </c>
       <c r="F100" s="15">
-        <v>113055</v>
+        <v>62473</v>
       </c>
       <c r="G100" s="15">
-        <v>62473</v>
+        <v>121730</v>
       </c>
       <c r="H100" s="15">
-        <v>121730</v>
+        <v>118469</v>
       </c>
       <c r="I100" s="15">
-        <v>118469</v>
+        <v>100037</v>
       </c>
       <c r="J100" s="15">
-        <v>100037</v>
+        <v>49458</v>
       </c>
       <c r="K100" s="15">
-        <v>49458</v>
+        <v>55913</v>
       </c>
       <c r="L100" s="15">
-        <v>55913</v>
+        <v>110480</v>
       </c>
       <c r="M100" s="15">
-        <v>110480</v>
+        <v>170958</v>
       </c>
       <c r="N100" s="15">
-        <v>170958</v>
+        <v>155741</v>
       </c>
       <c r="O100" s="15">
-        <v>155741</v>
+        <v>149035</v>
       </c>
       <c r="P100" s="15">
-        <v>149035</v>
+        <v>125976</v>
       </c>
       <c r="Q100" s="15">
-        <v>125976</v>
+        <v>160330</v>
       </c>
       <c r="R100" s="15">
-        <v>160330</v>
+        <v>158422</v>
       </c>
       <c r="S100" s="15">
-        <v>158422</v>
+        <v>190200</v>
       </c>
       <c r="T100" s="15">
-        <v>190200</v>
+        <v>198462</v>
       </c>
       <c r="U100" s="15">
-        <v>198462</v>
+        <v>160140</v>
       </c>
       <c r="V100" s="15">
-        <v>160140</v>
+        <v>101184</v>
       </c>
       <c r="W100" s="15">
-        <v>101184</v>
+        <v>103261</v>
       </c>
       <c r="X100" s="15">
-        <v>103261</v>
+        <v>248525</v>
       </c>
       <c r="Y100" s="15">
-        <v>248525</v>
+        <v>253708</v>
       </c>
       <c r="Z100" s="15">
-        <v>253708</v>
+        <v>253310</v>
       </c>
       <c r="AA100" s="15">
-        <v>253310</v>
+        <v>220000</v>
       </c>
       <c r="AB100" s="15">
-        <v>220000</v>
+        <v>215650</v>
       </c>
       <c r="AC100" s="15">
-        <v>215650</v>
+        <v>221449</v>
       </c>
       <c r="AD100" s="15">
-        <v>221449</v>
+        <v>208761</v>
       </c>
       <c r="AE100" s="15">
-        <v>208761</v>
+        <v>221387</v>
       </c>
       <c r="AF100" s="15">
-        <v>221387</v>
+        <v>220366</v>
       </c>
       <c r="AG100" s="15">
-        <v>220366</v>
+        <v>173808</v>
       </c>
       <c r="AH100" s="15">
-        <v>173808</v>
+        <v>100771</v>
       </c>
       <c r="AI100" s="15">
-        <v>100771</v>
+        <v>282391</v>
       </c>
       <c r="AJ100" s="15">
-        <v>282391</v>
+        <v>324369</v>
       </c>
       <c r="AK100" s="15">
-        <v>324369</v>
+        <v>350843</v>
       </c>
       <c r="AL100" s="15">
-        <v>350843</v>
+        <v>379957</v>
       </c>
       <c r="AM100" s="15">
-        <v>379957</v>
+        <v>405327</v>
       </c>
       <c r="AN100" s="15">
-        <v>405327</v>
+        <v>444164</v>
       </c>
       <c r="AO100" s="15">
-        <v>444164</v>
+        <v>449046</v>
       </c>
       <c r="AP100" s="15">
-        <v>449046</v>
+        <v>430692</v>
       </c>
       <c r="AQ100" s="15">
-        <v>430692</v>
+        <v>423980</v>
       </c>
       <c r="AR100" s="15">
-        <v>423980</v>
+        <v>321039</v>
       </c>
       <c r="AS100" s="15">
-        <v>321039</v>
+        <v>327708</v>
       </c>
       <c r="AT100" s="15">
-        <v>327708</v>
+        <v>159122</v>
       </c>
       <c r="AU100" s="15">
-        <v>159122</v>
+        <v>359618</v>
       </c>
       <c r="AV100" s="15">
-        <v>359618</v>
+        <v>400258</v>
       </c>
       <c r="AW100" s="15">
-        <v>400258</v>
+        <v>450537</v>
       </c>
       <c r="AX100" s="15">
-        <v>450537</v>
+        <v>452214</v>
       </c>
       <c r="AY100" s="15">
-        <v>452214</v>
+        <v>451918</v>
       </c>
       <c r="AZ100" s="15">
-        <v>451918</v>
+        <v>545533</v>
       </c>
       <c r="BA100" s="15">
-        <v>545533</v>
+        <v>615385</v>
       </c>
       <c r="BB100" s="15">
-        <v>615385</v>
+        <v>1856204</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -14098,7 +14133,7 @@
       <c r="BA101" s="1"/>
       <c r="BB101" s="1"/>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -14153,7 +14188,7 @@
       <c r="BA102" s="1"/>
       <c r="BB102" s="1"/>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -14208,7 +14243,7 @@
       <c r="BA103" s="1"/>
       <c r="BB103" s="1"/>
     </row>
-    <row r="104" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>86</v>
       </c>
@@ -14365,7 +14400,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -14420,7 +14455,7 @@
       <c r="BA105" s="1"/>
       <c r="BB105" s="1"/>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>87</v>
       </c>
@@ -14477,7 +14512,7 @@
       <c r="BA106" s="9"/>
       <c r="BB106" s="9"/>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>55</v>
       </c>
@@ -14486,13 +14521,13 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>1349826</v>
+        <v>1711918</v>
       </c>
       <c r="F107" s="11">
-        <v>1711918</v>
+        <v>2975079</v>
       </c>
       <c r="G107" s="11">
-        <v>2975079</v>
+        <v>0</v>
       </c>
       <c r="H107" s="11">
         <v>0</v>
@@ -14501,142 +14536,142 @@
         <v>0</v>
       </c>
       <c r="J107" s="11">
-        <v>0</v>
+        <v>3350099</v>
       </c>
       <c r="K107" s="11">
-        <v>3350099</v>
+        <v>0</v>
       </c>
       <c r="L107" s="11">
-        <v>0</v>
+        <v>5567568</v>
       </c>
       <c r="M107" s="11">
-        <v>5567568</v>
+        <v>0</v>
       </c>
       <c r="N107" s="11">
-        <v>0</v>
+        <v>3921311</v>
       </c>
       <c r="O107" s="11">
-        <v>3921311</v>
+        <v>0</v>
       </c>
       <c r="P107" s="11">
-        <v>0</v>
+        <v>2569686</v>
       </c>
       <c r="Q107" s="11">
-        <v>2569686</v>
+        <v>0</v>
       </c>
       <c r="R107" s="11">
-        <v>0</v>
+        <v>3191570</v>
       </c>
       <c r="S107" s="11">
-        <v>3191570</v>
+        <v>2798633</v>
       </c>
       <c r="T107" s="11">
-        <v>2798633</v>
+        <v>3349815</v>
       </c>
       <c r="U107" s="11">
-        <v>3349815</v>
+        <v>1977230</v>
       </c>
       <c r="V107" s="11">
-        <v>1977230</v>
-      </c>
-      <c r="W107" s="11">
         <v>3348354</v>
       </c>
-      <c r="X107" s="11" t="s">
-        <v>60</v>
+      <c r="W107" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X107" s="11">
+        <v>3677008</v>
       </c>
       <c r="Y107" s="11">
-        <v>3677008</v>
+        <v>3256083</v>
       </c>
       <c r="Z107" s="11">
-        <v>3256083</v>
+        <v>3964396</v>
       </c>
       <c r="AA107" s="11">
-        <v>3964396</v>
+        <v>4084078</v>
       </c>
       <c r="AB107" s="11">
-        <v>4084078</v>
+        <v>4199450</v>
       </c>
       <c r="AC107" s="11">
-        <v>4199450</v>
+        <v>4849741</v>
       </c>
       <c r="AD107" s="11">
-        <v>4849741</v>
+        <v>5404830</v>
       </c>
       <c r="AE107" s="11">
-        <v>5404830</v>
+        <v>5082849</v>
       </c>
       <c r="AF107" s="11">
-        <v>5082849</v>
+        <v>4999044</v>
       </c>
       <c r="AG107" s="11">
-        <v>4999044</v>
-      </c>
-      <c r="AH107" s="11">
         <v>5501946</v>
       </c>
-      <c r="AI107" s="11" t="s">
-        <v>60</v>
+      <c r="AH107" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI107" s="11">
+        <v>4448388</v>
       </c>
       <c r="AJ107" s="11">
-        <v>4448388</v>
+        <v>6000380</v>
       </c>
       <c r="AK107" s="11">
-        <v>6000380</v>
+        <v>6000000</v>
       </c>
       <c r="AL107" s="11">
+        <v>5934452</v>
+      </c>
+      <c r="AM107" s="11">
+        <v>5490863</v>
+      </c>
+      <c r="AN107" s="11">
+        <v>4999583</v>
+      </c>
+      <c r="AO107" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP107" s="11">
+        <v>5749232</v>
+      </c>
+      <c r="AQ107" s="11">
+        <v>5879889</v>
+      </c>
+      <c r="AR107" s="11">
+        <v>5625737</v>
+      </c>
+      <c r="AS107" s="11">
+        <v>5527167</v>
+      </c>
+      <c r="AT107" s="11">
+        <v>7000000</v>
+      </c>
+      <c r="AU107" s="11">
+        <v>6273764</v>
+      </c>
+      <c r="AV107" s="11">
+        <v>6416496</v>
+      </c>
+      <c r="AW107" s="11">
+        <v>6753967</v>
+      </c>
+      <c r="AX107" s="11">
+        <v>6548980</v>
+      </c>
+      <c r="AY107" s="11">
+        <v>7459488</v>
+      </c>
+      <c r="AZ107" s="11">
         <v>6000000</v>
       </c>
-      <c r="AM107" s="11">
-        <v>5934452</v>
-      </c>
-      <c r="AN107" s="11">
-        <v>5490863</v>
-      </c>
-      <c r="AO107" s="11">
-        <v>4999583</v>
-      </c>
-      <c r="AP107" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ107" s="11">
-        <v>5749232</v>
-      </c>
-      <c r="AR107" s="11">
-        <v>5879889</v>
-      </c>
-      <c r="AS107" s="11">
-        <v>5625737</v>
-      </c>
-      <c r="AT107" s="11">
-        <v>5527167</v>
-      </c>
-      <c r="AU107" s="11">
-        <v>7000000</v>
-      </c>
-      <c r="AV107" s="11">
-        <v>6273764</v>
-      </c>
-      <c r="AW107" s="11">
-        <v>6416496</v>
-      </c>
-      <c r="AX107" s="11">
-        <v>6753967</v>
-      </c>
-      <c r="AY107" s="11">
-        <v>6548980</v>
-      </c>
-      <c r="AZ107" s="11">
-        <v>7459488</v>
-      </c>
       <c r="BA107" s="11">
-        <v>6000000</v>
+        <v>7007386</v>
       </c>
       <c r="BB107" s="11">
-        <v>7007386</v>
+        <v>6986919</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>57</v>
       </c>
@@ -14645,157 +14680,157 @@
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="13">
-        <v>3172918</v>
+        <v>3530864</v>
       </c>
       <c r="F108" s="13">
-        <v>3530864</v>
+        <v>4246988</v>
       </c>
       <c r="G108" s="13">
-        <v>4246988</v>
+        <v>2403017</v>
       </c>
       <c r="H108" s="13">
-        <v>2403017</v>
+        <v>1453435</v>
       </c>
       <c r="I108" s="13">
-        <v>1453435</v>
+        <v>1500000</v>
       </c>
       <c r="J108" s="13">
-        <v>1500000</v>
+        <v>1451325</v>
       </c>
       <c r="K108" s="13">
-        <v>1451325</v>
+        <v>1444343</v>
       </c>
       <c r="L108" s="13">
-        <v>1444343</v>
+        <v>1437966</v>
       </c>
       <c r="M108" s="13">
-        <v>1437966</v>
+        <v>1682966</v>
       </c>
       <c r="N108" s="13">
-        <v>1682966</v>
+        <v>0</v>
       </c>
       <c r="O108" s="13">
-        <v>0</v>
+        <v>1934213</v>
       </c>
       <c r="P108" s="13">
-        <v>1934213</v>
+        <v>1611111</v>
       </c>
       <c r="Q108" s="13">
-        <v>1611111</v>
+        <v>1850438</v>
       </c>
       <c r="R108" s="13">
-        <v>1850438</v>
+        <v>2100763</v>
       </c>
       <c r="S108" s="13">
-        <v>2100763</v>
+        <v>2000000</v>
       </c>
       <c r="T108" s="13">
-        <v>2000000</v>
+        <v>1682879</v>
       </c>
       <c r="U108" s="13">
-        <v>1682879</v>
+        <v>2159565</v>
       </c>
       <c r="V108" s="13">
-        <v>2159565</v>
+        <v>2226776</v>
       </c>
       <c r="W108" s="13">
-        <v>2226776</v>
+        <v>2454437</v>
       </c>
       <c r="X108" s="13">
-        <v>2454437</v>
+        <v>5895833</v>
       </c>
       <c r="Y108" s="13">
-        <v>5895833</v>
+        <v>2266389</v>
       </c>
       <c r="Z108" s="13">
-        <v>2266389</v>
+        <v>2370167</v>
       </c>
       <c r="AA108" s="13">
-        <v>2370167</v>
+        <v>1764059</v>
       </c>
       <c r="AB108" s="13">
-        <v>1764059</v>
+        <v>1965344</v>
       </c>
       <c r="AC108" s="13">
-        <v>1965344</v>
+        <v>3468737</v>
       </c>
       <c r="AD108" s="13">
-        <v>3468737</v>
+        <v>2343713</v>
       </c>
       <c r="AE108" s="13">
-        <v>2343713</v>
+        <v>2598895</v>
       </c>
       <c r="AF108" s="13">
-        <v>2598895</v>
+        <v>3272920</v>
       </c>
       <c r="AG108" s="13">
-        <v>3272920</v>
+        <v>3686536</v>
       </c>
       <c r="AH108" s="13">
-        <v>3686536</v>
-      </c>
-      <c r="AI108" s="13">
         <v>9613872</v>
       </c>
-      <c r="AJ108" s="13" t="s">
-        <v>60</v>
+      <c r="AI108" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ108" s="13">
+        <v>9499804</v>
       </c>
       <c r="AK108" s="13">
-        <v>9499804</v>
+        <v>14959583</v>
       </c>
       <c r="AL108" s="13">
-        <v>14959583</v>
+        <v>8586863</v>
       </c>
       <c r="AM108" s="13">
-        <v>8586863</v>
+        <v>8059984</v>
       </c>
       <c r="AN108" s="13">
-        <v>8059984</v>
+        <v>6945882</v>
       </c>
       <c r="AO108" s="13">
-        <v>6945882</v>
+        <v>8521869</v>
       </c>
       <c r="AP108" s="13">
-        <v>8521869</v>
+        <v>7421734</v>
       </c>
       <c r="AQ108" s="13">
-        <v>7421734</v>
+        <v>7221334</v>
       </c>
       <c r="AR108" s="13">
-        <v>7221334</v>
+        <v>6534422</v>
       </c>
       <c r="AS108" s="13">
-        <v>6534422</v>
+        <v>5827541</v>
       </c>
       <c r="AT108" s="13">
-        <v>5827541</v>
+        <v>16160683</v>
       </c>
       <c r="AU108" s="13">
-        <v>16160683</v>
+        <v>5592846</v>
       </c>
       <c r="AV108" s="13">
-        <v>5592846</v>
+        <v>7592380</v>
       </c>
       <c r="AW108" s="13">
-        <v>7592380</v>
+        <v>6720019</v>
       </c>
       <c r="AX108" s="13">
-        <v>6720019</v>
+        <v>6384809</v>
       </c>
       <c r="AY108" s="13">
-        <v>6384809</v>
+        <v>13546339</v>
       </c>
       <c r="AZ108" s="13">
-        <v>13546339</v>
+        <v>41292703</v>
       </c>
       <c r="BA108" s="13">
-        <v>41292703</v>
+        <v>6458358</v>
       </c>
       <c r="BB108" s="13">
-        <v>6458358</v>
+        <v>13005246</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>58</v>
       </c>
@@ -14804,157 +14839,157 @@
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
-        <v>6803909</v>
+        <v>3922499</v>
       </c>
       <c r="F109" s="11">
-        <v>3922499</v>
+        <v>4261419</v>
       </c>
       <c r="G109" s="11">
-        <v>4261419</v>
+        <v>7075372</v>
       </c>
       <c r="H109" s="11">
-        <v>7075372</v>
+        <v>4871706</v>
       </c>
       <c r="I109" s="11">
-        <v>4871706</v>
+        <v>5565402</v>
       </c>
       <c r="J109" s="11">
-        <v>5565402</v>
+        <v>6998379</v>
       </c>
       <c r="K109" s="11">
-        <v>6998379</v>
+        <v>5130716</v>
       </c>
       <c r="L109" s="11">
-        <v>5130716</v>
+        <v>5977198</v>
       </c>
       <c r="M109" s="11">
-        <v>5977198</v>
+        <v>6776810</v>
       </c>
       <c r="N109" s="11">
-        <v>6776810</v>
+        <v>7999086</v>
       </c>
       <c r="O109" s="11">
-        <v>7999086</v>
+        <v>8000202</v>
       </c>
       <c r="P109" s="11">
-        <v>8000202</v>
+        <v>8358841</v>
       </c>
       <c r="Q109" s="11">
-        <v>8358841</v>
+        <v>8000000</v>
       </c>
       <c r="R109" s="11">
-        <v>8000000</v>
+        <v>5705511</v>
       </c>
       <c r="S109" s="11">
-        <v>5705511</v>
+        <v>4479664</v>
       </c>
       <c r="T109" s="11">
-        <v>4479664</v>
+        <v>6147936</v>
       </c>
       <c r="U109" s="11">
-        <v>6147936</v>
+        <v>4951610</v>
       </c>
       <c r="V109" s="11">
-        <v>4951610</v>
+        <v>2086957</v>
       </c>
       <c r="W109" s="11">
-        <v>2086957</v>
+        <v>6731415</v>
       </c>
       <c r="X109" s="11">
-        <v>6731415</v>
+        <v>9436774</v>
       </c>
       <c r="Y109" s="11">
-        <v>9436774</v>
+        <v>9398790</v>
       </c>
       <c r="Z109" s="11">
-        <v>9398790</v>
+        <v>8820755</v>
       </c>
       <c r="AA109" s="11">
-        <v>8820755</v>
+        <v>8356281</v>
       </c>
       <c r="AB109" s="11">
-        <v>8356281</v>
+        <v>7389861</v>
       </c>
       <c r="AC109" s="11">
-        <v>7389861</v>
+        <v>7006415</v>
       </c>
       <c r="AD109" s="11">
-        <v>7006415</v>
+        <v>5514490</v>
       </c>
       <c r="AE109" s="11">
-        <v>5514490</v>
+        <v>5776905</v>
       </c>
       <c r="AF109" s="11">
-        <v>5776905</v>
+        <v>9547742</v>
       </c>
       <c r="AG109" s="11">
-        <v>9547742</v>
-      </c>
-      <c r="AH109" s="11">
         <v>7500000</v>
       </c>
-      <c r="AI109" s="11" t="s">
-        <v>60</v>
+      <c r="AH109" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI109" s="11">
+        <v>8829659</v>
       </c>
       <c r="AJ109" s="11">
-        <v>8829659</v>
+        <v>11358713</v>
       </c>
       <c r="AK109" s="11">
-        <v>11358713</v>
+        <v>13204909</v>
       </c>
       <c r="AL109" s="11">
-        <v>13204909</v>
+        <v>12662631</v>
       </c>
       <c r="AM109" s="11">
-        <v>12662631</v>
+        <v>3500620</v>
       </c>
       <c r="AN109" s="11">
-        <v>3500620</v>
+        <v>12725960</v>
       </c>
       <c r="AO109" s="11">
-        <v>12725960</v>
+        <v>11947568</v>
       </c>
       <c r="AP109" s="11">
-        <v>11947568</v>
+        <v>12000000</v>
       </c>
       <c r="AQ109" s="11">
-        <v>12000000</v>
+        <v>11601440</v>
       </c>
       <c r="AR109" s="11">
-        <v>11601440</v>
+        <v>8796754</v>
       </c>
       <c r="AS109" s="11">
-        <v>8796754</v>
+        <v>14936325</v>
       </c>
       <c r="AT109" s="11">
-        <v>14936325</v>
+        <v>12003358</v>
       </c>
       <c r="AU109" s="11">
-        <v>12003358</v>
+        <v>10812745</v>
       </c>
       <c r="AV109" s="11">
-        <v>10812745</v>
+        <v>18418057</v>
       </c>
       <c r="AW109" s="11">
-        <v>18418057</v>
+        <v>10204104</v>
       </c>
       <c r="AX109" s="11">
-        <v>10204104</v>
+        <v>13521369</v>
       </c>
       <c r="AY109" s="11">
-        <v>13521369</v>
+        <v>21799961</v>
       </c>
       <c r="AZ109" s="11">
-        <v>21799961</v>
+        <v>10173585</v>
       </c>
       <c r="BA109" s="11">
-        <v>10173585</v>
+        <v>21341072</v>
       </c>
       <c r="BB109" s="11">
-        <v>21341072</v>
+        <v>27979601</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>59</v>
       </c>
@@ -14980,8 +15015,8 @@
       <c r="J110" s="13">
         <v>0</v>
       </c>
-      <c r="K110" s="13">
-        <v>0</v>
+      <c r="K110" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="L110" s="13" t="s">
         <v>60</v>
@@ -15113,7 +15148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>61</v>
       </c>
@@ -15122,157 +15157,157 @@
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
-        <v>7421246</v>
+        <v>7793473</v>
       </c>
       <c r="F111" s="11">
-        <v>7793473</v>
+        <v>8156740</v>
       </c>
       <c r="G111" s="11">
-        <v>8156740</v>
+        <v>9816573</v>
       </c>
       <c r="H111" s="11">
-        <v>9816573</v>
+        <v>9998997</v>
       </c>
       <c r="I111" s="11">
-        <v>9998997</v>
+        <v>10001350</v>
       </c>
       <c r="J111" s="11">
-        <v>10001350</v>
+        <v>9999306</v>
       </c>
       <c r="K111" s="11">
-        <v>9999306</v>
+        <v>15525124</v>
       </c>
       <c r="L111" s="11">
-        <v>15525124</v>
+        <v>0</v>
       </c>
       <c r="M111" s="11">
-        <v>0</v>
+        <v>10825322</v>
       </c>
       <c r="N111" s="11">
-        <v>10825322</v>
+        <v>7450946</v>
       </c>
       <c r="O111" s="11">
-        <v>7450946</v>
+        <v>9728903</v>
       </c>
       <c r="P111" s="11">
-        <v>9728903</v>
+        <v>7565565</v>
       </c>
       <c r="Q111" s="11">
-        <v>7565565</v>
+        <v>9171238</v>
       </c>
       <c r="R111" s="11">
-        <v>9171238</v>
+        <v>6497449</v>
       </c>
       <c r="S111" s="11">
-        <v>6497449</v>
+        <v>8295527</v>
       </c>
       <c r="T111" s="11">
-        <v>8295527</v>
+        <v>7097390</v>
       </c>
       <c r="U111" s="11">
-        <v>7097390</v>
+        <v>8796560</v>
       </c>
       <c r="V111" s="11">
-        <v>8796560</v>
+        <v>9220523</v>
       </c>
       <c r="W111" s="11">
-        <v>9220523</v>
+        <v>9472594</v>
       </c>
       <c r="X111" s="11">
-        <v>9472594</v>
+        <v>9227534</v>
       </c>
       <c r="Y111" s="11">
-        <v>9227534</v>
+        <v>9405541</v>
       </c>
       <c r="Z111" s="11">
-        <v>9405541</v>
+        <v>11775604</v>
       </c>
       <c r="AA111" s="11">
-        <v>11775604</v>
+        <v>10925476</v>
       </c>
       <c r="AB111" s="11">
-        <v>10925476</v>
+        <v>9790797</v>
       </c>
       <c r="AC111" s="11">
-        <v>9790797</v>
+        <v>7499792</v>
       </c>
       <c r="AD111" s="11">
-        <v>7499792</v>
+        <v>13166398</v>
       </c>
       <c r="AE111" s="11">
-        <v>13166398</v>
+        <v>10591549</v>
       </c>
       <c r="AF111" s="11">
-        <v>10591549</v>
+        <v>9500697</v>
       </c>
       <c r="AG111" s="11">
-        <v>9500697</v>
+        <v>9544392</v>
       </c>
       <c r="AH111" s="11">
-        <v>9544392</v>
+        <v>10280517</v>
       </c>
       <c r="AI111" s="11">
-        <v>10280517</v>
+        <v>11394538</v>
       </c>
       <c r="AJ111" s="11">
-        <v>11394538</v>
+        <v>12269849</v>
       </c>
       <c r="AK111" s="11">
-        <v>12269849</v>
+        <v>13525741</v>
       </c>
       <c r="AL111" s="11">
-        <v>13525741</v>
+        <v>12292848</v>
       </c>
       <c r="AM111" s="11">
-        <v>12292848</v>
+        <v>15508685</v>
       </c>
       <c r="AN111" s="11">
-        <v>15508685</v>
+        <v>15509898</v>
       </c>
       <c r="AO111" s="11">
-        <v>15509898</v>
+        <v>15718146</v>
       </c>
       <c r="AP111" s="11">
-        <v>15718146</v>
+        <v>15155312</v>
       </c>
       <c r="AQ111" s="11">
-        <v>15155312</v>
+        <v>16000000</v>
       </c>
       <c r="AR111" s="11">
-        <v>16000000</v>
+        <v>15756076</v>
       </c>
       <c r="AS111" s="11">
-        <v>15756076</v>
+        <v>15498565</v>
       </c>
       <c r="AT111" s="11">
-        <v>15498565</v>
+        <v>15803191</v>
       </c>
       <c r="AU111" s="11">
-        <v>15803191</v>
+        <v>15859581</v>
       </c>
       <c r="AV111" s="11">
-        <v>15859581</v>
+        <v>15958984</v>
       </c>
       <c r="AW111" s="11">
-        <v>15958984</v>
+        <v>16299487</v>
       </c>
       <c r="AX111" s="11">
-        <v>16299487</v>
+        <v>15099906</v>
       </c>
       <c r="AY111" s="11">
-        <v>15099906</v>
-      </c>
-      <c r="AZ111" s="11" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="AZ111" s="11">
+        <v>42709683</v>
       </c>
       <c r="BA111" s="11">
-        <v>42709683</v>
+        <v>46374246</v>
       </c>
       <c r="BB111" s="11">
-        <v>46374246</v>
+        <v>47214940</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B112" s="12" t="s">
         <v>62</v>
       </c>
@@ -15281,113 +15316,113 @@
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13">
-        <v>3733231</v>
+        <v>645023</v>
       </c>
       <c r="F112" s="13">
-        <v>645023</v>
+        <v>1320810</v>
       </c>
       <c r="G112" s="13">
-        <v>1320810</v>
+        <v>2457249</v>
       </c>
       <c r="H112" s="13">
-        <v>2457249</v>
+        <v>2734435</v>
       </c>
       <c r="I112" s="13">
-        <v>2734435</v>
+        <v>2599638</v>
       </c>
       <c r="J112" s="13">
-        <v>2599638</v>
+        <v>2064150</v>
       </c>
       <c r="K112" s="13">
-        <v>2064150</v>
+        <v>2624551</v>
       </c>
       <c r="L112" s="13">
-        <v>2624551</v>
+        <v>4420279</v>
       </c>
       <c r="M112" s="13">
-        <v>4420279</v>
+        <v>4021434</v>
       </c>
       <c r="N112" s="13">
-        <v>4021434</v>
+        <v>2142511</v>
       </c>
       <c r="O112" s="13">
-        <v>2142511</v>
+        <v>2923824</v>
       </c>
       <c r="P112" s="13">
-        <v>2923824</v>
+        <v>3019587</v>
       </c>
       <c r="Q112" s="13">
-        <v>3019587</v>
+        <v>2064064</v>
       </c>
       <c r="R112" s="13">
-        <v>2064064</v>
+        <v>2238934</v>
       </c>
       <c r="S112" s="13">
-        <v>2238934</v>
+        <v>1815208</v>
       </c>
       <c r="T112" s="13">
-        <v>1815208</v>
+        <v>2387383</v>
       </c>
       <c r="U112" s="13">
-        <v>2387383</v>
+        <v>1485345</v>
       </c>
       <c r="V112" s="13">
-        <v>1485345</v>
+        <v>540119</v>
       </c>
       <c r="W112" s="13">
-        <v>540119</v>
+        <v>1140318</v>
       </c>
       <c r="X112" s="13">
-        <v>1140318</v>
+        <v>5298499</v>
       </c>
       <c r="Y112" s="13">
-        <v>5298499</v>
+        <v>4550593</v>
       </c>
       <c r="Z112" s="13">
-        <v>4550593</v>
+        <v>4356750</v>
       </c>
       <c r="AA112" s="13">
-        <v>4356750</v>
+        <v>3630233</v>
       </c>
       <c r="AB112" s="13">
-        <v>3630233</v>
+        <v>4715747</v>
       </c>
       <c r="AC112" s="13">
-        <v>4715747</v>
+        <v>4857490</v>
       </c>
       <c r="AD112" s="13">
-        <v>4857490</v>
+        <v>6509610</v>
       </c>
       <c r="AE112" s="13">
-        <v>6509610</v>
+        <v>5066247</v>
       </c>
       <c r="AF112" s="13">
-        <v>5066247</v>
+        <v>3275449</v>
       </c>
       <c r="AG112" s="13">
-        <v>3275449</v>
+        <v>4858104</v>
       </c>
       <c r="AH112" s="13">
-        <v>4858104</v>
+        <v>8992667</v>
       </c>
       <c r="AI112" s="13">
-        <v>8992667</v>
+        <v>7076734</v>
       </c>
       <c r="AJ112" s="13">
-        <v>7076734</v>
+        <v>3409255</v>
       </c>
       <c r="AK112" s="13">
-        <v>3409255</v>
+        <v>5246130</v>
       </c>
       <c r="AL112" s="13">
-        <v>5246130</v>
+        <v>5880746</v>
       </c>
       <c r="AM112" s="13">
-        <v>5880746</v>
-      </c>
-      <c r="AN112" s="13">
         <v>5792905</v>
       </c>
+      <c r="AN112" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AO112" s="13" t="s">
         <v>60</v>
       </c>
@@ -15431,7 +15466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>63</v>
       </c>
@@ -15520,77 +15555,77 @@
       <c r="AE113" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF113" s="11" t="s">
-        <v>60</v>
+      <c r="AF113" s="11">
+        <v>101410256</v>
       </c>
       <c r="AG113" s="11">
-        <v>101410256</v>
+        <v>4000000</v>
       </c>
       <c r="AH113" s="11">
-        <v>4000000</v>
+        <v>99900000</v>
       </c>
       <c r="AI113" s="11">
-        <v>99900000</v>
+        <v>102500000</v>
       </c>
       <c r="AJ113" s="11">
-        <v>102500000</v>
+        <v>5415929</v>
       </c>
       <c r="AK113" s="11">
-        <v>5415929</v>
-      </c>
-      <c r="AL113" s="11">
         <v>5819102</v>
       </c>
-      <c r="AM113" s="11" t="s">
-        <v>60</v>
+      <c r="AL113" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM113" s="11">
+        <v>14402985</v>
       </c>
       <c r="AN113" s="11">
-        <v>14402985</v>
-      </c>
-      <c r="AO113" s="11">
         <v>9298117</v>
       </c>
+      <c r="AO113" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AP113" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AQ113" s="11" t="s">
-        <v>60</v>
+      <c r="AQ113" s="11">
+        <v>102163934</v>
       </c>
       <c r="AR113" s="11">
-        <v>102163934</v>
+        <v>4516383</v>
       </c>
       <c r="AS113" s="11">
-        <v>4516383</v>
+        <v>6584535</v>
       </c>
       <c r="AT113" s="11">
-        <v>6584535</v>
+        <v>6953459</v>
       </c>
       <c r="AU113" s="11">
-        <v>6953459</v>
+        <v>5442843</v>
       </c>
       <c r="AV113" s="11">
-        <v>5442843</v>
+        <v>11971193</v>
       </c>
       <c r="AW113" s="11">
-        <v>11971193</v>
+        <v>6414685</v>
       </c>
       <c r="AX113" s="11">
-        <v>6414685</v>
+        <v>5131089</v>
       </c>
       <c r="AY113" s="11">
-        <v>5131089</v>
+        <v>688500000</v>
       </c>
       <c r="AZ113" s="11">
-        <v>688500000</v>
+        <v>65490436</v>
       </c>
       <c r="BA113" s="11">
-        <v>65490436</v>
+        <v>11761543</v>
       </c>
       <c r="BB113" s="11">
-        <v>11761543</v>
+        <v>28581688</v>
       </c>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>64</v>
       </c>
@@ -15679,15 +15714,15 @@
       <c r="AE114" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AF114" s="13" t="s">
-        <v>60</v>
+      <c r="AF114" s="13">
+        <v>8006803</v>
       </c>
       <c r="AG114" s="13">
-        <v>8006803</v>
-      </c>
-      <c r="AH114" s="13">
         <v>48327778</v>
       </c>
+      <c r="AH114" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AI114" s="13" t="s">
         <v>60</v>
       </c>
@@ -15706,50 +15741,50 @@
       <c r="AN114" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AO114" s="13" t="s">
-        <v>60</v>
+      <c r="AO114" s="13">
+        <v>56044619</v>
       </c>
       <c r="AP114" s="13">
-        <v>56044619</v>
+        <v>30039761</v>
       </c>
       <c r="AQ114" s="13">
-        <v>30039761</v>
+        <v>43382900</v>
       </c>
       <c r="AR114" s="13">
-        <v>43382900</v>
+        <v>26969863</v>
       </c>
       <c r="AS114" s="13">
-        <v>26969863</v>
+        <v>28529018</v>
       </c>
       <c r="AT114" s="13">
-        <v>28529018</v>
+        <v>29029851</v>
       </c>
       <c r="AU114" s="13">
-        <v>29029851</v>
+        <v>56092593</v>
       </c>
       <c r="AV114" s="13">
-        <v>56092593</v>
+        <v>27405363</v>
       </c>
       <c r="AW114" s="13">
-        <v>27405363</v>
+        <v>85946154</v>
       </c>
       <c r="AX114" s="13">
-        <v>85946154</v>
+        <v>46660377</v>
       </c>
       <c r="AY114" s="13">
-        <v>46660377</v>
+        <v>28152709</v>
       </c>
       <c r="AZ114" s="13">
-        <v>28152709</v>
+        <v>65294521</v>
       </c>
       <c r="BA114" s="13">
-        <v>65294521</v>
+        <v>58000000</v>
       </c>
       <c r="BB114" s="13">
-        <v>58000000</v>
+        <v>58421505</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>65</v>
       </c>
@@ -15838,77 +15873,77 @@
       <c r="AE115" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF115" s="11" t="s">
-        <v>60</v>
+      <c r="AF115" s="11">
+        <v>129000000</v>
       </c>
       <c r="AG115" s="11">
-        <v>129000000</v>
-      </c>
-      <c r="AH115" s="11">
         <v>573000000</v>
       </c>
+      <c r="AH115" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AI115" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AJ115" s="11" t="s">
-        <v>60</v>
+      <c r="AJ115" s="11">
+        <v>76150000</v>
       </c>
       <c r="AK115" s="11">
-        <v>76150000</v>
+        <v>67200000</v>
       </c>
       <c r="AL115" s="11">
-        <v>67200000</v>
+        <v>35750000</v>
       </c>
       <c r="AM115" s="11">
-        <v>35750000</v>
+        <v>36320732</v>
       </c>
       <c r="AN115" s="11">
-        <v>36320732</v>
+        <v>36282155</v>
       </c>
       <c r="AO115" s="11">
-        <v>36282155</v>
+        <v>36540672</v>
       </c>
       <c r="AP115" s="11">
-        <v>36540672</v>
+        <v>34457648</v>
       </c>
       <c r="AQ115" s="11">
-        <v>34457648</v>
+        <v>34408360</v>
       </c>
       <c r="AR115" s="11">
-        <v>34408360</v>
+        <v>16000000</v>
       </c>
       <c r="AS115" s="11">
-        <v>16000000</v>
+        <v>75000000</v>
       </c>
       <c r="AT115" s="11">
-        <v>75000000</v>
+        <v>101074413</v>
       </c>
       <c r="AU115" s="11">
-        <v>101074413</v>
+        <v>504300000</v>
       </c>
       <c r="AV115" s="11">
-        <v>504300000</v>
+        <v>77000000</v>
       </c>
       <c r="AW115" s="11">
-        <v>77000000</v>
+        <v>35532110</v>
       </c>
       <c r="AX115" s="11">
-        <v>35532110</v>
+        <v>964833333</v>
       </c>
       <c r="AY115" s="11">
-        <v>964833333</v>
+        <v>33145739</v>
       </c>
       <c r="AZ115" s="11">
-        <v>7853755</v>
+        <v>243189189</v>
       </c>
       <c r="BA115" s="11">
-        <v>243189189</v>
+        <v>235761538</v>
       </c>
       <c r="BB115" s="11">
-        <v>235761538</v>
+        <v>92123810</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>66</v>
       </c>
@@ -16021,53 +16056,53 @@
       <c r="AM116" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AN116" s="13" t="s">
-        <v>60</v>
+      <c r="AN116" s="13">
+        <v>5142252</v>
       </c>
       <c r="AO116" s="13">
-        <v>5142252</v>
+        <v>8296379</v>
       </c>
       <c r="AP116" s="13">
-        <v>8296379</v>
+        <v>5981017</v>
       </c>
       <c r="AQ116" s="13">
-        <v>5981017</v>
+        <v>5478974</v>
       </c>
       <c r="AR116" s="13">
-        <v>5478974</v>
+        <v>6591745</v>
       </c>
       <c r="AS116" s="13">
-        <v>6591745</v>
+        <v>6120147</v>
       </c>
       <c r="AT116" s="13">
-        <v>6120147</v>
+        <v>4812346</v>
       </c>
       <c r="AU116" s="13">
-        <v>4812346</v>
+        <v>8593750</v>
       </c>
       <c r="AV116" s="13">
-        <v>8593750</v>
+        <v>10872407</v>
       </c>
       <c r="AW116" s="13">
-        <v>10872407</v>
+        <v>8298748</v>
       </c>
       <c r="AX116" s="13">
-        <v>8298748</v>
+        <v>11707986</v>
       </c>
       <c r="AY116" s="13">
-        <v>11707986</v>
+        <v>7383051</v>
       </c>
       <c r="AZ116" s="13">
-        <v>7383051</v>
+        <v>7119277</v>
       </c>
       <c r="BA116" s="13">
-        <v>7119277</v>
+        <v>1739464</v>
       </c>
       <c r="BB116" s="13">
-        <v>1739464</v>
+        <v>2671915</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>67</v>
       </c>
@@ -16195,38 +16230,38 @@
       <c r="AR117" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AS117" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT117" s="11">
+      <c r="AS117" s="11">
         <v>1207142857</v>
       </c>
-      <c r="AU117" s="11" t="s">
-        <v>60</v>
+      <c r="AT117" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU117" s="11">
+        <v>1343333333</v>
       </c>
       <c r="AV117" s="11">
-        <v>1343333333</v>
+        <v>0</v>
       </c>
       <c r="AW117" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX117" s="11" t="s">
-        <v>60</v>
+      <c r="AX117" s="11">
+        <v>1365000000</v>
       </c>
       <c r="AY117" s="11">
-        <v>1365000000</v>
+        <v>1495000000</v>
       </c>
       <c r="AZ117" s="11">
-        <v>1495000000</v>
+        <v>0</v>
       </c>
       <c r="BA117" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="BB117" s="11" t="s">
-        <v>60</v>
+      <c r="BB117" s="11">
+        <v>1137500000</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>68</v>
       </c>
@@ -16348,44 +16383,44 @@
       <c r="AP118" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AQ118" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR118" s="13">
+      <c r="AQ118" s="13">
         <v>3187912</v>
       </c>
-      <c r="AS118" s="13" t="s">
-        <v>60</v>
+      <c r="AR118" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS118" s="13">
+        <v>3505713</v>
       </c>
       <c r="AT118" s="13">
-        <v>3505713</v>
-      </c>
-      <c r="AU118" s="13">
         <v>5885442</v>
       </c>
-      <c r="AV118" s="13" t="s">
-        <v>60</v>
+      <c r="AU118" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV118" s="13">
+        <v>143000000</v>
       </c>
       <c r="AW118" s="13">
-        <v>143000000</v>
+        <v>787879</v>
       </c>
       <c r="AX118" s="13">
-        <v>787879</v>
+        <v>5723618</v>
       </c>
       <c r="AY118" s="13">
-        <v>5723618</v>
+        <v>4909307</v>
       </c>
       <c r="AZ118" s="13">
-        <v>4909307</v>
+        <v>1534483</v>
       </c>
       <c r="BA118" s="13">
-        <v>1534483</v>
+        <v>345618182</v>
       </c>
       <c r="BB118" s="13">
-        <v>345618182</v>
+        <v>349954545</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>69</v>
       </c>
@@ -16498,53 +16533,53 @@
       <c r="AM119" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AN119" s="11" t="s">
-        <v>60</v>
+      <c r="AN119" s="11">
+        <v>11599143</v>
       </c>
       <c r="AO119" s="11">
-        <v>11599143</v>
+        <v>14993235</v>
       </c>
       <c r="AP119" s="11">
-        <v>14993235</v>
-      </c>
-      <c r="AQ119" s="11">
         <v>15000000</v>
       </c>
+      <c r="AQ119" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AR119" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AS119" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT119" s="11">
+      <c r="AS119" s="11">
         <v>14999734</v>
       </c>
+      <c r="AT119" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AU119" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AV119" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AW119" s="11" t="s">
-        <v>60</v>
+      <c r="AW119" s="11">
+        <v>15000000</v>
       </c>
       <c r="AX119" s="11">
+        <v>15334443</v>
+      </c>
+      <c r="AY119" s="11">
+        <v>12809781</v>
+      </c>
+      <c r="AZ119" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA119" s="11">
+        <v>15142857</v>
+      </c>
+      <c r="BB119" s="11">
         <v>15000000</v>
       </c>
-      <c r="AY119" s="11">
-        <v>15334443</v>
-      </c>
-      <c r="AZ119" s="11">
-        <v>12809781</v>
-      </c>
-      <c r="BA119" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB119" s="11">
-        <v>15142857</v>
-      </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>70</v>
       </c>
@@ -16666,26 +16701,26 @@
       <c r="AP120" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AQ120" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR120" s="13">
+      <c r="AQ120" s="13">
         <v>719792</v>
       </c>
+      <c r="AR120" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AS120" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AT120" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU120" s="13">
+      <c r="AT120" s="13">
         <v>750000</v>
       </c>
+      <c r="AU120" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AV120" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AW120" s="13" t="s">
-        <v>60</v>
+      <c r="AW120" s="13">
+        <v>900000</v>
       </c>
       <c r="AX120" s="13">
         <v>900000</v>
@@ -16694,7 +16729,7 @@
         <v>900000</v>
       </c>
       <c r="AZ120" s="13">
-        <v>900000</v>
+        <v>0</v>
       </c>
       <c r="BA120" s="13" t="s">
         <v>60</v>
@@ -16703,219 +16738,378 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B121" s="8" t="s">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B121" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB121" s="11">
+        <v>1980000000</v>
+      </c>
+    </row>
+    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B122" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
-      <c r="M121" s="9"/>
-      <c r="N121" s="9"/>
-      <c r="O121" s="9"/>
-      <c r="P121" s="9"/>
-      <c r="Q121" s="9"/>
-      <c r="R121" s="9"/>
-      <c r="S121" s="9"/>
-      <c r="T121" s="9"/>
-      <c r="U121" s="9"/>
-      <c r="V121" s="9"/>
-      <c r="W121" s="9"/>
-      <c r="X121" s="9"/>
-      <c r="Y121" s="9"/>
-      <c r="Z121" s="9"/>
-      <c r="AA121" s="9"/>
-      <c r="AB121" s="9"/>
-      <c r="AC121" s="9"/>
-      <c r="AD121" s="9"/>
-      <c r="AE121" s="9"/>
-      <c r="AF121" s="9"/>
-      <c r="AG121" s="9"/>
-      <c r="AH121" s="9"/>
-      <c r="AI121" s="9"/>
-      <c r="AJ121" s="9"/>
-      <c r="AK121" s="9"/>
-      <c r="AL121" s="9"/>
-      <c r="AM121" s="9"/>
-      <c r="AN121" s="9"/>
-      <c r="AO121" s="9"/>
-      <c r="AP121" s="9"/>
-      <c r="AQ121" s="9"/>
-      <c r="AR121" s="9"/>
-      <c r="AS121" s="9"/>
-      <c r="AT121" s="9"/>
-      <c r="AU121" s="9"/>
-      <c r="AV121" s="9"/>
-      <c r="AW121" s="9"/>
-      <c r="AX121" s="9"/>
-      <c r="AY121" s="9"/>
-      <c r="AZ121" s="9"/>
-      <c r="BA121" s="9"/>
-      <c r="BB121" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="9"/>
+      <c r="T122" s="9"/>
+      <c r="U122" s="9"/>
+      <c r="V122" s="9"/>
+      <c r="W122" s="9"/>
+      <c r="X122" s="9"/>
+      <c r="Y122" s="9"/>
+      <c r="Z122" s="9"/>
+      <c r="AA122" s="9"/>
+      <c r="AB122" s="9"/>
+      <c r="AC122" s="9"/>
+      <c r="AD122" s="9"/>
+      <c r="AE122" s="9"/>
+      <c r="AF122" s="9"/>
+      <c r="AG122" s="9"/>
+      <c r="AH122" s="9"/>
+      <c r="AI122" s="9"/>
+      <c r="AJ122" s="9"/>
+      <c r="AK122" s="9"/>
+      <c r="AL122" s="9"/>
+      <c r="AM122" s="9"/>
+      <c r="AN122" s="9"/>
+      <c r="AO122" s="9"/>
+      <c r="AP122" s="9"/>
+      <c r="AQ122" s="9"/>
+      <c r="AR122" s="9"/>
+      <c r="AS122" s="9"/>
+      <c r="AT122" s="9"/>
+      <c r="AU122" s="9"/>
+      <c r="AV122" s="9"/>
+      <c r="AW122" s="9"/>
+      <c r="AX122" s="9"/>
+      <c r="AY122" s="9"/>
+      <c r="AZ122" s="9"/>
+      <c r="BA122" s="9"/>
+      <c r="BB122" s="9"/>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B122" s="10" t="s">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B123" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C123" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="P122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="R122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="S122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="U122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ122" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR122" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS122" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT122" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU122" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV122" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW122" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX122" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY122" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ122" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA122" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB122" s="11">
+      <c r="D123" s="11"/>
+      <c r="E123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO123" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP123" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ123" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR123" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS123" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT123" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU123" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV123" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW123" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX123" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY123" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ123" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA123" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB123" s="11">
         <v>0</v>
       </c>
     </row>

--- a/database/industries/darou/deshimi/product/monthly.xlsx
+++ b/database/industries/darou/deshimi/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\deshimi\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CAAD03-5428-42D4-B4EC-47BDB6994EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0C531F-AC08-43C0-B002-4C4EA8CF869D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="91">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دشیمی-شیمی‌ داروئی‌ داروپخش‌</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد موثره دارویی پلت ها</t>
@@ -1445,154 +1445,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1244</v>
+        <v>4290</v>
       </c>
       <c r="F11" s="11">
-        <v>4290</v>
+        <v>0</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
       </c>
       <c r="H11" s="11">
-        <v>0</v>
+        <v>2082</v>
       </c>
       <c r="I11" s="11">
-        <v>2082</v>
+        <v>1586</v>
       </c>
       <c r="J11" s="11">
-        <v>1586</v>
+        <v>703</v>
       </c>
       <c r="K11" s="11">
-        <v>703</v>
+        <v>1413</v>
       </c>
       <c r="L11" s="11">
-        <v>1413</v>
+        <v>0</v>
       </c>
       <c r="M11" s="11">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="N11" s="11">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="O11" s="11">
-        <v>1152</v>
+        <v>1716</v>
       </c>
       <c r="P11" s="11">
-        <v>1716</v>
+        <v>3617</v>
       </c>
       <c r="Q11" s="11">
-        <v>3617</v>
+        <v>5172</v>
       </c>
       <c r="R11" s="11">
+        <v>5165</v>
+      </c>
+      <c r="S11" s="11">
+        <v>2567</v>
+      </c>
+      <c r="T11" s="11">
+        <v>2610</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
+        <v>567</v>
+      </c>
+      <c r="W11" s="11">
         <v>5172</v>
       </c>
-      <c r="S11" s="11">
-        <v>5165</v>
-      </c>
-      <c r="T11" s="11">
-        <v>2567</v>
-      </c>
-      <c r="U11" s="11">
-        <v>2610</v>
-      </c>
-      <c r="V11" s="11">
-        <v>0</v>
-      </c>
-      <c r="W11" s="11">
-        <v>567</v>
-      </c>
       <c r="X11" s="11">
-        <v>5172</v>
+        <v>1913</v>
       </c>
       <c r="Y11" s="11">
-        <v>1913</v>
+        <v>2279</v>
       </c>
       <c r="Z11" s="11">
-        <v>2279</v>
+        <v>772</v>
       </c>
       <c r="AA11" s="11">
-        <v>772</v>
+        <v>1872</v>
       </c>
       <c r="AB11" s="11">
-        <v>1872</v>
+        <v>2158</v>
       </c>
       <c r="AC11" s="11">
-        <v>2158</v>
+        <v>566</v>
       </c>
       <c r="AD11" s="11">
-        <v>566</v>
+        <v>2302</v>
       </c>
       <c r="AE11" s="11">
-        <v>2302</v>
+        <v>3424</v>
       </c>
       <c r="AF11" s="11">
-        <v>3424</v>
+        <v>2891</v>
       </c>
       <c r="AG11" s="11">
-        <v>2891</v>
+        <v>2325</v>
       </c>
       <c r="AH11" s="11">
-        <v>2325</v>
+        <v>3863</v>
       </c>
       <c r="AI11" s="11">
-        <v>3863</v>
+        <v>1446</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1446</v>
+        <v>2513</v>
       </c>
       <c r="AK11" s="11">
-        <v>2513</v>
+        <v>3838</v>
       </c>
       <c r="AL11" s="11">
-        <v>3838</v>
+        <v>3913</v>
       </c>
       <c r="AM11" s="11">
-        <v>3913</v>
+        <v>3634</v>
       </c>
       <c r="AN11" s="11">
-        <v>3634</v>
+        <v>2461</v>
       </c>
       <c r="AO11" s="11">
-        <v>2461</v>
+        <v>4026</v>
       </c>
       <c r="AP11" s="11">
-        <v>4026</v>
+        <v>3649</v>
       </c>
       <c r="AQ11" s="11">
-        <v>3649</v>
+        <v>2859</v>
       </c>
       <c r="AR11" s="11">
-        <v>2859</v>
+        <v>3629</v>
       </c>
       <c r="AS11" s="11">
-        <v>3629</v>
+        <v>4017</v>
       </c>
       <c r="AT11" s="11">
-        <v>4017</v>
+        <v>3643</v>
       </c>
       <c r="AU11" s="11">
-        <v>3643</v>
+        <v>4992</v>
       </c>
       <c r="AV11" s="11">
+        <v>3264</v>
+      </c>
+      <c r="AW11" s="11">
+        <v>5760</v>
+      </c>
+      <c r="AX11" s="11">
+        <v>5618</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>4800</v>
+      </c>
+      <c r="AZ11" s="11">
+        <v>8832</v>
+      </c>
+      <c r="BA11" s="11">
         <v>4992</v>
       </c>
-      <c r="AW11" s="11">
-        <v>3264</v>
-      </c>
-      <c r="AX11" s="11">
-        <v>5760</v>
-      </c>
-      <c r="AY11" s="11">
-        <v>5618</v>
-      </c>
-      <c r="AZ11" s="11">
-        <v>4800</v>
-      </c>
-      <c r="BA11" s="11">
-        <v>8832</v>
-      </c>
       <c r="BB11" s="11">
-        <v>4992</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1607,151 +1607,151 @@
         <v>0</v>
       </c>
       <c r="F12" s="13">
-        <v>0</v>
+        <v>1178</v>
       </c>
       <c r="G12" s="13">
-        <v>1178</v>
+        <v>0</v>
       </c>
       <c r="H12" s="13">
-        <v>0</v>
+        <v>5726</v>
       </c>
       <c r="I12" s="13">
-        <v>5726</v>
+        <v>5238</v>
       </c>
       <c r="J12" s="13">
-        <v>5238</v>
+        <v>0</v>
       </c>
       <c r="K12" s="13">
-        <v>0</v>
+        <v>3475</v>
       </c>
       <c r="L12" s="13">
-        <v>3475</v>
+        <v>1822</v>
       </c>
       <c r="M12" s="13">
-        <v>1822</v>
+        <v>176</v>
       </c>
       <c r="N12" s="13">
-        <v>176</v>
+        <v>6981</v>
       </c>
       <c r="O12" s="13">
-        <v>6981</v>
+        <v>5482</v>
       </c>
       <c r="P12" s="13">
-        <v>5482</v>
+        <v>9175</v>
       </c>
       <c r="Q12" s="13">
-        <v>9175</v>
+        <v>4500</v>
       </c>
       <c r="R12" s="13">
-        <v>4500</v>
+        <v>4067</v>
       </c>
       <c r="S12" s="13">
-        <v>4067</v>
+        <v>9231</v>
       </c>
       <c r="T12" s="13">
-        <v>9231</v>
+        <v>8517</v>
       </c>
       <c r="U12" s="13">
-        <v>8517</v>
+        <v>3626</v>
       </c>
       <c r="V12" s="13">
-        <v>3626</v>
+        <v>1018</v>
       </c>
       <c r="W12" s="13">
-        <v>1018</v>
+        <v>1985</v>
       </c>
       <c r="X12" s="13">
-        <v>1985</v>
+        <v>10410</v>
       </c>
       <c r="Y12" s="13">
-        <v>10410</v>
+        <v>7925</v>
       </c>
       <c r="Z12" s="13">
-        <v>7925</v>
+        <v>4598</v>
       </c>
       <c r="AA12" s="13">
-        <v>4598</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="13">
-        <v>0</v>
+        <v>4850</v>
       </c>
       <c r="AC12" s="13">
-        <v>4850</v>
+        <v>7420</v>
       </c>
       <c r="AD12" s="13">
-        <v>7420</v>
+        <v>4552</v>
       </c>
       <c r="AE12" s="13">
-        <v>4552</v>
+        <v>3977</v>
       </c>
       <c r="AF12" s="13">
-        <v>3977</v>
+        <v>4082</v>
       </c>
       <c r="AG12" s="13">
-        <v>4082</v>
+        <v>1373</v>
       </c>
       <c r="AH12" s="13">
-        <v>1373</v>
+        <v>2667</v>
       </c>
       <c r="AI12" s="13">
-        <v>2667</v>
+        <v>1737</v>
       </c>
       <c r="AJ12" s="13">
-        <v>1737</v>
+        <v>1521</v>
       </c>
       <c r="AK12" s="13">
-        <v>1521</v>
+        <v>10142</v>
       </c>
       <c r="AL12" s="13">
-        <v>10142</v>
+        <v>8072</v>
       </c>
       <c r="AM12" s="13">
-        <v>8072</v>
+        <v>12499</v>
       </c>
       <c r="AN12" s="13">
-        <v>12499</v>
+        <v>9201</v>
       </c>
       <c r="AO12" s="13">
-        <v>9201</v>
+        <v>15270</v>
       </c>
       <c r="AP12" s="13">
-        <v>15270</v>
+        <v>11387</v>
       </c>
       <c r="AQ12" s="13">
-        <v>11387</v>
+        <v>17955</v>
       </c>
       <c r="AR12" s="13">
-        <v>17955</v>
+        <v>25208</v>
       </c>
       <c r="AS12" s="13">
-        <v>25208</v>
+        <v>15176</v>
       </c>
       <c r="AT12" s="13">
-        <v>15176</v>
+        <v>8790</v>
       </c>
       <c r="AU12" s="13">
-        <v>8790</v>
+        <v>3155</v>
       </c>
       <c r="AV12" s="13">
-        <v>3155</v>
+        <v>11324</v>
       </c>
       <c r="AW12" s="13">
-        <v>11324</v>
+        <v>9686</v>
       </c>
       <c r="AX12" s="13">
-        <v>9686</v>
+        <v>15438</v>
       </c>
       <c r="AY12" s="13">
-        <v>15438</v>
+        <v>5004</v>
       </c>
       <c r="AZ12" s="13">
-        <v>5004</v>
+        <v>9398</v>
       </c>
       <c r="BA12" s="13">
-        <v>9398</v>
+        <v>13028</v>
       </c>
       <c r="BB12" s="13">
-        <v>13028</v>
+        <v>9645</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1763,154 +1763,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>3710</v>
+      </c>
+      <c r="F13" s="11">
+        <v>3118</v>
+      </c>
+      <c r="G13" s="11">
+        <v>5888</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1814</v>
+      </c>
+      <c r="I13" s="11">
+        <v>2082</v>
+      </c>
+      <c r="J13" s="11">
+        <v>5672</v>
+      </c>
+      <c r="K13" s="11">
+        <v>8701</v>
+      </c>
+      <c r="L13" s="11">
+        <v>3776</v>
+      </c>
+      <c r="M13" s="11">
+        <v>2312</v>
+      </c>
+      <c r="N13" s="11">
+        <v>5173</v>
+      </c>
+      <c r="O13" s="11">
+        <v>4506</v>
+      </c>
+      <c r="P13" s="11">
+        <v>4251</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>8735</v>
+      </c>
+      <c r="R13" s="11">
+        <v>16547</v>
+      </c>
+      <c r="S13" s="11">
+        <v>11754</v>
+      </c>
+      <c r="T13" s="11">
+        <v>3053</v>
+      </c>
+      <c r="U13" s="11">
+        <v>390</v>
+      </c>
+      <c r="V13" s="11">
+        <v>2817</v>
+      </c>
+      <c r="W13" s="11">
+        <v>2806</v>
+      </c>
+      <c r="X13" s="11">
+        <v>4490</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>3504</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>1910</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>9360</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>6399</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>1382</v>
+      </c>
+      <c r="AD13" s="11">
         <v>8108</v>
       </c>
-      <c r="F13" s="11">
-        <v>3710</v>
-      </c>
-      <c r="G13" s="11">
-        <v>3118</v>
-      </c>
-      <c r="H13" s="11">
-        <v>5888</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1814</v>
-      </c>
-      <c r="J13" s="11">
-        <v>2082</v>
-      </c>
-      <c r="K13" s="11">
-        <v>5672</v>
-      </c>
-      <c r="L13" s="11">
-        <v>8701</v>
-      </c>
-      <c r="M13" s="11">
-        <v>3776</v>
-      </c>
-      <c r="N13" s="11">
-        <v>2312</v>
-      </c>
-      <c r="O13" s="11">
-        <v>5173</v>
-      </c>
-      <c r="P13" s="11">
-        <v>4506</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>4251</v>
-      </c>
-      <c r="R13" s="11">
-        <v>8735</v>
-      </c>
-      <c r="S13" s="11">
-        <v>16547</v>
-      </c>
-      <c r="T13" s="11">
-        <v>11754</v>
-      </c>
-      <c r="U13" s="11">
-        <v>3053</v>
-      </c>
-      <c r="V13" s="11">
-        <v>390</v>
-      </c>
-      <c r="W13" s="11">
-        <v>2817</v>
-      </c>
-      <c r="X13" s="11">
-        <v>2806</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>4490</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>3504</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>1910</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>9360</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>6399</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>1382</v>
-      </c>
       <c r="AE13" s="11">
-        <v>8108</v>
+        <v>1953</v>
       </c>
       <c r="AF13" s="11">
-        <v>1953</v>
+        <v>1732</v>
       </c>
       <c r="AG13" s="11">
-        <v>1732</v>
+        <v>3140</v>
       </c>
       <c r="AH13" s="11">
-        <v>3140</v>
+        <v>8562</v>
       </c>
       <c r="AI13" s="11">
-        <v>8562</v>
+        <v>2619</v>
       </c>
       <c r="AJ13" s="11">
-        <v>2619</v>
+        <v>8539</v>
       </c>
       <c r="AK13" s="11">
-        <v>8539</v>
+        <v>2530</v>
       </c>
       <c r="AL13" s="11">
-        <v>2530</v>
+        <v>5146</v>
       </c>
       <c r="AM13" s="11">
-        <v>5146</v>
+        <v>31066</v>
       </c>
       <c r="AN13" s="11">
-        <v>31066</v>
+        <v>6923</v>
       </c>
       <c r="AO13" s="11">
-        <v>6923</v>
+        <v>13834</v>
       </c>
       <c r="AP13" s="11">
-        <v>13834</v>
+        <v>6513</v>
       </c>
       <c r="AQ13" s="11">
-        <v>6513</v>
+        <v>2226</v>
       </c>
       <c r="AR13" s="11">
-        <v>2226</v>
+        <v>8713</v>
       </c>
       <c r="AS13" s="11">
-        <v>8713</v>
+        <v>1644</v>
       </c>
       <c r="AT13" s="11">
-        <v>1644</v>
+        <v>1962</v>
       </c>
       <c r="AU13" s="11">
-        <v>1962</v>
+        <v>9998</v>
       </c>
       <c r="AV13" s="11">
-        <v>9998</v>
+        <v>13074</v>
       </c>
       <c r="AW13" s="11">
-        <v>13074</v>
+        <v>2446</v>
       </c>
       <c r="AX13" s="11">
-        <v>2446</v>
+        <v>343</v>
       </c>
       <c r="AY13" s="11">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="11">
-        <v>0</v>
+        <v>2074</v>
       </c>
       <c r="BA13" s="11">
-        <v>2074</v>
+        <v>4659</v>
       </c>
       <c r="BB13" s="11">
-        <v>4659</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1936,8 +1936,8 @@
       <c r="I14" s="13">
         <v>0</v>
       </c>
-      <c r="J14" s="13">
-        <v>0</v>
+      <c r="J14" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>60</v>
@@ -2032,11 +2032,11 @@
       <c r="AO14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AP14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>0</v>
+      <c r="AP14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AR14" s="13" t="s">
         <v>60</v>
@@ -2044,8 +2044,8 @@
       <c r="AS14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AT14" s="13" t="s">
-        <v>60</v>
+      <c r="AT14" s="13">
+        <v>0</v>
       </c>
       <c r="AU14" s="13">
         <v>0</v>
@@ -2081,154 +2081,154 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>5169</v>
+        <v>1744</v>
       </c>
       <c r="F15" s="11">
-        <v>1744</v>
+        <v>2518</v>
       </c>
       <c r="G15" s="11">
-        <v>2518</v>
+        <v>4983</v>
       </c>
       <c r="H15" s="11">
-        <v>4983</v>
+        <v>2223</v>
       </c>
       <c r="I15" s="11">
-        <v>2223</v>
+        <v>1440</v>
       </c>
       <c r="J15" s="11">
-        <v>1440</v>
+        <v>1413</v>
       </c>
       <c r="K15" s="11">
-        <v>1413</v>
+        <v>154</v>
       </c>
       <c r="L15" s="11">
-        <v>154</v>
+        <v>9551</v>
       </c>
       <c r="M15" s="11">
-        <v>9551</v>
+        <v>15234</v>
       </c>
       <c r="N15" s="11">
-        <v>15234</v>
+        <v>12248</v>
       </c>
       <c r="O15" s="11">
-        <v>12248</v>
+        <v>8249</v>
       </c>
       <c r="P15" s="11">
-        <v>8249</v>
+        <v>3583</v>
       </c>
       <c r="Q15" s="11">
-        <v>3583</v>
+        <v>1960</v>
       </c>
       <c r="R15" s="11">
-        <v>1960</v>
+        <v>7685</v>
       </c>
       <c r="S15" s="11">
-        <v>7685</v>
+        <v>16842</v>
       </c>
       <c r="T15" s="11">
-        <v>16842</v>
+        <v>7170</v>
       </c>
       <c r="U15" s="11">
-        <v>7170</v>
+        <v>3166</v>
       </c>
       <c r="V15" s="11">
-        <v>3166</v>
+        <v>2200</v>
       </c>
       <c r="W15" s="11">
-        <v>2200</v>
+        <v>10781</v>
       </c>
       <c r="X15" s="11">
-        <v>10781</v>
+        <v>11550</v>
       </c>
       <c r="Y15" s="11">
-        <v>11550</v>
+        <v>11245</v>
       </c>
       <c r="Z15" s="11">
-        <v>11245</v>
+        <v>9804</v>
       </c>
       <c r="AA15" s="11">
-        <v>9804</v>
+        <v>6777</v>
       </c>
       <c r="AB15" s="11">
-        <v>6777</v>
+        <v>2308</v>
       </c>
       <c r="AC15" s="11">
-        <v>2308</v>
+        <v>5989</v>
       </c>
       <c r="AD15" s="11">
-        <v>5989</v>
+        <v>449</v>
       </c>
       <c r="AE15" s="11">
-        <v>449</v>
+        <v>4304</v>
       </c>
       <c r="AF15" s="11">
-        <v>4304</v>
+        <v>9043</v>
       </c>
       <c r="AG15" s="11">
-        <v>9043</v>
+        <v>6887</v>
       </c>
       <c r="AH15" s="11">
-        <v>6887</v>
+        <v>19379</v>
       </c>
       <c r="AI15" s="11">
-        <v>19379</v>
+        <v>11034</v>
       </c>
       <c r="AJ15" s="11">
-        <v>11034</v>
+        <v>5694</v>
       </c>
       <c r="AK15" s="11">
-        <v>5694</v>
+        <v>6540</v>
       </c>
       <c r="AL15" s="11">
-        <v>6540</v>
+        <v>7896</v>
       </c>
       <c r="AM15" s="11">
-        <v>7896</v>
+        <v>4797</v>
       </c>
       <c r="AN15" s="11">
-        <v>4797</v>
+        <v>4413</v>
       </c>
       <c r="AO15" s="11">
-        <v>4413</v>
+        <v>7452</v>
       </c>
       <c r="AP15" s="11">
-        <v>7452</v>
+        <v>4236</v>
       </c>
       <c r="AQ15" s="11">
-        <v>4236</v>
+        <v>9416</v>
       </c>
       <c r="AR15" s="11">
-        <v>9416</v>
+        <v>2425</v>
       </c>
       <c r="AS15" s="11">
-        <v>2425</v>
+        <v>9613</v>
       </c>
       <c r="AT15" s="11">
-        <v>9613</v>
+        <v>9280</v>
       </c>
       <c r="AU15" s="11">
-        <v>9280</v>
+        <v>5862</v>
       </c>
       <c r="AV15" s="11">
-        <v>5862</v>
+        <v>11442</v>
       </c>
       <c r="AW15" s="11">
-        <v>11442</v>
+        <v>8393</v>
       </c>
       <c r="AX15" s="11">
-        <v>8393</v>
+        <v>720</v>
       </c>
       <c r="AY15" s="11">
-        <v>720</v>
+        <v>11726</v>
       </c>
       <c r="AZ15" s="11">
-        <v>11726</v>
+        <v>7465</v>
       </c>
       <c r="BA15" s="11">
-        <v>7465</v>
+        <v>3269</v>
       </c>
       <c r="BB15" s="11">
-        <v>3269</v>
+        <v>24547</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2240,112 +2240,112 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>3540</v>
+        <v>5398</v>
       </c>
       <c r="F16" s="13">
-        <v>5398</v>
+        <v>23130</v>
       </c>
       <c r="G16" s="13">
-        <v>23130</v>
+        <v>16187</v>
       </c>
       <c r="H16" s="13">
-        <v>16187</v>
+        <v>22135</v>
       </c>
       <c r="I16" s="13">
-        <v>22135</v>
+        <v>10898</v>
       </c>
       <c r="J16" s="13">
-        <v>10898</v>
+        <v>653</v>
       </c>
       <c r="K16" s="13">
-        <v>653</v>
+        <v>8914</v>
       </c>
       <c r="L16" s="13">
-        <v>8914</v>
+        <v>27856</v>
       </c>
       <c r="M16" s="13">
-        <v>27856</v>
+        <v>17552</v>
       </c>
       <c r="N16" s="13">
-        <v>17552</v>
+        <v>1183</v>
       </c>
       <c r="O16" s="13">
-        <v>1183</v>
+        <v>13509</v>
       </c>
       <c r="P16" s="13">
-        <v>13509</v>
+        <v>14543</v>
       </c>
       <c r="Q16" s="13">
-        <v>14543</v>
+        <v>20247</v>
       </c>
       <c r="R16" s="13">
-        <v>20247</v>
+        <v>17191</v>
       </c>
       <c r="S16" s="13">
-        <v>17191</v>
+        <v>7077</v>
       </c>
       <c r="T16" s="13">
-        <v>7077</v>
+        <v>9773</v>
       </c>
       <c r="U16" s="13">
-        <v>9773</v>
+        <v>169996</v>
       </c>
       <c r="V16" s="13">
-        <v>169996</v>
+        <v>40562</v>
       </c>
       <c r="W16" s="13">
-        <v>40562</v>
+        <v>8772</v>
       </c>
       <c r="X16" s="13">
-        <v>8772</v>
+        <v>24753</v>
       </c>
       <c r="Y16" s="13">
-        <v>24753</v>
+        <v>8742</v>
       </c>
       <c r="Z16" s="13">
-        <v>8742</v>
+        <v>15423</v>
       </c>
       <c r="AA16" s="13">
-        <v>15423</v>
+        <v>20176</v>
       </c>
       <c r="AB16" s="13">
-        <v>20176</v>
+        <v>30749</v>
       </c>
       <c r="AC16" s="13">
-        <v>30749</v>
+        <v>19302</v>
       </c>
       <c r="AD16" s="13">
-        <v>19302</v>
+        <v>20850</v>
       </c>
       <c r="AE16" s="13">
-        <v>20850</v>
+        <v>53637</v>
       </c>
       <c r="AF16" s="13">
-        <v>53637</v>
+        <v>19022</v>
       </c>
       <c r="AG16" s="13">
-        <v>19022</v>
+        <v>26100</v>
       </c>
       <c r="AH16" s="13">
-        <v>26100</v>
+        <v>13451</v>
       </c>
       <c r="AI16" s="13">
-        <v>13451</v>
+        <v>7546</v>
       </c>
       <c r="AJ16" s="13">
-        <v>7546</v>
+        <v>7267</v>
       </c>
       <c r="AK16" s="13">
-        <v>7267</v>
+        <v>14672</v>
       </c>
       <c r="AL16" s="13">
-        <v>14672</v>
+        <v>22614</v>
       </c>
       <c r="AM16" s="13">
-        <v>22614</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AO16" s="13" t="s">
         <v>60</v>
@@ -2476,14 +2476,14 @@
       <c r="AD17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE17" s="11" t="s">
-        <v>60</v>
+      <c r="AE17" s="11">
+        <v>2000</v>
       </c>
       <c r="AF17" s="11">
-        <v>2000</v>
+        <v>2229</v>
       </c>
       <c r="AG17" s="11">
-        <v>2229</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="11">
         <v>0</v>
@@ -2492,58 +2492,58 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK17" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AL17" s="11">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="AM17" s="11">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO17" s="11">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AP17" s="11">
-        <v>51</v>
+        <v>3836</v>
       </c>
       <c r="AQ17" s="11">
-        <v>3836</v>
+        <v>2314</v>
       </c>
       <c r="AR17" s="11">
-        <v>2314</v>
+        <v>7501</v>
       </c>
       <c r="AS17" s="11">
-        <v>7501</v>
+        <v>1084</v>
       </c>
       <c r="AT17" s="11">
-        <v>1084</v>
+        <v>4227</v>
       </c>
       <c r="AU17" s="11">
-        <v>4227</v>
+        <v>5023</v>
       </c>
       <c r="AV17" s="11">
-        <v>5023</v>
+        <v>4258</v>
       </c>
       <c r="AW17" s="11">
-        <v>4258</v>
+        <v>1431</v>
       </c>
       <c r="AX17" s="11">
-        <v>1431</v>
+        <v>6237</v>
       </c>
       <c r="AY17" s="11">
-        <v>6237</v>
+        <v>7471</v>
       </c>
       <c r="AZ17" s="11">
-        <v>7471</v>
+        <v>7158</v>
       </c>
       <c r="BA17" s="11">
-        <v>7158</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="11">
         <v>0</v>
@@ -2635,14 +2635,14 @@
       <c r="AD18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AE18" s="13" t="s">
-        <v>60</v>
+      <c r="AE18" s="13">
+        <v>335</v>
       </c>
       <c r="AF18" s="13">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AG18" s="13">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="13">
         <v>0</v>
@@ -2654,28 +2654,28 @@
         <v>0</v>
       </c>
       <c r="AK18" s="13">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="AL18" s="13">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="AM18" s="13">
-        <v>303</v>
+        <v>565</v>
       </c>
       <c r="AN18" s="13">
-        <v>565</v>
+        <v>337</v>
       </c>
       <c r="AO18" s="13">
-        <v>337</v>
+        <v>1419</v>
       </c>
       <c r="AP18" s="13">
-        <v>1419</v>
+        <v>1148</v>
       </c>
       <c r="AQ18" s="13">
-        <v>1148</v>
+        <v>1585</v>
       </c>
       <c r="AR18" s="13">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="13">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="AU18" s="13">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="AV18" s="13">
-        <v>568</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="13">
         <v>0</v>
@@ -2699,13 +2699,13 @@
         <v>0</v>
       </c>
       <c r="AZ18" s="13">
-        <v>0</v>
+        <v>1474</v>
       </c>
       <c r="BA18" s="13">
-        <v>1474</v>
+        <v>322</v>
       </c>
       <c r="BB18" s="13">
-        <v>322</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2794,8 +2794,8 @@
       <c r="AD19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE19" s="11" t="s">
-        <v>60</v>
+      <c r="AE19" s="11">
+        <v>0</v>
       </c>
       <c r="AF19" s="11">
         <v>0</v>
@@ -2810,61 +2810,61 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="11">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="AK19" s="11">
-        <v>1400</v>
+        <v>7846</v>
       </c>
       <c r="AL19" s="11">
-        <v>7846</v>
+        <v>1716</v>
       </c>
       <c r="AM19" s="11">
-        <v>1716</v>
+        <v>5</v>
       </c>
       <c r="AN19" s="11">
         <v>5</v>
       </c>
       <c r="AO19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>63</v>
+      </c>
+      <c r="AV19" s="11">
+        <v>536</v>
+      </c>
+      <c r="AW19" s="11">
+        <v>4400</v>
+      </c>
+      <c r="AX19" s="11">
+        <v>351</v>
+      </c>
+      <c r="AY19" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AZ19" s="11">
         <v>5</v>
       </c>
-      <c r="AP19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>8</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="11">
-        <v>63</v>
-      </c>
-      <c r="AW19" s="11">
-        <v>536</v>
-      </c>
-      <c r="AX19" s="11">
-        <v>4400</v>
-      </c>
-      <c r="AY19" s="11">
-        <v>351</v>
-      </c>
-      <c r="AZ19" s="11">
-        <v>-19</v>
-      </c>
       <c r="BA19" s="11">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="BB19" s="11">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2977,53 +2977,53 @@
       <c r="AL20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AM20" s="13" t="s">
-        <v>60</v>
+      <c r="AM20" s="13">
+        <v>3375</v>
       </c>
       <c r="AN20" s="13">
-        <v>3375</v>
+        <v>15819</v>
       </c>
       <c r="AO20" s="13">
-        <v>15819</v>
+        <v>9435</v>
       </c>
       <c r="AP20" s="13">
-        <v>9435</v>
+        <v>15649</v>
       </c>
       <c r="AQ20" s="13">
-        <v>15649</v>
+        <v>15900</v>
       </c>
       <c r="AR20" s="13">
-        <v>15900</v>
+        <v>17815</v>
       </c>
       <c r="AS20" s="13">
-        <v>17815</v>
+        <v>4080</v>
       </c>
       <c r="AT20" s="13">
-        <v>4080</v>
+        <v>5600</v>
       </c>
       <c r="AU20" s="13">
-        <v>5600</v>
+        <v>7120</v>
       </c>
       <c r="AV20" s="13">
-        <v>7120</v>
+        <v>7180</v>
       </c>
       <c r="AW20" s="13">
-        <v>7180</v>
+        <v>3200</v>
       </c>
       <c r="AX20" s="13">
-        <v>3200</v>
+        <v>5025</v>
       </c>
       <c r="AY20" s="13">
-        <v>5025</v>
+        <v>12820</v>
       </c>
       <c r="AZ20" s="13">
-        <v>12820</v>
+        <v>900</v>
       </c>
       <c r="BA20" s="13">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="13">
-        <v>0</v>
+        <v>6979</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3136,8 +3136,8 @@
       <c r="AL21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AM21" s="11" t="s">
-        <v>60</v>
+      <c r="AM21" s="11">
+        <v>0</v>
       </c>
       <c r="AN21" s="11">
         <v>0</v>
@@ -3149,22 +3149,22 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AR21" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AS21" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="11">
         <v>0</v>
       </c>
       <c r="AU21" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AV21" s="11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AW21" s="11">
         <v>0</v>
@@ -3295,53 +3295,53 @@
       <c r="AL22" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AM22" s="13" t="s">
-        <v>60</v>
+      <c r="AM22" s="13">
+        <v>0</v>
       </c>
       <c r="AN22" s="13">
         <v>0</v>
       </c>
       <c r="AO22" s="13">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AP22" s="13">
-        <v>99</v>
+        <v>3640</v>
       </c>
       <c r="AQ22" s="13">
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="13">
-        <v>0</v>
+        <v>3714</v>
       </c>
       <c r="AS22" s="13">
-        <v>3714</v>
+        <v>1246</v>
       </c>
       <c r="AT22" s="13">
-        <v>1246</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="13">
         <v>0</v>
       </c>
       <c r="AV22" s="13">
-        <v>0</v>
+        <v>5384</v>
       </c>
       <c r="AW22" s="13">
-        <v>5384</v>
+        <v>3793</v>
       </c>
       <c r="AX22" s="13">
-        <v>3793</v>
+        <v>22</v>
       </c>
       <c r="AY22" s="13">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="AZ22" s="13">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="BA22" s="13">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="BB22" s="13">
-        <v>65</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3454,53 +3454,53 @@
       <c r="AL23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AM23" s="11" t="s">
-        <v>60</v>
+      <c r="AM23" s="11">
+        <v>2690</v>
       </c>
       <c r="AN23" s="11">
-        <v>2690</v>
+        <v>525</v>
       </c>
       <c r="AO23" s="11">
-        <v>525</v>
+        <v>1650</v>
       </c>
       <c r="AP23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="11">
+        <v>1631</v>
+      </c>
+      <c r="AT23" s="11">
+        <v>618</v>
+      </c>
+      <c r="AU23" s="11">
+        <v>4571</v>
+      </c>
+      <c r="AV23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="11">
+        <v>1302</v>
+      </c>
+      <c r="AX23" s="11">
         <v>1650</v>
       </c>
-      <c r="AQ23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="11">
-        <v>1631</v>
-      </c>
-      <c r="AU23" s="11">
-        <v>618</v>
-      </c>
-      <c r="AV23" s="11">
-        <v>4571</v>
-      </c>
-      <c r="AW23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="11">
-        <v>1302</v>
-      </c>
       <c r="AY23" s="11">
-        <v>1650</v>
+        <v>13510</v>
       </c>
       <c r="AZ23" s="11">
-        <v>13510</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="11">
-        <v>0</v>
+        <v>-1618</v>
       </c>
       <c r="BB23" s="11">
-        <v>1660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3613,44 +3613,44 @@
       <c r="AL24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AM24" s="13" t="s">
-        <v>60</v>
+      <c r="AM24" s="13">
+        <v>888</v>
       </c>
       <c r="AN24" s="13">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="13">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AP24" s="13">
-        <v>105</v>
+        <v>954</v>
       </c>
       <c r="AQ24" s="13">
-        <v>954</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="13">
         <v>0</v>
       </c>
       <c r="AS24" s="13">
-        <v>0</v>
+        <v>7314</v>
       </c>
       <c r="AT24" s="13">
-        <v>7314</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="13">
         <v>0</v>
       </c>
       <c r="AV24" s="13">
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="AW24" s="13">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="13">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="AY24" s="13">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="13">
         <v>0</v>
@@ -3772,8 +3772,8 @@
       <c r="AL25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AM25" s="11" t="s">
-        <v>60</v>
+      <c r="AM25" s="11">
+        <v>0</v>
       </c>
       <c r="AN25" s="11">
         <v>0</v>
@@ -3785,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AR25" s="11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="11">
         <v>0</v>
@@ -3940,11 +3940,11 @@
       <c r="AO26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AP26" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ26" s="13">
-        <v>0</v>
+      <c r="AP26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AR26" s="13" t="s">
         <v>60</v>
@@ -3952,8 +3952,8 @@
       <c r="AS26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AT26" s="13" t="s">
-        <v>60</v>
+      <c r="AT26" s="13">
+        <v>0</v>
       </c>
       <c r="AU26" s="13">
         <v>0</v>
@@ -4166,17 +4166,17 @@
       <c r="AS28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AT28" s="11" t="s">
-        <v>60</v>
+      <c r="AT28" s="11">
+        <v>0</v>
       </c>
       <c r="AU28" s="11">
         <v>0</v>
       </c>
-      <c r="AV28" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="11" t="s">
-        <v>60</v>
+      <c r="AV28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW28" s="11">
+        <v>0</v>
       </c>
       <c r="AX28" s="11">
         <v>0</v>
@@ -4184,11 +4184,11 @@
       <c r="AY28" s="11">
         <v>0</v>
       </c>
-      <c r="AZ28" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA28" s="11" t="s">
-        <v>60</v>
+      <c r="AZ28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA28" s="11">
+        <v>0</v>
       </c>
       <c r="BB28" s="11" t="s">
         <v>60</v>
@@ -4260,8 +4260,8 @@
       <c r="X29" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y29" s="15" t="s">
-        <v>60</v>
+      <c r="Y29" s="15">
+        <v>0</v>
       </c>
       <c r="Z29" s="15">
         <v>0</v>
@@ -4358,154 +4358,154 @@
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17">
-        <v>18061</v>
+        <v>15142</v>
       </c>
       <c r="F30" s="17">
-        <v>15142</v>
+        <v>29944</v>
       </c>
       <c r="G30" s="17">
-        <v>29944</v>
+        <v>27058</v>
       </c>
       <c r="H30" s="17">
-        <v>27058</v>
+        <v>33980</v>
       </c>
       <c r="I30" s="17">
-        <v>33980</v>
+        <v>21244</v>
       </c>
       <c r="J30" s="17">
-        <v>21244</v>
+        <v>8441</v>
       </c>
       <c r="K30" s="17">
-        <v>8441</v>
+        <v>22657</v>
       </c>
       <c r="L30" s="17">
-        <v>22657</v>
+        <v>43005</v>
       </c>
       <c r="M30" s="17">
-        <v>43005</v>
+        <v>36423</v>
       </c>
       <c r="N30" s="17">
-        <v>36423</v>
+        <v>26737</v>
       </c>
       <c r="O30" s="17">
-        <v>26737</v>
+        <v>33462</v>
       </c>
       <c r="P30" s="17">
-        <v>33462</v>
+        <v>35169</v>
       </c>
       <c r="Q30" s="17">
-        <v>35169</v>
+        <v>40614</v>
       </c>
       <c r="R30" s="17">
-        <v>40614</v>
+        <v>50655</v>
       </c>
       <c r="S30" s="17">
-        <v>50655</v>
+        <v>47471</v>
       </c>
       <c r="T30" s="17">
-        <v>47471</v>
+        <v>31123</v>
       </c>
       <c r="U30" s="17">
-        <v>31123</v>
+        <v>177178</v>
       </c>
       <c r="V30" s="17">
-        <v>177178</v>
+        <v>47164</v>
       </c>
       <c r="W30" s="17">
-        <v>47164</v>
+        <v>29516</v>
       </c>
       <c r="X30" s="17">
-        <v>29516</v>
+        <v>53116</v>
       </c>
       <c r="Y30" s="17">
-        <v>53116</v>
+        <v>33695</v>
       </c>
       <c r="Z30" s="17">
-        <v>33695</v>
+        <v>32507</v>
       </c>
       <c r="AA30" s="17">
-        <v>32507</v>
+        <v>38185</v>
       </c>
       <c r="AB30" s="17">
-        <v>38185</v>
+        <v>46464</v>
       </c>
       <c r="AC30" s="17">
-        <v>46464</v>
+        <v>34659</v>
       </c>
       <c r="AD30" s="17">
-        <v>34659</v>
+        <v>36261</v>
       </c>
       <c r="AE30" s="17">
-        <v>36261</v>
+        <v>69630</v>
       </c>
       <c r="AF30" s="17">
-        <v>69630</v>
+        <v>39329</v>
       </c>
       <c r="AG30" s="17">
-        <v>39329</v>
+        <v>39825</v>
       </c>
       <c r="AH30" s="17">
-        <v>39825</v>
+        <v>47922</v>
       </c>
       <c r="AI30" s="17">
-        <v>47922</v>
+        <v>24382</v>
       </c>
       <c r="AJ30" s="17">
-        <v>24382</v>
+        <v>26937</v>
       </c>
       <c r="AK30" s="17">
-        <v>26937</v>
+        <v>45906</v>
       </c>
       <c r="AL30" s="17">
-        <v>45906</v>
+        <v>49780</v>
       </c>
       <c r="AM30" s="17">
-        <v>49780</v>
+        <v>59519</v>
       </c>
       <c r="AN30" s="17">
-        <v>59519</v>
+        <v>39714</v>
       </c>
       <c r="AO30" s="17">
-        <v>39714</v>
+        <v>53341</v>
       </c>
       <c r="AP30" s="17">
-        <v>53341</v>
+        <v>51012</v>
       </c>
       <c r="AQ30" s="17">
-        <v>51012</v>
+        <v>52281</v>
       </c>
       <c r="AR30" s="17">
-        <v>52281</v>
+        <v>69014</v>
       </c>
       <c r="AS30" s="17">
-        <v>69014</v>
+        <v>45805</v>
       </c>
       <c r="AT30" s="17">
-        <v>45805</v>
+        <v>34120</v>
       </c>
       <c r="AU30" s="17">
-        <v>34120</v>
+        <v>41364</v>
       </c>
       <c r="AV30" s="17">
-        <v>41364</v>
+        <v>60622</v>
       </c>
       <c r="AW30" s="17">
-        <v>60622</v>
+        <v>40411</v>
       </c>
       <c r="AX30" s="17">
-        <v>40411</v>
+        <v>38604</v>
       </c>
       <c r="AY30" s="17">
-        <v>38604</v>
+        <v>55369</v>
       </c>
       <c r="AZ30" s="17">
-        <v>55369</v>
+        <v>37350</v>
       </c>
       <c r="BA30" s="17">
-        <v>37350</v>
+        <v>24775</v>
       </c>
       <c r="BB30" s="17">
-        <v>28053</v>
+        <v>55109</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -4951,10 +4951,10 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>2232</v>
+        <v>4454</v>
       </c>
       <c r="F37" s="11">
-        <v>4454</v>
+        <v>0</v>
       </c>
       <c r="G37" s="11">
         <v>0</v>
@@ -4963,142 +4963,142 @@
         <v>0</v>
       </c>
       <c r="I37" s="11">
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="J37" s="11">
-        <v>1014</v>
+        <v>0</v>
       </c>
       <c r="K37" s="11">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="L37" s="11">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="M37" s="11">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="N37" s="11">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="O37" s="11">
-        <v>0</v>
+        <v>3444</v>
       </c>
       <c r="P37" s="11">
-        <v>3444</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="11">
-        <v>0</v>
+        <v>5528</v>
       </c>
       <c r="R37" s="11">
-        <v>5528</v>
+        <v>9366</v>
       </c>
       <c r="S37" s="11">
-        <v>9366</v>
+        <v>809</v>
       </c>
       <c r="T37" s="11">
-        <v>809</v>
+        <v>1054</v>
       </c>
       <c r="U37" s="11">
-        <v>1054</v>
+        <v>577</v>
       </c>
       <c r="V37" s="11">
-        <v>577</v>
+        <v>0</v>
       </c>
       <c r="W37" s="11">
-        <v>0</v>
+        <v>3449</v>
       </c>
       <c r="X37" s="11">
-        <v>3449</v>
+        <v>2507</v>
       </c>
       <c r="Y37" s="11">
-        <v>2507</v>
+        <v>2584</v>
       </c>
       <c r="Z37" s="11">
-        <v>2584</v>
+        <v>3806</v>
       </c>
       <c r="AA37" s="11">
-        <v>3806</v>
+        <v>727</v>
       </c>
       <c r="AB37" s="11">
-        <v>727</v>
+        <v>1158</v>
       </c>
       <c r="AC37" s="11">
-        <v>1158</v>
+        <v>2816</v>
       </c>
       <c r="AD37" s="11">
-        <v>2816</v>
+        <v>2064</v>
       </c>
       <c r="AE37" s="11">
-        <v>2064</v>
+        <v>2092</v>
       </c>
       <c r="AF37" s="11">
-        <v>2092</v>
+        <v>257</v>
       </c>
       <c r="AG37" s="11">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="11">
-        <v>0</v>
+        <v>5551</v>
       </c>
       <c r="AI37" s="11">
-        <v>5551</v>
+        <v>2635</v>
       </c>
       <c r="AJ37" s="11">
-        <v>2635</v>
+        <v>768</v>
       </c>
       <c r="AK37" s="11">
-        <v>768</v>
+        <v>4470</v>
       </c>
       <c r="AL37" s="11">
-        <v>4470</v>
+        <v>5089</v>
       </c>
       <c r="AM37" s="11">
-        <v>5089</v>
+        <v>4799</v>
       </c>
       <c r="AN37" s="11">
-        <v>4799</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="11">
-        <v>0</v>
+        <v>6839</v>
       </c>
       <c r="AP37" s="11">
-        <v>6839</v>
+        <v>5062</v>
       </c>
       <c r="AQ37" s="11">
-        <v>5062</v>
+        <v>3054</v>
       </c>
       <c r="AR37" s="11">
-        <v>3054</v>
+        <v>2411</v>
       </c>
       <c r="AS37" s="11">
-        <v>2411</v>
+        <v>1152</v>
       </c>
       <c r="AT37" s="11">
-        <v>1152</v>
+        <v>4208</v>
       </c>
       <c r="AU37" s="11">
-        <v>4208</v>
+        <v>5359</v>
       </c>
       <c r="AV37" s="11">
-        <v>5359</v>
+        <v>5105</v>
       </c>
       <c r="AW37" s="11">
-        <v>5105</v>
+        <v>5880</v>
       </c>
       <c r="AX37" s="11">
-        <v>5880</v>
+        <v>7615</v>
       </c>
       <c r="AY37" s="11">
-        <v>7615</v>
+        <v>5832</v>
       </c>
       <c r="AZ37" s="11">
-        <v>5832</v>
+        <v>5416</v>
       </c>
       <c r="BA37" s="11">
-        <v>5416</v>
+        <v>5504</v>
       </c>
       <c r="BB37" s="11">
-        <v>5504</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5110,154 +5110,154 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>567</v>
+        <v>332</v>
       </c>
       <c r="F38" s="13">
-        <v>332</v>
+        <v>1392</v>
       </c>
       <c r="G38" s="13">
-        <v>1392</v>
+        <v>655</v>
       </c>
       <c r="H38" s="13">
-        <v>655</v>
+        <v>3170</v>
       </c>
       <c r="I38" s="13">
-        <v>3170</v>
+        <v>3472</v>
       </c>
       <c r="J38" s="13">
-        <v>3472</v>
+        <v>2192</v>
       </c>
       <c r="K38" s="13">
-        <v>2192</v>
+        <v>1475</v>
       </c>
       <c r="L38" s="13">
-        <v>1475</v>
+        <v>3722</v>
       </c>
       <c r="M38" s="13">
-        <v>3722</v>
+        <v>0</v>
       </c>
       <c r="N38" s="13">
-        <v>0</v>
+        <v>5381</v>
       </c>
       <c r="O38" s="13">
-        <v>5381</v>
+        <v>4950</v>
       </c>
       <c r="P38" s="13">
-        <v>4950</v>
+        <v>9247</v>
       </c>
       <c r="Q38" s="13">
-        <v>9247</v>
+        <v>7205</v>
       </c>
       <c r="R38" s="13">
-        <v>7205</v>
+        <v>1409</v>
       </c>
       <c r="S38" s="13">
-        <v>1409</v>
+        <v>7669</v>
       </c>
       <c r="T38" s="13">
-        <v>7669</v>
+        <v>9012</v>
       </c>
       <c r="U38" s="13">
-        <v>9012</v>
+        <v>732</v>
       </c>
       <c r="V38" s="13">
-        <v>732</v>
+        <v>3347</v>
       </c>
       <c r="W38" s="13">
-        <v>3347</v>
+        <v>480</v>
       </c>
       <c r="X38" s="13">
-        <v>480</v>
+        <v>961</v>
       </c>
       <c r="Y38" s="13">
-        <v>961</v>
+        <v>6905</v>
       </c>
       <c r="Z38" s="13">
-        <v>6905</v>
+        <v>4090</v>
       </c>
       <c r="AA38" s="13">
-        <v>4090</v>
+        <v>4184</v>
       </c>
       <c r="AB38" s="13">
-        <v>4184</v>
+        <v>9692</v>
       </c>
       <c r="AC38" s="13">
-        <v>9692</v>
+        <v>4175</v>
       </c>
       <c r="AD38" s="13">
-        <v>4175</v>
+        <v>9050</v>
       </c>
       <c r="AE38" s="13">
-        <v>9050</v>
+        <v>4712</v>
       </c>
       <c r="AF38" s="13">
-        <v>4712</v>
+        <v>3825</v>
       </c>
       <c r="AG38" s="13">
-        <v>3825</v>
+        <v>966</v>
       </c>
       <c r="AH38" s="13">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="13">
-        <v>0</v>
+        <v>2557</v>
       </c>
       <c r="AJ38" s="13">
-        <v>2557</v>
+        <v>1534</v>
       </c>
       <c r="AK38" s="13">
-        <v>1534</v>
+        <v>3258</v>
       </c>
       <c r="AL38" s="13">
-        <v>3258</v>
+        <v>9019</v>
       </c>
       <c r="AM38" s="13">
-        <v>9019</v>
+        <v>10163</v>
       </c>
       <c r="AN38" s="13">
-        <v>10163</v>
+        <v>7728</v>
       </c>
       <c r="AO38" s="13">
-        <v>7728</v>
+        <v>5328</v>
       </c>
       <c r="AP38" s="13">
-        <v>5328</v>
+        <v>21140</v>
       </c>
       <c r="AQ38" s="13">
-        <v>21140</v>
+        <v>7902</v>
       </c>
       <c r="AR38" s="13">
-        <v>7902</v>
+        <v>10733</v>
       </c>
       <c r="AS38" s="13">
-        <v>10733</v>
+        <v>1699</v>
       </c>
       <c r="AT38" s="13">
-        <v>1699</v>
+        <v>8918</v>
       </c>
       <c r="AU38" s="13">
-        <v>8918</v>
+        <v>14776</v>
       </c>
       <c r="AV38" s="13">
-        <v>14776</v>
+        <v>10415</v>
       </c>
       <c r="AW38" s="13">
-        <v>10415</v>
+        <v>8360</v>
       </c>
       <c r="AX38" s="13">
-        <v>8360</v>
+        <v>12128</v>
       </c>
       <c r="AY38" s="13">
-        <v>12128</v>
+        <v>1206</v>
       </c>
       <c r="AZ38" s="13">
-        <v>1206</v>
+        <v>3362</v>
       </c>
       <c r="BA38" s="13">
-        <v>3362</v>
+        <v>5528</v>
       </c>
       <c r="BB38" s="13">
-        <v>5528</v>
+        <v>11199</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5269,154 +5269,154 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>7716</v>
+        <v>3481</v>
       </c>
       <c r="F39" s="11">
-        <v>3481</v>
+        <v>3423</v>
       </c>
       <c r="G39" s="11">
-        <v>3423</v>
+        <v>4591</v>
       </c>
       <c r="H39" s="11">
-        <v>4591</v>
+        <v>3058</v>
       </c>
       <c r="I39" s="11">
-        <v>3058</v>
+        <v>1234</v>
       </c>
       <c r="J39" s="11">
-        <v>1234</v>
+        <v>5248</v>
       </c>
       <c r="K39" s="11">
-        <v>5248</v>
+        <v>9473</v>
       </c>
       <c r="L39" s="11">
-        <v>9473</v>
+        <v>3674</v>
       </c>
       <c r="M39" s="11">
-        <v>3674</v>
+        <v>3282</v>
       </c>
       <c r="N39" s="11">
-        <v>3282</v>
+        <v>4955</v>
       </c>
       <c r="O39" s="11">
-        <v>4955</v>
+        <v>4626</v>
       </c>
       <c r="P39" s="11">
-        <v>4626</v>
+        <v>400</v>
       </c>
       <c r="Q39" s="11">
-        <v>400</v>
+        <v>11722</v>
       </c>
       <c r="R39" s="11">
-        <v>11722</v>
+        <v>14654</v>
       </c>
       <c r="S39" s="11">
-        <v>14654</v>
+        <v>8916</v>
       </c>
       <c r="T39" s="11">
-        <v>8916</v>
+        <v>6179</v>
       </c>
       <c r="U39" s="11">
-        <v>6179</v>
+        <v>391</v>
       </c>
       <c r="V39" s="11">
-        <v>391</v>
+        <v>2085</v>
       </c>
       <c r="W39" s="11">
-        <v>2085</v>
+        <v>3013</v>
       </c>
       <c r="X39" s="11">
-        <v>3013</v>
+        <v>5123</v>
       </c>
       <c r="Y39" s="11">
-        <v>5123</v>
+        <v>3604</v>
       </c>
       <c r="Z39" s="11">
-        <v>3604</v>
+        <v>1990</v>
       </c>
       <c r="AA39" s="11">
-        <v>1990</v>
+        <v>7713</v>
       </c>
       <c r="AB39" s="11">
-        <v>7713</v>
+        <v>5768</v>
       </c>
       <c r="AC39" s="11">
-        <v>5768</v>
+        <v>3071</v>
       </c>
       <c r="AD39" s="11">
-        <v>3071</v>
+        <v>6235</v>
       </c>
       <c r="AE39" s="11">
-        <v>6235</v>
+        <v>1351</v>
       </c>
       <c r="AF39" s="11">
-        <v>1351</v>
+        <v>620</v>
       </c>
       <c r="AG39" s="11">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="11">
-        <v>0</v>
+        <v>7620</v>
       </c>
       <c r="AI39" s="11">
-        <v>7620</v>
+        <v>3730</v>
       </c>
       <c r="AJ39" s="11">
-        <v>3730</v>
+        <v>6071</v>
       </c>
       <c r="AK39" s="11">
-        <v>6071</v>
+        <v>7434</v>
       </c>
       <c r="AL39" s="11">
-        <v>7434</v>
+        <v>1614</v>
       </c>
       <c r="AM39" s="11">
-        <v>1614</v>
+        <v>13301</v>
       </c>
       <c r="AN39" s="11">
-        <v>13301</v>
+        <v>5798</v>
       </c>
       <c r="AO39" s="11">
-        <v>5798</v>
+        <v>1400</v>
       </c>
       <c r="AP39" s="11">
-        <v>1400</v>
+        <v>11253</v>
       </c>
       <c r="AQ39" s="11">
-        <v>11253</v>
+        <v>2834</v>
       </c>
       <c r="AR39" s="11">
-        <v>2834</v>
+        <v>3031</v>
       </c>
       <c r="AS39" s="11">
-        <v>3031</v>
+        <v>3276</v>
       </c>
       <c r="AT39" s="11">
-        <v>3276</v>
+        <v>5100</v>
       </c>
       <c r="AU39" s="11">
-        <v>5100</v>
+        <v>4076</v>
       </c>
       <c r="AV39" s="11">
-        <v>4076</v>
+        <v>4630</v>
       </c>
       <c r="AW39" s="11">
-        <v>4630</v>
+        <v>4820</v>
       </c>
       <c r="AX39" s="11">
-        <v>4820</v>
+        <v>5114</v>
       </c>
       <c r="AY39" s="11">
-        <v>5114</v>
+        <v>3710</v>
       </c>
       <c r="AZ39" s="11">
-        <v>3710</v>
+        <v>6849</v>
       </c>
       <c r="BA39" s="11">
-        <v>6849</v>
+        <v>4461</v>
       </c>
       <c r="BB39" s="11">
-        <v>4461</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5442,8 +5442,8 @@
       <c r="I40" s="13">
         <v>0</v>
       </c>
-      <c r="J40" s="13">
-        <v>0</v>
+      <c r="J40" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>60</v>
@@ -5538,11 +5538,11 @@
       <c r="AO40" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AP40" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ40" s="13">
-        <v>0</v>
+      <c r="AP40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AR40" s="13" t="s">
         <v>60</v>
@@ -5550,8 +5550,8 @@
       <c r="AS40" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AT40" s="13" t="s">
-        <v>60</v>
+      <c r="AT40" s="13">
+        <v>0</v>
       </c>
       <c r="AU40" s="13">
         <v>0</v>
@@ -5587,154 +5587,154 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>9529</v>
+        <v>1595</v>
       </c>
       <c r="F41" s="11">
-        <v>1595</v>
+        <v>4803</v>
       </c>
       <c r="G41" s="11">
+        <v>4983</v>
+      </c>
+      <c r="H41" s="11">
+        <v>2223</v>
+      </c>
+      <c r="I41" s="11">
+        <v>1440</v>
+      </c>
+      <c r="J41" s="11">
+        <v>1413</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
+        <v>7385</v>
+      </c>
+      <c r="M41" s="11">
+        <v>13689</v>
+      </c>
+      <c r="N41" s="11">
+        <v>6245</v>
+      </c>
+      <c r="O41" s="11">
+        <v>5628</v>
+      </c>
+      <c r="P41" s="11">
+        <v>11849</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>1960</v>
+      </c>
+      <c r="R41" s="11">
+        <v>7803</v>
+      </c>
+      <c r="S41" s="11">
+        <v>13523</v>
+      </c>
+      <c r="T41" s="11">
+        <v>10814</v>
+      </c>
+      <c r="U41" s="11">
+        <v>1569</v>
+      </c>
+      <c r="V41" s="11">
+        <v>2992</v>
+      </c>
+      <c r="W41" s="11">
+        <v>14099</v>
+      </c>
+      <c r="X41" s="11">
+        <v>9782</v>
+      </c>
+      <c r="Y41" s="11">
+        <v>11043</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>12023</v>
+      </c>
+      <c r="AA41" s="11">
+        <v>7519</v>
+      </c>
+      <c r="AB41" s="11">
+        <v>2405</v>
+      </c>
+      <c r="AC41" s="11">
+        <v>4339</v>
+      </c>
+      <c r="AD41" s="11">
+        <v>2059</v>
+      </c>
+      <c r="AE41" s="11">
+        <v>4304</v>
+      </c>
+      <c r="AF41" s="11">
+        <v>8042</v>
+      </c>
+      <c r="AG41" s="11">
+        <v>7586</v>
+      </c>
+      <c r="AH41" s="11">
+        <v>7799</v>
+      </c>
+      <c r="AI41" s="11">
+        <v>13137</v>
+      </c>
+      <c r="AJ41" s="11">
+        <v>11907</v>
+      </c>
+      <c r="AK41" s="11">
+        <v>9032</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>7254</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>1465</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>7809</v>
+      </c>
+      <c r="AO41" s="11">
+        <v>8396</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>719</v>
+      </c>
+      <c r="AQ41" s="11">
+        <v>10040</v>
+      </c>
+      <c r="AR41" s="11">
+        <v>5225</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>3008</v>
+      </c>
+      <c r="AT41" s="11">
+        <v>7207</v>
+      </c>
+      <c r="AU41" s="11">
         <v>4803</v>
       </c>
-      <c r="H41" s="11">
-        <v>4983</v>
-      </c>
-      <c r="I41" s="11">
-        <v>2223</v>
-      </c>
-      <c r="J41" s="11">
-        <v>1440</v>
-      </c>
-      <c r="K41" s="11">
-        <v>1413</v>
-      </c>
-      <c r="L41" s="11">
-        <v>0</v>
-      </c>
-      <c r="M41" s="11">
-        <v>7385</v>
-      </c>
-      <c r="N41" s="11">
-        <v>13689</v>
-      </c>
-      <c r="O41" s="11">
-        <v>6245</v>
-      </c>
-      <c r="P41" s="11">
-        <v>5628</v>
-      </c>
-      <c r="Q41" s="11">
-        <v>11849</v>
-      </c>
-      <c r="R41" s="11">
-        <v>1960</v>
-      </c>
-      <c r="S41" s="11">
-        <v>7803</v>
-      </c>
-      <c r="T41" s="11">
-        <v>13523</v>
-      </c>
-      <c r="U41" s="11">
-        <v>10814</v>
-      </c>
-      <c r="V41" s="11">
-        <v>1569</v>
-      </c>
-      <c r="W41" s="11">
-        <v>2992</v>
-      </c>
-      <c r="X41" s="11">
-        <v>14099</v>
-      </c>
-      <c r="Y41" s="11">
-        <v>9782</v>
-      </c>
-      <c r="Z41" s="11">
-        <v>11043</v>
-      </c>
-      <c r="AA41" s="11">
-        <v>12023</v>
-      </c>
-      <c r="AB41" s="11">
-        <v>7519</v>
-      </c>
-      <c r="AC41" s="11">
-        <v>2405</v>
-      </c>
-      <c r="AD41" s="11">
-        <v>4339</v>
-      </c>
-      <c r="AE41" s="11">
-        <v>2059</v>
-      </c>
-      <c r="AF41" s="11">
-        <v>4304</v>
-      </c>
-      <c r="AG41" s="11">
-        <v>8042</v>
-      </c>
-      <c r="AH41" s="11">
-        <v>7586</v>
-      </c>
-      <c r="AI41" s="11">
-        <v>7799</v>
-      </c>
-      <c r="AJ41" s="11">
-        <v>13137</v>
-      </c>
-      <c r="AK41" s="11">
-        <v>11907</v>
-      </c>
-      <c r="AL41" s="11">
-        <v>9032</v>
-      </c>
-      <c r="AM41" s="11">
-        <v>7254</v>
-      </c>
-      <c r="AN41" s="11">
-        <v>1465</v>
-      </c>
-      <c r="AO41" s="11">
-        <v>7809</v>
-      </c>
-      <c r="AP41" s="11">
-        <v>8396</v>
-      </c>
-      <c r="AQ41" s="11">
-        <v>719</v>
-      </c>
-      <c r="AR41" s="11">
-        <v>10040</v>
-      </c>
-      <c r="AS41" s="11">
-        <v>5225</v>
-      </c>
-      <c r="AT41" s="11">
-        <v>3008</v>
-      </c>
-      <c r="AU41" s="11">
-        <v>7207</v>
-      </c>
       <c r="AV41" s="11">
-        <v>4803</v>
+        <v>3900</v>
       </c>
       <c r="AW41" s="11">
-        <v>3900</v>
+        <v>6406</v>
       </c>
       <c r="AX41" s="11">
-        <v>6406</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="11">
-        <v>0</v>
+        <v>6114</v>
       </c>
       <c r="AZ41" s="11">
-        <v>6114</v>
+        <v>3813</v>
       </c>
       <c r="BA41" s="11">
-        <v>3813</v>
+        <v>30790</v>
       </c>
       <c r="BB41" s="11">
-        <v>30790</v>
+        <v>20120</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5746,112 +5746,112 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>4189</v>
+        <v>15118</v>
       </c>
       <c r="F42" s="13">
-        <v>15118</v>
+        <v>19134</v>
       </c>
       <c r="G42" s="13">
-        <v>19134</v>
+        <v>16576</v>
       </c>
       <c r="H42" s="13">
-        <v>16576</v>
+        <v>21553</v>
       </c>
       <c r="I42" s="13">
-        <v>21553</v>
+        <v>8714</v>
       </c>
       <c r="J42" s="13">
-        <v>8714</v>
+        <v>1393</v>
       </c>
       <c r="K42" s="13">
-        <v>1393</v>
+        <v>10819</v>
       </c>
       <c r="L42" s="13">
-        <v>10819</v>
+        <v>14883</v>
       </c>
       <c r="M42" s="13">
-        <v>14883</v>
+        <v>11157</v>
       </c>
       <c r="N42" s="13">
-        <v>11157</v>
+        <v>13075</v>
       </c>
       <c r="O42" s="13">
-        <v>13075</v>
+        <v>9241</v>
       </c>
       <c r="P42" s="13">
-        <v>9241</v>
+        <v>15188</v>
       </c>
       <c r="Q42" s="13">
-        <v>15188</v>
+        <v>20558</v>
       </c>
       <c r="R42" s="13">
-        <v>20558</v>
+        <v>16965</v>
       </c>
       <c r="S42" s="13">
-        <v>16965</v>
+        <v>13426</v>
       </c>
       <c r="T42" s="13">
-        <v>13426</v>
+        <v>8666</v>
       </c>
       <c r="U42" s="13">
-        <v>8666</v>
+        <v>152446</v>
       </c>
       <c r="V42" s="13">
-        <v>152446</v>
+        <v>46188</v>
       </c>
       <c r="W42" s="13">
-        <v>46188</v>
+        <v>14057</v>
       </c>
       <c r="X42" s="13">
-        <v>14057</v>
+        <v>22681</v>
       </c>
       <c r="Y42" s="13">
-        <v>22681</v>
+        <v>14890</v>
       </c>
       <c r="Z42" s="13">
-        <v>14890</v>
+        <v>13568</v>
       </c>
       <c r="AA42" s="13">
-        <v>13568</v>
+        <v>15641</v>
       </c>
       <c r="AB42" s="13">
-        <v>15641</v>
+        <v>25479</v>
       </c>
       <c r="AC42" s="13">
-        <v>25479</v>
+        <v>17013</v>
       </c>
       <c r="AD42" s="13">
-        <v>17013</v>
+        <v>25571</v>
       </c>
       <c r="AE42" s="13">
-        <v>25571</v>
+        <v>41191</v>
       </c>
       <c r="AF42" s="13">
-        <v>41191</v>
+        <v>11889</v>
       </c>
       <c r="AG42" s="13">
-        <v>11889</v>
+        <v>1500</v>
       </c>
       <c r="AH42" s="13">
-        <v>1500</v>
+        <v>14205</v>
       </c>
       <c r="AI42" s="13">
-        <v>14205</v>
+        <v>22150</v>
       </c>
       <c r="AJ42" s="13">
-        <v>22150</v>
+        <v>13826</v>
       </c>
       <c r="AK42" s="13">
-        <v>13826</v>
+        <v>13249</v>
       </c>
       <c r="AL42" s="13">
-        <v>13249</v>
+        <v>16490</v>
       </c>
       <c r="AM42" s="13">
-        <v>16490</v>
-      </c>
-      <c r="AN42" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AN42" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AO42" s="13" t="s">
         <v>60</v>
@@ -5982,77 +5982,77 @@
       <c r="AD43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE43" s="11" t="s">
-        <v>60</v>
+      <c r="AE43" s="11">
+        <v>39</v>
       </c>
       <c r="AF43" s="11">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AG43" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AH43" s="11">
         <v>10</v>
       </c>
       <c r="AI43" s="11">
-        <v>10</v>
+        <v>678</v>
       </c>
       <c r="AJ43" s="11">
-        <v>678</v>
+        <v>1581</v>
       </c>
       <c r="AK43" s="11">
-        <v>1581</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="11">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="AM43" s="11">
-        <v>134</v>
+        <v>1912</v>
       </c>
       <c r="AN43" s="11">
-        <v>1912</v>
+        <v>0</v>
       </c>
       <c r="AO43" s="11">
         <v>0</v>
       </c>
       <c r="AP43" s="11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ43" s="11">
-        <v>31</v>
+        <v>3815</v>
       </c>
       <c r="AR43" s="11">
-        <v>3815</v>
+        <v>1526</v>
       </c>
       <c r="AS43" s="11">
-        <v>1526</v>
+        <v>795</v>
       </c>
       <c r="AT43" s="11">
-        <v>795</v>
+        <v>4545</v>
       </c>
       <c r="AU43" s="11">
-        <v>4545</v>
+        <v>2187</v>
       </c>
       <c r="AV43" s="11">
-        <v>2187</v>
+        <v>7654</v>
       </c>
       <c r="AW43" s="11">
-        <v>7654</v>
+        <v>4516</v>
       </c>
       <c r="AX43" s="11">
-        <v>4516</v>
+        <v>26</v>
       </c>
       <c r="AY43" s="11">
-        <v>26</v>
+        <v>654</v>
       </c>
       <c r="AZ43" s="11">
-        <v>654</v>
+        <v>10396</v>
       </c>
       <c r="BA43" s="11">
-        <v>10396</v>
+        <v>2381</v>
       </c>
       <c r="BB43" s="11">
-        <v>2381</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -6141,14 +6141,14 @@
       <c r="AD44" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AE44" s="13" t="s">
-        <v>60</v>
+      <c r="AE44" s="13">
+        <v>147</v>
       </c>
       <c r="AF44" s="13">
-        <v>147</v>
+        <v>360</v>
       </c>
       <c r="AG44" s="13">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="13">
         <v>0</v>
@@ -6169,49 +6169,49 @@
         <v>0</v>
       </c>
       <c r="AN44" s="13">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="AO44" s="13">
-        <v>381</v>
+        <v>1006</v>
       </c>
       <c r="AP44" s="13">
-        <v>1006</v>
+        <v>1076</v>
       </c>
       <c r="AQ44" s="13">
-        <v>1076</v>
+        <v>365</v>
       </c>
       <c r="AR44" s="13">
-        <v>365</v>
+        <v>448</v>
       </c>
       <c r="AS44" s="13">
-        <v>448</v>
+        <v>134</v>
       </c>
       <c r="AT44" s="13">
-        <v>134</v>
+        <v>810</v>
       </c>
       <c r="AU44" s="13">
-        <v>810</v>
+        <v>634</v>
       </c>
       <c r="AV44" s="13">
-        <v>634</v>
+        <v>130</v>
       </c>
       <c r="AW44" s="13">
-        <v>130</v>
+        <v>371</v>
       </c>
       <c r="AX44" s="13">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="AY44" s="13">
-        <v>406</v>
+        <v>146</v>
       </c>
       <c r="AZ44" s="13">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="BA44" s="13">
-        <v>50</v>
+        <v>930</v>
       </c>
       <c r="BB44" s="13">
-        <v>930</v>
+        <v>714</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6300,77 +6300,77 @@
       <c r="AD45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE45" s="11" t="s">
-        <v>60</v>
+      <c r="AE45" s="11">
+        <v>5</v>
       </c>
       <c r="AF45" s="11">
+        <v>3</v>
+      </c>
+      <c r="AG45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="11">
+        <v>20</v>
+      </c>
+      <c r="AJ45" s="11">
         <v>5</v>
       </c>
-      <c r="AG45" s="11">
-        <v>3</v>
-      </c>
-      <c r="AH45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="11">
-        <v>20</v>
-      </c>
       <c r="AK45" s="11">
-        <v>5</v>
+        <v>1300</v>
       </c>
       <c r="AL45" s="11">
-        <v>1300</v>
+        <v>2513</v>
       </c>
       <c r="AM45" s="11">
-        <v>2513</v>
+        <v>1726</v>
       </c>
       <c r="AN45" s="11">
-        <v>1726</v>
+        <v>2053</v>
       </c>
       <c r="AO45" s="11">
-        <v>2053</v>
+        <v>1641</v>
       </c>
       <c r="AP45" s="11">
-        <v>1641</v>
+        <v>311</v>
       </c>
       <c r="AQ45" s="11">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="AR45" s="11">
         <v>1</v>
       </c>
       <c r="AS45" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT45" s="11">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AU45" s="11">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="AV45" s="11">
-        <v>54</v>
+        <v>654</v>
       </c>
       <c r="AW45" s="11">
-        <v>654</v>
+        <v>6</v>
       </c>
       <c r="AX45" s="11">
-        <v>6</v>
+        <v>291</v>
       </c>
       <c r="AY45" s="11">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="AZ45" s="11">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="BA45" s="11">
-        <v>260</v>
+        <v>105</v>
       </c>
       <c r="BB45" s="11">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6483,53 +6483,53 @@
       <c r="AL46" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AM46" s="13" t="s">
-        <v>60</v>
+      <c r="AM46" s="13">
+        <v>11325</v>
       </c>
       <c r="AN46" s="13">
-        <v>11325</v>
+        <v>7153</v>
       </c>
       <c r="AO46" s="13">
-        <v>7153</v>
+        <v>8165</v>
       </c>
       <c r="AP46" s="13">
-        <v>8165</v>
+        <v>4875</v>
       </c>
       <c r="AQ46" s="13">
-        <v>4875</v>
+        <v>6469</v>
       </c>
       <c r="AR46" s="13">
-        <v>6469</v>
+        <v>4095</v>
       </c>
       <c r="AS46" s="13">
-        <v>4095</v>
+        <v>3240</v>
       </c>
       <c r="AT46" s="13">
-        <v>3240</v>
+        <v>3680</v>
       </c>
       <c r="AU46" s="13">
-        <v>3680</v>
+        <v>5110</v>
       </c>
       <c r="AV46" s="13">
-        <v>5110</v>
+        <v>10380</v>
       </c>
       <c r="AW46" s="13">
-        <v>10380</v>
+        <v>8753</v>
       </c>
       <c r="AX46" s="13">
-        <v>8753</v>
+        <v>4425</v>
       </c>
       <c r="AY46" s="13">
-        <v>4425</v>
+        <v>14110</v>
       </c>
       <c r="AZ46" s="13">
-        <v>14110</v>
+        <v>6525</v>
       </c>
       <c r="BA46" s="13">
-        <v>6525</v>
+        <v>7114</v>
       </c>
       <c r="BB46" s="13">
-        <v>7114</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6642,8 +6642,8 @@
       <c r="AL47" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AM47" s="11" t="s">
-        <v>60</v>
+      <c r="AM47" s="11">
+        <v>0</v>
       </c>
       <c r="AN47" s="11">
         <v>0</v>
@@ -6658,37 +6658,37 @@
         <v>0</v>
       </c>
       <c r="AR47" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS47" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU47" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV47" s="11">
         <v>0</v>
       </c>
       <c r="AW47" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX47" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY47" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="11">
         <v>0</v>
       </c>
       <c r="BA47" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB47" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6801,8 +6801,8 @@
       <c r="AL48" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AM48" s="13" t="s">
-        <v>60</v>
+      <c r="AM48" s="13">
+        <v>0</v>
       </c>
       <c r="AN48" s="13">
         <v>0</v>
@@ -6811,43 +6811,43 @@
         <v>0</v>
       </c>
       <c r="AP48" s="13">
-        <v>0</v>
+        <v>3640</v>
       </c>
       <c r="AQ48" s="13">
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="AR48" s="13">
-        <v>0</v>
+        <v>3676</v>
       </c>
       <c r="AS48" s="13">
-        <v>3676</v>
+        <v>1257</v>
       </c>
       <c r="AT48" s="13">
-        <v>1257</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV48" s="13">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="AW48" s="13">
-        <v>99</v>
+        <v>5373</v>
       </c>
       <c r="AX48" s="13">
-        <v>5373</v>
+        <v>3793</v>
       </c>
       <c r="AY48" s="13">
-        <v>3793</v>
+        <v>58</v>
       </c>
       <c r="AZ48" s="13">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="BA48" s="13">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="BB48" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6960,26 +6960,26 @@
       <c r="AL49" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AM49" s="11" t="s">
-        <v>60</v>
+      <c r="AM49" s="11">
+        <v>1634</v>
       </c>
       <c r="AN49" s="11">
-        <v>1634</v>
+        <v>2365</v>
       </c>
       <c r="AO49" s="11">
-        <v>2365</v>
+        <v>4724</v>
       </c>
       <c r="AP49" s="11">
-        <v>4724</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="11">
         <v>0</v>
       </c>
       <c r="AR49" s="11">
-        <v>0</v>
+        <v>3765</v>
       </c>
       <c r="AS49" s="11">
-        <v>3765</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="11">
         <v>0</v>
@@ -6988,25 +6988,25 @@
         <v>0</v>
       </c>
       <c r="AV49" s="11">
-        <v>0</v>
+        <v>4371</v>
       </c>
       <c r="AW49" s="11">
-        <v>4371</v>
+        <v>601</v>
       </c>
       <c r="AX49" s="11">
-        <v>601</v>
+        <v>3149</v>
       </c>
       <c r="AY49" s="11">
-        <v>3149</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="11">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="BA49" s="11">
-        <v>1050</v>
+        <v>1</v>
       </c>
       <c r="BB49" s="11">
-        <v>1</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -7119,8 +7119,8 @@
       <c r="AL50" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AM50" s="13" t="s">
-        <v>60</v>
+      <c r="AM50" s="13">
+        <v>0</v>
       </c>
       <c r="AN50" s="13">
         <v>0</v>
@@ -7129,34 +7129,34 @@
         <v>0</v>
       </c>
       <c r="AP50" s="13">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AQ50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="13">
+        <v>6080</v>
+      </c>
+      <c r="AT50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV50" s="13">
         <v>960</v>
       </c>
-      <c r="AR50" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS50" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT50" s="13">
-        <v>6080</v>
-      </c>
-      <c r="AU50" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV50" s="13">
-        <v>0</v>
-      </c>
       <c r="AW50" s="13">
-        <v>960</v>
+        <v>3200</v>
       </c>
       <c r="AX50" s="13">
         <v>3200</v>
       </c>
       <c r="AY50" s="13">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="13">
         <v>0</v>
@@ -7278,8 +7278,8 @@
       <c r="AL51" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AM51" s="11" t="s">
-        <v>60</v>
+      <c r="AM51" s="11">
+        <v>0</v>
       </c>
       <c r="AN51" s="11">
         <v>0</v>
@@ -7321,10 +7321,10 @@
         <v>0</v>
       </c>
       <c r="BA51" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB51" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7446,11 +7446,11 @@
       <c r="AO52" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AP52" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ52" s="13">
-        <v>0</v>
+      <c r="AP52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AR52" s="13" t="s">
         <v>60</v>
@@ -7458,8 +7458,8 @@
       <c r="AS52" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AT52" s="13" t="s">
-        <v>60</v>
+      <c r="AT52" s="13">
+        <v>0</v>
       </c>
       <c r="AU52" s="13">
         <v>0</v>
@@ -7672,17 +7672,17 @@
       <c r="AS54" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AT54" s="11" t="s">
-        <v>60</v>
+      <c r="AT54" s="11">
+        <v>0</v>
       </c>
       <c r="AU54" s="11">
         <v>0</v>
       </c>
-      <c r="AV54" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW54" s="11" t="s">
-        <v>60</v>
+      <c r="AV54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW54" s="11">
+        <v>0</v>
       </c>
       <c r="AX54" s="11">
         <v>0</v>
@@ -7690,11 +7690,11 @@
       <c r="AY54" s="11">
         <v>0</v>
       </c>
-      <c r="AZ54" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA54" s="11" t="s">
-        <v>60</v>
+      <c r="AZ54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA54" s="11">
+        <v>0</v>
       </c>
       <c r="BB54" s="11" t="s">
         <v>60</v>
@@ -7766,8 +7766,8 @@
       <c r="X55" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y55" s="15" t="s">
-        <v>60</v>
+      <c r="Y55" s="15">
+        <v>0</v>
       </c>
       <c r="Z55" s="15">
         <v>0</v>
@@ -7982,8 +7982,8 @@
       <c r="X57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>60</v>
+      <c r="Y57" s="11">
+        <v>0</v>
       </c>
       <c r="Z57" s="11">
         <v>0</v>
@@ -8009,8 +8009,8 @@
       <c r="AG57" s="11">
         <v>0</v>
       </c>
-      <c r="AH57" s="11">
-        <v>0</v>
+      <c r="AH57" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AI57" s="11" t="s">
         <v>60</v>
@@ -8018,11 +8018,11 @@
       <c r="AJ57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AK57" s="11" t="s">
-        <v>60</v>
+      <c r="AK57" s="11">
+        <v>-576</v>
       </c>
       <c r="AL57" s="11">
-        <v>-576</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="11">
         <v>0</v>
@@ -8030,17 +8030,17 @@
       <c r="AN57" s="11">
         <v>0</v>
       </c>
-      <c r="AO57" s="11">
-        <v>0</v>
+      <c r="AO57" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AP57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AQ57" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR57" s="11">
-        <v>0</v>
+      <c r="AQ57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AS57" s="11" t="s">
         <v>60</v>
@@ -8054,8 +8054,8 @@
       <c r="AV57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AW57" s="11" t="s">
-        <v>60</v>
+      <c r="AW57" s="11">
+        <v>0</v>
       </c>
       <c r="AX57" s="11">
         <v>0</v>
@@ -8063,11 +8063,11 @@
       <c r="AY57" s="11">
         <v>0</v>
       </c>
-      <c r="AZ57" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA57" s="11" t="s">
-        <v>60</v>
+      <c r="AZ57" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA57" s="11">
+        <v>0</v>
       </c>
       <c r="BB57" s="11" t="s">
         <v>60</v>
@@ -8204,29 +8204,29 @@
       <c r="AS58" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AT58" s="13" t="s">
-        <v>60</v>
+      <c r="AT58" s="13">
+        <v>0</v>
       </c>
       <c r="AU58" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV58" s="13">
         <v>-599</v>
       </c>
-      <c r="AW58" s="13" t="s">
-        <v>60</v>
+      <c r="AV58" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW58" s="13">
+        <v>0</v>
       </c>
       <c r="AX58" s="13">
-        <v>0</v>
+        <v>-483</v>
       </c>
       <c r="AY58" s="13">
-        <v>-483</v>
-      </c>
-      <c r="AZ58" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA58" s="13" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="AZ58" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA58" s="13">
+        <v>0</v>
       </c>
       <c r="BB58" s="13" t="s">
         <v>60</v>
@@ -8312,23 +8312,23 @@
       <c r="AB59" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AC59" s="11" t="s">
-        <v>60</v>
+      <c r="AC59" s="11">
+        <v>-120</v>
       </c>
       <c r="AD59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="11">
         <v>-120</v>
       </c>
-      <c r="AE59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="11">
-        <v>-120</v>
+      <c r="AH59" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AI59" s="11" t="s">
         <v>60</v>
@@ -8339,53 +8339,53 @@
       <c r="AK59" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AL59" s="11" t="s">
-        <v>60</v>
+      <c r="AL59" s="11">
+        <v>-855</v>
       </c>
       <c r="AM59" s="11">
-        <v>-855</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="11">
         <v>0</v>
       </c>
-      <c r="AO59" s="11">
-        <v>0</v>
+      <c r="AO59" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AP59" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AQ59" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS59" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT59" s="11">
+      <c r="AQ59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS59" s="11">
         <v>-40</v>
       </c>
+      <c r="AT59" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AU59" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AV59" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AW59" s="11" t="s">
-        <v>60</v>
+      <c r="AW59" s="11">
+        <v>0</v>
       </c>
       <c r="AX59" s="11">
-        <v>0</v>
+        <v>-525</v>
       </c>
       <c r="AY59" s="11">
-        <v>-525</v>
-      </c>
-      <c r="AZ59" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA59" s="11" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="AZ59" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA59" s="11">
+        <v>0</v>
       </c>
       <c r="BB59" s="11" t="s">
         <v>60</v>
@@ -8465,8 +8465,8 @@
       <c r="Z60" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AA60" s="13" t="s">
-        <v>60</v>
+      <c r="AA60" s="13">
+        <v>0</v>
       </c>
       <c r="AB60" s="13">
         <v>0</v>
@@ -8486,8 +8486,8 @@
       <c r="AG60" s="13">
         <v>0</v>
       </c>
-      <c r="AH60" s="13">
-        <v>0</v>
+      <c r="AH60" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AI60" s="13" t="s">
         <v>60</v>
@@ -8516,11 +8516,11 @@
       <c r="AQ60" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AR60" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS60" s="13">
+      <c r="AR60" s="13">
         <v>-12</v>
+      </c>
+      <c r="AS60" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AT60" s="13" t="s">
         <v>60</v>
@@ -8654,29 +8654,29 @@
       <c r="AJ61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AK61" s="11" t="s">
-        <v>60</v>
+      <c r="AK61" s="11">
+        <v>-25</v>
       </c>
       <c r="AL61" s="11">
-        <v>-25</v>
+        <v>-125</v>
       </c>
       <c r="AM61" s="11">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="AN61" s="11">
         <v>0</v>
       </c>
-      <c r="AO61" s="11">
-        <v>0</v>
+      <c r="AO61" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AP61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AQ61" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR61" s="11">
-        <v>0</v>
+      <c r="AQ61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR61" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AS61" s="11" t="s">
         <v>60</v>
@@ -8690,8 +8690,8 @@
       <c r="AV61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AW61" s="11" t="s">
-        <v>60</v>
+      <c r="AW61" s="11">
+        <v>0</v>
       </c>
       <c r="AX61" s="11">
         <v>0</v>
@@ -8699,11 +8699,11 @@
       <c r="AY61" s="11">
         <v>0</v>
       </c>
-      <c r="AZ61" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA61" s="11" t="s">
-        <v>60</v>
+      <c r="AZ61" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA61" s="11">
+        <v>0</v>
       </c>
       <c r="BB61" s="11" t="s">
         <v>60</v>
@@ -8813,8 +8813,8 @@
       <c r="AJ62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AK62" s="13" t="s">
-        <v>60</v>
+      <c r="AK62" s="13">
+        <v>0</v>
       </c>
       <c r="AL62" s="13">
         <v>0</v>
@@ -8825,44 +8825,44 @@
       <c r="AN62" s="13">
         <v>0</v>
       </c>
-      <c r="AO62" s="13">
-        <v>0</v>
+      <c r="AO62" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AP62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AQ62" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR62" s="13">
+      <c r="AQ62" s="13">
         <v>-8</v>
       </c>
+      <c r="AR62" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AS62" s="13" t="s">
         <v>60</v>
       </c>
       <c r="AT62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AU62" s="13" t="s">
-        <v>60</v>
+      <c r="AU62" s="13">
+        <v>0</v>
       </c>
       <c r="AV62" s="13">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AW62" s="13">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AX62" s="13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY62" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AZ62" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA62" s="13" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="AZ62" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA62" s="13">
+        <v>0</v>
       </c>
       <c r="BB62" s="13" t="s">
         <v>60</v>
@@ -8934,8 +8934,8 @@
       <c r="X63" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y63" s="17" t="s">
-        <v>60</v>
+      <c r="Y63" s="17">
+        <v>0</v>
       </c>
       <c r="Z63" s="17">
         <v>0</v>
@@ -8947,22 +8947,22 @@
         <v>0</v>
       </c>
       <c r="AC63" s="17">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="AD63" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="17">
         <v>-120</v>
       </c>
-      <c r="AE63" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="17">
-        <v>0</v>
-      </c>
       <c r="AH63" s="17">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="AI63" s="17">
         <v>0</v>
@@ -8971,13 +8971,13 @@
         <v>0</v>
       </c>
       <c r="AK63" s="17">
-        <v>0</v>
+        <v>-601</v>
       </c>
       <c r="AL63" s="17">
-        <v>-601</v>
+        <v>-980</v>
       </c>
       <c r="AM63" s="17">
-        <v>-980</v>
+        <v>0</v>
       </c>
       <c r="AN63" s="17">
         <v>0</v>
@@ -8989,31 +8989,31 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="17">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AR63" s="17">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AS63" s="17">
+        <v>-40</v>
+      </c>
+      <c r="AT63" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU63" s="17">
+        <v>-599</v>
+      </c>
+      <c r="AV63" s="17">
         <v>-12</v>
       </c>
-      <c r="AT63" s="17">
-        <v>-40</v>
-      </c>
-      <c r="AU63" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV63" s="17">
-        <v>-599</v>
-      </c>
       <c r="AW63" s="17">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AX63" s="17">
-        <v>0</v>
+        <v>-1009</v>
       </c>
       <c r="AY63" s="17">
-        <v>-1009</v>
+        <v>0</v>
       </c>
       <c r="AZ63" s="17">
         <v>0</v>
@@ -9032,154 +9032,154 @@
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
-        <v>24233</v>
+        <v>24980</v>
       </c>
       <c r="F64" s="15">
-        <v>24980</v>
+        <v>28752</v>
       </c>
       <c r="G64" s="15">
-        <v>28752</v>
+        <v>26805</v>
       </c>
       <c r="H64" s="15">
-        <v>26805</v>
+        <v>30004</v>
       </c>
       <c r="I64" s="15">
-        <v>30004</v>
+        <v>15874</v>
       </c>
       <c r="J64" s="15">
-        <v>15874</v>
+        <v>10246</v>
       </c>
       <c r="K64" s="15">
-        <v>10246</v>
+        <v>22470</v>
       </c>
       <c r="L64" s="15">
-        <v>22470</v>
+        <v>29664</v>
       </c>
       <c r="M64" s="15">
-        <v>29664</v>
+        <v>29043</v>
       </c>
       <c r="N64" s="15">
-        <v>29043</v>
+        <v>29656</v>
       </c>
       <c r="O64" s="15">
-        <v>29656</v>
+        <v>27889</v>
       </c>
       <c r="P64" s="15">
-        <v>27889</v>
+        <v>36684</v>
       </c>
       <c r="Q64" s="15">
-        <v>36684</v>
+        <v>46973</v>
       </c>
       <c r="R64" s="15">
-        <v>46973</v>
+        <v>50197</v>
       </c>
       <c r="S64" s="15">
-        <v>50197</v>
+        <v>44343</v>
       </c>
       <c r="T64" s="15">
-        <v>44343</v>
+        <v>35725</v>
       </c>
       <c r="U64" s="15">
-        <v>35725</v>
+        <v>155715</v>
       </c>
       <c r="V64" s="15">
-        <v>155715</v>
+        <v>54612</v>
       </c>
       <c r="W64" s="15">
-        <v>54612</v>
+        <v>35098</v>
       </c>
       <c r="X64" s="15">
-        <v>35098</v>
+        <v>41054</v>
       </c>
       <c r="Y64" s="15">
-        <v>41054</v>
+        <v>39026</v>
       </c>
       <c r="Z64" s="15">
-        <v>39026</v>
+        <v>35477</v>
       </c>
       <c r="AA64" s="15">
-        <v>35477</v>
+        <v>35784</v>
       </c>
       <c r="AB64" s="15">
-        <v>35784</v>
+        <v>44502</v>
       </c>
       <c r="AC64" s="15">
-        <v>44502</v>
+        <v>31294</v>
       </c>
       <c r="AD64" s="15">
-        <v>31294</v>
+        <v>44979</v>
       </c>
       <c r="AE64" s="15">
-        <v>44979</v>
+        <v>53841</v>
       </c>
       <c r="AF64" s="15">
-        <v>53841</v>
+        <v>24999</v>
       </c>
       <c r="AG64" s="15">
-        <v>24999</v>
+        <v>9942</v>
       </c>
       <c r="AH64" s="15">
-        <v>9942</v>
+        <v>35185</v>
       </c>
       <c r="AI64" s="15">
-        <v>35185</v>
+        <v>44907</v>
       </c>
       <c r="AJ64" s="15">
-        <v>44907</v>
+        <v>35692</v>
       </c>
       <c r="AK64" s="15">
-        <v>35692</v>
+        <v>38142</v>
       </c>
       <c r="AL64" s="15">
-        <v>38142</v>
+        <v>41133</v>
       </c>
       <c r="AM64" s="15">
-        <v>41133</v>
+        <v>46325</v>
       </c>
       <c r="AN64" s="15">
-        <v>46325</v>
+        <v>33287</v>
       </c>
       <c r="AO64" s="15">
-        <v>33287</v>
+        <v>37499</v>
       </c>
       <c r="AP64" s="15">
-        <v>37499</v>
+        <v>49067</v>
       </c>
       <c r="AQ64" s="15">
-        <v>49067</v>
+        <v>34472</v>
       </c>
       <c r="AR64" s="15">
-        <v>34472</v>
+        <v>34906</v>
       </c>
       <c r="AS64" s="15">
-        <v>34906</v>
+        <v>20604</v>
       </c>
       <c r="AT64" s="15">
-        <v>20604</v>
+        <v>34489</v>
       </c>
       <c r="AU64" s="15">
-        <v>34489</v>
+        <v>36416</v>
       </c>
       <c r="AV64" s="15">
-        <v>36416</v>
+        <v>48286</v>
       </c>
       <c r="AW64" s="15">
-        <v>48286</v>
+        <v>48291</v>
       </c>
       <c r="AX64" s="15">
-        <v>48291</v>
+        <v>39141</v>
       </c>
       <c r="AY64" s="15">
-        <v>39141</v>
+        <v>31867</v>
       </c>
       <c r="AZ64" s="15">
-        <v>31867</v>
+        <v>37776</v>
       </c>
       <c r="BA64" s="15">
-        <v>37776</v>
+        <v>56842</v>
       </c>
       <c r="BB64" s="15">
-        <v>56842</v>
+        <v>54027</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -9625,10 +9625,10 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>3821</v>
+        <v>13251</v>
       </c>
       <c r="F71" s="11">
-        <v>13251</v>
+        <v>0</v>
       </c>
       <c r="G71" s="11">
         <v>0</v>
@@ -9637,142 +9637,142 @@
         <v>0</v>
       </c>
       <c r="I71" s="11">
-        <v>0</v>
+        <v>3397</v>
       </c>
       <c r="J71" s="11">
-        <v>3397</v>
+        <v>228</v>
       </c>
       <c r="K71" s="11">
-        <v>228</v>
+        <v>3914</v>
       </c>
       <c r="L71" s="11">
-        <v>3914</v>
+        <v>0</v>
       </c>
       <c r="M71" s="11">
-        <v>0</v>
+        <v>3588</v>
       </c>
       <c r="N71" s="11">
-        <v>3588</v>
+        <v>0</v>
       </c>
       <c r="O71" s="11">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="P71" s="11">
-        <v>8850</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="11">
-        <v>0</v>
+        <v>17643</v>
       </c>
       <c r="R71" s="11">
-        <v>17643</v>
+        <v>26212</v>
       </c>
       <c r="S71" s="11">
-        <v>26212</v>
+        <v>2710</v>
       </c>
       <c r="T71" s="11">
-        <v>2710</v>
+        <v>2084</v>
       </c>
       <c r="U71" s="11">
-        <v>2084</v>
+        <v>1932</v>
       </c>
       <c r="V71" s="11">
-        <v>1932</v>
+        <v>0</v>
       </c>
       <c r="W71" s="11">
-        <v>0</v>
+        <v>12682</v>
       </c>
       <c r="X71" s="11">
-        <v>12682</v>
+        <v>8163</v>
       </c>
       <c r="Y71" s="11">
-        <v>8163</v>
+        <v>10244</v>
       </c>
       <c r="Z71" s="11">
-        <v>10244</v>
+        <v>15544</v>
       </c>
       <c r="AA71" s="11">
-        <v>15544</v>
+        <v>3053</v>
       </c>
       <c r="AB71" s="11">
-        <v>3053</v>
+        <v>5616</v>
       </c>
       <c r="AC71" s="11">
-        <v>5616</v>
+        <v>15220</v>
       </c>
       <c r="AD71" s="11">
-        <v>15220</v>
+        <v>10491</v>
       </c>
       <c r="AE71" s="11">
-        <v>10491</v>
+        <v>10458</v>
       </c>
       <c r="AF71" s="11">
-        <v>10458</v>
+        <v>1414</v>
       </c>
       <c r="AG71" s="11">
-        <v>1414</v>
+        <v>0</v>
       </c>
       <c r="AH71" s="11">
-        <v>0</v>
+        <v>24693</v>
       </c>
       <c r="AI71" s="11">
-        <v>24693</v>
+        <v>15811</v>
       </c>
       <c r="AJ71" s="11">
-        <v>15811</v>
+        <v>4608</v>
       </c>
       <c r="AK71" s="11">
-        <v>4608</v>
+        <v>26527</v>
       </c>
       <c r="AL71" s="11">
-        <v>26527</v>
+        <v>27943</v>
       </c>
       <c r="AM71" s="11">
-        <v>27943</v>
+        <v>23993</v>
       </c>
       <c r="AN71" s="11">
-        <v>23993</v>
+        <v>0</v>
       </c>
       <c r="AO71" s="11">
-        <v>0</v>
+        <v>39319</v>
       </c>
       <c r="AP71" s="11">
-        <v>39319</v>
+        <v>29764</v>
       </c>
       <c r="AQ71" s="11">
-        <v>29764</v>
+        <v>17181</v>
       </c>
       <c r="AR71" s="11">
-        <v>17181</v>
+        <v>13326</v>
       </c>
       <c r="AS71" s="11">
-        <v>13326</v>
+        <v>8064</v>
       </c>
       <c r="AT71" s="11">
-        <v>8064</v>
+        <v>26400</v>
       </c>
       <c r="AU71" s="11">
-        <v>26400</v>
+        <v>34386</v>
       </c>
       <c r="AV71" s="11">
-        <v>34386</v>
+        <v>34479</v>
       </c>
       <c r="AW71" s="11">
-        <v>34479</v>
+        <v>38508</v>
       </c>
       <c r="AX71" s="11">
-        <v>38508</v>
+        <v>56804</v>
       </c>
       <c r="AY71" s="11">
-        <v>56804</v>
+        <v>34992</v>
       </c>
       <c r="AZ71" s="11">
-        <v>34992</v>
+        <v>37952</v>
       </c>
       <c r="BA71" s="11">
-        <v>37952</v>
+        <v>38456</v>
       </c>
       <c r="BB71" s="11">
-        <v>38456</v>
+        <v>39686</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9784,154 +9784,154 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>2002</v>
+        <v>1410</v>
       </c>
       <c r="F72" s="13">
-        <v>1410</v>
+        <v>3345</v>
       </c>
       <c r="G72" s="13">
-        <v>3345</v>
+        <v>952</v>
       </c>
       <c r="H72" s="13">
-        <v>952</v>
+        <v>4755</v>
       </c>
       <c r="I72" s="13">
-        <v>4755</v>
+        <v>5039</v>
       </c>
       <c r="J72" s="13">
-        <v>5039</v>
+        <v>3166</v>
       </c>
       <c r="K72" s="13">
-        <v>3166</v>
+        <v>2121</v>
       </c>
       <c r="L72" s="13">
-        <v>2121</v>
+        <v>6264</v>
       </c>
       <c r="M72" s="13">
-        <v>6264</v>
+        <v>0</v>
       </c>
       <c r="N72" s="13">
-        <v>0</v>
+        <v>10408</v>
       </c>
       <c r="O72" s="13">
-        <v>10408</v>
+        <v>7975</v>
       </c>
       <c r="P72" s="13">
-        <v>7975</v>
+        <v>17111</v>
       </c>
       <c r="Q72" s="13">
-        <v>17111</v>
+        <v>15136</v>
       </c>
       <c r="R72" s="13">
-        <v>15136</v>
+        <v>2818</v>
       </c>
       <c r="S72" s="13">
-        <v>2818</v>
+        <v>12906</v>
       </c>
       <c r="T72" s="13">
-        <v>12906</v>
+        <v>19462</v>
       </c>
       <c r="U72" s="13">
-        <v>19462</v>
+        <v>1630</v>
       </c>
       <c r="V72" s="13">
-        <v>1630</v>
+        <v>8215</v>
       </c>
       <c r="W72" s="13">
-        <v>8215</v>
+        <v>2830</v>
       </c>
       <c r="X72" s="13">
-        <v>2830</v>
+        <v>2178</v>
       </c>
       <c r="Y72" s="13">
-        <v>2178</v>
+        <v>16366</v>
       </c>
       <c r="Z72" s="13">
-        <v>16366</v>
+        <v>7215</v>
       </c>
       <c r="AA72" s="13">
-        <v>7215</v>
+        <v>8223</v>
       </c>
       <c r="AB72" s="13">
-        <v>8223</v>
+        <v>33619</v>
       </c>
       <c r="AC72" s="13">
-        <v>33619</v>
+        <v>9785</v>
       </c>
       <c r="AD72" s="13">
-        <v>9785</v>
+        <v>23520</v>
       </c>
       <c r="AE72" s="13">
-        <v>23520</v>
+        <v>15422</v>
       </c>
       <c r="AF72" s="13">
-        <v>15422</v>
+        <v>14101</v>
       </c>
       <c r="AG72" s="13">
-        <v>14101</v>
+        <v>9287</v>
       </c>
       <c r="AH72" s="13">
-        <v>9287</v>
+        <v>0</v>
       </c>
       <c r="AI72" s="13">
-        <v>0</v>
+        <v>24291</v>
       </c>
       <c r="AJ72" s="13">
-        <v>24291</v>
+        <v>22948</v>
       </c>
       <c r="AK72" s="13">
-        <v>22948</v>
+        <v>27976</v>
       </c>
       <c r="AL72" s="13">
-        <v>27976</v>
+        <v>72693</v>
       </c>
       <c r="AM72" s="13">
-        <v>72693</v>
+        <v>70591</v>
       </c>
       <c r="AN72" s="13">
-        <v>70591</v>
+        <v>65857</v>
       </c>
       <c r="AO72" s="13">
-        <v>65857</v>
+        <v>39543</v>
       </c>
       <c r="AP72" s="13">
-        <v>39543</v>
+        <v>152659</v>
       </c>
       <c r="AQ72" s="13">
-        <v>152659</v>
+        <v>51635</v>
       </c>
       <c r="AR72" s="13">
-        <v>51635</v>
+        <v>62547</v>
       </c>
       <c r="AS72" s="13">
-        <v>62547</v>
+        <v>27457</v>
       </c>
       <c r="AT72" s="13">
-        <v>27457</v>
+        <v>49877</v>
       </c>
       <c r="AU72" s="13">
-        <v>49877</v>
+        <v>112185</v>
       </c>
       <c r="AV72" s="13">
-        <v>112185</v>
+        <v>69989</v>
       </c>
       <c r="AW72" s="13">
-        <v>69989</v>
+        <v>53377</v>
       </c>
       <c r="AX72" s="13">
-        <v>53377</v>
+        <v>164290</v>
       </c>
       <c r="AY72" s="13">
-        <v>164290</v>
+        <v>49799</v>
       </c>
       <c r="AZ72" s="13">
-        <v>49799</v>
+        <v>21713</v>
       </c>
       <c r="BA72" s="13">
-        <v>21713</v>
+        <v>71893</v>
       </c>
       <c r="BB72" s="13">
-        <v>71893</v>
+        <v>105323</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9943,154 +9943,154 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>30266</v>
+        <v>14834</v>
       </c>
       <c r="F73" s="11">
-        <v>14834</v>
+        <v>24219</v>
       </c>
       <c r="G73" s="11">
-        <v>24219</v>
+        <v>22366</v>
       </c>
       <c r="H73" s="11">
-        <v>22366</v>
+        <v>17019</v>
       </c>
       <c r="I73" s="11">
-        <v>17019</v>
+        <v>8636</v>
       </c>
       <c r="J73" s="11">
-        <v>8636</v>
+        <v>26926</v>
       </c>
       <c r="K73" s="11">
-        <v>26926</v>
+        <v>56622</v>
       </c>
       <c r="L73" s="11">
-        <v>56622</v>
+        <v>24898</v>
       </c>
       <c r="M73" s="11">
-        <v>24898</v>
+        <v>26253</v>
       </c>
       <c r="N73" s="11">
-        <v>26253</v>
+        <v>39641</v>
       </c>
       <c r="O73" s="11">
-        <v>39641</v>
+        <v>38668</v>
       </c>
       <c r="P73" s="11">
-        <v>38668</v>
+        <v>3200</v>
       </c>
       <c r="Q73" s="11">
-        <v>3200</v>
+        <v>66880</v>
       </c>
       <c r="R73" s="11">
-        <v>66880</v>
+        <v>65645</v>
       </c>
       <c r="S73" s="11">
-        <v>65645</v>
+        <v>54815</v>
       </c>
       <c r="T73" s="11">
-        <v>54815</v>
+        <v>30596</v>
       </c>
       <c r="U73" s="11">
-        <v>30596</v>
+        <v>816</v>
       </c>
       <c r="V73" s="11">
-        <v>816</v>
+        <v>14035</v>
       </c>
       <c r="W73" s="11">
-        <v>14035</v>
+        <v>28433</v>
       </c>
       <c r="X73" s="11">
-        <v>28433</v>
+        <v>48150</v>
       </c>
       <c r="Y73" s="11">
-        <v>48150</v>
+        <v>31790</v>
       </c>
       <c r="Z73" s="11">
-        <v>31790</v>
+        <v>16629</v>
       </c>
       <c r="AA73" s="11">
-        <v>16629</v>
+        <v>56998</v>
       </c>
       <c r="AB73" s="11">
-        <v>56998</v>
+        <v>40413</v>
       </c>
       <c r="AC73" s="11">
-        <v>40413</v>
+        <v>16935</v>
       </c>
       <c r="AD73" s="11">
-        <v>16935</v>
+        <v>36019</v>
       </c>
       <c r="AE73" s="11">
-        <v>36019</v>
+        <v>12899</v>
       </c>
       <c r="AF73" s="11">
-        <v>12899</v>
+        <v>4650</v>
       </c>
       <c r="AG73" s="11">
-        <v>4650</v>
+        <v>0</v>
       </c>
       <c r="AH73" s="11">
-        <v>0</v>
+        <v>67282</v>
       </c>
       <c r="AI73" s="11">
-        <v>67282</v>
+        <v>42368</v>
       </c>
       <c r="AJ73" s="11">
-        <v>42368</v>
+        <v>80167</v>
       </c>
       <c r="AK73" s="11">
-        <v>80167</v>
+        <v>94134</v>
       </c>
       <c r="AL73" s="11">
-        <v>94134</v>
+        <v>5650</v>
       </c>
       <c r="AM73" s="11">
-        <v>5650</v>
+        <v>169268</v>
       </c>
       <c r="AN73" s="11">
-        <v>169268</v>
+        <v>69272</v>
       </c>
       <c r="AO73" s="11">
-        <v>69272</v>
+        <v>16800</v>
       </c>
       <c r="AP73" s="11">
-        <v>16800</v>
+        <v>130551</v>
       </c>
       <c r="AQ73" s="11">
-        <v>130551</v>
+        <v>24930</v>
       </c>
       <c r="AR73" s="11">
-        <v>24930</v>
+        <v>45272</v>
       </c>
       <c r="AS73" s="11">
-        <v>45272</v>
+        <v>39323</v>
       </c>
       <c r="AT73" s="11">
-        <v>39323</v>
+        <v>55145</v>
       </c>
       <c r="AU73" s="11">
-        <v>55145</v>
+        <v>75072</v>
       </c>
       <c r="AV73" s="11">
-        <v>75072</v>
+        <v>47245</v>
       </c>
       <c r="AW73" s="11">
-        <v>47245</v>
+        <v>65173</v>
       </c>
       <c r="AX73" s="11">
-        <v>65173</v>
+        <v>111485</v>
       </c>
       <c r="AY73" s="11">
-        <v>111485</v>
+        <v>37744</v>
       </c>
       <c r="AZ73" s="11">
-        <v>37744</v>
+        <v>146165</v>
       </c>
       <c r="BA73" s="11">
-        <v>146165</v>
+        <v>124817</v>
       </c>
       <c r="BB73" s="11">
-        <v>124817</v>
+        <v>38864</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -10116,8 +10116,8 @@
       <c r="I74" s="13">
         <v>0</v>
       </c>
-      <c r="J74" s="13">
-        <v>0</v>
+      <c r="J74" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="K74" s="13" t="s">
         <v>60</v>
@@ -10212,11 +10212,11 @@
       <c r="AO74" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AP74" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ74" s="13">
-        <v>0</v>
+      <c r="AP74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ74" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AR74" s="13" t="s">
         <v>60</v>
@@ -10224,8 +10224,8 @@
       <c r="AS74" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AT74" s="13" t="s">
-        <v>60</v>
+      <c r="AT74" s="13">
+        <v>0</v>
       </c>
       <c r="AU74" s="13">
         <v>0</v>
@@ -10261,154 +10261,154 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>74264</v>
+        <v>13010</v>
       </c>
       <c r="F75" s="11">
-        <v>13010</v>
+        <v>47149</v>
       </c>
       <c r="G75" s="11">
-        <v>47149</v>
+        <v>49825</v>
       </c>
       <c r="H75" s="11">
-        <v>49825</v>
+        <v>22233</v>
       </c>
       <c r="I75" s="11">
-        <v>22233</v>
+        <v>14399</v>
       </c>
       <c r="J75" s="11">
-        <v>14399</v>
+        <v>21937</v>
       </c>
       <c r="K75" s="11">
-        <v>21937</v>
+        <v>0</v>
       </c>
       <c r="L75" s="11">
-        <v>0</v>
+        <v>79945</v>
       </c>
       <c r="M75" s="11">
-        <v>79945</v>
+        <v>101996</v>
       </c>
       <c r="N75" s="11">
-        <v>101996</v>
+        <v>60757</v>
       </c>
       <c r="O75" s="11">
-        <v>60757</v>
+        <v>42579</v>
       </c>
       <c r="P75" s="11">
-        <v>42579</v>
+        <v>108670</v>
       </c>
       <c r="Q75" s="11">
-        <v>108670</v>
+        <v>12735</v>
       </c>
       <c r="R75" s="11">
-        <v>12735</v>
+        <v>64730</v>
       </c>
       <c r="S75" s="11">
-        <v>64730</v>
+        <v>95978</v>
       </c>
       <c r="T75" s="11">
-        <v>95978</v>
+        <v>95126</v>
       </c>
       <c r="U75" s="11">
-        <v>95126</v>
+        <v>14467</v>
       </c>
       <c r="V75" s="11">
-        <v>14467</v>
+        <v>28342</v>
       </c>
       <c r="W75" s="11">
-        <v>28342</v>
+        <v>130099</v>
       </c>
       <c r="X75" s="11">
-        <v>130099</v>
+        <v>92005</v>
       </c>
       <c r="Y75" s="11">
-        <v>92005</v>
+        <v>130038</v>
       </c>
       <c r="Z75" s="11">
-        <v>130038</v>
+        <v>131357</v>
       </c>
       <c r="AA75" s="11">
-        <v>131357</v>
+        <v>73617</v>
       </c>
       <c r="AB75" s="11">
-        <v>73617</v>
+        <v>18037</v>
       </c>
       <c r="AC75" s="11">
-        <v>18037</v>
+        <v>57129</v>
       </c>
       <c r="AD75" s="11">
-        <v>57129</v>
+        <v>21808</v>
       </c>
       <c r="AE75" s="11">
-        <v>21808</v>
+        <v>40891</v>
       </c>
       <c r="AF75" s="11">
-        <v>40891</v>
+        <v>76756</v>
       </c>
       <c r="AG75" s="11">
-        <v>76756</v>
+        <v>77988</v>
       </c>
       <c r="AH75" s="11">
-        <v>77988</v>
+        <v>88866</v>
       </c>
       <c r="AI75" s="11">
-        <v>88866</v>
+        <v>161189</v>
       </c>
       <c r="AJ75" s="11">
-        <v>161189</v>
+        <v>161051</v>
       </c>
       <c r="AK75" s="11">
-        <v>161051</v>
+        <v>111029</v>
       </c>
       <c r="AL75" s="11">
-        <v>111029</v>
+        <v>112500</v>
       </c>
       <c r="AM75" s="11">
-        <v>112500</v>
+        <v>22722</v>
       </c>
       <c r="AN75" s="11">
-        <v>22722</v>
+        <v>122743</v>
       </c>
       <c r="AO75" s="11">
-        <v>122743</v>
+        <v>127244</v>
       </c>
       <c r="AP75" s="11">
-        <v>127244</v>
+        <v>11504</v>
       </c>
       <c r="AQ75" s="11">
-        <v>11504</v>
+        <v>158191</v>
       </c>
       <c r="AR75" s="11">
-        <v>158191</v>
+        <v>80980</v>
       </c>
       <c r="AS75" s="11">
-        <v>80980</v>
+        <v>47536</v>
       </c>
       <c r="AT75" s="11">
-        <v>47536</v>
+        <v>114300</v>
       </c>
       <c r="AU75" s="11">
-        <v>114300</v>
+        <v>76651</v>
       </c>
       <c r="AV75" s="11">
-        <v>76651</v>
+        <v>63568</v>
       </c>
       <c r="AW75" s="11">
-        <v>63568</v>
+        <v>96730</v>
       </c>
       <c r="AX75" s="11">
-        <v>96730</v>
+        <v>0</v>
       </c>
       <c r="AY75" s="11">
-        <v>0</v>
+        <v>261127</v>
       </c>
       <c r="AZ75" s="11">
-        <v>261127</v>
+        <v>176825</v>
       </c>
       <c r="BA75" s="11">
-        <v>176825</v>
+        <v>1453748</v>
       </c>
       <c r="BB75" s="11">
-        <v>1453748</v>
+        <v>819298</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10420,112 +10420,112 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
-        <v>2702</v>
+        <v>19968</v>
       </c>
       <c r="F76" s="13">
-        <v>19968</v>
+        <v>47017</v>
       </c>
       <c r="G76" s="13">
-        <v>47017</v>
+        <v>45326</v>
       </c>
       <c r="H76" s="13">
-        <v>45326</v>
+        <v>56030</v>
       </c>
       <c r="I76" s="13">
-        <v>56030</v>
+        <v>17987</v>
       </c>
       <c r="J76" s="13">
-        <v>17987</v>
+        <v>3656</v>
       </c>
       <c r="K76" s="13">
-        <v>3656</v>
+        <v>47823</v>
       </c>
       <c r="L76" s="13">
-        <v>47823</v>
+        <v>59851</v>
       </c>
       <c r="M76" s="13">
-        <v>59851</v>
+        <v>23904</v>
       </c>
       <c r="N76" s="13">
-        <v>23904</v>
+        <v>38229</v>
       </c>
       <c r="O76" s="13">
-        <v>38229</v>
+        <v>27904</v>
       </c>
       <c r="P76" s="13">
-        <v>27904</v>
+        <v>31349</v>
       </c>
       <c r="Q76" s="13">
-        <v>31349</v>
+        <v>46028</v>
       </c>
       <c r="R76" s="13">
-        <v>46028</v>
+        <v>30795</v>
       </c>
       <c r="S76" s="13">
-        <v>30795</v>
+        <v>32053</v>
       </c>
       <c r="T76" s="13">
-        <v>32053</v>
+        <v>12872</v>
       </c>
       <c r="U76" s="13">
-        <v>12872</v>
+        <v>82339</v>
       </c>
       <c r="V76" s="13">
-        <v>82339</v>
+        <v>52669</v>
       </c>
       <c r="W76" s="13">
-        <v>52669</v>
+        <v>74481</v>
       </c>
       <c r="X76" s="13">
-        <v>74481</v>
+        <v>103212</v>
       </c>
       <c r="Y76" s="13">
-        <v>103212</v>
+        <v>64872</v>
       </c>
       <c r="Z76" s="13">
-        <v>64872</v>
+        <v>49255</v>
       </c>
       <c r="AA76" s="13">
-        <v>49255</v>
+        <v>73759</v>
       </c>
       <c r="AB76" s="13">
-        <v>73759</v>
+        <v>123764</v>
       </c>
       <c r="AC76" s="13">
-        <v>123764</v>
+        <v>110748</v>
       </c>
       <c r="AD76" s="13">
-        <v>110748</v>
+        <v>129549</v>
       </c>
       <c r="AE76" s="13">
-        <v>129549</v>
+        <v>134919</v>
       </c>
       <c r="AF76" s="13">
-        <v>134919</v>
+        <v>57758</v>
       </c>
       <c r="AG76" s="13">
-        <v>57758</v>
+        <v>13489</v>
       </c>
       <c r="AH76" s="13">
-        <v>13489</v>
+        <v>100525</v>
       </c>
       <c r="AI76" s="13">
-        <v>100525</v>
+        <v>75515</v>
       </c>
       <c r="AJ76" s="13">
-        <v>75515</v>
+        <v>72533</v>
       </c>
       <c r="AK76" s="13">
-        <v>72533</v>
+        <v>77914</v>
       </c>
       <c r="AL76" s="13">
-        <v>77914</v>
+        <v>95525</v>
       </c>
       <c r="AM76" s="13">
-        <v>95525</v>
-      </c>
-      <c r="AN76" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AN76" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AO76" s="13" t="s">
         <v>60</v>
@@ -10656,77 +10656,77 @@
       <c r="AD77" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE77" s="11" t="s">
-        <v>60</v>
+      <c r="AE77" s="11">
+        <v>3955</v>
       </c>
       <c r="AF77" s="11">
-        <v>3955</v>
+        <v>12</v>
       </c>
       <c r="AG77" s="11">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="AH77" s="11">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="AI77" s="11">
-        <v>1025</v>
+        <v>3672</v>
       </c>
       <c r="AJ77" s="11">
-        <v>3672</v>
+        <v>9200</v>
       </c>
       <c r="AK77" s="11">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="AL77" s="11">
-        <v>0</v>
+        <v>1930</v>
       </c>
       <c r="AM77" s="11">
-        <v>1930</v>
+        <v>17778</v>
       </c>
       <c r="AN77" s="11">
-        <v>17778</v>
+        <v>0</v>
       </c>
       <c r="AO77" s="11">
         <v>0</v>
       </c>
       <c r="AP77" s="11">
-        <v>0</v>
+        <v>3116</v>
       </c>
       <c r="AQ77" s="11">
-        <v>3116</v>
+        <v>17230</v>
       </c>
       <c r="AR77" s="11">
-        <v>17230</v>
+        <v>10048</v>
       </c>
       <c r="AS77" s="11">
-        <v>10048</v>
+        <v>5528</v>
       </c>
       <c r="AT77" s="11">
-        <v>5528</v>
+        <v>24735</v>
       </c>
       <c r="AU77" s="11">
-        <v>24735</v>
+        <v>26181</v>
       </c>
       <c r="AV77" s="11">
-        <v>26181</v>
+        <v>49098</v>
       </c>
       <c r="AW77" s="11">
-        <v>49098</v>
+        <v>23172</v>
       </c>
       <c r="AX77" s="11">
-        <v>23172</v>
+        <v>17901</v>
       </c>
       <c r="AY77" s="11">
-        <v>17901</v>
+        <v>42798</v>
       </c>
       <c r="AZ77" s="11">
-        <v>42798</v>
+        <v>122273</v>
       </c>
       <c r="BA77" s="11">
-        <v>122273</v>
+        <v>68053</v>
       </c>
       <c r="BB77" s="11">
-        <v>68053</v>
+        <v>23928</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -10815,14 +10815,14 @@
       <c r="AD78" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AE78" s="13" t="s">
-        <v>60</v>
+      <c r="AE78" s="13">
+        <v>1177</v>
       </c>
       <c r="AF78" s="13">
-        <v>1177</v>
+        <v>17398</v>
       </c>
       <c r="AG78" s="13">
-        <v>17398</v>
+        <v>0</v>
       </c>
       <c r="AH78" s="13">
         <v>0</v>
@@ -10843,49 +10843,49 @@
         <v>0</v>
       </c>
       <c r="AN78" s="13">
-        <v>0</v>
+        <v>21353</v>
       </c>
       <c r="AO78" s="13">
-        <v>21353</v>
+        <v>30220</v>
       </c>
       <c r="AP78" s="13">
-        <v>30220</v>
+        <v>46680</v>
       </c>
       <c r="AQ78" s="13">
-        <v>46680</v>
+        <v>9844</v>
       </c>
       <c r="AR78" s="13">
-        <v>9844</v>
+        <v>12781</v>
       </c>
       <c r="AS78" s="13">
-        <v>12781</v>
+        <v>3890</v>
       </c>
       <c r="AT78" s="13">
-        <v>3890</v>
+        <v>45435</v>
       </c>
       <c r="AU78" s="13">
-        <v>45435</v>
+        <v>17375</v>
       </c>
       <c r="AV78" s="13">
-        <v>17375</v>
+        <v>11173</v>
       </c>
       <c r="AW78" s="13">
-        <v>11173</v>
+        <v>17311</v>
       </c>
       <c r="AX78" s="13">
-        <v>17311</v>
+        <v>11430</v>
       </c>
       <c r="AY78" s="13">
-        <v>11430</v>
+        <v>9533</v>
       </c>
       <c r="AZ78" s="13">
-        <v>9533</v>
+        <v>2900</v>
       </c>
       <c r="BA78" s="13">
-        <v>2900</v>
+        <v>54332</v>
       </c>
       <c r="BB78" s="13">
-        <v>54332</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10974,77 +10974,77 @@
       <c r="AD79" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE79" s="11" t="s">
-        <v>60</v>
+      <c r="AE79" s="11">
+        <v>645</v>
       </c>
       <c r="AF79" s="11">
-        <v>645</v>
+        <v>1719</v>
       </c>
       <c r="AG79" s="11">
-        <v>1719</v>
+        <v>0</v>
       </c>
       <c r="AH79" s="11">
         <v>0</v>
       </c>
       <c r="AI79" s="11">
-        <v>0</v>
+        <v>1523</v>
       </c>
       <c r="AJ79" s="11">
-        <v>1523</v>
+        <v>336</v>
       </c>
       <c r="AK79" s="11">
-        <v>336</v>
+        <v>46475</v>
       </c>
       <c r="AL79" s="11">
-        <v>46475</v>
+        <v>91274</v>
       </c>
       <c r="AM79" s="11">
-        <v>91274</v>
+        <v>62623</v>
       </c>
       <c r="AN79" s="11">
-        <v>62623</v>
+        <v>75018</v>
       </c>
       <c r="AO79" s="11">
-        <v>75018</v>
+        <v>56545</v>
       </c>
       <c r="AP79" s="11">
-        <v>56545</v>
+        <v>10701</v>
       </c>
       <c r="AQ79" s="11">
-        <v>10701</v>
+        <v>16</v>
       </c>
       <c r="AR79" s="11">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="AS79" s="11">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="AT79" s="11">
-        <v>254</v>
+        <v>10086</v>
       </c>
       <c r="AU79" s="11">
-        <v>10086</v>
+        <v>4158</v>
       </c>
       <c r="AV79" s="11">
-        <v>4158</v>
+        <v>23238</v>
       </c>
       <c r="AW79" s="11">
-        <v>23238</v>
+        <v>5789</v>
       </c>
       <c r="AX79" s="11">
-        <v>5789</v>
+        <v>9935</v>
       </c>
       <c r="AY79" s="11">
-        <v>9935</v>
+        <v>8998</v>
       </c>
       <c r="AZ79" s="11">
-        <v>8998</v>
+        <v>61298</v>
       </c>
       <c r="BA79" s="11">
-        <v>61298</v>
+        <v>9673</v>
       </c>
       <c r="BB79" s="11">
-        <v>9673</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -11157,53 +11157,53 @@
       <c r="AL80" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AM80" s="13" t="s">
-        <v>60</v>
+      <c r="AM80" s="13">
+        <v>58236</v>
       </c>
       <c r="AN80" s="13">
-        <v>58236</v>
+        <v>59344</v>
       </c>
       <c r="AO80" s="13">
-        <v>59344</v>
+        <v>48835</v>
       </c>
       <c r="AP80" s="13">
-        <v>48835</v>
+        <v>26710</v>
       </c>
       <c r="AQ80" s="13">
-        <v>26710</v>
+        <v>42642</v>
       </c>
       <c r="AR80" s="13">
-        <v>42642</v>
+        <v>25062</v>
       </c>
       <c r="AS80" s="13">
-        <v>25062</v>
+        <v>15592</v>
       </c>
       <c r="AT80" s="13">
-        <v>15592</v>
+        <v>31625</v>
       </c>
       <c r="AU80" s="13">
-        <v>31625</v>
+        <v>55558</v>
       </c>
       <c r="AV80" s="13">
-        <v>55558</v>
+        <v>86141</v>
       </c>
       <c r="AW80" s="13">
-        <v>86141</v>
+        <v>102480</v>
       </c>
       <c r="AX80" s="13">
-        <v>102480</v>
+        <v>32670</v>
       </c>
       <c r="AY80" s="13">
-        <v>32670</v>
+        <v>100453</v>
       </c>
       <c r="AZ80" s="13">
-        <v>100453</v>
+        <v>11350</v>
       </c>
       <c r="BA80" s="13">
-        <v>11350</v>
+        <v>19008</v>
       </c>
       <c r="BB80" s="13">
-        <v>19008</v>
+        <v>75520</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -11316,8 +11316,8 @@
       <c r="AL81" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AM81" s="11" t="s">
-        <v>60</v>
+      <c r="AM81" s="11">
+        <v>0</v>
       </c>
       <c r="AN81" s="11">
         <v>0</v>
@@ -11332,37 +11332,37 @@
         <v>0</v>
       </c>
       <c r="AR81" s="11">
-        <v>0</v>
+        <v>8450</v>
       </c>
       <c r="AS81" s="11">
-        <v>8450</v>
+        <v>0</v>
       </c>
       <c r="AT81" s="11">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="AU81" s="11">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="AV81" s="11">
         <v>0</v>
       </c>
       <c r="AW81" s="11">
-        <v>0</v>
+        <v>6825</v>
       </c>
       <c r="AX81" s="11">
-        <v>6825</v>
+        <v>4485</v>
       </c>
       <c r="AY81" s="11">
-        <v>4485</v>
+        <v>0</v>
       </c>
       <c r="AZ81" s="11">
         <v>0</v>
       </c>
       <c r="BA81" s="11">
-        <v>0</v>
+        <v>4550</v>
       </c>
       <c r="BB81" s="11">
-        <v>4550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -11475,8 +11475,8 @@
       <c r="AL82" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AM82" s="13" t="s">
-        <v>60</v>
+      <c r="AM82" s="13">
+        <v>0</v>
       </c>
       <c r="AN82" s="13">
         <v>0</v>
@@ -11485,43 +11485,43 @@
         <v>0</v>
       </c>
       <c r="AP82" s="13">
-        <v>0</v>
+        <v>11604</v>
       </c>
       <c r="AQ82" s="13">
-        <v>11604</v>
+        <v>0</v>
       </c>
       <c r="AR82" s="13">
-        <v>0</v>
+        <v>12887</v>
       </c>
       <c r="AS82" s="13">
-        <v>12887</v>
+        <v>7398</v>
       </c>
       <c r="AT82" s="13">
-        <v>7398</v>
+        <v>0</v>
       </c>
       <c r="AU82" s="13">
-        <v>0</v>
+        <v>2288</v>
       </c>
       <c r="AV82" s="13">
-        <v>2288</v>
+        <v>78</v>
       </c>
       <c r="AW82" s="13">
-        <v>78</v>
+        <v>30753</v>
       </c>
       <c r="AX82" s="13">
-        <v>30753</v>
+        <v>18621</v>
       </c>
       <c r="AY82" s="13">
-        <v>18621</v>
+        <v>89</v>
       </c>
       <c r="AZ82" s="13">
-        <v>89</v>
+        <v>19009</v>
       </c>
       <c r="BA82" s="13">
-        <v>19009</v>
+        <v>7699</v>
       </c>
       <c r="BB82" s="13">
-        <v>7699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11634,26 +11634,26 @@
       <c r="AL83" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AM83" s="11" t="s">
-        <v>60</v>
+      <c r="AM83" s="11">
+        <v>18953</v>
       </c>
       <c r="AN83" s="11">
-        <v>18953</v>
+        <v>35459</v>
       </c>
       <c r="AO83" s="11">
-        <v>35459</v>
+        <v>70860</v>
       </c>
       <c r="AP83" s="11">
-        <v>70860</v>
+        <v>0</v>
       </c>
       <c r="AQ83" s="11">
         <v>0</v>
       </c>
       <c r="AR83" s="11">
-        <v>0</v>
+        <v>56474</v>
       </c>
       <c r="AS83" s="11">
-        <v>56474</v>
+        <v>0</v>
       </c>
       <c r="AT83" s="11">
         <v>0</v>
@@ -11662,25 +11662,25 @@
         <v>0</v>
       </c>
       <c r="AV83" s="11">
-        <v>0</v>
+        <v>65565</v>
       </c>
       <c r="AW83" s="11">
-        <v>65565</v>
+        <v>9216</v>
       </c>
       <c r="AX83" s="11">
-        <v>9216</v>
+        <v>40338</v>
       </c>
       <c r="AY83" s="11">
-        <v>40338</v>
+        <v>0</v>
       </c>
       <c r="AZ83" s="11">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="BA83" s="11">
-        <v>15900</v>
+        <v>15</v>
       </c>
       <c r="BB83" s="11">
-        <v>15</v>
+        <v>75300</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11793,8 +11793,8 @@
       <c r="AL84" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AM84" s="13" t="s">
-        <v>60</v>
+      <c r="AM84" s="13">
+        <v>0</v>
       </c>
       <c r="AN84" s="13">
         <v>0</v>
@@ -11803,34 +11803,34 @@
         <v>0</v>
       </c>
       <c r="AP84" s="13">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="AQ84" s="13">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="AR84" s="13">
         <v>0</v>
       </c>
       <c r="AS84" s="13">
-        <v>0</v>
+        <v>4560</v>
       </c>
       <c r="AT84" s="13">
-        <v>4560</v>
+        <v>0</v>
       </c>
       <c r="AU84" s="13">
         <v>0</v>
       </c>
       <c r="AV84" s="13">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="AW84" s="13">
-        <v>864</v>
+        <v>2880</v>
       </c>
       <c r="AX84" s="13">
         <v>2880</v>
       </c>
       <c r="AY84" s="13">
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="AZ84" s="13">
         <v>0</v>
@@ -11952,8 +11952,8 @@
       <c r="AL85" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AM85" s="11" t="s">
-        <v>60</v>
+      <c r="AM85" s="11">
+        <v>0</v>
       </c>
       <c r="AN85" s="11">
         <v>0</v>
@@ -11995,10 +11995,10 @@
         <v>0</v>
       </c>
       <c r="BA85" s="11">
-        <v>0</v>
+        <v>3960</v>
       </c>
       <c r="BB85" s="11">
-        <v>3960</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -12120,11 +12120,11 @@
       <c r="AO86" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AP86" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ86" s="13">
-        <v>0</v>
+      <c r="AP86" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ86" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AR86" s="13" t="s">
         <v>60</v>
@@ -12132,8 +12132,8 @@
       <c r="AS86" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AT86" s="13" t="s">
-        <v>60</v>
+      <c r="AT86" s="13">
+        <v>0</v>
       </c>
       <c r="AU86" s="13">
         <v>0</v>
@@ -12333,11 +12333,11 @@
       <c r="AN88" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AO88" s="11" t="s">
-        <v>60</v>
+      <c r="AO88" s="11">
+        <v>1326</v>
       </c>
       <c r="AP88" s="11">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="AQ88" s="11">
         <v>0</v>
@@ -12444,8 +12444,8 @@
       <c r="X89" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y89" s="15" t="s">
-        <v>60</v>
+      <c r="Y89" s="15">
+        <v>0</v>
       </c>
       <c r="Z89" s="15">
         <v>0</v>
@@ -12493,10 +12493,10 @@
         <v>0</v>
       </c>
       <c r="AO89" s="15">
-        <v>0</v>
+        <v>1326</v>
       </c>
       <c r="AP89" s="15">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="AQ89" s="15">
         <v>0</v>
@@ -12660,8 +12660,8 @@
       <c r="X91" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y91" s="11" t="s">
-        <v>60</v>
+      <c r="Y91" s="11">
+        <v>0</v>
       </c>
       <c r="Z91" s="11">
         <v>0</v>
@@ -12687,8 +12687,8 @@
       <c r="AG91" s="11">
         <v>0</v>
       </c>
-      <c r="AH91" s="11">
-        <v>0</v>
+      <c r="AH91" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AI91" s="11" t="s">
         <v>60</v>
@@ -12696,11 +12696,11 @@
       <c r="AJ91" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AK91" s="11" t="s">
-        <v>60</v>
+      <c r="AK91" s="11">
+        <v>-3456</v>
       </c>
       <c r="AL91" s="11">
-        <v>-3456</v>
+        <v>0</v>
       </c>
       <c r="AM91" s="11">
         <v>0</v>
@@ -12723,8 +12723,8 @@
       <c r="AS91" s="11">
         <v>0</v>
       </c>
-      <c r="AT91" s="11">
-        <v>0</v>
+      <c r="AT91" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AU91" s="11" t="s">
         <v>60</v>
@@ -12732,8 +12732,8 @@
       <c r="AV91" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AW91" s="11" t="s">
-        <v>60</v>
+      <c r="AW91" s="11">
+        <v>0</v>
       </c>
       <c r="AX91" s="11">
         <v>0</v>
@@ -12882,23 +12882,23 @@
       <c r="AS92" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AT92" s="13" t="s">
-        <v>60</v>
+      <c r="AT92" s="13">
+        <v>0</v>
       </c>
       <c r="AU92" s="13">
-        <v>0</v>
+        <v>-3596</v>
       </c>
       <c r="AV92" s="13">
-        <v>-3596</v>
+        <v>0</v>
       </c>
       <c r="AW92" s="13">
         <v>0</v>
       </c>
       <c r="AX92" s="13">
-        <v>0</v>
+        <v>-3623</v>
       </c>
       <c r="AY92" s="13">
-        <v>-3623</v>
+        <v>0</v>
       </c>
       <c r="AZ92" s="13">
         <v>0</v>
@@ -12990,11 +12990,11 @@
       <c r="AB93" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AC93" s="11" t="s">
-        <v>60</v>
+      <c r="AC93" s="11">
+        <v>-1056</v>
       </c>
       <c r="AD93" s="11">
-        <v>-1056</v>
+        <v>0</v>
       </c>
       <c r="AE93" s="11">
         <v>0</v>
@@ -13003,11 +13003,11 @@
         <v>0</v>
       </c>
       <c r="AG93" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH93" s="11">
         <v>-992</v>
       </c>
+      <c r="AH93" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AI93" s="11" t="s">
         <v>60</v>
       </c>
@@ -13017,11 +13017,11 @@
       <c r="AK93" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AL93" s="11" t="s">
-        <v>60</v>
+      <c r="AL93" s="11">
+        <v>-1668</v>
       </c>
       <c r="AM93" s="11">
-        <v>-1668</v>
+        <v>0</v>
       </c>
       <c r="AN93" s="11">
         <v>0</v>
@@ -13039,25 +13039,25 @@
         <v>0</v>
       </c>
       <c r="AS93" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT93" s="11">
         <v>-480</v>
       </c>
+      <c r="AT93" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AU93" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AV93" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AW93" s="11" t="s">
-        <v>60</v>
+      <c r="AW93" s="11">
+        <v>0</v>
       </c>
       <c r="AX93" s="11">
-        <v>0</v>
+        <v>-15225</v>
       </c>
       <c r="AY93" s="11">
-        <v>-15225</v>
+        <v>0</v>
       </c>
       <c r="AZ93" s="11">
         <v>0</v>
@@ -13143,8 +13143,8 @@
       <c r="Z94" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AA94" s="13" t="s">
-        <v>60</v>
+      <c r="AA94" s="13">
+        <v>0</v>
       </c>
       <c r="AB94" s="13">
         <v>0</v>
@@ -13164,8 +13164,8 @@
       <c r="AG94" s="13">
         <v>0</v>
       </c>
-      <c r="AH94" s="13">
-        <v>0</v>
+      <c r="AH94" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AI94" s="13" t="s">
         <v>60</v>
@@ -13194,14 +13194,14 @@
       <c r="AQ94" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AR94" s="13" t="s">
-        <v>60</v>
+      <c r="AR94" s="13">
+        <v>-194</v>
       </c>
       <c r="AS94" s="13">
-        <v>-194</v>
-      </c>
-      <c r="AT94" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT94" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AU94" s="13" t="s">
         <v>60</v>
@@ -13332,14 +13332,14 @@
       <c r="AJ95" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AK95" s="11" t="s">
-        <v>60</v>
+      <c r="AK95" s="11">
+        <v>-100</v>
       </c>
       <c r="AL95" s="11">
-        <v>-100</v>
+        <v>-520</v>
       </c>
       <c r="AM95" s="11">
-        <v>-520</v>
+        <v>0</v>
       </c>
       <c r="AN95" s="11">
         <v>0</v>
@@ -13359,8 +13359,8 @@
       <c r="AS95" s="11">
         <v>0</v>
       </c>
-      <c r="AT95" s="11">
-        <v>0</v>
+      <c r="AT95" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AU95" s="11" t="s">
         <v>60</v>
@@ -13368,8 +13368,8 @@
       <c r="AV95" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AW95" s="11" t="s">
-        <v>60</v>
+      <c r="AW95" s="11">
+        <v>0</v>
       </c>
       <c r="AX95" s="11">
         <v>0</v>
@@ -13491,11 +13491,11 @@
       <c r="AJ96" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AK96" s="13" t="s">
-        <v>60</v>
+      <c r="AK96" s="13">
+        <v>-542</v>
       </c>
       <c r="AL96" s="13">
-        <v>-542</v>
+        <v>0</v>
       </c>
       <c r="AM96" s="13">
         <v>0</v>
@@ -13510,31 +13510,31 @@
         <v>0</v>
       </c>
       <c r="AQ96" s="13">
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="AR96" s="13">
-        <v>-630</v>
+        <v>0</v>
       </c>
       <c r="AS96" s="13">
         <v>0</v>
       </c>
-      <c r="AT96" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU96" s="13" t="s">
-        <v>60</v>
+      <c r="AT96" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU96" s="13">
+        <v>0</v>
       </c>
       <c r="AV96" s="13">
-        <v>0</v>
+        <v>-901</v>
       </c>
       <c r="AW96" s="13">
-        <v>-901</v>
+        <v>0</v>
       </c>
       <c r="AX96" s="13">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="AY96" s="13">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AZ96" s="13">
         <v>0</v>
@@ -13614,8 +13614,8 @@
       <c r="X97" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y97" s="17" t="s">
-        <v>60</v>
+      <c r="Y97" s="17">
+        <v>0</v>
       </c>
       <c r="Z97" s="17">
         <v>0</v>
@@ -13627,10 +13627,10 @@
         <v>0</v>
       </c>
       <c r="AC97" s="17">
-        <v>0</v>
+        <v>-1056</v>
       </c>
       <c r="AD97" s="17">
-        <v>-1056</v>
+        <v>0</v>
       </c>
       <c r="AE97" s="17">
         <v>0</v>
@@ -13639,10 +13639,10 @@
         <v>0</v>
       </c>
       <c r="AG97" s="17">
-        <v>0</v>
+        <v>-992</v>
       </c>
       <c r="AH97" s="17">
-        <v>-992</v>
+        <v>0</v>
       </c>
       <c r="AI97" s="17">
         <v>0</v>
@@ -13651,13 +13651,13 @@
         <v>0</v>
       </c>
       <c r="AK97" s="17">
-        <v>0</v>
+        <v>-4098</v>
       </c>
       <c r="AL97" s="17">
-        <v>-4098</v>
+        <v>-2188</v>
       </c>
       <c r="AM97" s="17">
-        <v>-2188</v>
+        <v>0</v>
       </c>
       <c r="AN97" s="17">
         <v>0</v>
@@ -13669,31 +13669,31 @@
         <v>0</v>
       </c>
       <c r="AQ97" s="17">
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="AR97" s="17">
-        <v>-630</v>
+        <v>-194</v>
       </c>
       <c r="AS97" s="17">
-        <v>-194</v>
+        <v>-480</v>
       </c>
       <c r="AT97" s="17">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AU97" s="17">
-        <v>0</v>
+        <v>-3596</v>
       </c>
       <c r="AV97" s="17">
-        <v>-3596</v>
+        <v>-901</v>
       </c>
       <c r="AW97" s="17">
-        <v>-901</v>
+        <v>0</v>
       </c>
       <c r="AX97" s="17">
-        <v>0</v>
+        <v>-18921</v>
       </c>
       <c r="AY97" s="17">
-        <v>-18921</v>
+        <v>0</v>
       </c>
       <c r="AZ97" s="17">
         <v>0</v>
@@ -13830,8 +13830,8 @@
       <c r="X99" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y99" s="11" t="s">
-        <v>60</v>
+      <c r="Y99" s="11">
+        <v>0</v>
       </c>
       <c r="Z99" s="11">
         <v>0</v>
@@ -13928,154 +13928,154 @@
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15">
-        <v>113055</v>
+        <v>62473</v>
       </c>
       <c r="F100" s="15">
-        <v>62473</v>
+        <v>121730</v>
       </c>
       <c r="G100" s="15">
-        <v>121730</v>
+        <v>118469</v>
       </c>
       <c r="H100" s="15">
-        <v>118469</v>
+        <v>100037</v>
       </c>
       <c r="I100" s="15">
-        <v>100037</v>
+        <v>49458</v>
       </c>
       <c r="J100" s="15">
-        <v>49458</v>
+        <v>55913</v>
       </c>
       <c r="K100" s="15">
-        <v>55913</v>
+        <v>110480</v>
       </c>
       <c r="L100" s="15">
-        <v>110480</v>
+        <v>170958</v>
       </c>
       <c r="M100" s="15">
-        <v>170958</v>
+        <v>155741</v>
       </c>
       <c r="N100" s="15">
-        <v>155741</v>
+        <v>149035</v>
       </c>
       <c r="O100" s="15">
-        <v>149035</v>
+        <v>125976</v>
       </c>
       <c r="P100" s="15">
-        <v>125976</v>
+        <v>160330</v>
       </c>
       <c r="Q100" s="15">
-        <v>160330</v>
+        <v>158422</v>
       </c>
       <c r="R100" s="15">
-        <v>158422</v>
+        <v>190200</v>
       </c>
       <c r="S100" s="15">
-        <v>190200</v>
+        <v>198462</v>
       </c>
       <c r="T100" s="15">
-        <v>198462</v>
+        <v>160140</v>
       </c>
       <c r="U100" s="15">
-        <v>160140</v>
+        <v>101184</v>
       </c>
       <c r="V100" s="15">
-        <v>101184</v>
+        <v>103261</v>
       </c>
       <c r="W100" s="15">
-        <v>103261</v>
+        <v>248525</v>
       </c>
       <c r="X100" s="15">
-        <v>248525</v>
+        <v>253708</v>
       </c>
       <c r="Y100" s="15">
-        <v>253708</v>
+        <v>253310</v>
       </c>
       <c r="Z100" s="15">
-        <v>253310</v>
+        <v>220000</v>
       </c>
       <c r="AA100" s="15">
-        <v>220000</v>
+        <v>215650</v>
       </c>
       <c r="AB100" s="15">
-        <v>215650</v>
+        <v>221449</v>
       </c>
       <c r="AC100" s="15">
-        <v>221449</v>
+        <v>208761</v>
       </c>
       <c r="AD100" s="15">
-        <v>208761</v>
+        <v>221387</v>
       </c>
       <c r="AE100" s="15">
-        <v>221387</v>
+        <v>220366</v>
       </c>
       <c r="AF100" s="15">
-        <v>220366</v>
+        <v>173808</v>
       </c>
       <c r="AG100" s="15">
-        <v>173808</v>
+        <v>100771</v>
       </c>
       <c r="AH100" s="15">
-        <v>100771</v>
+        <v>282391</v>
       </c>
       <c r="AI100" s="15">
-        <v>282391</v>
+        <v>324369</v>
       </c>
       <c r="AJ100" s="15">
-        <v>324369</v>
+        <v>350843</v>
       </c>
       <c r="AK100" s="15">
-        <v>350843</v>
+        <v>379957</v>
       </c>
       <c r="AL100" s="15">
-        <v>379957</v>
+        <v>405327</v>
       </c>
       <c r="AM100" s="15">
-        <v>405327</v>
+        <v>444164</v>
       </c>
       <c r="AN100" s="15">
-        <v>444164</v>
+        <v>449046</v>
       </c>
       <c r="AO100" s="15">
-        <v>449046</v>
+        <v>430692</v>
       </c>
       <c r="AP100" s="15">
-        <v>430692</v>
+        <v>423980</v>
       </c>
       <c r="AQ100" s="15">
-        <v>423980</v>
+        <v>321039</v>
       </c>
       <c r="AR100" s="15">
-        <v>321039</v>
+        <v>327708</v>
       </c>
       <c r="AS100" s="15">
-        <v>327708</v>
+        <v>159122</v>
       </c>
       <c r="AT100" s="15">
-        <v>159122</v>
+        <v>359618</v>
       </c>
       <c r="AU100" s="15">
-        <v>359618</v>
+        <v>400258</v>
       </c>
       <c r="AV100" s="15">
-        <v>400258</v>
+        <v>450537</v>
       </c>
       <c r="AW100" s="15">
-        <v>450537</v>
+        <v>452214</v>
       </c>
       <c r="AX100" s="15">
-        <v>452214</v>
+        <v>451918</v>
       </c>
       <c r="AY100" s="15">
-        <v>451918</v>
+        <v>545533</v>
       </c>
       <c r="AZ100" s="15">
-        <v>545533</v>
+        <v>615385</v>
       </c>
       <c r="BA100" s="15">
-        <v>615385</v>
+        <v>1856204</v>
       </c>
       <c r="BB100" s="15">
-        <v>1856204</v>
+        <v>1223528</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.3">
@@ -14521,10 +14521,10 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>1711918</v>
+        <v>2975079</v>
       </c>
       <c r="F107" s="11">
-        <v>2975079</v>
+        <v>0</v>
       </c>
       <c r="G107" s="11">
         <v>0</v>
@@ -14533,142 +14533,142 @@
         <v>0</v>
       </c>
       <c r="I107" s="11">
-        <v>0</v>
+        <v>3350099</v>
       </c>
       <c r="J107" s="11">
-        <v>3350099</v>
+        <v>0</v>
       </c>
       <c r="K107" s="11">
-        <v>0</v>
+        <v>5567568</v>
       </c>
       <c r="L107" s="11">
-        <v>5567568</v>
+        <v>0</v>
       </c>
       <c r="M107" s="11">
-        <v>0</v>
+        <v>3921311</v>
       </c>
       <c r="N107" s="11">
-        <v>3921311</v>
+        <v>0</v>
       </c>
       <c r="O107" s="11">
-        <v>0</v>
+        <v>2569686</v>
       </c>
       <c r="P107" s="11">
-        <v>2569686</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="11">
-        <v>0</v>
+        <v>3191570</v>
       </c>
       <c r="R107" s="11">
-        <v>3191570</v>
+        <v>2798633</v>
       </c>
       <c r="S107" s="11">
-        <v>2798633</v>
+        <v>3349815</v>
       </c>
       <c r="T107" s="11">
-        <v>3349815</v>
+        <v>1977230</v>
       </c>
       <c r="U107" s="11">
-        <v>1977230</v>
-      </c>
-      <c r="V107" s="11">
         <v>3348354</v>
       </c>
-      <c r="W107" s="11" t="s">
-        <v>60</v>
+      <c r="V107" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W107" s="11">
+        <v>3677008</v>
       </c>
       <c r="X107" s="11">
-        <v>3677008</v>
+        <v>3256083</v>
       </c>
       <c r="Y107" s="11">
-        <v>3256083</v>
+        <v>3964396</v>
       </c>
       <c r="Z107" s="11">
-        <v>3964396</v>
+        <v>4084078</v>
       </c>
       <c r="AA107" s="11">
-        <v>4084078</v>
+        <v>4199450</v>
       </c>
       <c r="AB107" s="11">
-        <v>4199450</v>
+        <v>4849741</v>
       </c>
       <c r="AC107" s="11">
-        <v>4849741</v>
+        <v>5404830</v>
       </c>
       <c r="AD107" s="11">
-        <v>5404830</v>
+        <v>5082849</v>
       </c>
       <c r="AE107" s="11">
-        <v>5082849</v>
+        <v>4999044</v>
       </c>
       <c r="AF107" s="11">
-        <v>4999044</v>
-      </c>
-      <c r="AG107" s="11">
         <v>5501946</v>
       </c>
-      <c r="AH107" s="11" t="s">
-        <v>60</v>
+      <c r="AG107" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH107" s="11">
+        <v>4448388</v>
       </c>
       <c r="AI107" s="11">
-        <v>4448388</v>
+        <v>6000380</v>
       </c>
       <c r="AJ107" s="11">
-        <v>6000380</v>
+        <v>6000000</v>
       </c>
       <c r="AK107" s="11">
+        <v>5934452</v>
+      </c>
+      <c r="AL107" s="11">
+        <v>5490863</v>
+      </c>
+      <c r="AM107" s="11">
+        <v>4999583</v>
+      </c>
+      <c r="AN107" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO107" s="11">
+        <v>5749232</v>
+      </c>
+      <c r="AP107" s="11">
+        <v>5879889</v>
+      </c>
+      <c r="AQ107" s="11">
+        <v>5625737</v>
+      </c>
+      <c r="AR107" s="11">
+        <v>5527167</v>
+      </c>
+      <c r="AS107" s="11">
+        <v>7000000</v>
+      </c>
+      <c r="AT107" s="11">
+        <v>6273764</v>
+      </c>
+      <c r="AU107" s="11">
+        <v>6416496</v>
+      </c>
+      <c r="AV107" s="11">
+        <v>6753967</v>
+      </c>
+      <c r="AW107" s="11">
+        <v>6548980</v>
+      </c>
+      <c r="AX107" s="11">
+        <v>7459488</v>
+      </c>
+      <c r="AY107" s="11">
         <v>6000000</v>
       </c>
-      <c r="AL107" s="11">
-        <v>5934452</v>
-      </c>
-      <c r="AM107" s="11">
-        <v>5490863</v>
-      </c>
-      <c r="AN107" s="11">
-        <v>4999583</v>
-      </c>
-      <c r="AO107" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP107" s="11">
-        <v>5749232</v>
-      </c>
-      <c r="AQ107" s="11">
-        <v>5879889</v>
-      </c>
-      <c r="AR107" s="11">
-        <v>5625737</v>
-      </c>
-      <c r="AS107" s="11">
-        <v>5527167</v>
-      </c>
-      <c r="AT107" s="11">
-        <v>7000000</v>
-      </c>
-      <c r="AU107" s="11">
-        <v>6273764</v>
-      </c>
-      <c r="AV107" s="11">
-        <v>6416496</v>
-      </c>
-      <c r="AW107" s="11">
-        <v>6753967</v>
-      </c>
-      <c r="AX107" s="11">
-        <v>6548980</v>
-      </c>
-      <c r="AY107" s="11">
-        <v>7459488</v>
-      </c>
       <c r="AZ107" s="11">
-        <v>6000000</v>
+        <v>7007386</v>
       </c>
       <c r="BA107" s="11">
-        <v>7007386</v>
+        <v>6986919</v>
       </c>
       <c r="BB107" s="11">
-        <v>6986919</v>
+        <v>6955135</v>
       </c>
     </row>
     <row r="108" spans="2:54" x14ac:dyDescent="0.3">
@@ -14680,154 +14680,154 @@
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="13">
-        <v>3530864</v>
+        <v>4246988</v>
       </c>
       <c r="F108" s="13">
-        <v>4246988</v>
+        <v>2403017</v>
       </c>
       <c r="G108" s="13">
-        <v>2403017</v>
+        <v>1453435</v>
       </c>
       <c r="H108" s="13">
-        <v>1453435</v>
+        <v>1500000</v>
       </c>
       <c r="I108" s="13">
-        <v>1500000</v>
+        <v>1451325</v>
       </c>
       <c r="J108" s="13">
-        <v>1451325</v>
+        <v>1444343</v>
       </c>
       <c r="K108" s="13">
-        <v>1444343</v>
+        <v>1437966</v>
       </c>
       <c r="L108" s="13">
-        <v>1437966</v>
+        <v>1682966</v>
       </c>
       <c r="M108" s="13">
-        <v>1682966</v>
+        <v>0</v>
       </c>
       <c r="N108" s="13">
-        <v>0</v>
+        <v>1934213</v>
       </c>
       <c r="O108" s="13">
-        <v>1934213</v>
+        <v>1611111</v>
       </c>
       <c r="P108" s="13">
-        <v>1611111</v>
+        <v>1850438</v>
       </c>
       <c r="Q108" s="13">
-        <v>1850438</v>
+        <v>2100763</v>
       </c>
       <c r="R108" s="13">
-        <v>2100763</v>
+        <v>2000000</v>
       </c>
       <c r="S108" s="13">
-        <v>2000000</v>
+        <v>1682879</v>
       </c>
       <c r="T108" s="13">
-        <v>1682879</v>
+        <v>2159565</v>
       </c>
       <c r="U108" s="13">
-        <v>2159565</v>
+        <v>2226776</v>
       </c>
       <c r="V108" s="13">
-        <v>2226776</v>
+        <v>2454437</v>
       </c>
       <c r="W108" s="13">
-        <v>2454437</v>
+        <v>5895833</v>
       </c>
       <c r="X108" s="13">
-        <v>5895833</v>
+        <v>2266389</v>
       </c>
       <c r="Y108" s="13">
-        <v>2266389</v>
+        <v>2370167</v>
       </c>
       <c r="Z108" s="13">
-        <v>2370167</v>
+        <v>1764059</v>
       </c>
       <c r="AA108" s="13">
-        <v>1764059</v>
+        <v>1965344</v>
       </c>
       <c r="AB108" s="13">
-        <v>1965344</v>
+        <v>3468737</v>
       </c>
       <c r="AC108" s="13">
-        <v>3468737</v>
+        <v>2343713</v>
       </c>
       <c r="AD108" s="13">
-        <v>2343713</v>
+        <v>2598895</v>
       </c>
       <c r="AE108" s="13">
-        <v>2598895</v>
+        <v>3272920</v>
       </c>
       <c r="AF108" s="13">
-        <v>3272920</v>
+        <v>3686536</v>
       </c>
       <c r="AG108" s="13">
-        <v>3686536</v>
-      </c>
-      <c r="AH108" s="13">
         <v>9613872</v>
       </c>
-      <c r="AI108" s="13" t="s">
-        <v>60</v>
+      <c r="AH108" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI108" s="13">
+        <v>9499804</v>
       </c>
       <c r="AJ108" s="13">
-        <v>9499804</v>
+        <v>14959583</v>
       </c>
       <c r="AK108" s="13">
-        <v>14959583</v>
+        <v>8586863</v>
       </c>
       <c r="AL108" s="13">
-        <v>8586863</v>
+        <v>8059984</v>
       </c>
       <c r="AM108" s="13">
-        <v>8059984</v>
+        <v>6945882</v>
       </c>
       <c r="AN108" s="13">
-        <v>6945882</v>
+        <v>8521869</v>
       </c>
       <c r="AO108" s="13">
-        <v>8521869</v>
+        <v>7421734</v>
       </c>
       <c r="AP108" s="13">
-        <v>7421734</v>
+        <v>7221334</v>
       </c>
       <c r="AQ108" s="13">
-        <v>7221334</v>
+        <v>6534422</v>
       </c>
       <c r="AR108" s="13">
-        <v>6534422</v>
+        <v>5827541</v>
       </c>
       <c r="AS108" s="13">
-        <v>5827541</v>
+        <v>16160683</v>
       </c>
       <c r="AT108" s="13">
-        <v>16160683</v>
+        <v>5592846</v>
       </c>
       <c r="AU108" s="13">
-        <v>5592846</v>
+        <v>7592380</v>
       </c>
       <c r="AV108" s="13">
-        <v>7592380</v>
+        <v>6720019</v>
       </c>
       <c r="AW108" s="13">
-        <v>6720019</v>
+        <v>6384809</v>
       </c>
       <c r="AX108" s="13">
-        <v>6384809</v>
+        <v>13546339</v>
       </c>
       <c r="AY108" s="13">
-        <v>13546339</v>
+        <v>41292703</v>
       </c>
       <c r="AZ108" s="13">
-        <v>41292703</v>
+        <v>6458358</v>
       </c>
       <c r="BA108" s="13">
-        <v>6458358</v>
+        <v>13005246</v>
       </c>
       <c r="BB108" s="13">
-        <v>13005246</v>
+        <v>9404679</v>
       </c>
     </row>
     <row r="109" spans="2:54" x14ac:dyDescent="0.3">
@@ -14839,154 +14839,154 @@
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
-        <v>3922499</v>
+        <v>4261419</v>
       </c>
       <c r="F109" s="11">
-        <v>4261419</v>
+        <v>7075372</v>
       </c>
       <c r="G109" s="11">
-        <v>7075372</v>
+        <v>4871706</v>
       </c>
       <c r="H109" s="11">
-        <v>4871706</v>
+        <v>5565402</v>
       </c>
       <c r="I109" s="11">
-        <v>5565402</v>
+        <v>6998379</v>
       </c>
       <c r="J109" s="11">
-        <v>6998379</v>
+        <v>5130716</v>
       </c>
       <c r="K109" s="11">
-        <v>5130716</v>
+        <v>5977198</v>
       </c>
       <c r="L109" s="11">
-        <v>5977198</v>
+        <v>6776810</v>
       </c>
       <c r="M109" s="11">
-        <v>6776810</v>
+        <v>7999086</v>
       </c>
       <c r="N109" s="11">
-        <v>7999086</v>
+        <v>8000202</v>
       </c>
       <c r="O109" s="11">
-        <v>8000202</v>
+        <v>8358841</v>
       </c>
       <c r="P109" s="11">
-        <v>8358841</v>
+        <v>8000000</v>
       </c>
       <c r="Q109" s="11">
-        <v>8000000</v>
+        <v>5705511</v>
       </c>
       <c r="R109" s="11">
-        <v>5705511</v>
+        <v>4479664</v>
       </c>
       <c r="S109" s="11">
-        <v>4479664</v>
+        <v>6147936</v>
       </c>
       <c r="T109" s="11">
-        <v>6147936</v>
+        <v>4951610</v>
       </c>
       <c r="U109" s="11">
-        <v>4951610</v>
+        <v>2086957</v>
       </c>
       <c r="V109" s="11">
-        <v>2086957</v>
+        <v>6731415</v>
       </c>
       <c r="W109" s="11">
-        <v>6731415</v>
+        <v>9436774</v>
       </c>
       <c r="X109" s="11">
-        <v>9436774</v>
+        <v>9398790</v>
       </c>
       <c r="Y109" s="11">
-        <v>9398790</v>
+        <v>8820755</v>
       </c>
       <c r="Z109" s="11">
-        <v>8820755</v>
+        <v>8356281</v>
       </c>
       <c r="AA109" s="11">
-        <v>8356281</v>
+        <v>7389861</v>
       </c>
       <c r="AB109" s="11">
-        <v>7389861</v>
+        <v>7006415</v>
       </c>
       <c r="AC109" s="11">
-        <v>7006415</v>
+        <v>5514490</v>
       </c>
       <c r="AD109" s="11">
-        <v>5514490</v>
+        <v>5776905</v>
       </c>
       <c r="AE109" s="11">
-        <v>5776905</v>
+        <v>9547742</v>
       </c>
       <c r="AF109" s="11">
-        <v>9547742</v>
-      </c>
-      <c r="AG109" s="11">
         <v>7500000</v>
       </c>
-      <c r="AH109" s="11" t="s">
-        <v>60</v>
+      <c r="AG109" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH109" s="11">
+        <v>8829659</v>
       </c>
       <c r="AI109" s="11">
-        <v>8829659</v>
+        <v>11358713</v>
       </c>
       <c r="AJ109" s="11">
-        <v>11358713</v>
+        <v>13204909</v>
       </c>
       <c r="AK109" s="11">
-        <v>13204909</v>
+        <v>12662631</v>
       </c>
       <c r="AL109" s="11">
-        <v>12662631</v>
+        <v>3500620</v>
       </c>
       <c r="AM109" s="11">
-        <v>3500620</v>
+        <v>12725960</v>
       </c>
       <c r="AN109" s="11">
-        <v>12725960</v>
+        <v>11947568</v>
       </c>
       <c r="AO109" s="11">
-        <v>11947568</v>
+        <v>12000000</v>
       </c>
       <c r="AP109" s="11">
-        <v>12000000</v>
+        <v>11601440</v>
       </c>
       <c r="AQ109" s="11">
-        <v>11601440</v>
+        <v>8796754</v>
       </c>
       <c r="AR109" s="11">
-        <v>8796754</v>
+        <v>14936325</v>
       </c>
       <c r="AS109" s="11">
-        <v>14936325</v>
+        <v>12003358</v>
       </c>
       <c r="AT109" s="11">
-        <v>12003358</v>
+        <v>10812745</v>
       </c>
       <c r="AU109" s="11">
-        <v>10812745</v>
+        <v>18418057</v>
       </c>
       <c r="AV109" s="11">
-        <v>18418057</v>
+        <v>10204104</v>
       </c>
       <c r="AW109" s="11">
-        <v>10204104</v>
+        <v>13521369</v>
       </c>
       <c r="AX109" s="11">
-        <v>13521369</v>
+        <v>21799961</v>
       </c>
       <c r="AY109" s="11">
-        <v>21799961</v>
+        <v>10173585</v>
       </c>
       <c r="AZ109" s="11">
-        <v>10173585</v>
+        <v>21341072</v>
       </c>
       <c r="BA109" s="11">
-        <v>21341072</v>
+        <v>27979601</v>
       </c>
       <c r="BB109" s="11">
-        <v>27979601</v>
+        <v>11167816</v>
       </c>
     </row>
     <row r="110" spans="2:54" x14ac:dyDescent="0.3">
@@ -15012,8 +15012,8 @@
       <c r="I110" s="13">
         <v>0</v>
       </c>
-      <c r="J110" s="13">
-        <v>0</v>
+      <c r="J110" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="K110" s="13" t="s">
         <v>60</v>
@@ -15157,154 +15157,154 @@
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
-        <v>7793473</v>
+        <v>8156740</v>
       </c>
       <c r="F111" s="11">
-        <v>8156740</v>
+        <v>9816573</v>
       </c>
       <c r="G111" s="11">
-        <v>9816573</v>
+        <v>9998997</v>
       </c>
       <c r="H111" s="11">
-        <v>9998997</v>
+        <v>10001350</v>
       </c>
       <c r="I111" s="11">
-        <v>10001350</v>
+        <v>9999306</v>
       </c>
       <c r="J111" s="11">
-        <v>9999306</v>
+        <v>15525124</v>
       </c>
       <c r="K111" s="11">
-        <v>15525124</v>
+        <v>0</v>
       </c>
       <c r="L111" s="11">
-        <v>0</v>
+        <v>10825322</v>
       </c>
       <c r="M111" s="11">
-        <v>10825322</v>
+        <v>7450946</v>
       </c>
       <c r="N111" s="11">
-        <v>7450946</v>
+        <v>9728903</v>
       </c>
       <c r="O111" s="11">
-        <v>9728903</v>
+        <v>7565565</v>
       </c>
       <c r="P111" s="11">
-        <v>7565565</v>
+        <v>9171238</v>
       </c>
       <c r="Q111" s="11">
-        <v>9171238</v>
+        <v>6497449</v>
       </c>
       <c r="R111" s="11">
-        <v>6497449</v>
+        <v>8295527</v>
       </c>
       <c r="S111" s="11">
-        <v>8295527</v>
+        <v>7097390</v>
       </c>
       <c r="T111" s="11">
-        <v>7097390</v>
+        <v>8796560</v>
       </c>
       <c r="U111" s="11">
-        <v>8796560</v>
+        <v>9220523</v>
       </c>
       <c r="V111" s="11">
-        <v>9220523</v>
+        <v>9472594</v>
       </c>
       <c r="W111" s="11">
-        <v>9472594</v>
+        <v>9227534</v>
       </c>
       <c r="X111" s="11">
-        <v>9227534</v>
+        <v>9405541</v>
       </c>
       <c r="Y111" s="11">
-        <v>9405541</v>
+        <v>11775604</v>
       </c>
       <c r="Z111" s="11">
-        <v>11775604</v>
+        <v>10925476</v>
       </c>
       <c r="AA111" s="11">
-        <v>10925476</v>
+        <v>9790797</v>
       </c>
       <c r="AB111" s="11">
-        <v>9790797</v>
+        <v>7499792</v>
       </c>
       <c r="AC111" s="11">
-        <v>7499792</v>
+        <v>13166398</v>
       </c>
       <c r="AD111" s="11">
-        <v>13166398</v>
+        <v>10591549</v>
       </c>
       <c r="AE111" s="11">
-        <v>10591549</v>
+        <v>9500697</v>
       </c>
       <c r="AF111" s="11">
-        <v>9500697</v>
+        <v>9544392</v>
       </c>
       <c r="AG111" s="11">
-        <v>9544392</v>
+        <v>10280517</v>
       </c>
       <c r="AH111" s="11">
-        <v>10280517</v>
+        <v>11394538</v>
       </c>
       <c r="AI111" s="11">
-        <v>11394538</v>
+        <v>12269849</v>
       </c>
       <c r="AJ111" s="11">
-        <v>12269849</v>
+        <v>13525741</v>
       </c>
       <c r="AK111" s="11">
-        <v>13525741</v>
+        <v>12292848</v>
       </c>
       <c r="AL111" s="11">
-        <v>12292848</v>
+        <v>15508685</v>
       </c>
       <c r="AM111" s="11">
-        <v>15508685</v>
+        <v>15509898</v>
       </c>
       <c r="AN111" s="11">
-        <v>15509898</v>
+        <v>15718146</v>
       </c>
       <c r="AO111" s="11">
-        <v>15718146</v>
+        <v>15155312</v>
       </c>
       <c r="AP111" s="11">
-        <v>15155312</v>
+        <v>16000000</v>
       </c>
       <c r="AQ111" s="11">
-        <v>16000000</v>
+        <v>15756076</v>
       </c>
       <c r="AR111" s="11">
-        <v>15756076</v>
+        <v>15498565</v>
       </c>
       <c r="AS111" s="11">
-        <v>15498565</v>
+        <v>15803191</v>
       </c>
       <c r="AT111" s="11">
-        <v>15803191</v>
+        <v>15859581</v>
       </c>
       <c r="AU111" s="11">
-        <v>15859581</v>
+        <v>15958984</v>
       </c>
       <c r="AV111" s="11">
-        <v>15958984</v>
+        <v>16299487</v>
       </c>
       <c r="AW111" s="11">
-        <v>16299487</v>
+        <v>15099906</v>
       </c>
       <c r="AX111" s="11">
-        <v>15099906</v>
+        <v>0</v>
       </c>
       <c r="AY111" s="11">
-        <v>0</v>
+        <v>42709683</v>
       </c>
       <c r="AZ111" s="11">
-        <v>42709683</v>
+        <v>46374246</v>
       </c>
       <c r="BA111" s="11">
-        <v>46374246</v>
+        <v>47214940</v>
       </c>
       <c r="BB111" s="11">
-        <v>47214940</v>
+        <v>40720577</v>
       </c>
     </row>
     <row r="112" spans="2:54" x14ac:dyDescent="0.3">
@@ -15316,109 +15316,109 @@
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13">
-        <v>645023</v>
+        <v>1320810</v>
       </c>
       <c r="F112" s="13">
-        <v>1320810</v>
+        <v>2457249</v>
       </c>
       <c r="G112" s="13">
-        <v>2457249</v>
+        <v>2734435</v>
       </c>
       <c r="H112" s="13">
-        <v>2734435</v>
+        <v>2599638</v>
       </c>
       <c r="I112" s="13">
-        <v>2599638</v>
+        <v>2064150</v>
       </c>
       <c r="J112" s="13">
-        <v>2064150</v>
+        <v>2624551</v>
       </c>
       <c r="K112" s="13">
-        <v>2624551</v>
+        <v>4420279</v>
       </c>
       <c r="L112" s="13">
-        <v>4420279</v>
+        <v>4021434</v>
       </c>
       <c r="M112" s="13">
-        <v>4021434</v>
+        <v>2142511</v>
       </c>
       <c r="N112" s="13">
-        <v>2142511</v>
+        <v>2923824</v>
       </c>
       <c r="O112" s="13">
-        <v>2923824</v>
+        <v>3019587</v>
       </c>
       <c r="P112" s="13">
-        <v>3019587</v>
+        <v>2064064</v>
       </c>
       <c r="Q112" s="13">
-        <v>2064064</v>
+        <v>2238934</v>
       </c>
       <c r="R112" s="13">
-        <v>2238934</v>
+        <v>1815208</v>
       </c>
       <c r="S112" s="13">
-        <v>1815208</v>
+        <v>2387383</v>
       </c>
       <c r="T112" s="13">
-        <v>2387383</v>
+        <v>1485345</v>
       </c>
       <c r="U112" s="13">
-        <v>1485345</v>
+        <v>540119</v>
       </c>
       <c r="V112" s="13">
-        <v>540119</v>
+        <v>1140318</v>
       </c>
       <c r="W112" s="13">
-        <v>1140318</v>
+        <v>5298499</v>
       </c>
       <c r="X112" s="13">
-        <v>5298499</v>
+        <v>4550593</v>
       </c>
       <c r="Y112" s="13">
-        <v>4550593</v>
+        <v>4356750</v>
       </c>
       <c r="Z112" s="13">
-        <v>4356750</v>
+        <v>3630233</v>
       </c>
       <c r="AA112" s="13">
-        <v>3630233</v>
+        <v>4715747</v>
       </c>
       <c r="AB112" s="13">
-        <v>4715747</v>
+        <v>4857490</v>
       </c>
       <c r="AC112" s="13">
-        <v>4857490</v>
+        <v>6509610</v>
       </c>
       <c r="AD112" s="13">
-        <v>6509610</v>
+        <v>5066247</v>
       </c>
       <c r="AE112" s="13">
-        <v>5066247</v>
+        <v>3275449</v>
       </c>
       <c r="AF112" s="13">
-        <v>3275449</v>
+        <v>4858104</v>
       </c>
       <c r="AG112" s="13">
-        <v>4858104</v>
+        <v>8992667</v>
       </c>
       <c r="AH112" s="13">
-        <v>8992667</v>
+        <v>7076734</v>
       </c>
       <c r="AI112" s="13">
-        <v>7076734</v>
+        <v>3409255</v>
       </c>
       <c r="AJ112" s="13">
-        <v>3409255</v>
+        <v>5246130</v>
       </c>
       <c r="AK112" s="13">
-        <v>5246130</v>
+        <v>5880746</v>
       </c>
       <c r="AL112" s="13">
-        <v>5880746</v>
-      </c>
-      <c r="AM112" s="13">
         <v>5792905</v>
+      </c>
+      <c r="AM112" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AN112" s="13" t="s">
         <v>60</v>
@@ -15552,77 +15552,77 @@
       <c r="AD113" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE113" s="11" t="s">
-        <v>60</v>
+      <c r="AE113" s="11">
+        <v>101410256</v>
       </c>
       <c r="AF113" s="11">
-        <v>101410256</v>
+        <v>4000000</v>
       </c>
       <c r="AG113" s="11">
-        <v>4000000</v>
+        <v>99900000</v>
       </c>
       <c r="AH113" s="11">
-        <v>99900000</v>
+        <v>102500000</v>
       </c>
       <c r="AI113" s="11">
-        <v>102500000</v>
+        <v>5415929</v>
       </c>
       <c r="AJ113" s="11">
-        <v>5415929</v>
-      </c>
-      <c r="AK113" s="11">
         <v>5819102</v>
       </c>
-      <c r="AL113" s="11" t="s">
-        <v>60</v>
+      <c r="AK113" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL113" s="11">
+        <v>14402985</v>
       </c>
       <c r="AM113" s="11">
-        <v>14402985</v>
-      </c>
-      <c r="AN113" s="11">
         <v>9298117</v>
       </c>
+      <c r="AN113" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AO113" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AP113" s="11" t="s">
-        <v>60</v>
+      <c r="AP113" s="11">
+        <v>102163934</v>
       </c>
       <c r="AQ113" s="11">
-        <v>102163934</v>
+        <v>4516383</v>
       </c>
       <c r="AR113" s="11">
-        <v>4516383</v>
+        <v>6584535</v>
       </c>
       <c r="AS113" s="11">
-        <v>6584535</v>
+        <v>6953459</v>
       </c>
       <c r="AT113" s="11">
-        <v>6953459</v>
+        <v>5442843</v>
       </c>
       <c r="AU113" s="11">
-        <v>5442843</v>
+        <v>11971193</v>
       </c>
       <c r="AV113" s="11">
-        <v>11971193</v>
+        <v>6414685</v>
       </c>
       <c r="AW113" s="11">
-        <v>6414685</v>
+        <v>5131089</v>
       </c>
       <c r="AX113" s="11">
-        <v>5131089</v>
+        <v>688500000</v>
       </c>
       <c r="AY113" s="11">
-        <v>688500000</v>
+        <v>65490436</v>
       </c>
       <c r="AZ113" s="11">
-        <v>65490436</v>
+        <v>11761543</v>
       </c>
       <c r="BA113" s="11">
-        <v>11761543</v>
+        <v>28581688</v>
       </c>
       <c r="BB113" s="11">
-        <v>28581688</v>
+        <v>9999164</v>
       </c>
     </row>
     <row r="114" spans="2:54" x14ac:dyDescent="0.3">
@@ -15711,15 +15711,15 @@
       <c r="AD114" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AE114" s="13" t="s">
-        <v>60</v>
+      <c r="AE114" s="13">
+        <v>8006803</v>
       </c>
       <c r="AF114" s="13">
-        <v>8006803</v>
-      </c>
-      <c r="AG114" s="13">
         <v>48327778</v>
       </c>
+      <c r="AG114" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AH114" s="13" t="s">
         <v>60</v>
       </c>
@@ -15738,50 +15738,50 @@
       <c r="AM114" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AN114" s="13" t="s">
-        <v>60</v>
+      <c r="AN114" s="13">
+        <v>56044619</v>
       </c>
       <c r="AO114" s="13">
-        <v>56044619</v>
+        <v>30039761</v>
       </c>
       <c r="AP114" s="13">
-        <v>30039761</v>
+        <v>43382900</v>
       </c>
       <c r="AQ114" s="13">
-        <v>43382900</v>
+        <v>26969863</v>
       </c>
       <c r="AR114" s="13">
-        <v>26969863</v>
+        <v>28529018</v>
       </c>
       <c r="AS114" s="13">
-        <v>28529018</v>
+        <v>29029851</v>
       </c>
       <c r="AT114" s="13">
-        <v>29029851</v>
+        <v>56092593</v>
       </c>
       <c r="AU114" s="13">
-        <v>56092593</v>
+        <v>27405363</v>
       </c>
       <c r="AV114" s="13">
-        <v>27405363</v>
+        <v>85946154</v>
       </c>
       <c r="AW114" s="13">
-        <v>85946154</v>
+        <v>46660377</v>
       </c>
       <c r="AX114" s="13">
-        <v>46660377</v>
+        <v>28152709</v>
       </c>
       <c r="AY114" s="13">
-        <v>28152709</v>
+        <v>65294521</v>
       </c>
       <c r="AZ114" s="13">
-        <v>65294521</v>
+        <v>58000000</v>
       </c>
       <c r="BA114" s="13">
-        <v>58000000</v>
+        <v>58421505</v>
       </c>
       <c r="BB114" s="13">
-        <v>58421505</v>
+        <v>57983193</v>
       </c>
     </row>
     <row r="115" spans="2:54" x14ac:dyDescent="0.3">
@@ -15870,77 +15870,77 @@
       <c r="AD115" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE115" s="11" t="s">
-        <v>60</v>
+      <c r="AE115" s="11">
+        <v>129000000</v>
       </c>
       <c r="AF115" s="11">
-        <v>129000000</v>
-      </c>
-      <c r="AG115" s="11">
         <v>573000000</v>
       </c>
+      <c r="AG115" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AH115" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AI115" s="11" t="s">
-        <v>60</v>
+      <c r="AI115" s="11">
+        <v>76150000</v>
       </c>
       <c r="AJ115" s="11">
-        <v>76150000</v>
+        <v>67200000</v>
       </c>
       <c r="AK115" s="11">
-        <v>67200000</v>
+        <v>35750000</v>
       </c>
       <c r="AL115" s="11">
-        <v>35750000</v>
+        <v>36320732</v>
       </c>
       <c r="AM115" s="11">
-        <v>36320732</v>
+        <v>36282155</v>
       </c>
       <c r="AN115" s="11">
-        <v>36282155</v>
+        <v>36540672</v>
       </c>
       <c r="AO115" s="11">
-        <v>36540672</v>
+        <v>34457648</v>
       </c>
       <c r="AP115" s="11">
-        <v>34457648</v>
+        <v>34408360</v>
       </c>
       <c r="AQ115" s="11">
-        <v>34408360</v>
+        <v>16000000</v>
       </c>
       <c r="AR115" s="11">
-        <v>16000000</v>
+        <v>75000000</v>
       </c>
       <c r="AS115" s="11">
-        <v>75000000</v>
+        <v>101074413</v>
       </c>
       <c r="AT115" s="11">
-        <v>101074413</v>
+        <v>504300000</v>
       </c>
       <c r="AU115" s="11">
-        <v>504300000</v>
+        <v>77000000</v>
       </c>
       <c r="AV115" s="11">
-        <v>77000000</v>
+        <v>35532110</v>
       </c>
       <c r="AW115" s="11">
-        <v>35532110</v>
+        <v>964833333</v>
       </c>
       <c r="AX115" s="11">
-        <v>964833333</v>
+        <v>33145739</v>
       </c>
       <c r="AY115" s="11">
-        <v>33145739</v>
+        <v>243189189</v>
       </c>
       <c r="AZ115" s="11">
-        <v>243189189</v>
+        <v>235761538</v>
       </c>
       <c r="BA115" s="11">
-        <v>235761538</v>
+        <v>92123810</v>
       </c>
       <c r="BB115" s="11">
-        <v>92123810</v>
+        <v>233833333</v>
       </c>
     </row>
     <row r="116" spans="2:54" x14ac:dyDescent="0.3">
@@ -16053,53 +16053,53 @@
       <c r="AL116" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AM116" s="13" t="s">
-        <v>60</v>
+      <c r="AM116" s="13">
+        <v>5142252</v>
       </c>
       <c r="AN116" s="13">
-        <v>5142252</v>
+        <v>8296379</v>
       </c>
       <c r="AO116" s="13">
-        <v>8296379</v>
+        <v>5981017</v>
       </c>
       <c r="AP116" s="13">
-        <v>5981017</v>
+        <v>5478974</v>
       </c>
       <c r="AQ116" s="13">
-        <v>5478974</v>
+        <v>6591745</v>
       </c>
       <c r="AR116" s="13">
-        <v>6591745</v>
+        <v>6120147</v>
       </c>
       <c r="AS116" s="13">
-        <v>6120147</v>
+        <v>4812346</v>
       </c>
       <c r="AT116" s="13">
-        <v>4812346</v>
+        <v>8593750</v>
       </c>
       <c r="AU116" s="13">
-        <v>8593750</v>
+        <v>10872407</v>
       </c>
       <c r="AV116" s="13">
-        <v>10872407</v>
+        <v>8298748</v>
       </c>
       <c r="AW116" s="13">
-        <v>8298748</v>
+        <v>11707986</v>
       </c>
       <c r="AX116" s="13">
-        <v>11707986</v>
+        <v>7383051</v>
       </c>
       <c r="AY116" s="13">
-        <v>7383051</v>
+        <v>7119277</v>
       </c>
       <c r="AZ116" s="13">
-        <v>7119277</v>
+        <v>1739464</v>
       </c>
       <c r="BA116" s="13">
-        <v>1739464</v>
+        <v>2671915</v>
       </c>
       <c r="BB116" s="13">
-        <v>2671915</v>
+        <v>13553482</v>
       </c>
     </row>
     <row r="117" spans="2:54" x14ac:dyDescent="0.3">
@@ -16227,38 +16227,38 @@
       <c r="AQ117" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR117" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS117" s="11">
+      <c r="AR117" s="11">
         <v>1207142857</v>
       </c>
-      <c r="AT117" s="11" t="s">
-        <v>60</v>
+      <c r="AS117" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT117" s="11">
+        <v>1343333333</v>
       </c>
       <c r="AU117" s="11">
-        <v>1343333333</v>
-      </c>
-      <c r="AV117" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW117" s="11" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="AV117" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW117" s="11">
+        <v>1365000000</v>
       </c>
       <c r="AX117" s="11">
-        <v>1365000000</v>
+        <v>1495000000</v>
       </c>
       <c r="AY117" s="11">
-        <v>1495000000</v>
-      </c>
-      <c r="AZ117" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA117" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB117" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ117" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA117" s="11">
         <v>1137500000</v>
+      </c>
+      <c r="BB117" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="2:54" x14ac:dyDescent="0.3">
@@ -16380,44 +16380,44 @@
       <c r="AO118" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AP118" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ118" s="13">
+      <c r="AP118" s="13">
         <v>3187912</v>
       </c>
-      <c r="AR118" s="13" t="s">
-        <v>60</v>
+      <c r="AQ118" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR118" s="13">
+        <v>3505713</v>
       </c>
       <c r="AS118" s="13">
-        <v>3505713</v>
-      </c>
-      <c r="AT118" s="13">
         <v>5885442</v>
       </c>
-      <c r="AU118" s="13" t="s">
-        <v>60</v>
+      <c r="AT118" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU118" s="13">
+        <v>143000000</v>
       </c>
       <c r="AV118" s="13">
-        <v>143000000</v>
+        <v>787879</v>
       </c>
       <c r="AW118" s="13">
-        <v>787879</v>
+        <v>5723618</v>
       </c>
       <c r="AX118" s="13">
-        <v>5723618</v>
+        <v>4909307</v>
       </c>
       <c r="AY118" s="13">
-        <v>4909307</v>
+        <v>1534483</v>
       </c>
       <c r="AZ118" s="13">
-        <v>1534483</v>
+        <v>345618182</v>
       </c>
       <c r="BA118" s="13">
-        <v>345618182</v>
-      </c>
-      <c r="BB118" s="13">
         <v>349954545</v>
+      </c>
+      <c r="BB118" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="2:54" x14ac:dyDescent="0.3">
@@ -16530,53 +16530,53 @@
       <c r="AL119" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AM119" s="11" t="s">
-        <v>60</v>
+      <c r="AM119" s="11">
+        <v>11599143</v>
       </c>
       <c r="AN119" s="11">
-        <v>11599143</v>
+        <v>14993235</v>
       </c>
       <c r="AO119" s="11">
-        <v>14993235</v>
-      </c>
-      <c r="AP119" s="11">
         <v>15000000</v>
       </c>
+      <c r="AP119" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AQ119" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR119" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS119" s="11">
+      <c r="AR119" s="11">
         <v>14999734</v>
       </c>
+      <c r="AS119" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AT119" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AU119" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AV119" s="11" t="s">
-        <v>60</v>
+      <c r="AV119" s="11">
+        <v>15000000</v>
       </c>
       <c r="AW119" s="11">
+        <v>15334443</v>
+      </c>
+      <c r="AX119" s="11">
+        <v>12809781</v>
+      </c>
+      <c r="AY119" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ119" s="11">
+        <v>15142857</v>
+      </c>
+      <c r="BA119" s="11">
         <v>15000000</v>
       </c>
-      <c r="AX119" s="11">
-        <v>15334443</v>
-      </c>
-      <c r="AY119" s="11">
-        <v>12809781</v>
-      </c>
-      <c r="AZ119" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA119" s="11">
-        <v>15142857</v>
-      </c>
       <c r="BB119" s="11">
-        <v>15000000</v>
+        <v>15606218</v>
       </c>
     </row>
     <row r="120" spans="2:54" x14ac:dyDescent="0.3">
@@ -16698,26 +16698,26 @@
       <c r="AO120" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AP120" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ120" s="13">
+      <c r="AP120" s="13">
         <v>719792</v>
       </c>
+      <c r="AQ120" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AR120" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AS120" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT120" s="13">
+      <c r="AS120" s="13">
         <v>750000</v>
       </c>
+      <c r="AT120" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AU120" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AV120" s="13" t="s">
-        <v>60</v>
+      <c r="AV120" s="13">
+        <v>900000</v>
       </c>
       <c r="AW120" s="13">
         <v>900000</v>
@@ -16726,13 +16726,13 @@
         <v>900000</v>
       </c>
       <c r="AY120" s="13">
-        <v>900000</v>
-      </c>
-      <c r="AZ120" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA120" s="13" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="AZ120" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA120" s="13">
+        <v>0</v>
       </c>
       <c r="BB120" s="13" t="s">
         <v>60</v>
@@ -16890,11 +16890,11 @@
       <c r="AZ121" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="BA121" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB121" s="11">
+      <c r="BA121" s="11">
         <v>1980000000</v>
+      </c>
+      <c r="BB121" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="2:54" x14ac:dyDescent="0.3">
@@ -17070,8 +17070,8 @@
       <c r="AN123" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AO123" s="11" t="s">
-        <v>60</v>
+      <c r="AO123" s="11">
+        <v>0</v>
       </c>
       <c r="AP123" s="11">
         <v>0</v>

--- a/database/industries/darou/deshimi/product/monthly.xlsx
+++ b/database/industries/darou/deshimi/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="91">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3272,154 +3272,154 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>2082</v>
+        <v>1586</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>1586</v>
+        <v>703</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>703</v>
+        <v>1413</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>1413</v>
+        <v>0</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>1152</v>
+        <v>1716</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>1716</v>
+        <v>3617</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>3617</v>
+        <v>5172</v>
       </c>
       <c r="N11" s="12" t="n">
+        <v>5165</v>
+      </c>
+      <c r="O11" s="12" t="n">
+        <v>2567</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>2610</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>567</v>
+      </c>
+      <c r="S11" s="12" t="n">
         <v>5172</v>
       </c>
-      <c r="O11" s="12" t="n">
-        <v>5165</v>
-      </c>
-      <c r="P11" s="12" t="n">
-        <v>2567</v>
-      </c>
-      <c r="Q11" s="12" t="n">
-        <v>2610</v>
-      </c>
-      <c r="R11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="12" t="n">
-        <v>567</v>
-      </c>
       <c r="T11" s="12" t="n">
-        <v>5172</v>
+        <v>1913</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>1913</v>
+        <v>2279</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>2279</v>
+        <v>772</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>772</v>
+        <v>1872</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>1872</v>
+        <v>2158</v>
       </c>
       <c r="Y11" s="12" t="n">
-        <v>2158</v>
+        <v>566</v>
       </c>
       <c r="Z11" s="12" t="n">
-        <v>566</v>
+        <v>2302</v>
       </c>
       <c r="AA11" s="12" t="n">
-        <v>2302</v>
+        <v>3424</v>
       </c>
       <c r="AB11" s="12" t="n">
-        <v>3424</v>
+        <v>2891</v>
       </c>
       <c r="AC11" s="12" t="n">
-        <v>2891</v>
+        <v>2325</v>
       </c>
       <c r="AD11" s="12" t="n">
-        <v>2325</v>
+        <v>3863</v>
       </c>
       <c r="AE11" s="12" t="n">
-        <v>3863</v>
+        <v>1446</v>
       </c>
       <c r="AF11" s="12" t="n">
-        <v>1446</v>
+        <v>2513</v>
       </c>
       <c r="AG11" s="12" t="n">
-        <v>2513</v>
+        <v>3838</v>
       </c>
       <c r="AH11" s="12" t="n">
-        <v>3838</v>
+        <v>3913</v>
       </c>
       <c r="AI11" s="12" t="n">
-        <v>3913</v>
+        <v>3634</v>
       </c>
       <c r="AJ11" s="12" t="n">
-        <v>3634</v>
+        <v>2461</v>
       </c>
       <c r="AK11" s="12" t="n">
-        <v>2461</v>
+        <v>4026</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>4026</v>
+        <v>3649</v>
       </c>
       <c r="AM11" s="12" t="n">
-        <v>3649</v>
+        <v>2859</v>
       </c>
       <c r="AN11" s="12" t="n">
-        <v>2859</v>
+        <v>3629</v>
       </c>
       <c r="AO11" s="12" t="n">
-        <v>3629</v>
+        <v>4017</v>
       </c>
       <c r="AP11" s="12" t="n">
-        <v>4017</v>
+        <v>3643</v>
       </c>
       <c r="AQ11" s="12" t="n">
-        <v>3643</v>
+        <v>4992</v>
       </c>
       <c r="AR11" s="12" t="n">
+        <v>3264</v>
+      </c>
+      <c r="AS11" s="12" t="n">
+        <v>5760</v>
+      </c>
+      <c r="AT11" s="12" t="n">
+        <v>5618</v>
+      </c>
+      <c r="AU11" s="12" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AV11" s="12" t="n">
+        <v>8832</v>
+      </c>
+      <c r="AW11" s="12" t="n">
         <v>4992</v>
       </c>
-      <c r="AS11" s="12" t="n">
-        <v>3264</v>
-      </c>
-      <c r="AT11" s="12" t="n">
-        <v>5760</v>
-      </c>
-      <c r="AU11" s="12" t="n">
-        <v>5618</v>
-      </c>
-      <c r="AV11" s="12" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AW11" s="12" t="n">
-        <v>8832</v>
-      </c>
       <c r="AX11" s="12" t="n">
-        <v>4992</v>
+        <v>7898</v>
       </c>
       <c r="AY11" s="12" t="n">
-        <v>7898</v>
+        <v>3840</v>
       </c>
       <c r="AZ11" s="12" t="n">
-        <v>3840</v>
+        <v>9958</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>9958</v>
+        <v>6528</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>6528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3431,154 +3431,154 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="n">
-        <v>5726</v>
+        <v>5238</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>5238</v>
+        <v>0</v>
       </c>
       <c r="G12" s="14" t="n">
-        <v>0</v>
+        <v>3475</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>3475</v>
+        <v>1822</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>1822</v>
+        <v>176</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>176</v>
+        <v>6981</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>6981</v>
+        <v>5482</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>5482</v>
+        <v>9175</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>9175</v>
+        <v>4500</v>
       </c>
       <c r="N12" s="14" t="n">
-        <v>4500</v>
+        <v>4067</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>4067</v>
+        <v>9231</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>9231</v>
+        <v>8517</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>8517</v>
+        <v>3626</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>3626</v>
+        <v>1018</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>1018</v>
+        <v>1985</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>1985</v>
+        <v>10410</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>10410</v>
+        <v>7925</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>7925</v>
+        <v>4598</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>4598</v>
+        <v>0</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>0</v>
+        <v>4850</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>4850</v>
+        <v>7420</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>7420</v>
+        <v>4552</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>4552</v>
+        <v>3977</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>3977</v>
+        <v>4082</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>4082</v>
+        <v>1373</v>
       </c>
       <c r="AD12" s="14" t="n">
-        <v>1373</v>
+        <v>2667</v>
       </c>
       <c r="AE12" s="14" t="n">
-        <v>2667</v>
+        <v>1737</v>
       </c>
       <c r="AF12" s="14" t="n">
-        <v>1737</v>
+        <v>1521</v>
       </c>
       <c r="AG12" s="14" t="n">
-        <v>1521</v>
+        <v>10142</v>
       </c>
       <c r="AH12" s="14" t="n">
-        <v>10142</v>
+        <v>8072</v>
       </c>
       <c r="AI12" s="14" t="n">
-        <v>8072</v>
+        <v>12499</v>
       </c>
       <c r="AJ12" s="14" t="n">
-        <v>12499</v>
+        <v>9201</v>
       </c>
       <c r="AK12" s="14" t="n">
-        <v>9201</v>
+        <v>15270</v>
       </c>
       <c r="AL12" s="14" t="n">
-        <v>15270</v>
+        <v>11387</v>
       </c>
       <c r="AM12" s="14" t="n">
-        <v>11387</v>
+        <v>17955</v>
       </c>
       <c r="AN12" s="14" t="n">
-        <v>17955</v>
+        <v>25208</v>
       </c>
       <c r="AO12" s="14" t="n">
-        <v>25208</v>
+        <v>15176</v>
       </c>
       <c r="AP12" s="14" t="n">
-        <v>15176</v>
+        <v>6215</v>
       </c>
       <c r="AQ12" s="14" t="n">
-        <v>6215</v>
+        <v>3155</v>
       </c>
       <c r="AR12" s="14" t="n">
-        <v>3155</v>
+        <v>11324</v>
       </c>
       <c r="AS12" s="14" t="n">
-        <v>11324</v>
+        <v>6984</v>
       </c>
       <c r="AT12" s="14" t="n">
-        <v>6984</v>
+        <v>15438</v>
       </c>
       <c r="AU12" s="14" t="n">
-        <v>15438</v>
+        <v>5004</v>
       </c>
       <c r="AV12" s="14" t="n">
-        <v>5004</v>
+        <v>9398</v>
       </c>
       <c r="AW12" s="14" t="n">
-        <v>9398</v>
+        <v>13028</v>
       </c>
       <c r="AX12" s="14" t="n">
-        <v>13028</v>
+        <v>9645</v>
       </c>
       <c r="AY12" s="14" t="n">
-        <v>9645</v>
+        <v>8377</v>
       </c>
       <c r="AZ12" s="14" t="n">
-        <v>8377</v>
+        <v>2156</v>
       </c>
       <c r="BA12" s="14" t="n">
-        <v>2156</v>
+        <v>24088</v>
       </c>
       <c r="BB12" s="14" t="n">
-        <v>24088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,154 +3590,154 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="n">
-        <v>1814</v>
+        <v>2082</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>2082</v>
+        <v>5672</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>5672</v>
+        <v>8701</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>8701</v>
+        <v>3776</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>3776</v>
+        <v>2312</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>2312</v>
+        <v>5173</v>
       </c>
       <c r="K13" s="12" t="n">
-        <v>5173</v>
+        <v>4506</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>4506</v>
+        <v>4251</v>
       </c>
       <c r="M13" s="12" t="n">
-        <v>4251</v>
+        <v>8735</v>
       </c>
       <c r="N13" s="12" t="n">
-        <v>8735</v>
+        <v>16547</v>
       </c>
       <c r="O13" s="12" t="n">
-        <v>16547</v>
+        <v>11754</v>
       </c>
       <c r="P13" s="12" t="n">
-        <v>11754</v>
+        <v>3053</v>
       </c>
       <c r="Q13" s="12" t="n">
-        <v>3053</v>
+        <v>390</v>
       </c>
       <c r="R13" s="12" t="n">
-        <v>390</v>
+        <v>2817</v>
       </c>
       <c r="S13" s="12" t="n">
-        <v>2817</v>
+        <v>2806</v>
       </c>
       <c r="T13" s="12" t="n">
-        <v>2806</v>
+        <v>4490</v>
       </c>
       <c r="U13" s="12" t="n">
-        <v>4490</v>
+        <v>3504</v>
       </c>
       <c r="V13" s="12" t="n">
-        <v>3504</v>
+        <v>1910</v>
       </c>
       <c r="W13" s="12" t="n">
-        <v>1910</v>
+        <v>9360</v>
       </c>
       <c r="X13" s="12" t="n">
-        <v>9360</v>
+        <v>6399</v>
       </c>
       <c r="Y13" s="12" t="n">
-        <v>6399</v>
+        <v>1382</v>
       </c>
       <c r="Z13" s="12" t="n">
-        <v>1382</v>
+        <v>8108</v>
       </c>
       <c r="AA13" s="12" t="n">
-        <v>8108</v>
+        <v>1953</v>
       </c>
       <c r="AB13" s="12" t="n">
-        <v>1953</v>
+        <v>1732</v>
       </c>
       <c r="AC13" s="12" t="n">
-        <v>1732</v>
+        <v>3140</v>
       </c>
       <c r="AD13" s="12" t="n">
-        <v>3140</v>
+        <v>8562</v>
       </c>
       <c r="AE13" s="12" t="n">
-        <v>8562</v>
+        <v>2619</v>
       </c>
       <c r="AF13" s="12" t="n">
-        <v>2619</v>
+        <v>8539</v>
       </c>
       <c r="AG13" s="12" t="n">
-        <v>8539</v>
+        <v>2530</v>
       </c>
       <c r="AH13" s="12" t="n">
-        <v>2530</v>
+        <v>5146</v>
       </c>
       <c r="AI13" s="12" t="n">
-        <v>5146</v>
+        <v>31066</v>
       </c>
       <c r="AJ13" s="12" t="n">
-        <v>31066</v>
+        <v>6923</v>
       </c>
       <c r="AK13" s="12" t="n">
-        <v>6923</v>
+        <v>13834</v>
       </c>
       <c r="AL13" s="12" t="n">
-        <v>13834</v>
+        <v>6513</v>
       </c>
       <c r="AM13" s="12" t="n">
-        <v>6513</v>
+        <v>2226</v>
       </c>
       <c r="AN13" s="12" t="n">
-        <v>2226</v>
+        <v>8713</v>
       </c>
       <c r="AO13" s="12" t="n">
-        <v>8713</v>
+        <v>1644</v>
       </c>
       <c r="AP13" s="12" t="n">
-        <v>1644</v>
+        <v>1962</v>
       </c>
       <c r="AQ13" s="12" t="n">
-        <v>1962</v>
+        <v>9998</v>
       </c>
       <c r="AR13" s="12" t="n">
-        <v>9998</v>
+        <v>13074</v>
       </c>
       <c r="AS13" s="12" t="n">
-        <v>13074</v>
+        <v>5148</v>
       </c>
       <c r="AT13" s="12" t="n">
-        <v>5148</v>
+        <v>672</v>
       </c>
       <c r="AU13" s="12" t="n">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="12" t="n">
-        <v>0</v>
+        <v>2074</v>
       </c>
       <c r="AW13" s="12" t="n">
-        <v>2074</v>
+        <v>4659</v>
       </c>
       <c r="AX13" s="12" t="n">
-        <v>4659</v>
+        <v>34</v>
       </c>
       <c r="AY13" s="12" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AZ13" s="12" t="n">
-        <v>7</v>
+        <v>6254</v>
       </c>
       <c r="BA13" s="12" t="n">
-        <v>6254</v>
+        <v>21197</v>
       </c>
       <c r="BB13" s="12" t="n">
-        <v>21197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3751,8 +3751,8 @@
       <c r="E14" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="14" t="n">
-        <v>0</v>
+      <c r="F14" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>60</v>
@@ -3847,11 +3847,11 @@
       <c r="AK14" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM14" s="15" t="n">
-        <v>0</v>
+      <c r="AL14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AN14" s="15" t="s">
         <v>60</v>
@@ -3859,8 +3859,8 @@
       <c r="AO14" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AP14" s="15" t="s">
-        <v>60</v>
+      <c r="AP14" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AQ14" s="15" t="n">
         <v>0</v>
@@ -3890,10 +3890,10 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="15" t="n">
-        <v>0</v>
+        <v>1381</v>
       </c>
       <c r="BA14" s="15" t="n">
-        <v>1381</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="15" t="n">
         <v>0</v>
@@ -3908,154 +3908,154 @@
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="n">
-        <v>2223</v>
+        <v>1440</v>
       </c>
       <c r="F15" s="12" t="n">
-        <v>1440</v>
+        <v>1413</v>
       </c>
       <c r="G15" s="12" t="n">
-        <v>1413</v>
+        <v>154</v>
       </c>
       <c r="H15" s="12" t="n">
-        <v>154</v>
+        <v>9551</v>
       </c>
       <c r="I15" s="12" t="n">
-        <v>9551</v>
+        <v>15234</v>
       </c>
       <c r="J15" s="12" t="n">
-        <v>15234</v>
+        <v>12248</v>
       </c>
       <c r="K15" s="12" t="n">
-        <v>12248</v>
+        <v>8249</v>
       </c>
       <c r="L15" s="12" t="n">
-        <v>8249</v>
+        <v>3583</v>
       </c>
       <c r="M15" s="12" t="n">
-        <v>3583</v>
+        <v>1960</v>
       </c>
       <c r="N15" s="12" t="n">
-        <v>1960</v>
+        <v>7685</v>
       </c>
       <c r="O15" s="12" t="n">
-        <v>7685</v>
+        <v>16842</v>
       </c>
       <c r="P15" s="12" t="n">
-        <v>16842</v>
+        <v>7170</v>
       </c>
       <c r="Q15" s="12" t="n">
-        <v>7170</v>
+        <v>3166</v>
       </c>
       <c r="R15" s="12" t="n">
-        <v>3166</v>
+        <v>2200</v>
       </c>
       <c r="S15" s="12" t="n">
-        <v>2200</v>
+        <v>10781</v>
       </c>
       <c r="T15" s="12" t="n">
-        <v>10781</v>
+        <v>11550</v>
       </c>
       <c r="U15" s="12" t="n">
-        <v>11550</v>
+        <v>11245</v>
       </c>
       <c r="V15" s="12" t="n">
-        <v>11245</v>
+        <v>9804</v>
       </c>
       <c r="W15" s="12" t="n">
-        <v>9804</v>
+        <v>6777</v>
       </c>
       <c r="X15" s="12" t="n">
-        <v>6777</v>
+        <v>2308</v>
       </c>
       <c r="Y15" s="12" t="n">
-        <v>2308</v>
+        <v>5989</v>
       </c>
       <c r="Z15" s="12" t="n">
-        <v>5989</v>
+        <v>449</v>
       </c>
       <c r="AA15" s="12" t="n">
-        <v>449</v>
+        <v>4304</v>
       </c>
       <c r="AB15" s="12" t="n">
-        <v>4304</v>
+        <v>9043</v>
       </c>
       <c r="AC15" s="12" t="n">
-        <v>9043</v>
+        <v>6887</v>
       </c>
       <c r="AD15" s="12" t="n">
-        <v>6887</v>
+        <v>19379</v>
       </c>
       <c r="AE15" s="12" t="n">
-        <v>19379</v>
+        <v>11034</v>
       </c>
       <c r="AF15" s="12" t="n">
-        <v>11034</v>
+        <v>5694</v>
       </c>
       <c r="AG15" s="12" t="n">
-        <v>5694</v>
+        <v>6540</v>
       </c>
       <c r="AH15" s="12" t="n">
-        <v>6540</v>
+        <v>7896</v>
       </c>
       <c r="AI15" s="12" t="n">
-        <v>7896</v>
+        <v>4797</v>
       </c>
       <c r="AJ15" s="12" t="n">
-        <v>4797</v>
+        <v>4413</v>
       </c>
       <c r="AK15" s="12" t="n">
-        <v>4413</v>
+        <v>7452</v>
       </c>
       <c r="AL15" s="12" t="n">
-        <v>7452</v>
+        <v>4236</v>
       </c>
       <c r="AM15" s="12" t="n">
-        <v>4236</v>
+        <v>9416</v>
       </c>
       <c r="AN15" s="12" t="n">
-        <v>9416</v>
+        <v>2425</v>
       </c>
       <c r="AO15" s="12" t="n">
-        <v>2425</v>
+        <v>9613</v>
       </c>
       <c r="AP15" s="12" t="n">
-        <v>9613</v>
+        <v>9280</v>
       </c>
       <c r="AQ15" s="12" t="n">
-        <v>9280</v>
+        <v>5862</v>
       </c>
       <c r="AR15" s="12" t="n">
-        <v>5862</v>
+        <v>11442</v>
       </c>
       <c r="AS15" s="12" t="n">
-        <v>11442</v>
+        <v>8393</v>
       </c>
       <c r="AT15" s="12" t="n">
-        <v>8393</v>
+        <v>720</v>
       </c>
       <c r="AU15" s="12" t="n">
-        <v>720</v>
+        <v>11726</v>
       </c>
       <c r="AV15" s="12" t="n">
-        <v>11726</v>
+        <v>7465</v>
       </c>
       <c r="AW15" s="12" t="n">
-        <v>7465</v>
+        <v>3269</v>
       </c>
       <c r="AX15" s="12" t="n">
-        <v>3269</v>
+        <v>24547</v>
       </c>
       <c r="AY15" s="12" t="n">
-        <v>24547</v>
+        <v>20707</v>
       </c>
       <c r="AZ15" s="12" t="n">
-        <v>20707</v>
+        <v>16444</v>
       </c>
       <c r="BA15" s="12" t="n">
-        <v>16444</v>
+        <v>23267</v>
       </c>
       <c r="BB15" s="12" t="n">
-        <v>23267</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4067,100 +4067,100 @@
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="n">
-        <v>22135</v>
+        <v>10898</v>
       </c>
       <c r="F16" s="15" t="n">
-        <v>10898</v>
+        <v>653</v>
       </c>
       <c r="G16" s="15" t="n">
-        <v>653</v>
+        <v>8914</v>
       </c>
       <c r="H16" s="15" t="n">
-        <v>8914</v>
+        <v>27856</v>
       </c>
       <c r="I16" s="15" t="n">
-        <v>27856</v>
+        <v>17552</v>
       </c>
       <c r="J16" s="15" t="n">
-        <v>17552</v>
+        <v>1183</v>
       </c>
       <c r="K16" s="15" t="n">
-        <v>1183</v>
+        <v>13509</v>
       </c>
       <c r="L16" s="15" t="n">
-        <v>13509</v>
+        <v>14543</v>
       </c>
       <c r="M16" s="15" t="n">
-        <v>14543</v>
+        <v>20247</v>
       </c>
       <c r="N16" s="15" t="n">
-        <v>20247</v>
+        <v>17191</v>
       </c>
       <c r="O16" s="15" t="n">
-        <v>17191</v>
+        <v>7077</v>
       </c>
       <c r="P16" s="15" t="n">
-        <v>7077</v>
+        <v>9773</v>
       </c>
       <c r="Q16" s="15" t="n">
-        <v>9773</v>
+        <v>169996</v>
       </c>
       <c r="R16" s="15" t="n">
-        <v>169996</v>
+        <v>40562</v>
       </c>
       <c r="S16" s="15" t="n">
-        <v>40562</v>
+        <v>8772</v>
       </c>
       <c r="T16" s="15" t="n">
-        <v>8772</v>
+        <v>24753</v>
       </c>
       <c r="U16" s="15" t="n">
-        <v>24753</v>
+        <v>8742</v>
       </c>
       <c r="V16" s="15" t="n">
-        <v>8742</v>
+        <v>15423</v>
       </c>
       <c r="W16" s="15" t="n">
-        <v>15423</v>
+        <v>20176</v>
       </c>
       <c r="X16" s="15" t="n">
-        <v>20176</v>
+        <v>30749</v>
       </c>
       <c r="Y16" s="15" t="n">
-        <v>30749</v>
+        <v>19302</v>
       </c>
       <c r="Z16" s="15" t="n">
-        <v>19302</v>
+        <v>20850</v>
       </c>
       <c r="AA16" s="15" t="n">
-        <v>20850</v>
+        <v>53637</v>
       </c>
       <c r="AB16" s="15" t="n">
-        <v>53637</v>
+        <v>19022</v>
       </c>
       <c r="AC16" s="15" t="n">
-        <v>19022</v>
+        <v>26100</v>
       </c>
       <c r="AD16" s="15" t="n">
-        <v>26100</v>
+        <v>13451</v>
       </c>
       <c r="AE16" s="15" t="n">
-        <v>13451</v>
+        <v>7546</v>
       </c>
       <c r="AF16" s="15" t="n">
-        <v>7546</v>
+        <v>7267</v>
       </c>
       <c r="AG16" s="15" t="n">
-        <v>7267</v>
+        <v>14672</v>
       </c>
       <c r="AH16" s="15" t="n">
-        <v>14672</v>
+        <v>22614</v>
       </c>
       <c r="AI16" s="15" t="n">
-        <v>22614</v>
-      </c>
-      <c r="AJ16" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AK16" s="15" t="s">
         <v>60</v>
@@ -4291,14 +4291,14 @@
       <c r="Z17" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AA17" s="16" t="s">
-        <v>60</v>
+      <c r="AA17" s="16" t="n">
+        <v>2000</v>
       </c>
       <c r="AB17" s="16" t="n">
-        <v>2000</v>
+        <v>2229</v>
       </c>
       <c r="AC17" s="16" t="n">
-        <v>2229</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="16" t="n">
         <v>0</v>
@@ -4307,73 +4307,73 @@
         <v>0</v>
       </c>
       <c r="AF17" s="16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG17" s="16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AH17" s="16" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="AI17" s="16" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK17" s="16" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AL17" s="16" t="n">
-        <v>51</v>
+        <v>3836</v>
       </c>
       <c r="AM17" s="16" t="n">
-        <v>3836</v>
+        <v>2314</v>
       </c>
       <c r="AN17" s="16" t="n">
-        <v>2314</v>
+        <v>7501</v>
       </c>
       <c r="AO17" s="16" t="n">
-        <v>7501</v>
+        <v>1084</v>
       </c>
       <c r="AP17" s="16" t="n">
-        <v>1084</v>
+        <v>4227</v>
       </c>
       <c r="AQ17" s="16" t="n">
-        <v>4227</v>
+        <v>5023</v>
       </c>
       <c r="AR17" s="16" t="n">
-        <v>5023</v>
+        <v>4258</v>
       </c>
       <c r="AS17" s="16" t="n">
-        <v>4258</v>
+        <v>1431</v>
       </c>
       <c r="AT17" s="16" t="n">
-        <v>1431</v>
+        <v>6237</v>
       </c>
       <c r="AU17" s="16" t="n">
-        <v>6237</v>
+        <v>7471</v>
       </c>
       <c r="AV17" s="16" t="n">
-        <v>7471</v>
+        <v>7158</v>
       </c>
       <c r="AW17" s="16" t="n">
-        <v>7158</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AY17" s="16" t="n">
-        <v>0</v>
+        <v>8867</v>
       </c>
       <c r="AZ17" s="16" t="n">
-        <v>8867</v>
+        <v>3910</v>
       </c>
       <c r="BA17" s="16" t="n">
-        <v>3910</v>
+        <v>674</v>
       </c>
       <c r="BB17" s="16" t="n">
-        <v>674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4450,14 +4450,14 @@
       <c r="Z18" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA18" s="15" t="s">
-        <v>60</v>
+      <c r="AA18" s="15" t="n">
+        <v>335</v>
       </c>
       <c r="AB18" s="15" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AC18" s="15" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="15" t="n">
         <v>0</v>
@@ -4469,28 +4469,28 @@
         <v>0</v>
       </c>
       <c r="AG18" s="15" t="n">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="AH18" s="15" t="n">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="AI18" s="15" t="n">
-        <v>303</v>
+        <v>565</v>
       </c>
       <c r="AJ18" s="15" t="n">
-        <v>565</v>
+        <v>337</v>
       </c>
       <c r="AK18" s="15" t="n">
-        <v>337</v>
+        <v>1419</v>
       </c>
       <c r="AL18" s="15" t="n">
-        <v>1419</v>
+        <v>1148</v>
       </c>
       <c r="AM18" s="15" t="n">
-        <v>1148</v>
+        <v>1585</v>
       </c>
       <c r="AN18" s="15" t="n">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="15" t="n">
         <v>0</v>
@@ -4499,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="15" t="n">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="AR18" s="15" t="n">
-        <v>568</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="15" t="n">
         <v>0</v>
@@ -4514,25 +4514,25 @@
         <v>0</v>
       </c>
       <c r="AV18" s="15" t="n">
-        <v>0</v>
+        <v>1474</v>
       </c>
       <c r="AW18" s="15" t="n">
-        <v>1474</v>
+        <v>322</v>
       </c>
       <c r="AX18" s="15" t="n">
-        <v>322</v>
+        <v>1371</v>
       </c>
       <c r="AY18" s="15" t="n">
-        <v>1371</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="BA18" s="15" t="n">
-        <v>0</v>
+        <v>1692</v>
       </c>
       <c r="BB18" s="15" t="n">
-        <v>1692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4609,8 +4609,8 @@
       <c r="Z19" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AA19" s="16" t="s">
-        <v>60</v>
+      <c r="AA19" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AB19" s="16" t="n">
         <v>0</v>
@@ -4625,73 +4625,73 @@
         <v>0</v>
       </c>
       <c r="AF19" s="16" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="AG19" s="16" t="n">
-        <v>1400</v>
+        <v>7846</v>
       </c>
       <c r="AH19" s="16" t="n">
-        <v>7846</v>
+        <v>1716</v>
       </c>
       <c r="AI19" s="16" t="n">
-        <v>1716</v>
+        <v>5</v>
       </c>
       <c r="AJ19" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AK19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="16" t="n">
+        <v>63</v>
+      </c>
+      <c r="AR19" s="16" t="n">
+        <v>536</v>
+      </c>
+      <c r="AS19" s="16" t="n">
+        <v>4400</v>
+      </c>
+      <c r="AT19" s="16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AU19" s="16" t="n">
+        <v>43</v>
+      </c>
+      <c r="AV19" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AL19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="16" t="n">
-        <v>63</v>
-      </c>
-      <c r="AS19" s="16" t="n">
-        <v>536</v>
-      </c>
-      <c r="AT19" s="16" t="n">
-        <v>4400</v>
-      </c>
-      <c r="AU19" s="16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AV19" s="16" t="n">
-        <v>43</v>
-      </c>
       <c r="AW19" s="16" t="n">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="AX19" s="16" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="AY19" s="16" t="n">
-        <v>20</v>
+        <v>469</v>
       </c>
       <c r="AZ19" s="16" t="n">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="16" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="BB19" s="16" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,65 +4792,65 @@
       <c r="AH20" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI20" s="15" t="s">
-        <v>60</v>
+      <c r="AI20" s="15" t="n">
+        <v>3375</v>
       </c>
       <c r="AJ20" s="15" t="n">
-        <v>3375</v>
+        <v>15819</v>
       </c>
       <c r="AK20" s="15" t="n">
-        <v>15819</v>
+        <v>9435</v>
       </c>
       <c r="AL20" s="15" t="n">
-        <v>9435</v>
+        <v>15649</v>
       </c>
       <c r="AM20" s="15" t="n">
-        <v>15649</v>
+        <v>15900</v>
       </c>
       <c r="AN20" s="15" t="n">
-        <v>15900</v>
+        <v>17815</v>
       </c>
       <c r="AO20" s="15" t="n">
-        <v>17815</v>
+        <v>4080</v>
       </c>
       <c r="AP20" s="15" t="n">
-        <v>4080</v>
+        <v>5600</v>
       </c>
       <c r="AQ20" s="15" t="n">
-        <v>5600</v>
+        <v>7120</v>
       </c>
       <c r="AR20" s="15" t="n">
-        <v>7120</v>
+        <v>7180</v>
       </c>
       <c r="AS20" s="15" t="n">
-        <v>7180</v>
+        <v>11872</v>
       </c>
       <c r="AT20" s="15" t="n">
-        <v>11872</v>
+        <v>5025</v>
       </c>
       <c r="AU20" s="15" t="n">
-        <v>5025</v>
+        <v>12820</v>
       </c>
       <c r="AV20" s="15" t="n">
-        <v>12820</v>
+        <v>900</v>
       </c>
       <c r="AW20" s="15" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AX20" s="15" t="n">
-        <v>0</v>
+        <v>6979</v>
       </c>
       <c r="AY20" s="15" t="n">
-        <v>6979</v>
+        <v>5215</v>
       </c>
       <c r="AZ20" s="15" t="n">
-        <v>5215</v>
+        <v>5710</v>
       </c>
       <c r="BA20" s="15" t="n">
-        <v>5710</v>
+        <v>21546</v>
       </c>
       <c r="BB20" s="15" t="n">
-        <v>21546</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4951,8 +4951,8 @@
       <c r="AH21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AI21" s="16" t="s">
-        <v>60</v>
+      <c r="AI21" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AJ21" s="16" t="n">
         <v>0</v>
@@ -4964,52 +4964,52 @@
         <v>0</v>
       </c>
       <c r="AM21" s="16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AN21" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="16" t="n">
         <v>7</v>
-      </c>
-      <c r="AO21" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5110,65 +5110,65 @@
       <c r="AH22" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI22" s="15" t="s">
-        <v>60</v>
+      <c r="AI22" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AJ22" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AK22" s="15" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AL22" s="15" t="n">
-        <v>99</v>
+        <v>3640</v>
       </c>
       <c r="AM22" s="15" t="n">
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="AN22" s="15" t="n">
-        <v>0</v>
+        <v>3714</v>
       </c>
       <c r="AO22" s="15" t="n">
-        <v>3714</v>
+        <v>1246</v>
       </c>
       <c r="AP22" s="15" t="n">
-        <v>1246</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AR22" s="15" t="n">
-        <v>0</v>
+        <v>5384</v>
       </c>
       <c r="AS22" s="15" t="n">
-        <v>5384</v>
+        <v>3793</v>
       </c>
       <c r="AT22" s="15" t="n">
-        <v>3793</v>
+        <v>57</v>
       </c>
       <c r="AU22" s="15" t="n">
         <v>57</v>
       </c>
       <c r="AV22" s="15" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AW22" s="15" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AX22" s="15" t="n">
-        <v>65</v>
+        <v>4615</v>
       </c>
       <c r="AY22" s="15" t="n">
-        <v>4615</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="15" t="n">
         <v>0</v>
       </c>
       <c r="BA22" s="15" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BB22" s="15" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5269,17 +5269,17 @@
       <c r="AH23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AI23" s="16" t="s">
-        <v>60</v>
+      <c r="AI23" s="16" t="n">
+        <v>2690</v>
       </c>
       <c r="AJ23" s="16" t="n">
-        <v>2690</v>
+        <v>525</v>
       </c>
       <c r="AK23" s="16" t="n">
-        <v>525</v>
+        <v>1650</v>
       </c>
       <c r="AL23" s="16" t="n">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="16" t="n">
         <v>0</v>
@@ -5288,46 +5288,46 @@
         <v>0</v>
       </c>
       <c r="AO23" s="16" t="n">
-        <v>0</v>
+        <v>1631</v>
       </c>
       <c r="AP23" s="16" t="n">
-        <v>1631</v>
+        <v>3193</v>
       </c>
       <c r="AQ23" s="16" t="n">
-        <v>3193</v>
+        <v>5180</v>
       </c>
       <c r="AR23" s="16" t="n">
-        <v>5180</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="16" t="n">
-        <v>0</v>
+        <v>1702</v>
       </c>
       <c r="AT23" s="16" t="n">
-        <v>1702</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="16" t="n">
-        <v>0</v>
+        <v>13528</v>
       </c>
       <c r="AV23" s="16" t="n">
-        <v>13528</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="16" t="n">
-        <v>0</v>
+        <v>1660</v>
       </c>
       <c r="AX23" s="16" t="n">
-        <v>1660</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AZ23" s="16" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="BA23" s="16" t="n">
-        <v>1600</v>
+        <v>958</v>
       </c>
       <c r="BB23" s="16" t="n">
-        <v>958</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5428,44 +5428,44 @@
       <c r="AH24" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI24" s="15" t="s">
-        <v>60</v>
+      <c r="AI24" s="15" t="n">
+        <v>888</v>
       </c>
       <c r="AJ24" s="15" t="n">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="15" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AL24" s="15" t="n">
-        <v>105</v>
+        <v>954</v>
       </c>
       <c r="AM24" s="15" t="n">
-        <v>954</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AO24" s="15" t="n">
-        <v>0</v>
+        <v>7314</v>
       </c>
       <c r="AP24" s="15" t="n">
-        <v>7314</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AR24" s="15" t="n">
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="AS24" s="15" t="n">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="15" t="n">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="AU24" s="15" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="15" t="n">
         <v>0</v>
@@ -5587,8 +5587,8 @@
       <c r="AH25" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AI25" s="16" t="s">
-        <v>60</v>
+      <c r="AI25" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AJ25" s="16" t="n">
         <v>0</v>
@@ -5600,10 +5600,10 @@
         <v>0</v>
       </c>
       <c r="AM25" s="16" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AN25" s="16" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="16" t="n">
         <v>0</v>
@@ -5755,11 +5755,11 @@
       <c r="AK26" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL26" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM26" s="15" t="n">
-        <v>0</v>
+      <c r="AL26" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AN26" s="15" t="s">
         <v>60</v>
@@ -5767,8 +5767,8 @@
       <c r="AO26" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AP26" s="15" t="s">
-        <v>60</v>
+      <c r="AP26" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AQ26" s="15" t="n">
         <v>0</v>
@@ -6075,8 +6075,8 @@
       <c r="T29" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U29" s="18" t="s">
-        <v>60</v>
+      <c r="U29" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V29" s="18" t="n">
         <v>0</v>
@@ -6185,154 +6185,154 @@
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20" t="n">
-        <v>33980</v>
+        <v>21244</v>
       </c>
       <c r="F30" s="20" t="n">
-        <v>21244</v>
+        <v>8441</v>
       </c>
       <c r="G30" s="20" t="n">
-        <v>8441</v>
+        <v>22657</v>
       </c>
       <c r="H30" s="20" t="n">
-        <v>22657</v>
+        <v>43005</v>
       </c>
       <c r="I30" s="20" t="n">
-        <v>43005</v>
+        <v>36423</v>
       </c>
       <c r="J30" s="20" t="n">
-        <v>36423</v>
+        <v>26737</v>
       </c>
       <c r="K30" s="20" t="n">
-        <v>26737</v>
+        <v>33462</v>
       </c>
       <c r="L30" s="20" t="n">
-        <v>33462</v>
+        <v>35169</v>
       </c>
       <c r="M30" s="20" t="n">
-        <v>35169</v>
+        <v>40614</v>
       </c>
       <c r="N30" s="20" t="n">
-        <v>40614</v>
+        <v>50655</v>
       </c>
       <c r="O30" s="20" t="n">
-        <v>50655</v>
+        <v>47471</v>
       </c>
       <c r="P30" s="20" t="n">
-        <v>47471</v>
+        <v>31123</v>
       </c>
       <c r="Q30" s="20" t="n">
-        <v>31123</v>
+        <v>177178</v>
       </c>
       <c r="R30" s="20" t="n">
-        <v>177178</v>
+        <v>47164</v>
       </c>
       <c r="S30" s="20" t="n">
-        <v>47164</v>
+        <v>29516</v>
       </c>
       <c r="T30" s="20" t="n">
-        <v>29516</v>
+        <v>53116</v>
       </c>
       <c r="U30" s="20" t="n">
-        <v>53116</v>
+        <v>33695</v>
       </c>
       <c r="V30" s="20" t="n">
-        <v>33695</v>
+        <v>32507</v>
       </c>
       <c r="W30" s="20" t="n">
-        <v>32507</v>
+        <v>38185</v>
       </c>
       <c r="X30" s="20" t="n">
-        <v>38185</v>
+        <v>46464</v>
       </c>
       <c r="Y30" s="20" t="n">
-        <v>46464</v>
+        <v>34659</v>
       </c>
       <c r="Z30" s="20" t="n">
-        <v>34659</v>
+        <v>36261</v>
       </c>
       <c r="AA30" s="20" t="n">
-        <v>36261</v>
+        <v>69630</v>
       </c>
       <c r="AB30" s="20" t="n">
-        <v>69630</v>
+        <v>39329</v>
       </c>
       <c r="AC30" s="20" t="n">
-        <v>39329</v>
+        <v>39825</v>
       </c>
       <c r="AD30" s="20" t="n">
-        <v>39825</v>
+        <v>47922</v>
       </c>
       <c r="AE30" s="20" t="n">
-        <v>47922</v>
+        <v>24382</v>
       </c>
       <c r="AF30" s="20" t="n">
-        <v>24382</v>
+        <v>26937</v>
       </c>
       <c r="AG30" s="20" t="n">
-        <v>26937</v>
+        <v>45906</v>
       </c>
       <c r="AH30" s="20" t="n">
-        <v>45906</v>
+        <v>49780</v>
       </c>
       <c r="AI30" s="20" t="n">
-        <v>49780</v>
+        <v>59519</v>
       </c>
       <c r="AJ30" s="20" t="n">
-        <v>59519</v>
+        <v>39714</v>
       </c>
       <c r="AK30" s="20" t="n">
-        <v>39714</v>
+        <v>53341</v>
       </c>
       <c r="AL30" s="20" t="n">
-        <v>53341</v>
+        <v>51012</v>
       </c>
       <c r="AM30" s="20" t="n">
-        <v>51012</v>
+        <v>52281</v>
       </c>
       <c r="AN30" s="20" t="n">
-        <v>52281</v>
+        <v>69014</v>
       </c>
       <c r="AO30" s="20" t="n">
-        <v>69014</v>
+        <v>45805</v>
       </c>
       <c r="AP30" s="20" t="n">
-        <v>45805</v>
+        <v>34120</v>
       </c>
       <c r="AQ30" s="20" t="n">
-        <v>34120</v>
+        <v>41973</v>
       </c>
       <c r="AR30" s="20" t="n">
-        <v>41973</v>
+        <v>60622</v>
       </c>
       <c r="AS30" s="20" t="n">
-        <v>60622</v>
+        <v>49483</v>
       </c>
       <c r="AT30" s="20" t="n">
-        <v>49483</v>
+        <v>37318</v>
       </c>
       <c r="AU30" s="20" t="n">
-        <v>37318</v>
+        <v>55449</v>
       </c>
       <c r="AV30" s="20" t="n">
-        <v>55449</v>
+        <v>37350</v>
       </c>
       <c r="AW30" s="20" t="n">
-        <v>37350</v>
+        <v>28053</v>
       </c>
       <c r="AX30" s="20" t="n">
-        <v>28053</v>
+        <v>55109</v>
       </c>
       <c r="AY30" s="20" t="n">
-        <v>55109</v>
+        <v>47482</v>
       </c>
       <c r="AZ30" s="20" t="n">
-        <v>47482</v>
+        <v>47413</v>
       </c>
       <c r="BA30" s="20" t="n">
-        <v>47413</v>
+        <v>100043</v>
       </c>
       <c r="BB30" s="20" t="n">
-        <v>100043</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6778,154 +6778,154 @@
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16" t="n">
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="F37" s="16" t="n">
-        <v>1014</v>
+        <v>0</v>
       </c>
       <c r="G37" s="16" t="n">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="H37" s="16" t="n">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="I37" s="16" t="n">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="J37" s="16" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="K37" s="16" t="n">
-        <v>0</v>
+        <v>3444</v>
       </c>
       <c r="L37" s="16" t="n">
-        <v>3444</v>
+        <v>0</v>
       </c>
       <c r="M37" s="16" t="n">
-        <v>0</v>
+        <v>5528</v>
       </c>
       <c r="N37" s="16" t="n">
-        <v>5528</v>
+        <v>9366</v>
       </c>
       <c r="O37" s="16" t="n">
-        <v>9366</v>
+        <v>809</v>
       </c>
       <c r="P37" s="16" t="n">
-        <v>809</v>
+        <v>1054</v>
       </c>
       <c r="Q37" s="16" t="n">
-        <v>1054</v>
+        <v>577</v>
       </c>
       <c r="R37" s="16" t="n">
-        <v>577</v>
+        <v>0</v>
       </c>
       <c r="S37" s="16" t="n">
-        <v>0</v>
+        <v>3449</v>
       </c>
       <c r="T37" s="16" t="n">
-        <v>3449</v>
+        <v>2507</v>
       </c>
       <c r="U37" s="16" t="n">
-        <v>2507</v>
+        <v>2584</v>
       </c>
       <c r="V37" s="16" t="n">
-        <v>2584</v>
+        <v>3806</v>
       </c>
       <c r="W37" s="16" t="n">
-        <v>3806</v>
+        <v>727</v>
       </c>
       <c r="X37" s="16" t="n">
-        <v>727</v>
+        <v>1158</v>
       </c>
       <c r="Y37" s="16" t="n">
-        <v>1158</v>
+        <v>2816</v>
       </c>
       <c r="Z37" s="16" t="n">
-        <v>2816</v>
+        <v>2064</v>
       </c>
       <c r="AA37" s="16" t="n">
-        <v>2064</v>
+        <v>2092</v>
       </c>
       <c r="AB37" s="16" t="n">
-        <v>2092</v>
+        <v>257</v>
       </c>
       <c r="AC37" s="16" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="16" t="n">
-        <v>0</v>
+        <v>5551</v>
       </c>
       <c r="AE37" s="16" t="n">
-        <v>5551</v>
+        <v>2635</v>
       </c>
       <c r="AF37" s="16" t="n">
-        <v>2635</v>
+        <v>768</v>
       </c>
       <c r="AG37" s="16" t="n">
-        <v>768</v>
+        <v>4470</v>
       </c>
       <c r="AH37" s="16" t="n">
-        <v>4470</v>
+        <v>5089</v>
       </c>
       <c r="AI37" s="16" t="n">
-        <v>5089</v>
+        <v>4799</v>
       </c>
       <c r="AJ37" s="16" t="n">
-        <v>4799</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="16" t="n">
-        <v>0</v>
+        <v>6839</v>
       </c>
       <c r="AL37" s="16" t="n">
-        <v>6839</v>
+        <v>5062</v>
       </c>
       <c r="AM37" s="16" t="n">
-        <v>5062</v>
+        <v>3054</v>
       </c>
       <c r="AN37" s="16" t="n">
-        <v>3054</v>
+        <v>2411</v>
       </c>
       <c r="AO37" s="16" t="n">
-        <v>2411</v>
+        <v>1152</v>
       </c>
       <c r="AP37" s="16" t="n">
-        <v>1152</v>
+        <v>4208</v>
       </c>
       <c r="AQ37" s="16" t="n">
-        <v>4208</v>
+        <v>5359</v>
       </c>
       <c r="AR37" s="16" t="n">
-        <v>5359</v>
+        <v>5105</v>
       </c>
       <c r="AS37" s="16" t="n">
-        <v>5105</v>
+        <v>5880</v>
       </c>
       <c r="AT37" s="16" t="n">
-        <v>5880</v>
+        <v>7615</v>
       </c>
       <c r="AU37" s="16" t="n">
-        <v>7615</v>
+        <v>5832</v>
       </c>
       <c r="AV37" s="16" t="n">
-        <v>5832</v>
+        <v>5416</v>
       </c>
       <c r="AW37" s="16" t="n">
-        <v>5416</v>
+        <v>5504</v>
       </c>
       <c r="AX37" s="16" t="n">
-        <v>5504</v>
+        <v>5706</v>
       </c>
       <c r="AY37" s="16" t="n">
-        <v>5706</v>
+        <v>368</v>
       </c>
       <c r="AZ37" s="16" t="n">
-        <v>368</v>
+        <v>12218</v>
       </c>
       <c r="BA37" s="16" t="n">
-        <v>12218</v>
+        <v>8640</v>
       </c>
       <c r="BB37" s="16" t="n">
-        <v>8640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6937,154 +6937,154 @@
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15" t="n">
-        <v>3170</v>
+        <v>3472</v>
       </c>
       <c r="F38" s="15" t="n">
-        <v>3472</v>
+        <v>2192</v>
       </c>
       <c r="G38" s="15" t="n">
-        <v>2192</v>
+        <v>1475</v>
       </c>
       <c r="H38" s="15" t="n">
-        <v>1475</v>
+        <v>3722</v>
       </c>
       <c r="I38" s="15" t="n">
-        <v>3722</v>
+        <v>0</v>
       </c>
       <c r="J38" s="15" t="n">
-        <v>0</v>
+        <v>5381</v>
       </c>
       <c r="K38" s="15" t="n">
-        <v>5381</v>
+        <v>4950</v>
       </c>
       <c r="L38" s="15" t="n">
-        <v>4950</v>
+        <v>9247</v>
       </c>
       <c r="M38" s="15" t="n">
-        <v>9247</v>
+        <v>7205</v>
       </c>
       <c r="N38" s="15" t="n">
-        <v>7205</v>
+        <v>1409</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>1409</v>
+        <v>7669</v>
       </c>
       <c r="P38" s="15" t="n">
-        <v>7669</v>
+        <v>9012</v>
       </c>
       <c r="Q38" s="15" t="n">
-        <v>9012</v>
+        <v>732</v>
       </c>
       <c r="R38" s="15" t="n">
-        <v>732</v>
+        <v>3347</v>
       </c>
       <c r="S38" s="15" t="n">
-        <v>3347</v>
+        <v>480</v>
       </c>
       <c r="T38" s="15" t="n">
-        <v>480</v>
+        <v>961</v>
       </c>
       <c r="U38" s="15" t="n">
-        <v>961</v>
+        <v>6905</v>
       </c>
       <c r="V38" s="15" t="n">
-        <v>6905</v>
+        <v>4090</v>
       </c>
       <c r="W38" s="15" t="n">
-        <v>4090</v>
+        <v>4184</v>
       </c>
       <c r="X38" s="15" t="n">
-        <v>4184</v>
+        <v>9692</v>
       </c>
       <c r="Y38" s="15" t="n">
-        <v>9692</v>
+        <v>4175</v>
       </c>
       <c r="Z38" s="15" t="n">
-        <v>4175</v>
+        <v>9050</v>
       </c>
       <c r="AA38" s="15" t="n">
-        <v>9050</v>
+        <v>4712</v>
       </c>
       <c r="AB38" s="15" t="n">
-        <v>4712</v>
+        <v>3825</v>
       </c>
       <c r="AC38" s="15" t="n">
-        <v>3825</v>
+        <v>966</v>
       </c>
       <c r="AD38" s="15" t="n">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="15" t="n">
-        <v>0</v>
+        <v>2557</v>
       </c>
       <c r="AF38" s="15" t="n">
-        <v>2557</v>
+        <v>1534</v>
       </c>
       <c r="AG38" s="15" t="n">
-        <v>1534</v>
+        <v>3258</v>
       </c>
       <c r="AH38" s="15" t="n">
-        <v>3258</v>
+        <v>9019</v>
       </c>
       <c r="AI38" s="15" t="n">
-        <v>9019</v>
+        <v>10163</v>
       </c>
       <c r="AJ38" s="15" t="n">
-        <v>10163</v>
+        <v>7728</v>
       </c>
       <c r="AK38" s="15" t="n">
-        <v>7728</v>
+        <v>5328</v>
       </c>
       <c r="AL38" s="15" t="n">
-        <v>5328</v>
+        <v>21140</v>
       </c>
       <c r="AM38" s="15" t="n">
-        <v>21140</v>
+        <v>7902</v>
       </c>
       <c r="AN38" s="15" t="n">
-        <v>7902</v>
+        <v>10733</v>
       </c>
       <c r="AO38" s="15" t="n">
-        <v>10733</v>
+        <v>1699</v>
       </c>
       <c r="AP38" s="15" t="n">
-        <v>1699</v>
+        <v>8918</v>
       </c>
       <c r="AQ38" s="15" t="n">
-        <v>8918</v>
+        <v>14776</v>
       </c>
       <c r="AR38" s="15" t="n">
-        <v>14776</v>
+        <v>10415</v>
       </c>
       <c r="AS38" s="15" t="n">
-        <v>10415</v>
+        <v>8360</v>
       </c>
       <c r="AT38" s="15" t="n">
-        <v>8360</v>
+        <v>12128</v>
       </c>
       <c r="AU38" s="15" t="n">
-        <v>12128</v>
+        <v>1206</v>
       </c>
       <c r="AV38" s="15" t="n">
-        <v>1206</v>
+        <v>3362</v>
       </c>
       <c r="AW38" s="15" t="n">
-        <v>3362</v>
+        <v>5528</v>
       </c>
       <c r="AX38" s="15" t="n">
-        <v>5528</v>
+        <v>11199</v>
       </c>
       <c r="AY38" s="15" t="n">
-        <v>11199</v>
+        <v>9447</v>
       </c>
       <c r="AZ38" s="15" t="n">
-        <v>9447</v>
+        <v>7940</v>
       </c>
       <c r="BA38" s="15" t="n">
-        <v>7940</v>
+        <v>4508</v>
       </c>
       <c r="BB38" s="15" t="n">
-        <v>4508</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7096,154 +7096,154 @@
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16" t="n">
-        <v>3058</v>
+        <v>1234</v>
       </c>
       <c r="F39" s="16" t="n">
-        <v>1234</v>
+        <v>5248</v>
       </c>
       <c r="G39" s="16" t="n">
-        <v>5248</v>
+        <v>9473</v>
       </c>
       <c r="H39" s="16" t="n">
-        <v>9473</v>
+        <v>3674</v>
       </c>
       <c r="I39" s="16" t="n">
-        <v>3674</v>
+        <v>3282</v>
       </c>
       <c r="J39" s="16" t="n">
-        <v>3282</v>
+        <v>4955</v>
       </c>
       <c r="K39" s="16" t="n">
-        <v>4955</v>
+        <v>4626</v>
       </c>
       <c r="L39" s="16" t="n">
-        <v>4626</v>
+        <v>400</v>
       </c>
       <c r="M39" s="16" t="n">
-        <v>400</v>
+        <v>11722</v>
       </c>
       <c r="N39" s="16" t="n">
-        <v>11722</v>
+        <v>14654</v>
       </c>
       <c r="O39" s="16" t="n">
-        <v>14654</v>
+        <v>8916</v>
       </c>
       <c r="P39" s="16" t="n">
-        <v>8916</v>
+        <v>6179</v>
       </c>
       <c r="Q39" s="16" t="n">
-        <v>6179</v>
+        <v>391</v>
       </c>
       <c r="R39" s="16" t="n">
-        <v>391</v>
+        <v>2085</v>
       </c>
       <c r="S39" s="16" t="n">
-        <v>2085</v>
+        <v>3013</v>
       </c>
       <c r="T39" s="16" t="n">
-        <v>3013</v>
+        <v>5123</v>
       </c>
       <c r="U39" s="16" t="n">
-        <v>5123</v>
+        <v>3604</v>
       </c>
       <c r="V39" s="16" t="n">
-        <v>3604</v>
+        <v>1990</v>
       </c>
       <c r="W39" s="16" t="n">
-        <v>1990</v>
+        <v>7713</v>
       </c>
       <c r="X39" s="16" t="n">
-        <v>7713</v>
+        <v>5768</v>
       </c>
       <c r="Y39" s="16" t="n">
-        <v>5768</v>
+        <v>3071</v>
       </c>
       <c r="Z39" s="16" t="n">
-        <v>3071</v>
+        <v>6235</v>
       </c>
       <c r="AA39" s="16" t="n">
-        <v>6235</v>
+        <v>1351</v>
       </c>
       <c r="AB39" s="16" t="n">
-        <v>1351</v>
+        <v>620</v>
       </c>
       <c r="AC39" s="16" t="n">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="16" t="n">
-        <v>0</v>
+        <v>7620</v>
       </c>
       <c r="AE39" s="16" t="n">
-        <v>7620</v>
+        <v>3730</v>
       </c>
       <c r="AF39" s="16" t="n">
-        <v>3730</v>
+        <v>6071</v>
       </c>
       <c r="AG39" s="16" t="n">
-        <v>6071</v>
+        <v>7434</v>
       </c>
       <c r="AH39" s="16" t="n">
-        <v>7434</v>
+        <v>1614</v>
       </c>
       <c r="AI39" s="16" t="n">
-        <v>1614</v>
+        <v>13301</v>
       </c>
       <c r="AJ39" s="16" t="n">
-        <v>13301</v>
+        <v>5798</v>
       </c>
       <c r="AK39" s="16" t="n">
-        <v>5798</v>
+        <v>1400</v>
       </c>
       <c r="AL39" s="16" t="n">
-        <v>1400</v>
+        <v>11253</v>
       </c>
       <c r="AM39" s="16" t="n">
-        <v>11253</v>
+        <v>2834</v>
       </c>
       <c r="AN39" s="16" t="n">
-        <v>2834</v>
+        <v>3031</v>
       </c>
       <c r="AO39" s="16" t="n">
-        <v>3031</v>
+        <v>3276</v>
       </c>
       <c r="AP39" s="16" t="n">
-        <v>3276</v>
+        <v>5100</v>
       </c>
       <c r="AQ39" s="16" t="n">
-        <v>5100</v>
+        <v>4076</v>
       </c>
       <c r="AR39" s="16" t="n">
-        <v>4076</v>
+        <v>4630</v>
       </c>
       <c r="AS39" s="16" t="n">
-        <v>4630</v>
+        <v>4820</v>
       </c>
       <c r="AT39" s="16" t="n">
-        <v>4820</v>
+        <v>5114</v>
       </c>
       <c r="AU39" s="16" t="n">
-        <v>5114</v>
+        <v>3710</v>
       </c>
       <c r="AV39" s="16" t="n">
-        <v>3710</v>
+        <v>6849</v>
       </c>
       <c r="AW39" s="16" t="n">
-        <v>6849</v>
+        <v>4461</v>
       </c>
       <c r="AX39" s="16" t="n">
-        <v>4461</v>
+        <v>3480</v>
       </c>
       <c r="AY39" s="16" t="n">
-        <v>3480</v>
+        <v>3158</v>
       </c>
       <c r="AZ39" s="16" t="n">
-        <v>3158</v>
+        <v>300</v>
       </c>
       <c r="BA39" s="16" t="n">
-        <v>300</v>
+        <v>3398</v>
       </c>
       <c r="BB39" s="16" t="n">
-        <v>3398</v>
+        <v>14552</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7257,8 +7257,8 @@
       <c r="E40" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F40" s="15" t="n">
-        <v>0</v>
+      <c r="F40" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>60</v>
@@ -7353,11 +7353,11 @@
       <c r="AK40" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL40" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM40" s="15" t="n">
-        <v>0</v>
+      <c r="AL40" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AN40" s="15" t="s">
         <v>60</v>
@@ -7365,8 +7365,8 @@
       <c r="AO40" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AP40" s="15" t="s">
-        <v>60</v>
+      <c r="AP40" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AQ40" s="15" t="n">
         <v>0</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="15" t="n">
-        <v>0</v>
+        <v>1381</v>
       </c>
       <c r="BA40" s="15" t="n">
-        <v>1381</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="15" t="n">
         <v>0</v>
@@ -7414,154 +7414,154 @@
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16" t="n">
-        <v>2223</v>
+        <v>1440</v>
       </c>
       <c r="F41" s="16" t="n">
-        <v>1440</v>
+        <v>1413</v>
       </c>
       <c r="G41" s="16" t="n">
-        <v>1413</v>
+        <v>0</v>
       </c>
       <c r="H41" s="16" t="n">
-        <v>0</v>
+        <v>7385</v>
       </c>
       <c r="I41" s="16" t="n">
-        <v>7385</v>
+        <v>13689</v>
       </c>
       <c r="J41" s="16" t="n">
-        <v>13689</v>
+        <v>6245</v>
       </c>
       <c r="K41" s="16" t="n">
-        <v>6245</v>
+        <v>5628</v>
       </c>
       <c r="L41" s="16" t="n">
-        <v>5628</v>
+        <v>11849</v>
       </c>
       <c r="M41" s="16" t="n">
-        <v>11849</v>
+        <v>1960</v>
       </c>
       <c r="N41" s="16" t="n">
-        <v>1960</v>
+        <v>7803</v>
       </c>
       <c r="O41" s="16" t="n">
-        <v>7803</v>
+        <v>13523</v>
       </c>
       <c r="P41" s="16" t="n">
-        <v>13523</v>
+        <v>10814</v>
       </c>
       <c r="Q41" s="16" t="n">
-        <v>10814</v>
+        <v>1569</v>
       </c>
       <c r="R41" s="16" t="n">
-        <v>1569</v>
+        <v>2992</v>
       </c>
       <c r="S41" s="16" t="n">
-        <v>2992</v>
+        <v>14099</v>
       </c>
       <c r="T41" s="16" t="n">
-        <v>14099</v>
+        <v>9782</v>
       </c>
       <c r="U41" s="16" t="n">
-        <v>9782</v>
+        <v>11043</v>
       </c>
       <c r="V41" s="16" t="n">
-        <v>11043</v>
+        <v>12023</v>
       </c>
       <c r="W41" s="16" t="n">
-        <v>12023</v>
+        <v>7519</v>
       </c>
       <c r="X41" s="16" t="n">
-        <v>7519</v>
+        <v>2405</v>
       </c>
       <c r="Y41" s="16" t="n">
-        <v>2405</v>
+        <v>4339</v>
       </c>
       <c r="Z41" s="16" t="n">
-        <v>4339</v>
+        <v>2059</v>
       </c>
       <c r="AA41" s="16" t="n">
-        <v>2059</v>
+        <v>4304</v>
       </c>
       <c r="AB41" s="16" t="n">
-        <v>4304</v>
+        <v>8042</v>
       </c>
       <c r="AC41" s="16" t="n">
-        <v>8042</v>
+        <v>7586</v>
       </c>
       <c r="AD41" s="16" t="n">
-        <v>7586</v>
+        <v>7799</v>
       </c>
       <c r="AE41" s="16" t="n">
-        <v>7799</v>
+        <v>13137</v>
       </c>
       <c r="AF41" s="16" t="n">
-        <v>13137</v>
+        <v>11907</v>
       </c>
       <c r="AG41" s="16" t="n">
-        <v>11907</v>
+        <v>9032</v>
       </c>
       <c r="AH41" s="16" t="n">
-        <v>9032</v>
+        <v>7254</v>
       </c>
       <c r="AI41" s="16" t="n">
-        <v>7254</v>
+        <v>1465</v>
       </c>
       <c r="AJ41" s="16" t="n">
-        <v>1465</v>
+        <v>7809</v>
       </c>
       <c r="AK41" s="16" t="n">
-        <v>7809</v>
+        <v>8396</v>
       </c>
       <c r="AL41" s="16" t="n">
-        <v>8396</v>
+        <v>719</v>
       </c>
       <c r="AM41" s="16" t="n">
-        <v>719</v>
+        <v>10040</v>
       </c>
       <c r="AN41" s="16" t="n">
-        <v>10040</v>
+        <v>5225</v>
       </c>
       <c r="AO41" s="16" t="n">
-        <v>5225</v>
+        <v>3008</v>
       </c>
       <c r="AP41" s="16" t="n">
-        <v>3008</v>
+        <v>7207</v>
       </c>
       <c r="AQ41" s="16" t="n">
-        <v>7207</v>
+        <v>4803</v>
       </c>
       <c r="AR41" s="16" t="n">
-        <v>4803</v>
+        <v>3900</v>
       </c>
       <c r="AS41" s="16" t="n">
-        <v>3900</v>
+        <v>6406</v>
       </c>
       <c r="AT41" s="16" t="n">
-        <v>6406</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="16" t="n">
-        <v>0</v>
+        <v>6114</v>
       </c>
       <c r="AV41" s="16" t="n">
-        <v>6114</v>
+        <v>3813</v>
       </c>
       <c r="AW41" s="16" t="n">
-        <v>3813</v>
+        <v>30790</v>
       </c>
       <c r="AX41" s="16" t="n">
-        <v>30790</v>
+        <v>20120</v>
       </c>
       <c r="AY41" s="16" t="n">
-        <v>20120</v>
+        <v>19556</v>
       </c>
       <c r="AZ41" s="16" t="n">
-        <v>19556</v>
+        <v>21089</v>
       </c>
       <c r="BA41" s="16" t="n">
-        <v>21089</v>
+        <v>12423</v>
       </c>
       <c r="BB41" s="16" t="n">
-        <v>12423</v>
+        <v>7792</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7573,100 +7573,100 @@
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15" t="n">
-        <v>21553</v>
+        <v>8714</v>
       </c>
       <c r="F42" s="15" t="n">
-        <v>8714</v>
+        <v>1393</v>
       </c>
       <c r="G42" s="15" t="n">
-        <v>1393</v>
+        <v>10819</v>
       </c>
       <c r="H42" s="15" t="n">
-        <v>10819</v>
+        <v>14883</v>
       </c>
       <c r="I42" s="15" t="n">
-        <v>14883</v>
+        <v>11157</v>
       </c>
       <c r="J42" s="15" t="n">
-        <v>11157</v>
+        <v>13075</v>
       </c>
       <c r="K42" s="15" t="n">
-        <v>13075</v>
+        <v>9241</v>
       </c>
       <c r="L42" s="15" t="n">
-        <v>9241</v>
+        <v>15188</v>
       </c>
       <c r="M42" s="15" t="n">
-        <v>15188</v>
+        <v>20558</v>
       </c>
       <c r="N42" s="15" t="n">
-        <v>20558</v>
+        <v>16965</v>
       </c>
       <c r="O42" s="15" t="n">
-        <v>16965</v>
+        <v>13426</v>
       </c>
       <c r="P42" s="15" t="n">
-        <v>13426</v>
+        <v>8666</v>
       </c>
       <c r="Q42" s="15" t="n">
-        <v>8666</v>
+        <v>152446</v>
       </c>
       <c r="R42" s="15" t="n">
-        <v>152446</v>
+        <v>46188</v>
       </c>
       <c r="S42" s="15" t="n">
-        <v>46188</v>
+        <v>14057</v>
       </c>
       <c r="T42" s="15" t="n">
-        <v>14057</v>
+        <v>22681</v>
       </c>
       <c r="U42" s="15" t="n">
-        <v>22681</v>
+        <v>14890</v>
       </c>
       <c r="V42" s="15" t="n">
-        <v>14890</v>
+        <v>13568</v>
       </c>
       <c r="W42" s="15" t="n">
-        <v>13568</v>
+        <v>15641</v>
       </c>
       <c r="X42" s="15" t="n">
-        <v>15641</v>
+        <v>25479</v>
       </c>
       <c r="Y42" s="15" t="n">
-        <v>25479</v>
+        <v>17013</v>
       </c>
       <c r="Z42" s="15" t="n">
-        <v>17013</v>
+        <v>25571</v>
       </c>
       <c r="AA42" s="15" t="n">
-        <v>25571</v>
+        <v>41191</v>
       </c>
       <c r="AB42" s="15" t="n">
-        <v>41191</v>
+        <v>11889</v>
       </c>
       <c r="AC42" s="15" t="n">
-        <v>11889</v>
+        <v>1500</v>
       </c>
       <c r="AD42" s="15" t="n">
-        <v>1500</v>
+        <v>14205</v>
       </c>
       <c r="AE42" s="15" t="n">
-        <v>14205</v>
+        <v>22150</v>
       </c>
       <c r="AF42" s="15" t="n">
-        <v>22150</v>
+        <v>13826</v>
       </c>
       <c r="AG42" s="15" t="n">
-        <v>13826</v>
+        <v>13249</v>
       </c>
       <c r="AH42" s="15" t="n">
-        <v>13249</v>
+        <v>16490</v>
       </c>
       <c r="AI42" s="15" t="n">
-        <v>16490</v>
-      </c>
-      <c r="AJ42" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AK42" s="15" t="s">
         <v>60</v>
@@ -7797,89 +7797,89 @@
       <c r="Z43" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AA43" s="16" t="s">
-        <v>60</v>
+      <c r="AA43" s="16" t="n">
+        <v>39</v>
       </c>
       <c r="AB43" s="16" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AC43" s="16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AD43" s="16" t="n">
         <v>10</v>
       </c>
       <c r="AE43" s="16" t="n">
-        <v>10</v>
+        <v>678</v>
       </c>
       <c r="AF43" s="16" t="n">
-        <v>678</v>
+        <v>1581</v>
       </c>
       <c r="AG43" s="16" t="n">
-        <v>1581</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="16" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="AI43" s="16" t="n">
-        <v>134</v>
+        <v>1912</v>
       </c>
       <c r="AJ43" s="16" t="n">
-        <v>1912</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AL43" s="16" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AM43" s="16" t="n">
-        <v>31</v>
+        <v>3815</v>
       </c>
       <c r="AN43" s="16" t="n">
-        <v>3815</v>
+        <v>1526</v>
       </c>
       <c r="AO43" s="16" t="n">
-        <v>1526</v>
+        <v>795</v>
       </c>
       <c r="AP43" s="16" t="n">
-        <v>795</v>
+        <v>4545</v>
       </c>
       <c r="AQ43" s="16" t="n">
-        <v>4545</v>
+        <v>2187</v>
       </c>
       <c r="AR43" s="16" t="n">
-        <v>2187</v>
+        <v>7654</v>
       </c>
       <c r="AS43" s="16" t="n">
-        <v>7654</v>
+        <v>4516</v>
       </c>
       <c r="AT43" s="16" t="n">
-        <v>4516</v>
+        <v>26</v>
       </c>
       <c r="AU43" s="16" t="n">
-        <v>26</v>
+        <v>654</v>
       </c>
       <c r="AV43" s="16" t="n">
-        <v>654</v>
+        <v>10396</v>
       </c>
       <c r="AW43" s="16" t="n">
-        <v>10396</v>
+        <v>2381</v>
       </c>
       <c r="AX43" s="16" t="n">
-        <v>2381</v>
+        <v>2393</v>
       </c>
       <c r="AY43" s="16" t="n">
-        <v>2393</v>
+        <v>2552</v>
       </c>
       <c r="AZ43" s="16" t="n">
-        <v>2552</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="16" t="n">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="BB43" s="16" t="n">
-        <v>863</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7956,14 +7956,14 @@
       <c r="Z44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA44" s="15" t="s">
-        <v>60</v>
+      <c r="AA44" s="15" t="n">
+        <v>147</v>
       </c>
       <c r="AB44" s="15" t="n">
-        <v>147</v>
+        <v>360</v>
       </c>
       <c r="AC44" s="15" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="15" t="n">
         <v>0</v>
@@ -7984,61 +7984,61 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="15" t="n">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="AK44" s="15" t="n">
-        <v>381</v>
+        <v>1006</v>
       </c>
       <c r="AL44" s="15" t="n">
-        <v>1006</v>
+        <v>1076</v>
       </c>
       <c r="AM44" s="15" t="n">
-        <v>1076</v>
+        <v>365</v>
       </c>
       <c r="AN44" s="15" t="n">
-        <v>365</v>
+        <v>448</v>
       </c>
       <c r="AO44" s="15" t="n">
-        <v>448</v>
+        <v>134</v>
       </c>
       <c r="AP44" s="15" t="n">
-        <v>134</v>
+        <v>810</v>
       </c>
       <c r="AQ44" s="15" t="n">
-        <v>810</v>
+        <v>634</v>
       </c>
       <c r="AR44" s="15" t="n">
-        <v>634</v>
+        <v>130</v>
       </c>
       <c r="AS44" s="15" t="n">
-        <v>130</v>
+        <v>371</v>
       </c>
       <c r="AT44" s="15" t="n">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="AU44" s="15" t="n">
-        <v>406</v>
+        <v>146</v>
       </c>
       <c r="AV44" s="15" t="n">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="AW44" s="15" t="n">
-        <v>50</v>
+        <v>930</v>
       </c>
       <c r="AX44" s="15" t="n">
-        <v>930</v>
+        <v>714</v>
       </c>
       <c r="AY44" s="15" t="n">
-        <v>714</v>
+        <v>1131</v>
       </c>
       <c r="AZ44" s="15" t="n">
-        <v>1131</v>
+        <v>25</v>
       </c>
       <c r="BA44" s="15" t="n">
-        <v>25</v>
+        <v>757</v>
       </c>
       <c r="BB44" s="15" t="n">
-        <v>757</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8115,89 +8115,89 @@
       <c r="Z45" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AA45" s="16" t="s">
-        <v>60</v>
+      <c r="AA45" s="16" t="n">
+        <v>5</v>
       </c>
       <c r="AB45" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF45" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AC45" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD45" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="16" t="n">
-        <v>20</v>
-      </c>
       <c r="AG45" s="16" t="n">
-        <v>5</v>
+        <v>1300</v>
       </c>
       <c r="AH45" s="16" t="n">
-        <v>1300</v>
+        <v>2513</v>
       </c>
       <c r="AI45" s="16" t="n">
-        <v>2513</v>
+        <v>1726</v>
       </c>
       <c r="AJ45" s="16" t="n">
-        <v>1726</v>
+        <v>2053</v>
       </c>
       <c r="AK45" s="16" t="n">
-        <v>2053</v>
+        <v>1641</v>
       </c>
       <c r="AL45" s="16" t="n">
-        <v>1641</v>
+        <v>311</v>
       </c>
       <c r="AM45" s="16" t="n">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="AN45" s="16" t="n">
         <v>1</v>
       </c>
       <c r="AO45" s="16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP45" s="16" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AQ45" s="16" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="AR45" s="16" t="n">
-        <v>54</v>
+        <v>654</v>
       </c>
       <c r="AS45" s="16" t="n">
-        <v>654</v>
+        <v>6</v>
       </c>
       <c r="AT45" s="16" t="n">
-        <v>6</v>
+        <v>1265</v>
       </c>
       <c r="AU45" s="16" t="n">
-        <v>1265</v>
+        <v>37</v>
       </c>
       <c r="AV45" s="16" t="n">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="AW45" s="16" t="n">
-        <v>260</v>
+        <v>105</v>
       </c>
       <c r="AX45" s="16" t="n">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="AY45" s="16" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AZ45" s="16" t="n">
-        <v>40</v>
+        <v>733</v>
       </c>
       <c r="BA45" s="16" t="n">
-        <v>733</v>
+        <v>43</v>
       </c>
       <c r="BB45" s="16" t="n">
-        <v>43</v>
+        <v>598</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8298,65 +8298,65 @@
       <c r="AH46" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI46" s="15" t="s">
-        <v>60</v>
+      <c r="AI46" s="15" t="n">
+        <v>11325</v>
       </c>
       <c r="AJ46" s="15" t="n">
-        <v>11325</v>
+        <v>7153</v>
       </c>
       <c r="AK46" s="15" t="n">
-        <v>7153</v>
+        <v>8165</v>
       </c>
       <c r="AL46" s="15" t="n">
-        <v>8165</v>
+        <v>4875</v>
       </c>
       <c r="AM46" s="15" t="n">
-        <v>4875</v>
+        <v>6469</v>
       </c>
       <c r="AN46" s="15" t="n">
-        <v>6469</v>
+        <v>4095</v>
       </c>
       <c r="AO46" s="15" t="n">
-        <v>4095</v>
+        <v>3240</v>
       </c>
       <c r="AP46" s="15" t="n">
-        <v>3240</v>
+        <v>3680</v>
       </c>
       <c r="AQ46" s="15" t="n">
-        <v>3680</v>
+        <v>5110</v>
       </c>
       <c r="AR46" s="15" t="n">
-        <v>5110</v>
+        <v>10380</v>
       </c>
       <c r="AS46" s="15" t="n">
-        <v>10380</v>
+        <v>8753</v>
       </c>
       <c r="AT46" s="15" t="n">
-        <v>8753</v>
+        <v>4425</v>
       </c>
       <c r="AU46" s="15" t="n">
-        <v>4425</v>
+        <v>14110</v>
       </c>
       <c r="AV46" s="15" t="n">
-        <v>14110</v>
+        <v>6525</v>
       </c>
       <c r="AW46" s="15" t="n">
-        <v>6525</v>
+        <v>7114</v>
       </c>
       <c r="AX46" s="15" t="n">
-        <v>7114</v>
+        <v>5572</v>
       </c>
       <c r="AY46" s="15" t="n">
-        <v>5572</v>
+        <v>6011</v>
       </c>
       <c r="AZ46" s="15" t="n">
-        <v>6011</v>
+        <v>9708</v>
       </c>
       <c r="BA46" s="15" t="n">
-        <v>9708</v>
+        <v>6650</v>
       </c>
       <c r="BB46" s="15" t="n">
-        <v>6650</v>
+        <v>13595</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8457,8 +8457,8 @@
       <c r="AH47" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AI47" s="16" t="s">
-        <v>60</v>
+      <c r="AI47" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AJ47" s="16" t="n">
         <v>0</v>
@@ -8473,37 +8473,37 @@
         <v>0</v>
       </c>
       <c r="AN47" s="16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO47" s="16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AP47" s="16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ47" s="16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AS47" s="16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT47" s="16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU47" s="16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV47" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AW47" s="16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX47" s="16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY47" s="16" t="n">
         <v>0</v>
@@ -8616,8 +8616,8 @@
       <c r="AH48" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI48" s="15" t="s">
-        <v>60</v>
+      <c r="AI48" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AJ48" s="15" t="n">
         <v>0</v>
@@ -8626,55 +8626,55 @@
         <v>0</v>
       </c>
       <c r="AL48" s="15" t="n">
-        <v>0</v>
+        <v>3640</v>
       </c>
       <c r="AM48" s="15" t="n">
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="AN48" s="15" t="n">
-        <v>0</v>
+        <v>3676</v>
       </c>
       <c r="AO48" s="15" t="n">
-        <v>3676</v>
+        <v>1257</v>
       </c>
       <c r="AP48" s="15" t="n">
-        <v>1257</v>
+        <v>0</v>
       </c>
       <c r="AQ48" s="15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AR48" s="15" t="n">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="AS48" s="15" t="n">
-        <v>99</v>
+        <v>5373</v>
       </c>
       <c r="AT48" s="15" t="n">
-        <v>5373</v>
+        <v>3793</v>
       </c>
       <c r="AU48" s="15" t="n">
-        <v>3793</v>
+        <v>58</v>
       </c>
       <c r="AV48" s="15" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AW48" s="15" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AX48" s="15" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="15" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AZ48" s="15" t="n">
-        <v>39</v>
+        <v>4616</v>
       </c>
       <c r="BA48" s="15" t="n">
-        <v>4616</v>
+        <v>36</v>
       </c>
       <c r="BB48" s="15" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8775,26 +8775,26 @@
       <c r="AH49" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AI49" s="16" t="s">
-        <v>60</v>
+      <c r="AI49" s="16" t="n">
+        <v>1634</v>
       </c>
       <c r="AJ49" s="16" t="n">
-        <v>1634</v>
+        <v>2365</v>
       </c>
       <c r="AK49" s="16" t="n">
-        <v>2365</v>
+        <v>4724</v>
       </c>
       <c r="AL49" s="16" t="n">
-        <v>4724</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AN49" s="16" t="n">
-        <v>0</v>
+        <v>3765</v>
       </c>
       <c r="AO49" s="16" t="n">
-        <v>3765</v>
+        <v>0</v>
       </c>
       <c r="AP49" s="16" t="n">
         <v>0</v>
@@ -8803,37 +8803,37 @@
         <v>0</v>
       </c>
       <c r="AR49" s="16" t="n">
-        <v>0</v>
+        <v>4371</v>
       </c>
       <c r="AS49" s="16" t="n">
-        <v>4371</v>
+        <v>601</v>
       </c>
       <c r="AT49" s="16" t="n">
-        <v>601</v>
+        <v>3149</v>
       </c>
       <c r="AU49" s="16" t="n">
-        <v>3149</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="16" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="AW49" s="16" t="n">
-        <v>1050</v>
+        <v>1</v>
       </c>
       <c r="AX49" s="16" t="n">
-        <v>1</v>
+        <v>4825</v>
       </c>
       <c r="AY49" s="16" t="n">
-        <v>4825</v>
+        <v>2530</v>
       </c>
       <c r="AZ49" s="16" t="n">
-        <v>2530</v>
+        <v>3618</v>
       </c>
       <c r="BA49" s="16" t="n">
-        <v>3618</v>
+        <v>50</v>
       </c>
       <c r="BB49" s="16" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8934,8 +8934,8 @@
       <c r="AH50" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI50" s="15" t="s">
-        <v>60</v>
+      <c r="AI50" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AJ50" s="15" t="n">
         <v>0</v>
@@ -8944,34 +8944,34 @@
         <v>0</v>
       </c>
       <c r="AL50" s="15" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AM50" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="15" t="n">
+        <v>6080</v>
+      </c>
+      <c r="AP50" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="15" t="n">
         <v>960</v>
       </c>
-      <c r="AN50" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO50" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP50" s="15" t="n">
-        <v>6080</v>
-      </c>
-      <c r="AQ50" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR50" s="15" t="n">
-        <v>0</v>
-      </c>
       <c r="AS50" s="15" t="n">
-        <v>960</v>
+        <v>3200</v>
       </c>
       <c r="AT50" s="15" t="n">
         <v>3200</v>
       </c>
       <c r="AU50" s="15" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="AV50" s="15" t="n">
         <v>0</v>
@@ -8989,10 +8989,10 @@
         <v>0</v>
       </c>
       <c r="BA50" s="15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB50" s="15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9093,8 +9093,8 @@
       <c r="AH51" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AI51" s="16" t="s">
-        <v>60</v>
+      <c r="AI51" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AJ51" s="16" t="n">
         <v>0</v>
@@ -9136,10 +9136,10 @@
         <v>0</v>
       </c>
       <c r="AW51" s="16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX51" s="16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="16" t="n">
         <v>0</v>
@@ -9261,11 +9261,11 @@
       <c r="AK52" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL52" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM52" s="15" t="n">
-        <v>0</v>
+      <c r="AL52" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AN52" s="15" t="s">
         <v>60</v>
@@ -9273,8 +9273,8 @@
       <c r="AO52" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AP52" s="15" t="s">
-        <v>60</v>
+      <c r="AP52" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AQ52" s="15" t="n">
         <v>0</v>
@@ -9581,8 +9581,8 @@
       <c r="T55" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U55" s="18" t="s">
-        <v>60</v>
+      <c r="U55" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V55" s="18" t="n">
         <v>0</v>
@@ -9797,8 +9797,8 @@
       <c r="T57" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="U57" s="16" t="s">
-        <v>60</v>
+      <c r="U57" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V57" s="16" t="n">
         <v>0</v>
@@ -9824,8 +9824,8 @@
       <c r="AC57" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD57" s="16" t="n">
-        <v>0</v>
+      <c r="AD57" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AE57" s="16" t="s">
         <v>60</v>
@@ -9833,11 +9833,11 @@
       <c r="AF57" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AG57" s="16" t="s">
-        <v>60</v>
+      <c r="AG57" s="16" t="n">
+        <v>-576</v>
       </c>
       <c r="AH57" s="16" t="n">
-        <v>-576</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="16" t="n">
         <v>0</v>
@@ -9845,17 +9845,17 @@
       <c r="AJ57" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AK57" s="16" t="n">
-        <v>0</v>
+      <c r="AK57" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AL57" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AM57" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN57" s="16" t="n">
-        <v>0</v>
+      <c r="AM57" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AO57" s="16" t="s">
         <v>60</v>
@@ -10022,21 +10022,21 @@
       <c r="AP58" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AQ58" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR58" s="15" t="n">
+      <c r="AQ58" s="15" t="n">
         <v>-599</v>
       </c>
+      <c r="AR58" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="AS58" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AT58" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU58" s="15" t="n">
+      <c r="AT58" s="15" t="n">
         <v>-483</v>
       </c>
+      <c r="AU58" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="AV58" s="15" t="s">
         <v>60</v>
       </c>
@@ -10046,11 +10046,11 @@
       <c r="AX58" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AY58" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ58" s="15" t="n">
+      <c r="AY58" s="15" t="n">
         <v>-59</v>
+      </c>
+      <c r="AZ58" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="BA58" s="15" t="s">
         <v>60</v>
@@ -10127,23 +10127,23 @@
       <c r="X59" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Y59" s="16" t="s">
-        <v>60</v>
+      <c r="Y59" s="16" t="n">
+        <v>-120</v>
       </c>
       <c r="Z59" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="16" t="n">
         <v>-120</v>
       </c>
-      <c r="AA59" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="16" t="n">
-        <v>-120</v>
+      <c r="AD59" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AE59" s="16" t="s">
         <v>60</v>
@@ -10154,33 +10154,33 @@
       <c r="AG59" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AH59" s="16" t="s">
-        <v>60</v>
+      <c r="AH59" s="16" t="n">
+        <v>-855</v>
       </c>
       <c r="AI59" s="16" t="n">
-        <v>-855</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AK59" s="16" t="n">
-        <v>0</v>
+      <c r="AK59" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AL59" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AM59" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN59" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO59" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP59" s="16" t="n">
+      <c r="AM59" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO59" s="16" t="n">
         <v>-40</v>
       </c>
+      <c r="AP59" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AQ59" s="16" t="s">
         <v>60</v>
       </c>
@@ -10190,11 +10190,11 @@
       <c r="AS59" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AT59" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU59" s="16" t="n">
+      <c r="AT59" s="16" t="n">
         <v>-525</v>
+      </c>
+      <c r="AU59" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AV59" s="16" t="s">
         <v>60</v>
@@ -10280,8 +10280,8 @@
       <c r="V60" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W60" s="15" t="s">
-        <v>60</v>
+      <c r="W60" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="X60" s="15" t="n">
         <v>0</v>
@@ -10301,8 +10301,8 @@
       <c r="AC60" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AD60" s="15" t="n">
-        <v>0</v>
+      <c r="AD60" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AE60" s="15" t="s">
         <v>60</v>
@@ -10331,11 +10331,11 @@
       <c r="AM60" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AN60" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO60" s="15" t="n">
+      <c r="AN60" s="15" t="n">
         <v>-12</v>
+      </c>
+      <c r="AO60" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AP60" s="15" t="s">
         <v>60</v>
@@ -10469,29 +10469,29 @@
       <c r="AF61" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AG61" s="16" t="s">
-        <v>60</v>
+      <c r="AG61" s="16" t="n">
+        <v>-25</v>
       </c>
       <c r="AH61" s="16" t="n">
-        <v>-25</v>
+        <v>-125</v>
       </c>
       <c r="AI61" s="16" t="n">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="AJ61" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AK61" s="16" t="n">
-        <v>0</v>
+      <c r="AK61" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AL61" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AM61" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN61" s="16" t="n">
-        <v>0</v>
+      <c r="AM61" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AO61" s="16" t="s">
         <v>60</v>
@@ -10628,8 +10628,8 @@
       <c r="AF62" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG62" s="15" t="s">
-        <v>60</v>
+      <c r="AG62" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AH62" s="15" t="n">
         <v>0</v>
@@ -10640,18 +10640,18 @@
       <c r="AJ62" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AK62" s="15" t="n">
-        <v>0</v>
+      <c r="AK62" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AL62" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AM62" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN62" s="15" t="n">
+      <c r="AM62" s="15" t="n">
         <v>-8</v>
       </c>
+      <c r="AN62" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="AO62" s="15" t="s">
         <v>60</v>
       </c>
@@ -10661,17 +10661,17 @@
       <c r="AQ62" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AR62" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS62" s="15" t="n">
+      <c r="AR62" s="15" t="n">
         <v>-12</v>
       </c>
-      <c r="AT62" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU62" s="15" t="n">
+      <c r="AS62" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT62" s="15" t="n">
         <v>-975</v>
+      </c>
+      <c r="AU62" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AV62" s="15" t="s">
         <v>60</v>
@@ -10749,8 +10749,8 @@
       <c r="T63" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="U63" s="20" t="s">
-        <v>60</v>
+      <c r="U63" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V63" s="20" t="n">
         <v>0</v>
@@ -10762,22 +10762,22 @@
         <v>0</v>
       </c>
       <c r="Y63" s="20" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="Z63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="20" t="n">
         <v>-120</v>
       </c>
-      <c r="AA63" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="AD63" s="20" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="20" t="n">
         <v>0</v>
@@ -10786,13 +10786,13 @@
         <v>0</v>
       </c>
       <c r="AG63" s="20" t="n">
-        <v>0</v>
+        <v>-601</v>
       </c>
       <c r="AH63" s="20" t="n">
-        <v>-601</v>
+        <v>-980</v>
       </c>
       <c r="AI63" s="20" t="n">
-        <v>-980</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="20" t="n">
         <v>0</v>
@@ -10804,31 +10804,31 @@
         <v>0</v>
       </c>
       <c r="AM63" s="20" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AN63" s="20" t="n">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AO63" s="20" t="n">
+        <v>-40</v>
+      </c>
+      <c r="AP63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="20" t="n">
+        <v>-599</v>
+      </c>
+      <c r="AR63" s="20" t="n">
         <v>-12</v>
       </c>
-      <c r="AP63" s="20" t="n">
-        <v>-40</v>
-      </c>
-      <c r="AQ63" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR63" s="20" t="n">
-        <v>-599</v>
-      </c>
       <c r="AS63" s="20" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AT63" s="20" t="n">
-        <v>0</v>
+        <v>-1983</v>
       </c>
       <c r="AU63" s="20" t="n">
-        <v>-1983</v>
+        <v>0</v>
       </c>
       <c r="AV63" s="20" t="n">
         <v>0</v>
@@ -10840,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="AY63" s="20" t="n">
-        <v>0</v>
+        <v>-59</v>
       </c>
       <c r="AZ63" s="20" t="n">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="BA63" s="20" t="n">
         <v>0</v>
@@ -10859,154 +10859,154 @@
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18" t="n">
-        <v>30004</v>
+        <v>15874</v>
       </c>
       <c r="F64" s="18" t="n">
-        <v>15874</v>
+        <v>10246</v>
       </c>
       <c r="G64" s="18" t="n">
-        <v>10246</v>
+        <v>22470</v>
       </c>
       <c r="H64" s="18" t="n">
-        <v>22470</v>
+        <v>29664</v>
       </c>
       <c r="I64" s="18" t="n">
-        <v>29664</v>
+        <v>29043</v>
       </c>
       <c r="J64" s="18" t="n">
-        <v>29043</v>
+        <v>29656</v>
       </c>
       <c r="K64" s="18" t="n">
-        <v>29656</v>
+        <v>27889</v>
       </c>
       <c r="L64" s="18" t="n">
-        <v>27889</v>
+        <v>36684</v>
       </c>
       <c r="M64" s="18" t="n">
-        <v>36684</v>
+        <v>46973</v>
       </c>
       <c r="N64" s="18" t="n">
-        <v>46973</v>
+        <v>50197</v>
       </c>
       <c r="O64" s="18" t="n">
-        <v>50197</v>
+        <v>44343</v>
       </c>
       <c r="P64" s="18" t="n">
-        <v>44343</v>
+        <v>35725</v>
       </c>
       <c r="Q64" s="18" t="n">
-        <v>35725</v>
+        <v>155715</v>
       </c>
       <c r="R64" s="18" t="n">
-        <v>155715</v>
+        <v>54612</v>
       </c>
       <c r="S64" s="18" t="n">
-        <v>54612</v>
+        <v>35098</v>
       </c>
       <c r="T64" s="18" t="n">
-        <v>35098</v>
+        <v>41054</v>
       </c>
       <c r="U64" s="18" t="n">
-        <v>41054</v>
+        <v>39026</v>
       </c>
       <c r="V64" s="18" t="n">
-        <v>39026</v>
+        <v>35477</v>
       </c>
       <c r="W64" s="18" t="n">
-        <v>35477</v>
+        <v>35784</v>
       </c>
       <c r="X64" s="18" t="n">
-        <v>35784</v>
+        <v>44502</v>
       </c>
       <c r="Y64" s="18" t="n">
-        <v>44502</v>
+        <v>31294</v>
       </c>
       <c r="Z64" s="18" t="n">
-        <v>31294</v>
+        <v>44979</v>
       </c>
       <c r="AA64" s="18" t="n">
-        <v>44979</v>
+        <v>53841</v>
       </c>
       <c r="AB64" s="18" t="n">
-        <v>53841</v>
+        <v>24999</v>
       </c>
       <c r="AC64" s="18" t="n">
-        <v>24999</v>
+        <v>9942</v>
       </c>
       <c r="AD64" s="18" t="n">
-        <v>9942</v>
+        <v>35185</v>
       </c>
       <c r="AE64" s="18" t="n">
-        <v>35185</v>
+        <v>44907</v>
       </c>
       <c r="AF64" s="18" t="n">
-        <v>44907</v>
+        <v>35692</v>
       </c>
       <c r="AG64" s="18" t="n">
-        <v>35692</v>
+        <v>38142</v>
       </c>
       <c r="AH64" s="18" t="n">
-        <v>38142</v>
+        <v>41133</v>
       </c>
       <c r="AI64" s="18" t="n">
-        <v>41133</v>
+        <v>46325</v>
       </c>
       <c r="AJ64" s="18" t="n">
-        <v>46325</v>
+        <v>33287</v>
       </c>
       <c r="AK64" s="18" t="n">
-        <v>33287</v>
+        <v>37499</v>
       </c>
       <c r="AL64" s="18" t="n">
-        <v>37499</v>
+        <v>49067</v>
       </c>
       <c r="AM64" s="18" t="n">
-        <v>49067</v>
+        <v>34472</v>
       </c>
       <c r="AN64" s="18" t="n">
-        <v>34472</v>
+        <v>34906</v>
       </c>
       <c r="AO64" s="18" t="n">
-        <v>34906</v>
+        <v>20604</v>
       </c>
       <c r="AP64" s="18" t="n">
-        <v>20604</v>
+        <v>34489</v>
       </c>
       <c r="AQ64" s="18" t="n">
-        <v>34489</v>
+        <v>36416</v>
       </c>
       <c r="AR64" s="18" t="n">
-        <v>36416</v>
+        <v>48286</v>
       </c>
       <c r="AS64" s="18" t="n">
-        <v>48286</v>
+        <v>48291</v>
       </c>
       <c r="AT64" s="18" t="n">
-        <v>48291</v>
+        <v>39141</v>
       </c>
       <c r="AU64" s="18" t="n">
-        <v>39141</v>
+        <v>31867</v>
       </c>
       <c r="AV64" s="18" t="n">
-        <v>31867</v>
+        <v>37776</v>
       </c>
       <c r="AW64" s="18" t="n">
-        <v>37776</v>
+        <v>56842</v>
       </c>
       <c r="AX64" s="18" t="n">
-        <v>56842</v>
+        <v>54027</v>
       </c>
       <c r="AY64" s="18" t="n">
-        <v>54027</v>
+        <v>44773</v>
       </c>
       <c r="AZ64" s="18" t="n">
-        <v>44773</v>
+        <v>61628</v>
       </c>
       <c r="BA64" s="18" t="n">
-        <v>61628</v>
+        <v>37378</v>
       </c>
       <c r="BB64" s="18" t="n">
-        <v>37378</v>
+        <v>46250</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11452,154 +11452,154 @@
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="n">
-        <v>0</v>
+        <v>3397</v>
       </c>
       <c r="F71" s="16" t="n">
-        <v>3397</v>
+        <v>228</v>
       </c>
       <c r="G71" s="16" t="n">
-        <v>228</v>
+        <v>3914</v>
       </c>
       <c r="H71" s="16" t="n">
-        <v>3914</v>
+        <v>0</v>
       </c>
       <c r="I71" s="16" t="n">
-        <v>0</v>
+        <v>3588</v>
       </c>
       <c r="J71" s="16" t="n">
-        <v>3588</v>
+        <v>0</v>
       </c>
       <c r="K71" s="16" t="n">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="L71" s="16" t="n">
-        <v>8850</v>
+        <v>0</v>
       </c>
       <c r="M71" s="16" t="n">
-        <v>0</v>
+        <v>17643</v>
       </c>
       <c r="N71" s="16" t="n">
-        <v>17643</v>
+        <v>26212</v>
       </c>
       <c r="O71" s="16" t="n">
-        <v>26212</v>
+        <v>2710</v>
       </c>
       <c r="P71" s="16" t="n">
-        <v>2710</v>
+        <v>2084</v>
       </c>
       <c r="Q71" s="16" t="n">
-        <v>2084</v>
+        <v>1932</v>
       </c>
       <c r="R71" s="16" t="n">
-        <v>1932</v>
+        <v>0</v>
       </c>
       <c r="S71" s="16" t="n">
-        <v>0</v>
+        <v>12682</v>
       </c>
       <c r="T71" s="16" t="n">
-        <v>12682</v>
+        <v>8163</v>
       </c>
       <c r="U71" s="16" t="n">
-        <v>8163</v>
+        <v>10244</v>
       </c>
       <c r="V71" s="16" t="n">
-        <v>10244</v>
+        <v>15544</v>
       </c>
       <c r="W71" s="16" t="n">
-        <v>15544</v>
+        <v>3053</v>
       </c>
       <c r="X71" s="16" t="n">
-        <v>3053</v>
+        <v>5616</v>
       </c>
       <c r="Y71" s="16" t="n">
-        <v>5616</v>
+        <v>15220</v>
       </c>
       <c r="Z71" s="16" t="n">
-        <v>15220</v>
+        <v>10491</v>
       </c>
       <c r="AA71" s="16" t="n">
-        <v>10491</v>
+        <v>10458</v>
       </c>
       <c r="AB71" s="16" t="n">
-        <v>10458</v>
+        <v>1414</v>
       </c>
       <c r="AC71" s="16" t="n">
-        <v>1414</v>
+        <v>0</v>
       </c>
       <c r="AD71" s="16" t="n">
-        <v>0</v>
+        <v>24693</v>
       </c>
       <c r="AE71" s="16" t="n">
-        <v>24693</v>
+        <v>15811</v>
       </c>
       <c r="AF71" s="16" t="n">
-        <v>15811</v>
+        <v>4608</v>
       </c>
       <c r="AG71" s="16" t="n">
-        <v>4608</v>
+        <v>26527</v>
       </c>
       <c r="AH71" s="16" t="n">
-        <v>26527</v>
+        <v>27943</v>
       </c>
       <c r="AI71" s="16" t="n">
-        <v>27943</v>
+        <v>23993</v>
       </c>
       <c r="AJ71" s="16" t="n">
-        <v>23993</v>
+        <v>0</v>
       </c>
       <c r="AK71" s="16" t="n">
-        <v>0</v>
+        <v>39319</v>
       </c>
       <c r="AL71" s="16" t="n">
-        <v>39319</v>
+        <v>29764</v>
       </c>
       <c r="AM71" s="16" t="n">
-        <v>29764</v>
+        <v>17181</v>
       </c>
       <c r="AN71" s="16" t="n">
-        <v>17181</v>
+        <v>13326</v>
       </c>
       <c r="AO71" s="16" t="n">
-        <v>13326</v>
+        <v>8064</v>
       </c>
       <c r="AP71" s="16" t="n">
-        <v>8064</v>
+        <v>26400</v>
       </c>
       <c r="AQ71" s="16" t="n">
-        <v>26400</v>
+        <v>34386</v>
       </c>
       <c r="AR71" s="16" t="n">
-        <v>34386</v>
+        <v>34479</v>
       </c>
       <c r="AS71" s="16" t="n">
-        <v>34479</v>
+        <v>38508</v>
       </c>
       <c r="AT71" s="16" t="n">
-        <v>38508</v>
+        <v>56804</v>
       </c>
       <c r="AU71" s="16" t="n">
-        <v>56804</v>
+        <v>34992</v>
       </c>
       <c r="AV71" s="16" t="n">
-        <v>34992</v>
+        <v>37952</v>
       </c>
       <c r="AW71" s="16" t="n">
-        <v>37952</v>
+        <v>38456</v>
       </c>
       <c r="AX71" s="16" t="n">
-        <v>38456</v>
+        <v>39686</v>
       </c>
       <c r="AY71" s="16" t="n">
-        <v>39686</v>
+        <v>2944</v>
       </c>
       <c r="AZ71" s="16" t="n">
-        <v>2944</v>
+        <v>82176</v>
       </c>
       <c r="BA71" s="16" t="n">
-        <v>82176</v>
+        <v>59040</v>
       </c>
       <c r="BB71" s="16" t="n">
-        <v>59040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11611,154 +11611,154 @@
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15" t="n">
-        <v>4755</v>
+        <v>5039</v>
       </c>
       <c r="F72" s="15" t="n">
-        <v>5039</v>
+        <v>3166</v>
       </c>
       <c r="G72" s="15" t="n">
-        <v>3166</v>
+        <v>2121</v>
       </c>
       <c r="H72" s="15" t="n">
-        <v>2121</v>
+        <v>6264</v>
       </c>
       <c r="I72" s="15" t="n">
-        <v>6264</v>
+        <v>0</v>
       </c>
       <c r="J72" s="15" t="n">
-        <v>0</v>
+        <v>10408</v>
       </c>
       <c r="K72" s="15" t="n">
-        <v>10408</v>
+        <v>7975</v>
       </c>
       <c r="L72" s="15" t="n">
-        <v>7975</v>
+        <v>17111</v>
       </c>
       <c r="M72" s="15" t="n">
-        <v>17111</v>
+        <v>15136</v>
       </c>
       <c r="N72" s="15" t="n">
-        <v>15136</v>
+        <v>2818</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>2818</v>
+        <v>12906</v>
       </c>
       <c r="P72" s="15" t="n">
-        <v>12906</v>
+        <v>19462</v>
       </c>
       <c r="Q72" s="15" t="n">
-        <v>19462</v>
+        <v>1630</v>
       </c>
       <c r="R72" s="15" t="n">
-        <v>1630</v>
+        <v>8215</v>
       </c>
       <c r="S72" s="15" t="n">
-        <v>8215</v>
+        <v>2830</v>
       </c>
       <c r="T72" s="15" t="n">
-        <v>2830</v>
+        <v>2178</v>
       </c>
       <c r="U72" s="15" t="n">
-        <v>2178</v>
+        <v>16366</v>
       </c>
       <c r="V72" s="15" t="n">
-        <v>16366</v>
+        <v>7215</v>
       </c>
       <c r="W72" s="15" t="n">
-        <v>7215</v>
+        <v>8223</v>
       </c>
       <c r="X72" s="15" t="n">
-        <v>8223</v>
+        <v>33619</v>
       </c>
       <c r="Y72" s="15" t="n">
-        <v>33619</v>
+        <v>9785</v>
       </c>
       <c r="Z72" s="15" t="n">
-        <v>9785</v>
+        <v>23520</v>
       </c>
       <c r="AA72" s="15" t="n">
-        <v>23520</v>
+        <v>15422</v>
       </c>
       <c r="AB72" s="15" t="n">
-        <v>15422</v>
+        <v>14101</v>
       </c>
       <c r="AC72" s="15" t="n">
-        <v>14101</v>
+        <v>9287</v>
       </c>
       <c r="AD72" s="15" t="n">
-        <v>9287</v>
+        <v>0</v>
       </c>
       <c r="AE72" s="15" t="n">
-        <v>0</v>
+        <v>24291</v>
       </c>
       <c r="AF72" s="15" t="n">
-        <v>24291</v>
+        <v>22948</v>
       </c>
       <c r="AG72" s="15" t="n">
-        <v>22948</v>
+        <v>27976</v>
       </c>
       <c r="AH72" s="15" t="n">
-        <v>27976</v>
+        <v>72693</v>
       </c>
       <c r="AI72" s="15" t="n">
-        <v>72693</v>
+        <v>70591</v>
       </c>
       <c r="AJ72" s="15" t="n">
-        <v>70591</v>
+        <v>65857</v>
       </c>
       <c r="AK72" s="15" t="n">
-        <v>65857</v>
+        <v>39543</v>
       </c>
       <c r="AL72" s="15" t="n">
-        <v>39543</v>
+        <v>152659</v>
       </c>
       <c r="AM72" s="15" t="n">
-        <v>152659</v>
+        <v>51635</v>
       </c>
       <c r="AN72" s="15" t="n">
-        <v>51635</v>
+        <v>62547</v>
       </c>
       <c r="AO72" s="15" t="n">
-        <v>62547</v>
+        <v>27457</v>
       </c>
       <c r="AP72" s="15" t="n">
-        <v>27457</v>
+        <v>49877</v>
       </c>
       <c r="AQ72" s="15" t="n">
-        <v>49877</v>
+        <v>112185</v>
       </c>
       <c r="AR72" s="15" t="n">
-        <v>112185</v>
+        <v>69989</v>
       </c>
       <c r="AS72" s="15" t="n">
-        <v>69989</v>
+        <v>53377</v>
       </c>
       <c r="AT72" s="15" t="n">
-        <v>53377</v>
+        <v>164290</v>
       </c>
       <c r="AU72" s="15" t="n">
-        <v>164290</v>
+        <v>49799</v>
       </c>
       <c r="AV72" s="15" t="n">
-        <v>49799</v>
+        <v>21713</v>
       </c>
       <c r="AW72" s="15" t="n">
-        <v>21713</v>
+        <v>71893</v>
       </c>
       <c r="AX72" s="15" t="n">
-        <v>71893</v>
+        <v>105323</v>
       </c>
       <c r="AY72" s="15" t="n">
-        <v>105323</v>
+        <v>160029</v>
       </c>
       <c r="AZ72" s="15" t="n">
-        <v>160029</v>
+        <v>72409</v>
       </c>
       <c r="BA72" s="15" t="n">
-        <v>72409</v>
+        <v>40941</v>
       </c>
       <c r="BB72" s="15" t="n">
-        <v>40941</v>
+        <v>39498</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11770,154 +11770,154 @@
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16" t="n">
-        <v>17019</v>
+        <v>8636</v>
       </c>
       <c r="F73" s="16" t="n">
-        <v>8636</v>
+        <v>26926</v>
       </c>
       <c r="G73" s="16" t="n">
-        <v>26926</v>
+        <v>56622</v>
       </c>
       <c r="H73" s="16" t="n">
-        <v>56622</v>
+        <v>24898</v>
       </c>
       <c r="I73" s="16" t="n">
-        <v>24898</v>
+        <v>26253</v>
       </c>
       <c r="J73" s="16" t="n">
-        <v>26253</v>
+        <v>39641</v>
       </c>
       <c r="K73" s="16" t="n">
-        <v>39641</v>
+        <v>38668</v>
       </c>
       <c r="L73" s="16" t="n">
-        <v>38668</v>
+        <v>3200</v>
       </c>
       <c r="M73" s="16" t="n">
-        <v>3200</v>
+        <v>66880</v>
       </c>
       <c r="N73" s="16" t="n">
-        <v>66880</v>
+        <v>65645</v>
       </c>
       <c r="O73" s="16" t="n">
-        <v>65645</v>
+        <v>54815</v>
       </c>
       <c r="P73" s="16" t="n">
-        <v>54815</v>
+        <v>30596</v>
       </c>
       <c r="Q73" s="16" t="n">
-        <v>30596</v>
+        <v>816</v>
       </c>
       <c r="R73" s="16" t="n">
-        <v>816</v>
+        <v>14035</v>
       </c>
       <c r="S73" s="16" t="n">
-        <v>14035</v>
+        <v>28433</v>
       </c>
       <c r="T73" s="16" t="n">
-        <v>28433</v>
+        <v>48150</v>
       </c>
       <c r="U73" s="16" t="n">
-        <v>48150</v>
+        <v>31790</v>
       </c>
       <c r="V73" s="16" t="n">
-        <v>31790</v>
+        <v>16629</v>
       </c>
       <c r="W73" s="16" t="n">
-        <v>16629</v>
+        <v>56998</v>
       </c>
       <c r="X73" s="16" t="n">
-        <v>56998</v>
+        <v>40413</v>
       </c>
       <c r="Y73" s="16" t="n">
-        <v>40413</v>
+        <v>16935</v>
       </c>
       <c r="Z73" s="16" t="n">
-        <v>16935</v>
+        <v>36019</v>
       </c>
       <c r="AA73" s="16" t="n">
-        <v>36019</v>
+        <v>12899</v>
       </c>
       <c r="AB73" s="16" t="n">
-        <v>12899</v>
+        <v>4650</v>
       </c>
       <c r="AC73" s="16" t="n">
-        <v>4650</v>
+        <v>0</v>
       </c>
       <c r="AD73" s="16" t="n">
-        <v>0</v>
+        <v>67282</v>
       </c>
       <c r="AE73" s="16" t="n">
-        <v>67282</v>
+        <v>42368</v>
       </c>
       <c r="AF73" s="16" t="n">
-        <v>42368</v>
+        <v>80167</v>
       </c>
       <c r="AG73" s="16" t="n">
-        <v>80167</v>
+        <v>94134</v>
       </c>
       <c r="AH73" s="16" t="n">
-        <v>94134</v>
+        <v>5650</v>
       </c>
       <c r="AI73" s="16" t="n">
-        <v>5650</v>
+        <v>169268</v>
       </c>
       <c r="AJ73" s="16" t="n">
-        <v>169268</v>
+        <v>69272</v>
       </c>
       <c r="AK73" s="16" t="n">
-        <v>69272</v>
+        <v>16800</v>
       </c>
       <c r="AL73" s="16" t="n">
-        <v>16800</v>
+        <v>130551</v>
       </c>
       <c r="AM73" s="16" t="n">
-        <v>130551</v>
+        <v>24930</v>
       </c>
       <c r="AN73" s="16" t="n">
-        <v>24930</v>
+        <v>45272</v>
       </c>
       <c r="AO73" s="16" t="n">
-        <v>45272</v>
+        <v>39323</v>
       </c>
       <c r="AP73" s="16" t="n">
-        <v>39323</v>
+        <v>55145</v>
       </c>
       <c r="AQ73" s="16" t="n">
-        <v>55145</v>
+        <v>75072</v>
       </c>
       <c r="AR73" s="16" t="n">
-        <v>75072</v>
+        <v>47245</v>
       </c>
       <c r="AS73" s="16" t="n">
-        <v>47245</v>
+        <v>65173</v>
       </c>
       <c r="AT73" s="16" t="n">
-        <v>65173</v>
+        <v>111485</v>
       </c>
       <c r="AU73" s="16" t="n">
-        <v>111485</v>
+        <v>37744</v>
       </c>
       <c r="AV73" s="16" t="n">
-        <v>37744</v>
+        <v>146165</v>
       </c>
       <c r="AW73" s="16" t="n">
-        <v>146165</v>
+        <v>124817</v>
       </c>
       <c r="AX73" s="16" t="n">
-        <v>124817</v>
+        <v>38864</v>
       </c>
       <c r="AY73" s="16" t="n">
-        <v>38864</v>
+        <v>80027</v>
       </c>
       <c r="AZ73" s="16" t="n">
-        <v>80027</v>
+        <v>11522</v>
       </c>
       <c r="BA73" s="16" t="n">
-        <v>11522</v>
+        <v>97751</v>
       </c>
       <c r="BB73" s="16" t="n">
-        <v>97751</v>
+        <v>361168</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11931,8 +11931,8 @@
       <c r="E74" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F74" s="15" t="n">
-        <v>0</v>
+      <c r="F74" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="G74" s="15" t="s">
         <v>60</v>
@@ -12027,11 +12027,11 @@
       <c r="AK74" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL74" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM74" s="15" t="n">
-        <v>0</v>
+      <c r="AL74" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM74" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AN74" s="15" t="s">
         <v>60</v>
@@ -12039,8 +12039,8 @@
       <c r="AO74" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AP74" s="15" t="s">
-        <v>60</v>
+      <c r="AP74" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AQ74" s="15" t="n">
         <v>0</v>
@@ -12070,10 +12070,10 @@
         <v>0</v>
       </c>
       <c r="AZ74" s="15" t="n">
-        <v>0</v>
+        <v>3452</v>
       </c>
       <c r="BA74" s="15" t="n">
-        <v>3452</v>
+        <v>0</v>
       </c>
       <c r="BB74" s="15" t="n">
         <v>0</v>
@@ -12088,154 +12088,154 @@
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16" t="n">
-        <v>22233</v>
+        <v>14399</v>
       </c>
       <c r="F75" s="16" t="n">
-        <v>14399</v>
+        <v>21937</v>
       </c>
       <c r="G75" s="16" t="n">
-        <v>21937</v>
+        <v>0</v>
       </c>
       <c r="H75" s="16" t="n">
-        <v>0</v>
+        <v>79945</v>
       </c>
       <c r="I75" s="16" t="n">
-        <v>79945</v>
+        <v>101996</v>
       </c>
       <c r="J75" s="16" t="n">
-        <v>101996</v>
+        <v>60757</v>
       </c>
       <c r="K75" s="16" t="n">
-        <v>60757</v>
+        <v>42579</v>
       </c>
       <c r="L75" s="16" t="n">
-        <v>42579</v>
+        <v>108670</v>
       </c>
       <c r="M75" s="16" t="n">
-        <v>108670</v>
+        <v>12735</v>
       </c>
       <c r="N75" s="16" t="n">
-        <v>12735</v>
+        <v>64730</v>
       </c>
       <c r="O75" s="16" t="n">
-        <v>64730</v>
+        <v>95978</v>
       </c>
       <c r="P75" s="16" t="n">
-        <v>95978</v>
+        <v>95126</v>
       </c>
       <c r="Q75" s="16" t="n">
-        <v>95126</v>
+        <v>14467</v>
       </c>
       <c r="R75" s="16" t="n">
-        <v>14467</v>
+        <v>28342</v>
       </c>
       <c r="S75" s="16" t="n">
-        <v>28342</v>
+        <v>130099</v>
       </c>
       <c r="T75" s="16" t="n">
-        <v>130099</v>
+        <v>92005</v>
       </c>
       <c r="U75" s="16" t="n">
-        <v>92005</v>
+        <v>130038</v>
       </c>
       <c r="V75" s="16" t="n">
-        <v>130038</v>
+        <v>131357</v>
       </c>
       <c r="W75" s="16" t="n">
-        <v>131357</v>
+        <v>73617</v>
       </c>
       <c r="X75" s="16" t="n">
-        <v>73617</v>
+        <v>18037</v>
       </c>
       <c r="Y75" s="16" t="n">
-        <v>18037</v>
+        <v>57129</v>
       </c>
       <c r="Z75" s="16" t="n">
-        <v>57129</v>
+        <v>21808</v>
       </c>
       <c r="AA75" s="16" t="n">
-        <v>21808</v>
+        <v>40891</v>
       </c>
       <c r="AB75" s="16" t="n">
-        <v>40891</v>
+        <v>76756</v>
       </c>
       <c r="AC75" s="16" t="n">
-        <v>76756</v>
+        <v>77988</v>
       </c>
       <c r="AD75" s="16" t="n">
-        <v>77988</v>
+        <v>88866</v>
       </c>
       <c r="AE75" s="16" t="n">
-        <v>88866</v>
+        <v>161189</v>
       </c>
       <c r="AF75" s="16" t="n">
-        <v>161189</v>
+        <v>161051</v>
       </c>
       <c r="AG75" s="16" t="n">
-        <v>161051</v>
+        <v>111029</v>
       </c>
       <c r="AH75" s="16" t="n">
-        <v>111029</v>
+        <v>112500</v>
       </c>
       <c r="AI75" s="16" t="n">
-        <v>112500</v>
+        <v>22722</v>
       </c>
       <c r="AJ75" s="16" t="n">
-        <v>22722</v>
+        <v>122743</v>
       </c>
       <c r="AK75" s="16" t="n">
-        <v>122743</v>
+        <v>127244</v>
       </c>
       <c r="AL75" s="16" t="n">
-        <v>127244</v>
+        <v>11504</v>
       </c>
       <c r="AM75" s="16" t="n">
-        <v>11504</v>
+        <v>158191</v>
       </c>
       <c r="AN75" s="16" t="n">
-        <v>158191</v>
+        <v>80980</v>
       </c>
       <c r="AO75" s="16" t="n">
-        <v>80980</v>
+        <v>47536</v>
       </c>
       <c r="AP75" s="16" t="n">
-        <v>47536</v>
+        <v>114300</v>
       </c>
       <c r="AQ75" s="16" t="n">
-        <v>114300</v>
+        <v>76651</v>
       </c>
       <c r="AR75" s="16" t="n">
-        <v>76651</v>
+        <v>63568</v>
       </c>
       <c r="AS75" s="16" t="n">
-        <v>63568</v>
+        <v>96730</v>
       </c>
       <c r="AT75" s="16" t="n">
-        <v>96730</v>
+        <v>0</v>
       </c>
       <c r="AU75" s="16" t="n">
-        <v>0</v>
+        <v>261127</v>
       </c>
       <c r="AV75" s="16" t="n">
-        <v>261127</v>
+        <v>176825</v>
       </c>
       <c r="AW75" s="16" t="n">
-        <v>176825</v>
+        <v>1453748</v>
       </c>
       <c r="AX75" s="16" t="n">
-        <v>1453748</v>
+        <v>819298</v>
       </c>
       <c r="AY75" s="16" t="n">
-        <v>819298</v>
+        <v>840857</v>
       </c>
       <c r="AZ75" s="16" t="n">
-        <v>840857</v>
+        <v>896198</v>
       </c>
       <c r="BA75" s="16" t="n">
-        <v>896198</v>
+        <v>543896</v>
       </c>
       <c r="BB75" s="16" t="n">
-        <v>543896</v>
+        <v>338903</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12247,100 +12247,100 @@
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15" t="n">
-        <v>56030</v>
+        <v>17987</v>
       </c>
       <c r="F76" s="15" t="n">
-        <v>17987</v>
+        <v>3656</v>
       </c>
       <c r="G76" s="15" t="n">
-        <v>3656</v>
+        <v>47823</v>
       </c>
       <c r="H76" s="15" t="n">
-        <v>47823</v>
+        <v>59851</v>
       </c>
       <c r="I76" s="15" t="n">
-        <v>59851</v>
+        <v>23904</v>
       </c>
       <c r="J76" s="15" t="n">
-        <v>23904</v>
+        <v>38229</v>
       </c>
       <c r="K76" s="15" t="n">
-        <v>38229</v>
+        <v>27904</v>
       </c>
       <c r="L76" s="15" t="n">
-        <v>27904</v>
+        <v>31349</v>
       </c>
       <c r="M76" s="15" t="n">
-        <v>31349</v>
+        <v>46028</v>
       </c>
       <c r="N76" s="15" t="n">
-        <v>46028</v>
+        <v>30795</v>
       </c>
       <c r="O76" s="15" t="n">
-        <v>30795</v>
+        <v>32053</v>
       </c>
       <c r="P76" s="15" t="n">
-        <v>32053</v>
+        <v>12872</v>
       </c>
       <c r="Q76" s="15" t="n">
-        <v>12872</v>
+        <v>82339</v>
       </c>
       <c r="R76" s="15" t="n">
-        <v>82339</v>
+        <v>52669</v>
       </c>
       <c r="S76" s="15" t="n">
-        <v>52669</v>
+        <v>74481</v>
       </c>
       <c r="T76" s="15" t="n">
-        <v>74481</v>
+        <v>103212</v>
       </c>
       <c r="U76" s="15" t="n">
-        <v>103212</v>
+        <v>64872</v>
       </c>
       <c r="V76" s="15" t="n">
-        <v>64872</v>
+        <v>49255</v>
       </c>
       <c r="W76" s="15" t="n">
-        <v>49255</v>
+        <v>73759</v>
       </c>
       <c r="X76" s="15" t="n">
-        <v>73759</v>
+        <v>123764</v>
       </c>
       <c r="Y76" s="15" t="n">
-        <v>123764</v>
+        <v>110748</v>
       </c>
       <c r="Z76" s="15" t="n">
-        <v>110748</v>
+        <v>129549</v>
       </c>
       <c r="AA76" s="15" t="n">
-        <v>129549</v>
+        <v>134919</v>
       </c>
       <c r="AB76" s="15" t="n">
-        <v>134919</v>
+        <v>57758</v>
       </c>
       <c r="AC76" s="15" t="n">
-        <v>57758</v>
+        <v>13489</v>
       </c>
       <c r="AD76" s="15" t="n">
-        <v>13489</v>
+        <v>100525</v>
       </c>
       <c r="AE76" s="15" t="n">
-        <v>100525</v>
+        <v>75515</v>
       </c>
       <c r="AF76" s="15" t="n">
-        <v>75515</v>
+        <v>72533</v>
       </c>
       <c r="AG76" s="15" t="n">
-        <v>72533</v>
+        <v>77914</v>
       </c>
       <c r="AH76" s="15" t="n">
-        <v>77914</v>
+        <v>95525</v>
       </c>
       <c r="AI76" s="15" t="n">
-        <v>95525</v>
-      </c>
-      <c r="AJ76" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AK76" s="15" t="s">
         <v>60</v>
@@ -12471,89 +12471,89 @@
       <c r="Z77" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AA77" s="16" t="s">
-        <v>60</v>
+      <c r="AA77" s="16" t="n">
+        <v>3955</v>
       </c>
       <c r="AB77" s="16" t="n">
-        <v>3955</v>
+        <v>12</v>
       </c>
       <c r="AC77" s="16" t="n">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="AD77" s="16" t="n">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="AE77" s="16" t="n">
-        <v>1025</v>
+        <v>3672</v>
       </c>
       <c r="AF77" s="16" t="n">
-        <v>3672</v>
+        <v>9200</v>
       </c>
       <c r="AG77" s="16" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="AH77" s="16" t="n">
-        <v>0</v>
+        <v>1930</v>
       </c>
       <c r="AI77" s="16" t="n">
-        <v>1930</v>
+        <v>17778</v>
       </c>
       <c r="AJ77" s="16" t="n">
-        <v>17778</v>
+        <v>0</v>
       </c>
       <c r="AK77" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AL77" s="16" t="n">
-        <v>0</v>
+        <v>3116</v>
       </c>
       <c r="AM77" s="16" t="n">
-        <v>3116</v>
+        <v>17230</v>
       </c>
       <c r="AN77" s="16" t="n">
-        <v>17230</v>
+        <v>10048</v>
       </c>
       <c r="AO77" s="16" t="n">
-        <v>10048</v>
+        <v>5528</v>
       </c>
       <c r="AP77" s="16" t="n">
-        <v>5528</v>
+        <v>24735</v>
       </c>
       <c r="AQ77" s="16" t="n">
-        <v>24735</v>
+        <v>26181</v>
       </c>
       <c r="AR77" s="16" t="n">
-        <v>26181</v>
+        <v>49098</v>
       </c>
       <c r="AS77" s="16" t="n">
-        <v>49098</v>
+        <v>23172</v>
       </c>
       <c r="AT77" s="16" t="n">
-        <v>23172</v>
+        <v>17901</v>
       </c>
       <c r="AU77" s="16" t="n">
-        <v>17901</v>
+        <v>42798</v>
       </c>
       <c r="AV77" s="16" t="n">
-        <v>42798</v>
+        <v>122273</v>
       </c>
       <c r="AW77" s="16" t="n">
-        <v>122273</v>
+        <v>68053</v>
       </c>
       <c r="AX77" s="16" t="n">
-        <v>68053</v>
+        <v>23928</v>
       </c>
       <c r="AY77" s="16" t="n">
-        <v>23928</v>
+        <v>25520</v>
       </c>
       <c r="AZ77" s="16" t="n">
-        <v>25520</v>
+        <v>0</v>
       </c>
       <c r="BA77" s="16" t="n">
-        <v>0</v>
+        <v>25131</v>
       </c>
       <c r="BB77" s="16" t="n">
-        <v>25131</v>
+        <v>60251</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12630,14 +12630,14 @@
       <c r="Z78" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA78" s="15" t="s">
-        <v>60</v>
+      <c r="AA78" s="15" t="n">
+        <v>1177</v>
       </c>
       <c r="AB78" s="15" t="n">
-        <v>1177</v>
+        <v>17398</v>
       </c>
       <c r="AC78" s="15" t="n">
-        <v>17398</v>
+        <v>0</v>
       </c>
       <c r="AD78" s="15" t="n">
         <v>0</v>
@@ -12658,61 +12658,61 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="15" t="n">
-        <v>0</v>
+        <v>21353</v>
       </c>
       <c r="AK78" s="15" t="n">
-        <v>21353</v>
+        <v>30220</v>
       </c>
       <c r="AL78" s="15" t="n">
-        <v>30220</v>
+        <v>46680</v>
       </c>
       <c r="AM78" s="15" t="n">
-        <v>46680</v>
+        <v>9844</v>
       </c>
       <c r="AN78" s="15" t="n">
-        <v>9844</v>
+        <v>12781</v>
       </c>
       <c r="AO78" s="15" t="n">
-        <v>12781</v>
+        <v>3890</v>
       </c>
       <c r="AP78" s="15" t="n">
-        <v>3890</v>
+        <v>45435</v>
       </c>
       <c r="AQ78" s="15" t="n">
-        <v>45435</v>
+        <v>17375</v>
       </c>
       <c r="AR78" s="15" t="n">
-        <v>17375</v>
+        <v>11173</v>
       </c>
       <c r="AS78" s="15" t="n">
-        <v>11173</v>
+        <v>17311</v>
       </c>
       <c r="AT78" s="15" t="n">
-        <v>17311</v>
+        <v>11430</v>
       </c>
       <c r="AU78" s="15" t="n">
-        <v>11430</v>
+        <v>9533</v>
       </c>
       <c r="AV78" s="15" t="n">
-        <v>9533</v>
+        <v>2900</v>
       </c>
       <c r="AW78" s="15" t="n">
-        <v>2900</v>
+        <v>54332</v>
       </c>
       <c r="AX78" s="15" t="n">
-        <v>54332</v>
+        <v>41400</v>
       </c>
       <c r="AY78" s="15" t="n">
-        <v>41400</v>
+        <v>65598</v>
       </c>
       <c r="AZ78" s="15" t="n">
-        <v>65598</v>
+        <v>1450</v>
       </c>
       <c r="BA78" s="15" t="n">
-        <v>1450</v>
+        <v>58726</v>
       </c>
       <c r="BB78" s="15" t="n">
-        <v>58726</v>
+        <v>37759</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12789,89 +12789,89 @@
       <c r="Z79" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AA79" s="16" t="s">
-        <v>60</v>
+      <c r="AA79" s="16" t="n">
+        <v>645</v>
       </c>
       <c r="AB79" s="16" t="n">
-        <v>645</v>
+        <v>1719</v>
       </c>
       <c r="AC79" s="16" t="n">
-        <v>1719</v>
+        <v>0</v>
       </c>
       <c r="AD79" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AE79" s="16" t="n">
-        <v>0</v>
+        <v>1523</v>
       </c>
       <c r="AF79" s="16" t="n">
-        <v>1523</v>
+        <v>336</v>
       </c>
       <c r="AG79" s="16" t="n">
-        <v>336</v>
+        <v>46475</v>
       </c>
       <c r="AH79" s="16" t="n">
-        <v>46475</v>
+        <v>91274</v>
       </c>
       <c r="AI79" s="16" t="n">
-        <v>91274</v>
+        <v>62623</v>
       </c>
       <c r="AJ79" s="16" t="n">
-        <v>62623</v>
+        <v>75018</v>
       </c>
       <c r="AK79" s="16" t="n">
-        <v>75018</v>
+        <v>56545</v>
       </c>
       <c r="AL79" s="16" t="n">
-        <v>56545</v>
+        <v>10701</v>
       </c>
       <c r="AM79" s="16" t="n">
-        <v>10701</v>
+        <v>16</v>
       </c>
       <c r="AN79" s="16" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="AO79" s="16" t="n">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="AP79" s="16" t="n">
-        <v>254</v>
+        <v>10086</v>
       </c>
       <c r="AQ79" s="16" t="n">
-        <v>10086</v>
+        <v>4158</v>
       </c>
       <c r="AR79" s="16" t="n">
-        <v>4158</v>
+        <v>23238</v>
       </c>
       <c r="AS79" s="16" t="n">
-        <v>23238</v>
+        <v>5789</v>
       </c>
       <c r="AT79" s="16" t="n">
-        <v>5789</v>
+        <v>9935</v>
       </c>
       <c r="AU79" s="16" t="n">
-        <v>9935</v>
+        <v>8998</v>
       </c>
       <c r="AV79" s="16" t="n">
-        <v>8998</v>
+        <v>61298</v>
       </c>
       <c r="AW79" s="16" t="n">
-        <v>61298</v>
+        <v>9673</v>
       </c>
       <c r="AX79" s="16" t="n">
-        <v>9673</v>
+        <v>4209</v>
       </c>
       <c r="AY79" s="16" t="n">
-        <v>4209</v>
+        <v>4288</v>
       </c>
       <c r="AZ79" s="16" t="n">
-        <v>4288</v>
+        <v>61044</v>
       </c>
       <c r="BA79" s="16" t="n">
-        <v>61044</v>
+        <v>4580</v>
       </c>
       <c r="BB79" s="16" t="n">
-        <v>4580</v>
+        <v>16448</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12972,65 +12972,65 @@
       <c r="AH80" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI80" s="15" t="s">
-        <v>60</v>
+      <c r="AI80" s="15" t="n">
+        <v>58236</v>
       </c>
       <c r="AJ80" s="15" t="n">
-        <v>58236</v>
+        <v>59344</v>
       </c>
       <c r="AK80" s="15" t="n">
-        <v>59344</v>
+        <v>48835</v>
       </c>
       <c r="AL80" s="15" t="n">
-        <v>48835</v>
+        <v>26710</v>
       </c>
       <c r="AM80" s="15" t="n">
-        <v>26710</v>
+        <v>42642</v>
       </c>
       <c r="AN80" s="15" t="n">
-        <v>42642</v>
+        <v>25062</v>
       </c>
       <c r="AO80" s="15" t="n">
-        <v>25062</v>
+        <v>15592</v>
       </c>
       <c r="AP80" s="15" t="n">
-        <v>15592</v>
+        <v>31625</v>
       </c>
       <c r="AQ80" s="15" t="n">
-        <v>31625</v>
+        <v>55558</v>
       </c>
       <c r="AR80" s="15" t="n">
-        <v>55558</v>
+        <v>86141</v>
       </c>
       <c r="AS80" s="15" t="n">
-        <v>86141</v>
+        <v>102480</v>
       </c>
       <c r="AT80" s="15" t="n">
-        <v>102480</v>
+        <v>32670</v>
       </c>
       <c r="AU80" s="15" t="n">
-        <v>32670</v>
+        <v>100453</v>
       </c>
       <c r="AV80" s="15" t="n">
-        <v>100453</v>
+        <v>11350</v>
       </c>
       <c r="AW80" s="15" t="n">
-        <v>11350</v>
+        <v>19008</v>
       </c>
       <c r="AX80" s="15" t="n">
-        <v>19008</v>
+        <v>75520</v>
       </c>
       <c r="AY80" s="15" t="n">
-        <v>75520</v>
+        <v>53354</v>
       </c>
       <c r="AZ80" s="15" t="n">
-        <v>53354</v>
+        <v>65640</v>
       </c>
       <c r="BA80" s="15" t="n">
-        <v>65640</v>
+        <v>63851</v>
       </c>
       <c r="BB80" s="15" t="n">
-        <v>63851</v>
+        <v>37336</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13131,8 +13131,8 @@
       <c r="AH81" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AI81" s="16" t="s">
-        <v>60</v>
+      <c r="AI81" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AJ81" s="16" t="n">
         <v>0</v>
@@ -13147,37 +13147,37 @@
         <v>0</v>
       </c>
       <c r="AN81" s="16" t="n">
-        <v>0</v>
+        <v>8450</v>
       </c>
       <c r="AO81" s="16" t="n">
-        <v>8450</v>
+        <v>0</v>
       </c>
       <c r="AP81" s="16" t="n">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="AQ81" s="16" t="n">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="AR81" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AS81" s="16" t="n">
-        <v>0</v>
+        <v>6825</v>
       </c>
       <c r="AT81" s="16" t="n">
-        <v>6825</v>
+        <v>4485</v>
       </c>
       <c r="AU81" s="16" t="n">
-        <v>4485</v>
+        <v>0</v>
       </c>
       <c r="AV81" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AW81" s="16" t="n">
-        <v>0</v>
+        <v>4550</v>
       </c>
       <c r="AX81" s="16" t="n">
-        <v>4550</v>
+        <v>0</v>
       </c>
       <c r="AY81" s="16" t="n">
         <v>0</v>
@@ -13290,8 +13290,8 @@
       <c r="AH82" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI82" s="15" t="s">
-        <v>60</v>
+      <c r="AI82" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AJ82" s="15" t="n">
         <v>0</v>
@@ -13300,55 +13300,55 @@
         <v>0</v>
       </c>
       <c r="AL82" s="15" t="n">
-        <v>0</v>
+        <v>11604</v>
       </c>
       <c r="AM82" s="15" t="n">
-        <v>11604</v>
+        <v>0</v>
       </c>
       <c r="AN82" s="15" t="n">
-        <v>0</v>
+        <v>12887</v>
       </c>
       <c r="AO82" s="15" t="n">
-        <v>12887</v>
+        <v>7398</v>
       </c>
       <c r="AP82" s="15" t="n">
-        <v>7398</v>
+        <v>0</v>
       </c>
       <c r="AQ82" s="15" t="n">
-        <v>0</v>
+        <v>2288</v>
       </c>
       <c r="AR82" s="15" t="n">
-        <v>2288</v>
+        <v>78</v>
       </c>
       <c r="AS82" s="15" t="n">
-        <v>78</v>
+        <v>30753</v>
       </c>
       <c r="AT82" s="15" t="n">
-        <v>30753</v>
+        <v>18621</v>
       </c>
       <c r="AU82" s="15" t="n">
-        <v>18621</v>
+        <v>89</v>
       </c>
       <c r="AV82" s="15" t="n">
-        <v>89</v>
+        <v>19009</v>
       </c>
       <c r="AW82" s="15" t="n">
-        <v>19009</v>
+        <v>7699</v>
       </c>
       <c r="AX82" s="15" t="n">
-        <v>7699</v>
+        <v>0</v>
       </c>
       <c r="AY82" s="15" t="n">
-        <v>0</v>
+        <v>13615</v>
       </c>
       <c r="AZ82" s="15" t="n">
-        <v>13615</v>
+        <v>29246</v>
       </c>
       <c r="BA82" s="15" t="n">
-        <v>29246</v>
+        <v>14530</v>
       </c>
       <c r="BB82" s="15" t="n">
-        <v>14530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13449,26 +13449,26 @@
       <c r="AH83" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AI83" s="16" t="s">
-        <v>60</v>
+      <c r="AI83" s="16" t="n">
+        <v>18953</v>
       </c>
       <c r="AJ83" s="16" t="n">
-        <v>18953</v>
+        <v>35459</v>
       </c>
       <c r="AK83" s="16" t="n">
-        <v>35459</v>
+        <v>70860</v>
       </c>
       <c r="AL83" s="16" t="n">
-        <v>70860</v>
+        <v>0</v>
       </c>
       <c r="AM83" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AN83" s="16" t="n">
-        <v>0</v>
+        <v>56474</v>
       </c>
       <c r="AO83" s="16" t="n">
-        <v>56474</v>
+        <v>0</v>
       </c>
       <c r="AP83" s="16" t="n">
         <v>0</v>
@@ -13477,37 +13477,37 @@
         <v>0</v>
       </c>
       <c r="AR83" s="16" t="n">
-        <v>0</v>
+        <v>65565</v>
       </c>
       <c r="AS83" s="16" t="n">
-        <v>65565</v>
+        <v>9216</v>
       </c>
       <c r="AT83" s="16" t="n">
-        <v>9216</v>
+        <v>40338</v>
       </c>
       <c r="AU83" s="16" t="n">
-        <v>40338</v>
+        <v>0</v>
       </c>
       <c r="AV83" s="16" t="n">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="AW83" s="16" t="n">
-        <v>15900</v>
+        <v>15</v>
       </c>
       <c r="AX83" s="16" t="n">
-        <v>15</v>
+        <v>75300</v>
       </c>
       <c r="AY83" s="16" t="n">
-        <v>75300</v>
+        <v>37950</v>
       </c>
       <c r="AZ83" s="16" t="n">
-        <v>37950</v>
+        <v>48463</v>
       </c>
       <c r="BA83" s="16" t="n">
-        <v>48463</v>
+        <v>750</v>
       </c>
       <c r="BB83" s="16" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13608,8 +13608,8 @@
       <c r="AH84" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI84" s="15" t="s">
-        <v>60</v>
+      <c r="AI84" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AJ84" s="15" t="n">
         <v>0</v>
@@ -13618,34 +13618,34 @@
         <v>0</v>
       </c>
       <c r="AL84" s="15" t="n">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="AM84" s="15" t="n">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="AN84" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AO84" s="15" t="n">
-        <v>0</v>
+        <v>4560</v>
       </c>
       <c r="AP84" s="15" t="n">
-        <v>4560</v>
+        <v>0</v>
       </c>
       <c r="AQ84" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AR84" s="15" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="AS84" s="15" t="n">
-        <v>864</v>
+        <v>2880</v>
       </c>
       <c r="AT84" s="15" t="n">
         <v>2880</v>
       </c>
       <c r="AU84" s="15" t="n">
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="AV84" s="15" t="n">
         <v>0</v>
@@ -13663,10 +13663,10 @@
         <v>0</v>
       </c>
       <c r="BA84" s="15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BB84" s="15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13767,8 +13767,8 @@
       <c r="AH85" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AI85" s="16" t="s">
-        <v>60</v>
+      <c r="AI85" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AJ85" s="16" t="n">
         <v>0</v>
@@ -13810,10 +13810,10 @@
         <v>0</v>
       </c>
       <c r="AW85" s="16" t="n">
-        <v>0</v>
+        <v>3960</v>
       </c>
       <c r="AX85" s="16" t="n">
-        <v>3960</v>
+        <v>0</v>
       </c>
       <c r="AY85" s="16" t="n">
         <v>0</v>
@@ -13935,11 +13935,11 @@
       <c r="AK86" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL86" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM86" s="15" t="n">
-        <v>0</v>
+      <c r="AL86" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM86" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AN86" s="15" t="s">
         <v>60</v>
@@ -13947,8 +13947,8 @@
       <c r="AO86" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AP86" s="15" t="s">
-        <v>60</v>
+      <c r="AP86" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AQ86" s="15" t="n">
         <v>0</v>
@@ -14148,11 +14148,11 @@
       <c r="AJ88" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AK88" s="16" t="s">
-        <v>60</v>
+      <c r="AK88" s="16" t="n">
+        <v>1326</v>
       </c>
       <c r="AL88" s="16" t="n">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="AM88" s="16" t="n">
         <v>0</v>
@@ -14259,8 +14259,8 @@
       <c r="T89" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U89" s="18" t="s">
-        <v>60</v>
+      <c r="U89" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V89" s="21" t="n">
         <v>0</v>
@@ -14308,10 +14308,10 @@
         <v>0</v>
       </c>
       <c r="AK89" s="21" t="n">
-        <v>0</v>
+        <v>1326</v>
       </c>
       <c r="AL89" s="21" t="n">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="AM89" s="21" t="n">
         <v>0</v>
@@ -14475,8 +14475,8 @@
       <c r="T91" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="U91" s="16" t="s">
-        <v>60</v>
+      <c r="U91" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V91" s="16" t="n">
         <v>0</v>
@@ -14502,8 +14502,8 @@
       <c r="AC91" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD91" s="16" t="n">
-        <v>0</v>
+      <c r="AD91" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AE91" s="16" t="s">
         <v>60</v>
@@ -14511,11 +14511,11 @@
       <c r="AF91" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AG91" s="16" t="s">
-        <v>60</v>
+      <c r="AG91" s="16" t="n">
+        <v>-3456</v>
       </c>
       <c r="AH91" s="16" t="n">
-        <v>-3456</v>
+        <v>0</v>
       </c>
       <c r="AI91" s="16" t="n">
         <v>0</v>
@@ -14538,8 +14538,8 @@
       <c r="AO91" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP91" s="16" t="n">
-        <v>0</v>
+      <c r="AP91" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AQ91" s="16" t="s">
         <v>60</v>
@@ -14547,8 +14547,8 @@
       <c r="AR91" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AS91" s="16" t="s">
-        <v>60</v>
+      <c r="AS91" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AT91" s="16" t="n">
         <v>0</v>
@@ -14574,8 +14574,8 @@
       <c r="BA91" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB91" s="16" t="n">
-        <v>0</v>
+      <c r="BB91" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14700,20 +14700,20 @@
       <c r="AP92" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AQ92" s="15" t="s">
-        <v>60</v>
+      <c r="AQ92" s="15" t="n">
+        <v>-3596</v>
       </c>
       <c r="AR92" s="15" t="n">
-        <v>-3596</v>
+        <v>0</v>
       </c>
       <c r="AS92" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AT92" s="15" t="n">
-        <v>0</v>
+        <v>-3623</v>
       </c>
       <c r="AU92" s="15" t="n">
-        <v>-3623</v>
+        <v>0</v>
       </c>
       <c r="AV92" s="15" t="n">
         <v>0</v>
@@ -14725,16 +14725,16 @@
         <v>0</v>
       </c>
       <c r="AY92" s="15" t="n">
-        <v>0</v>
+        <v>-375</v>
       </c>
       <c r="AZ92" s="15" t="n">
-        <v>-375</v>
+        <v>0</v>
       </c>
       <c r="BA92" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="BB92" s="15" t="n">
-        <v>0</v>
+      <c r="BB92" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14805,11 +14805,11 @@
       <c r="X93" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Y93" s="16" t="s">
-        <v>60</v>
+      <c r="Y93" s="16" t="n">
+        <v>-1056</v>
       </c>
       <c r="Z93" s="16" t="n">
-        <v>-1056</v>
+        <v>0</v>
       </c>
       <c r="AA93" s="16" t="n">
         <v>0</v>
@@ -14818,11 +14818,11 @@
         <v>0</v>
       </c>
       <c r="AC93" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD93" s="16" t="n">
         <v>-992</v>
       </c>
+      <c r="AD93" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AE93" s="16" t="s">
         <v>60</v>
       </c>
@@ -14832,11 +14832,11 @@
       <c r="AG93" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AH93" s="16" t="s">
-        <v>60</v>
+      <c r="AH93" s="16" t="n">
+        <v>-1668</v>
       </c>
       <c r="AI93" s="16" t="n">
-        <v>-1668</v>
+        <v>0</v>
       </c>
       <c r="AJ93" s="16" t="n">
         <v>0</v>
@@ -14854,11 +14854,11 @@
         <v>0</v>
       </c>
       <c r="AO93" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP93" s="16" t="n">
         <v>-480</v>
       </c>
+      <c r="AP93" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AQ93" s="16" t="s">
         <v>60</v>
       </c>
@@ -14868,11 +14868,11 @@
       <c r="AS93" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AT93" s="16" t="s">
-        <v>60</v>
+      <c r="AT93" s="16" t="n">
+        <v>-15225</v>
       </c>
       <c r="AU93" s="16" t="n">
-        <v>-15225</v>
+        <v>0</v>
       </c>
       <c r="AV93" s="16" t="n">
         <v>0</v>
@@ -14892,8 +14892,8 @@
       <c r="BA93" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB93" s="16" t="n">
-        <v>0</v>
+      <c r="BB93" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14958,8 +14958,8 @@
       <c r="V94" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W94" s="15" t="s">
-        <v>60</v>
+      <c r="W94" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="X94" s="15" t="n">
         <v>0</v>
@@ -14979,8 +14979,8 @@
       <c r="AC94" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AD94" s="15" t="n">
-        <v>0</v>
+      <c r="AD94" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AE94" s="15" t="s">
         <v>60</v>
@@ -15009,14 +15009,14 @@
       <c r="AM94" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AN94" s="15" t="s">
-        <v>60</v>
+      <c r="AN94" s="15" t="n">
+        <v>-194</v>
       </c>
       <c r="AO94" s="15" t="n">
-        <v>-194</v>
-      </c>
-      <c r="AP94" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP94" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AQ94" s="15" t="s">
         <v>60</v>
@@ -15045,14 +15045,14 @@
       <c r="AY94" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AZ94" s="15" t="s">
-        <v>60</v>
+      <c r="AZ94" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="BA94" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="BB94" s="15" t="n">
-        <v>0</v>
+      <c r="BB94" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15147,14 +15147,14 @@
       <c r="AF95" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AG95" s="16" t="s">
-        <v>60</v>
+      <c r="AG95" s="16" t="n">
+        <v>-100</v>
       </c>
       <c r="AH95" s="16" t="n">
-        <v>-100</v>
+        <v>-520</v>
       </c>
       <c r="AI95" s="16" t="n">
-        <v>-520</v>
+        <v>0</v>
       </c>
       <c r="AJ95" s="16" t="n">
         <v>0</v>
@@ -15174,8 +15174,8 @@
       <c r="AO95" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP95" s="16" t="n">
-        <v>0</v>
+      <c r="AP95" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AQ95" s="16" t="s">
         <v>60</v>
@@ -15183,8 +15183,8 @@
       <c r="AR95" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AS95" s="16" t="s">
-        <v>60</v>
+      <c r="AS95" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AT95" s="16" t="n">
         <v>0</v>
@@ -15210,8 +15210,8 @@
       <c r="BA95" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB95" s="16" t="n">
-        <v>0</v>
+      <c r="BB95" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15306,11 +15306,11 @@
       <c r="AF96" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG96" s="15" t="s">
-        <v>60</v>
+      <c r="AG96" s="15" t="n">
+        <v>-542</v>
       </c>
       <c r="AH96" s="15" t="n">
-        <v>-542</v>
+        <v>0</v>
       </c>
       <c r="AI96" s="15" t="n">
         <v>0</v>
@@ -15325,31 +15325,31 @@
         <v>0</v>
       </c>
       <c r="AM96" s="15" t="n">
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="AN96" s="15" t="n">
-        <v>-630</v>
+        <v>0</v>
       </c>
       <c r="AO96" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AP96" s="15" t="n">
-        <v>0</v>
+      <c r="AP96" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AQ96" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AR96" s="15" t="s">
-        <v>60</v>
+      <c r="AR96" s="15" t="n">
+        <v>-901</v>
       </c>
       <c r="AS96" s="15" t="n">
-        <v>-901</v>
+        <v>0</v>
       </c>
       <c r="AT96" s="15" t="n">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="AU96" s="15" t="n">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AV96" s="15" t="n">
         <v>0</v>
@@ -15369,8 +15369,8 @@
       <c r="BA96" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="BB96" s="15" t="n">
-        <v>0</v>
+      <c r="BB96" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15429,8 +15429,8 @@
       <c r="T97" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="U97" s="20" t="s">
-        <v>60</v>
+      <c r="U97" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V97" s="22" t="n">
         <v>0</v>
@@ -15442,10 +15442,10 @@
         <v>0</v>
       </c>
       <c r="Y97" s="22" t="n">
-        <v>0</v>
+        <v>-1056</v>
       </c>
       <c r="Z97" s="22" t="n">
-        <v>-1056</v>
+        <v>0</v>
       </c>
       <c r="AA97" s="22" t="n">
         <v>0</v>
@@ -15454,10 +15454,10 @@
         <v>0</v>
       </c>
       <c r="AC97" s="22" t="n">
-        <v>0</v>
+        <v>-992</v>
       </c>
       <c r="AD97" s="22" t="n">
-        <v>-992</v>
+        <v>0</v>
       </c>
       <c r="AE97" s="22" t="n">
         <v>0</v>
@@ -15466,13 +15466,13 @@
         <v>0</v>
       </c>
       <c r="AG97" s="22" t="n">
-        <v>0</v>
+        <v>-4098</v>
       </c>
       <c r="AH97" s="22" t="n">
-        <v>-4098</v>
+        <v>-2188</v>
       </c>
       <c r="AI97" s="22" t="n">
-        <v>-2188</v>
+        <v>0</v>
       </c>
       <c r="AJ97" s="22" t="n">
         <v>0</v>
@@ -15484,31 +15484,31 @@
         <v>0</v>
       </c>
       <c r="AM97" s="22" t="n">
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="AN97" s="22" t="n">
-        <v>-630</v>
+        <v>-194</v>
       </c>
       <c r="AO97" s="22" t="n">
-        <v>-194</v>
+        <v>-480</v>
       </c>
       <c r="AP97" s="22" t="n">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AQ97" s="22" t="n">
-        <v>0</v>
+        <v>-3596</v>
       </c>
       <c r="AR97" s="22" t="n">
-        <v>-3596</v>
+        <v>-901</v>
       </c>
       <c r="AS97" s="22" t="n">
-        <v>-901</v>
+        <v>0</v>
       </c>
       <c r="AT97" s="22" t="n">
-        <v>0</v>
+        <v>-18921</v>
       </c>
       <c r="AU97" s="22" t="n">
-        <v>-18921</v>
+        <v>0</v>
       </c>
       <c r="AV97" s="22" t="n">
         <v>0</v>
@@ -15520,10 +15520,10 @@
         <v>0</v>
       </c>
       <c r="AY97" s="22" t="n">
-        <v>0</v>
+        <v>-375</v>
       </c>
       <c r="AZ97" s="22" t="n">
-        <v>-375</v>
+        <v>0</v>
       </c>
       <c r="BA97" s="22" t="n">
         <v>0</v>
@@ -15645,8 +15645,8 @@
       <c r="T99" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="U99" s="16" t="s">
-        <v>60</v>
+      <c r="U99" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V99" s="16" t="n">
         <v>0</v>
@@ -15755,154 +15755,154 @@
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
       <c r="E100" s="21" t="n">
-        <v>100037</v>
+        <v>49458</v>
       </c>
       <c r="F100" s="21" t="n">
-        <v>49458</v>
+        <v>55913</v>
       </c>
       <c r="G100" s="21" t="n">
-        <v>55913</v>
+        <v>110480</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>110480</v>
+        <v>170958</v>
       </c>
       <c r="I100" s="21" t="n">
-        <v>170958</v>
+        <v>155741</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>155741</v>
+        <v>149035</v>
       </c>
       <c r="K100" s="21" t="n">
-        <v>149035</v>
+        <v>125976</v>
       </c>
       <c r="L100" s="21" t="n">
-        <v>125976</v>
+        <v>160330</v>
       </c>
       <c r="M100" s="21" t="n">
-        <v>160330</v>
+        <v>158422</v>
       </c>
       <c r="N100" s="21" t="n">
-        <v>158422</v>
+        <v>190200</v>
       </c>
       <c r="O100" s="21" t="n">
-        <v>190200</v>
+        <v>198462</v>
       </c>
       <c r="P100" s="21" t="n">
-        <v>198462</v>
+        <v>160140</v>
       </c>
       <c r="Q100" s="21" t="n">
-        <v>160140</v>
+        <v>101184</v>
       </c>
       <c r="R100" s="21" t="n">
-        <v>101184</v>
+        <v>103261</v>
       </c>
       <c r="S100" s="21" t="n">
-        <v>103261</v>
+        <v>248525</v>
       </c>
       <c r="T100" s="21" t="n">
-        <v>248525</v>
+        <v>253708</v>
       </c>
       <c r="U100" s="21" t="n">
-        <v>253708</v>
+        <v>253310</v>
       </c>
       <c r="V100" s="21" t="n">
-        <v>253310</v>
+        <v>220000</v>
       </c>
       <c r="W100" s="21" t="n">
-        <v>220000</v>
+        <v>215650</v>
       </c>
       <c r="X100" s="21" t="n">
-        <v>215650</v>
+        <v>221449</v>
       </c>
       <c r="Y100" s="21" t="n">
-        <v>221449</v>
+        <v>208761</v>
       </c>
       <c r="Z100" s="21" t="n">
-        <v>208761</v>
+        <v>221387</v>
       </c>
       <c r="AA100" s="21" t="n">
-        <v>221387</v>
+        <v>220366</v>
       </c>
       <c r="AB100" s="21" t="n">
-        <v>220366</v>
+        <v>173808</v>
       </c>
       <c r="AC100" s="21" t="n">
-        <v>173808</v>
+        <v>100771</v>
       </c>
       <c r="AD100" s="21" t="n">
-        <v>100771</v>
+        <v>282391</v>
       </c>
       <c r="AE100" s="21" t="n">
-        <v>282391</v>
+        <v>324369</v>
       </c>
       <c r="AF100" s="21" t="n">
-        <v>324369</v>
+        <v>350843</v>
       </c>
       <c r="AG100" s="21" t="n">
-        <v>350843</v>
+        <v>379957</v>
       </c>
       <c r="AH100" s="21" t="n">
-        <v>379957</v>
+        <v>405327</v>
       </c>
       <c r="AI100" s="21" t="n">
-        <v>405327</v>
+        <v>444164</v>
       </c>
       <c r="AJ100" s="21" t="n">
-        <v>444164</v>
+        <v>449046</v>
       </c>
       <c r="AK100" s="21" t="n">
-        <v>449046</v>
+        <v>430692</v>
       </c>
       <c r="AL100" s="21" t="n">
-        <v>430692</v>
+        <v>423980</v>
       </c>
       <c r="AM100" s="21" t="n">
-        <v>423980</v>
+        <v>321039</v>
       </c>
       <c r="AN100" s="21" t="n">
-        <v>321039</v>
+        <v>327708</v>
       </c>
       <c r="AO100" s="21" t="n">
-        <v>327708</v>
+        <v>159122</v>
       </c>
       <c r="AP100" s="21" t="n">
-        <v>159122</v>
+        <v>359618</v>
       </c>
       <c r="AQ100" s="21" t="n">
-        <v>359618</v>
+        <v>400258</v>
       </c>
       <c r="AR100" s="21" t="n">
-        <v>400258</v>
+        <v>450537</v>
       </c>
       <c r="AS100" s="21" t="n">
-        <v>450537</v>
+        <v>452214</v>
       </c>
       <c r="AT100" s="21" t="n">
-        <v>452214</v>
+        <v>451918</v>
       </c>
       <c r="AU100" s="21" t="n">
-        <v>451918</v>
+        <v>545533</v>
       </c>
       <c r="AV100" s="21" t="n">
-        <v>545533</v>
+        <v>615385</v>
       </c>
       <c r="AW100" s="21" t="n">
-        <v>615385</v>
+        <v>1856204</v>
       </c>
       <c r="AX100" s="21" t="n">
-        <v>1856204</v>
+        <v>1223528</v>
       </c>
       <c r="AY100" s="21" t="n">
-        <v>1223528</v>
+        <v>1283807</v>
       </c>
       <c r="AZ100" s="21" t="n">
-        <v>1283807</v>
+        <v>1271600</v>
       </c>
       <c r="BA100" s="21" t="n">
-        <v>1271600</v>
+        <v>909203</v>
       </c>
       <c r="BB100" s="21" t="n">
-        <v>909203</v>
+        <v>891363</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16348,154 +16348,154 @@
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="16" t="n">
-        <v>0</v>
+        <v>3350099</v>
       </c>
       <c r="F107" s="16" t="n">
-        <v>3350099</v>
+        <v>0</v>
       </c>
       <c r="G107" s="16" t="n">
-        <v>0</v>
+        <v>5567568</v>
       </c>
       <c r="H107" s="16" t="n">
-        <v>5567568</v>
+        <v>0</v>
       </c>
       <c r="I107" s="16" t="n">
-        <v>0</v>
+        <v>3921311</v>
       </c>
       <c r="J107" s="16" t="n">
-        <v>3921311</v>
+        <v>0</v>
       </c>
       <c r="K107" s="16" t="n">
-        <v>0</v>
+        <v>2569686</v>
       </c>
       <c r="L107" s="16" t="n">
-        <v>2569686</v>
+        <v>0</v>
       </c>
       <c r="M107" s="16" t="n">
-        <v>0</v>
+        <v>3191570</v>
       </c>
       <c r="N107" s="16" t="n">
-        <v>3191570</v>
+        <v>2798633</v>
       </c>
       <c r="O107" s="16" t="n">
-        <v>2798633</v>
+        <v>3349815</v>
       </c>
       <c r="P107" s="16" t="n">
-        <v>3349815</v>
+        <v>1977230</v>
       </c>
       <c r="Q107" s="16" t="n">
-        <v>1977230</v>
-      </c>
-      <c r="R107" s="16" t="n">
         <v>3348354</v>
       </c>
-      <c r="S107" s="16" t="s">
-        <v>60</v>
+      <c r="R107" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="S107" s="16" t="n">
+        <v>3677008</v>
       </c>
       <c r="T107" s="16" t="n">
-        <v>3677008</v>
+        <v>3256083</v>
       </c>
       <c r="U107" s="16" t="n">
-        <v>3256083</v>
+        <v>3964396</v>
       </c>
       <c r="V107" s="16" t="n">
-        <v>3964396</v>
+        <v>4084078</v>
       </c>
       <c r="W107" s="16" t="n">
-        <v>4084078</v>
+        <v>4199450</v>
       </c>
       <c r="X107" s="16" t="n">
-        <v>4199450</v>
+        <v>4849741</v>
       </c>
       <c r="Y107" s="16" t="n">
-        <v>4849741</v>
+        <v>5404830</v>
       </c>
       <c r="Z107" s="16" t="n">
-        <v>5404830</v>
+        <v>5082849</v>
       </c>
       <c r="AA107" s="16" t="n">
-        <v>5082849</v>
+        <v>4999044</v>
       </c>
       <c r="AB107" s="16" t="n">
-        <v>4999044</v>
-      </c>
-      <c r="AC107" s="16" t="n">
         <v>5501946</v>
       </c>
-      <c r="AD107" s="16" t="s">
-        <v>60</v>
+      <c r="AC107" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD107" s="16" t="n">
+        <v>4448388</v>
       </c>
       <c r="AE107" s="16" t="n">
-        <v>4448388</v>
+        <v>6000380</v>
       </c>
       <c r="AF107" s="16" t="n">
-        <v>6000380</v>
+        <v>6000000</v>
       </c>
       <c r="AG107" s="16" t="n">
+        <v>5934452</v>
+      </c>
+      <c r="AH107" s="16" t="n">
+        <v>5490863</v>
+      </c>
+      <c r="AI107" s="16" t="n">
+        <v>4999583</v>
+      </c>
+      <c r="AJ107" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK107" s="16" t="n">
+        <v>5749232</v>
+      </c>
+      <c r="AL107" s="16" t="n">
+        <v>5879889</v>
+      </c>
+      <c r="AM107" s="16" t="n">
+        <v>5625737</v>
+      </c>
+      <c r="AN107" s="16" t="n">
+        <v>5527167</v>
+      </c>
+      <c r="AO107" s="16" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="AP107" s="16" t="n">
+        <v>6273764</v>
+      </c>
+      <c r="AQ107" s="16" t="n">
+        <v>6416496</v>
+      </c>
+      <c r="AR107" s="16" t="n">
+        <v>6753967</v>
+      </c>
+      <c r="AS107" s="16" t="n">
+        <v>6548980</v>
+      </c>
+      <c r="AT107" s="16" t="n">
+        <v>7459488</v>
+      </c>
+      <c r="AU107" s="16" t="n">
         <v>6000000</v>
       </c>
-      <c r="AH107" s="16" t="n">
-        <v>5934452</v>
-      </c>
-      <c r="AI107" s="16" t="n">
-        <v>5490863</v>
-      </c>
-      <c r="AJ107" s="16" t="n">
-        <v>4999583</v>
-      </c>
-      <c r="AK107" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL107" s="16" t="n">
-        <v>5749232</v>
-      </c>
-      <c r="AM107" s="16" t="n">
-        <v>5879889</v>
-      </c>
-      <c r="AN107" s="16" t="n">
-        <v>5625737</v>
-      </c>
-      <c r="AO107" s="16" t="n">
-        <v>5527167</v>
-      </c>
-      <c r="AP107" s="16" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="AQ107" s="16" t="n">
-        <v>6273764</v>
-      </c>
-      <c r="AR107" s="16" t="n">
-        <v>6416496</v>
-      </c>
-      <c r="AS107" s="16" t="n">
-        <v>6753967</v>
-      </c>
-      <c r="AT107" s="16" t="n">
-        <v>6548980</v>
-      </c>
-      <c r="AU107" s="16" t="n">
-        <v>7459488</v>
-      </c>
       <c r="AV107" s="16" t="n">
-        <v>6000000</v>
+        <v>7007386</v>
       </c>
       <c r="AW107" s="16" t="n">
-        <v>7007386</v>
+        <v>6986919</v>
       </c>
       <c r="AX107" s="16" t="n">
-        <v>6986919</v>
+        <v>6955135</v>
       </c>
       <c r="AY107" s="16" t="n">
-        <v>6955135</v>
+        <v>8000000</v>
       </c>
       <c r="AZ107" s="16" t="n">
-        <v>8000000</v>
+        <v>6725814</v>
       </c>
       <c r="BA107" s="16" t="n">
-        <v>6725814</v>
-      </c>
-      <c r="BB107" s="16" t="n">
         <v>6833333</v>
+      </c>
+      <c r="BB107" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16507,154 +16507,154 @@
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="15" t="n">
-        <v>1500000</v>
+        <v>1451325</v>
       </c>
       <c r="F108" s="15" t="n">
-        <v>1451325</v>
+        <v>1444343</v>
       </c>
       <c r="G108" s="15" t="n">
-        <v>1444343</v>
+        <v>1437966</v>
       </c>
       <c r="H108" s="15" t="n">
-        <v>1437966</v>
+        <v>1682966</v>
       </c>
       <c r="I108" s="15" t="n">
-        <v>1682966</v>
+        <v>0</v>
       </c>
       <c r="J108" s="15" t="n">
-        <v>0</v>
+        <v>1934213</v>
       </c>
       <c r="K108" s="15" t="n">
-        <v>1934213</v>
+        <v>1611111</v>
       </c>
       <c r="L108" s="15" t="n">
-        <v>1611111</v>
+        <v>1850438</v>
       </c>
       <c r="M108" s="15" t="n">
-        <v>1850438</v>
+        <v>2100763</v>
       </c>
       <c r="N108" s="15" t="n">
-        <v>2100763</v>
+        <v>2000000</v>
       </c>
       <c r="O108" s="15" t="n">
-        <v>2000000</v>
+        <v>1682879</v>
       </c>
       <c r="P108" s="15" t="n">
-        <v>1682879</v>
+        <v>2159565</v>
       </c>
       <c r="Q108" s="15" t="n">
-        <v>2159565</v>
+        <v>2226776</v>
       </c>
       <c r="R108" s="15" t="n">
-        <v>2226776</v>
+        <v>2454437</v>
       </c>
       <c r="S108" s="15" t="n">
-        <v>2454437</v>
+        <v>5895833</v>
       </c>
       <c r="T108" s="15" t="n">
-        <v>5895833</v>
+        <v>2266389</v>
       </c>
       <c r="U108" s="15" t="n">
-        <v>2266389</v>
+        <v>2370167</v>
       </c>
       <c r="V108" s="15" t="n">
-        <v>2370167</v>
+        <v>1764059</v>
       </c>
       <c r="W108" s="15" t="n">
-        <v>1764059</v>
+        <v>1965344</v>
       </c>
       <c r="X108" s="15" t="n">
-        <v>1965344</v>
+        <v>3468737</v>
       </c>
       <c r="Y108" s="15" t="n">
-        <v>3468737</v>
+        <v>2343713</v>
       </c>
       <c r="Z108" s="15" t="n">
-        <v>2343713</v>
+        <v>2598895</v>
       </c>
       <c r="AA108" s="15" t="n">
-        <v>2598895</v>
+        <v>3272920</v>
       </c>
       <c r="AB108" s="15" t="n">
-        <v>3272920</v>
+        <v>3686536</v>
       </c>
       <c r="AC108" s="15" t="n">
-        <v>3686536</v>
-      </c>
-      <c r="AD108" s="15" t="n">
         <v>9613872</v>
       </c>
-      <c r="AE108" s="15" t="s">
-        <v>60</v>
+      <c r="AD108" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE108" s="15" t="n">
+        <v>9499804</v>
       </c>
       <c r="AF108" s="15" t="n">
-        <v>9499804</v>
+        <v>14959583</v>
       </c>
       <c r="AG108" s="15" t="n">
-        <v>14959583</v>
+        <v>8586863</v>
       </c>
       <c r="AH108" s="15" t="n">
-        <v>8586863</v>
+        <v>8059984</v>
       </c>
       <c r="AI108" s="15" t="n">
-        <v>8059984</v>
+        <v>6945882</v>
       </c>
       <c r="AJ108" s="15" t="n">
-        <v>6945882</v>
+        <v>8521869</v>
       </c>
       <c r="AK108" s="15" t="n">
-        <v>8521869</v>
+        <v>7421734</v>
       </c>
       <c r="AL108" s="15" t="n">
-        <v>7421734</v>
+        <v>7221334</v>
       </c>
       <c r="AM108" s="15" t="n">
-        <v>7221334</v>
+        <v>6534422</v>
       </c>
       <c r="AN108" s="15" t="n">
-        <v>6534422</v>
+        <v>5827541</v>
       </c>
       <c r="AO108" s="15" t="n">
-        <v>5827541</v>
+        <v>16160683</v>
       </c>
       <c r="AP108" s="15" t="n">
-        <v>16160683</v>
+        <v>5592846</v>
       </c>
       <c r="AQ108" s="15" t="n">
-        <v>5592846</v>
+        <v>7592380</v>
       </c>
       <c r="AR108" s="15" t="n">
-        <v>7592380</v>
+        <v>6720019</v>
       </c>
       <c r="AS108" s="15" t="n">
-        <v>6720019</v>
+        <v>6384809</v>
       </c>
       <c r="AT108" s="15" t="n">
-        <v>6384809</v>
+        <v>13546339</v>
       </c>
       <c r="AU108" s="15" t="n">
-        <v>13546339</v>
+        <v>41292703</v>
       </c>
       <c r="AV108" s="15" t="n">
-        <v>41292703</v>
+        <v>6458358</v>
       </c>
       <c r="AW108" s="15" t="n">
-        <v>6458358</v>
+        <v>13005246</v>
       </c>
       <c r="AX108" s="15" t="n">
-        <v>13005246</v>
+        <v>9404679</v>
       </c>
       <c r="AY108" s="15" t="n">
-        <v>9404679</v>
+        <v>16939663</v>
       </c>
       <c r="AZ108" s="15" t="n">
-        <v>16939663</v>
+        <v>9119521</v>
       </c>
       <c r="BA108" s="15" t="n">
-        <v>9119521</v>
+        <v>9081854</v>
       </c>
       <c r="BB108" s="15" t="n">
-        <v>9081854</v>
+        <v>9547498</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16666,154 +16666,154 @@
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="16" t="n">
-        <v>5565402</v>
+        <v>6998379</v>
       </c>
       <c r="F109" s="16" t="n">
-        <v>6998379</v>
+        <v>5130716</v>
       </c>
       <c r="G109" s="16" t="n">
-        <v>5130716</v>
+        <v>5977198</v>
       </c>
       <c r="H109" s="16" t="n">
-        <v>5977198</v>
+        <v>6776810</v>
       </c>
       <c r="I109" s="16" t="n">
-        <v>6776810</v>
+        <v>7999086</v>
       </c>
       <c r="J109" s="16" t="n">
-        <v>7999086</v>
+        <v>8000202</v>
       </c>
       <c r="K109" s="16" t="n">
-        <v>8000202</v>
+        <v>8358841</v>
       </c>
       <c r="L109" s="16" t="n">
-        <v>8358841</v>
+        <v>8000000</v>
       </c>
       <c r="M109" s="16" t="n">
-        <v>8000000</v>
+        <v>5705511</v>
       </c>
       <c r="N109" s="16" t="n">
-        <v>5705511</v>
+        <v>4479664</v>
       </c>
       <c r="O109" s="16" t="n">
-        <v>4479664</v>
+        <v>6147936</v>
       </c>
       <c r="P109" s="16" t="n">
-        <v>6147936</v>
+        <v>4951610</v>
       </c>
       <c r="Q109" s="16" t="n">
-        <v>4951610</v>
+        <v>2086957</v>
       </c>
       <c r="R109" s="16" t="n">
-        <v>2086957</v>
+        <v>6731415</v>
       </c>
       <c r="S109" s="16" t="n">
-        <v>6731415</v>
+        <v>9436774</v>
       </c>
       <c r="T109" s="16" t="n">
-        <v>9436774</v>
+        <v>9398790</v>
       </c>
       <c r="U109" s="16" t="n">
-        <v>9398790</v>
+        <v>8820755</v>
       </c>
       <c r="V109" s="16" t="n">
-        <v>8820755</v>
+        <v>8356281</v>
       </c>
       <c r="W109" s="16" t="n">
-        <v>8356281</v>
+        <v>7389861</v>
       </c>
       <c r="X109" s="16" t="n">
-        <v>7389861</v>
+        <v>7006415</v>
       </c>
       <c r="Y109" s="16" t="n">
-        <v>7006415</v>
+        <v>5514490</v>
       </c>
       <c r="Z109" s="16" t="n">
-        <v>5514490</v>
+        <v>5776905</v>
       </c>
       <c r="AA109" s="16" t="n">
-        <v>5776905</v>
+        <v>9547742</v>
       </c>
       <c r="AB109" s="16" t="n">
-        <v>9547742</v>
-      </c>
-      <c r="AC109" s="16" t="n">
         <v>7500000</v>
       </c>
-      <c r="AD109" s="16" t="s">
-        <v>60</v>
+      <c r="AC109" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD109" s="16" t="n">
+        <v>8829659</v>
       </c>
       <c r="AE109" s="16" t="n">
-        <v>8829659</v>
+        <v>11358713</v>
       </c>
       <c r="AF109" s="16" t="n">
-        <v>11358713</v>
+        <v>13204909</v>
       </c>
       <c r="AG109" s="16" t="n">
-        <v>13204909</v>
+        <v>12662631</v>
       </c>
       <c r="AH109" s="16" t="n">
-        <v>12662631</v>
+        <v>3500620</v>
       </c>
       <c r="AI109" s="16" t="n">
-        <v>3500620</v>
+        <v>12725960</v>
       </c>
       <c r="AJ109" s="16" t="n">
-        <v>12725960</v>
+        <v>11947568</v>
       </c>
       <c r="AK109" s="16" t="n">
-        <v>11947568</v>
+        <v>12000000</v>
       </c>
       <c r="AL109" s="16" t="n">
-        <v>12000000</v>
+        <v>11601440</v>
       </c>
       <c r="AM109" s="16" t="n">
-        <v>11601440</v>
+        <v>8796754</v>
       </c>
       <c r="AN109" s="16" t="n">
-        <v>8796754</v>
+        <v>14936325</v>
       </c>
       <c r="AO109" s="16" t="n">
-        <v>14936325</v>
+        <v>12003358</v>
       </c>
       <c r="AP109" s="16" t="n">
-        <v>12003358</v>
+        <v>10812745</v>
       </c>
       <c r="AQ109" s="16" t="n">
-        <v>10812745</v>
+        <v>18418057</v>
       </c>
       <c r="AR109" s="16" t="n">
-        <v>18418057</v>
+        <v>10204104</v>
       </c>
       <c r="AS109" s="16" t="n">
-        <v>10204104</v>
+        <v>13521369</v>
       </c>
       <c r="AT109" s="16" t="n">
-        <v>13521369</v>
+        <v>21799961</v>
       </c>
       <c r="AU109" s="16" t="n">
-        <v>21799961</v>
+        <v>10173585</v>
       </c>
       <c r="AV109" s="16" t="n">
-        <v>10173585</v>
+        <v>21341072</v>
       </c>
       <c r="AW109" s="16" t="n">
-        <v>21341072</v>
+        <v>27979601</v>
       </c>
       <c r="AX109" s="16" t="n">
-        <v>27979601</v>
+        <v>11167816</v>
       </c>
       <c r="AY109" s="16" t="n">
-        <v>11167816</v>
+        <v>25341039</v>
       </c>
       <c r="AZ109" s="16" t="n">
-        <v>25341039</v>
+        <v>38406667</v>
       </c>
       <c r="BA109" s="16" t="n">
-        <v>38406667</v>
+        <v>28767216</v>
       </c>
       <c r="BB109" s="16" t="n">
-        <v>28767216</v>
+        <v>24819131</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16827,8 +16827,8 @@
       <c r="E110" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F110" s="15" t="n">
-        <v>0</v>
+      <c r="F110" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="G110" s="15" t="s">
         <v>60</v>
@@ -16965,11 +16965,11 @@
       <c r="AY110" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AZ110" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA110" s="15" t="n">
+      <c r="AZ110" s="15" t="n">
         <v>2499638</v>
+      </c>
+      <c r="BA110" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="BB110" s="15" t="s">
         <v>60</v>
@@ -16984,154 +16984,154 @@
       </c>
       <c r="D111" s="16"/>
       <c r="E111" s="16" t="n">
-        <v>10001350</v>
+        <v>9999306</v>
       </c>
       <c r="F111" s="16" t="n">
-        <v>9999306</v>
+        <v>15525124</v>
       </c>
       <c r="G111" s="16" t="n">
-        <v>15525124</v>
+        <v>0</v>
       </c>
       <c r="H111" s="16" t="n">
-        <v>0</v>
+        <v>10825322</v>
       </c>
       <c r="I111" s="16" t="n">
-        <v>10825322</v>
+        <v>7450946</v>
       </c>
       <c r="J111" s="16" t="n">
-        <v>7450946</v>
+        <v>9728903</v>
       </c>
       <c r="K111" s="16" t="n">
-        <v>9728903</v>
+        <v>7565565</v>
       </c>
       <c r="L111" s="16" t="n">
-        <v>7565565</v>
+        <v>9171238</v>
       </c>
       <c r="M111" s="16" t="n">
-        <v>9171238</v>
+        <v>6497449</v>
       </c>
       <c r="N111" s="16" t="n">
-        <v>6497449</v>
+        <v>8295527</v>
       </c>
       <c r="O111" s="16" t="n">
-        <v>8295527</v>
+        <v>7097390</v>
       </c>
       <c r="P111" s="16" t="n">
-        <v>7097390</v>
+        <v>8796560</v>
       </c>
       <c r="Q111" s="16" t="n">
-        <v>8796560</v>
+        <v>9220523</v>
       </c>
       <c r="R111" s="16" t="n">
-        <v>9220523</v>
+        <v>9472594</v>
       </c>
       <c r="S111" s="16" t="n">
-        <v>9472594</v>
+        <v>9227534</v>
       </c>
       <c r="T111" s="16" t="n">
-        <v>9227534</v>
+        <v>9405541</v>
       </c>
       <c r="U111" s="16" t="n">
-        <v>9405541</v>
+        <v>11775604</v>
       </c>
       <c r="V111" s="16" t="n">
-        <v>11775604</v>
+        <v>10925476</v>
       </c>
       <c r="W111" s="16" t="n">
-        <v>10925476</v>
+        <v>9790797</v>
       </c>
       <c r="X111" s="16" t="n">
-        <v>9790797</v>
+        <v>7499792</v>
       </c>
       <c r="Y111" s="16" t="n">
-        <v>7499792</v>
+        <v>13166398</v>
       </c>
       <c r="Z111" s="16" t="n">
-        <v>13166398</v>
+        <v>10591549</v>
       </c>
       <c r="AA111" s="16" t="n">
-        <v>10591549</v>
+        <v>9500697</v>
       </c>
       <c r="AB111" s="16" t="n">
-        <v>9500697</v>
+        <v>9544392</v>
       </c>
       <c r="AC111" s="16" t="n">
-        <v>9544392</v>
+        <v>10280517</v>
       </c>
       <c r="AD111" s="16" t="n">
-        <v>10280517</v>
+        <v>11394538</v>
       </c>
       <c r="AE111" s="16" t="n">
-        <v>11394538</v>
+        <v>12269849</v>
       </c>
       <c r="AF111" s="16" t="n">
-        <v>12269849</v>
+        <v>13525741</v>
       </c>
       <c r="AG111" s="16" t="n">
-        <v>13525741</v>
+        <v>12292848</v>
       </c>
       <c r="AH111" s="16" t="n">
-        <v>12292848</v>
+        <v>15508685</v>
       </c>
       <c r="AI111" s="16" t="n">
-        <v>15508685</v>
+        <v>15509898</v>
       </c>
       <c r="AJ111" s="16" t="n">
-        <v>15509898</v>
+        <v>15718146</v>
       </c>
       <c r="AK111" s="16" t="n">
-        <v>15718146</v>
+        <v>15155312</v>
       </c>
       <c r="AL111" s="16" t="n">
-        <v>15155312</v>
+        <v>16000000</v>
       </c>
       <c r="AM111" s="16" t="n">
-        <v>16000000</v>
+        <v>15756076</v>
       </c>
       <c r="AN111" s="16" t="n">
-        <v>15756076</v>
+        <v>15498565</v>
       </c>
       <c r="AO111" s="16" t="n">
-        <v>15498565</v>
+        <v>15803191</v>
       </c>
       <c r="AP111" s="16" t="n">
-        <v>15803191</v>
+        <v>15859581</v>
       </c>
       <c r="AQ111" s="16" t="n">
-        <v>15859581</v>
+        <v>15958984</v>
       </c>
       <c r="AR111" s="16" t="n">
-        <v>15958984</v>
+        <v>16299487</v>
       </c>
       <c r="AS111" s="16" t="n">
-        <v>16299487</v>
-      </c>
-      <c r="AT111" s="16" t="n">
         <v>15099906</v>
       </c>
-      <c r="AU111" s="16" t="s">
-        <v>60</v>
+      <c r="AT111" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU111" s="16" t="n">
+        <v>42709683</v>
       </c>
       <c r="AV111" s="16" t="n">
-        <v>42709683</v>
+        <v>46374246</v>
       </c>
       <c r="AW111" s="16" t="n">
-        <v>46374246</v>
+        <v>47214940</v>
       </c>
       <c r="AX111" s="16" t="n">
-        <v>47214940</v>
+        <v>40720577</v>
       </c>
       <c r="AY111" s="16" t="n">
-        <v>40720577</v>
+        <v>42997392</v>
       </c>
       <c r="AZ111" s="16" t="n">
-        <v>42997392</v>
+        <v>42495993</v>
       </c>
       <c r="BA111" s="16" t="n">
-        <v>42495993</v>
+        <v>43781373</v>
       </c>
       <c r="BB111" s="16" t="n">
-        <v>43781373</v>
+        <v>43493712</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17143,97 +17143,97 @@
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="15" t="n">
-        <v>2599638</v>
+        <v>2064150</v>
       </c>
       <c r="F112" s="15" t="n">
-        <v>2064150</v>
+        <v>2624551</v>
       </c>
       <c r="G112" s="15" t="n">
-        <v>2624551</v>
+        <v>4420279</v>
       </c>
       <c r="H112" s="15" t="n">
-        <v>4420279</v>
+        <v>4021434</v>
       </c>
       <c r="I112" s="15" t="n">
-        <v>4021434</v>
+        <v>2142511</v>
       </c>
       <c r="J112" s="15" t="n">
-        <v>2142511</v>
+        <v>2923824</v>
       </c>
       <c r="K112" s="15" t="n">
-        <v>2923824</v>
+        <v>3019587</v>
       </c>
       <c r="L112" s="15" t="n">
-        <v>3019587</v>
+        <v>2064064</v>
       </c>
       <c r="M112" s="15" t="n">
-        <v>2064064</v>
+        <v>2238934</v>
       </c>
       <c r="N112" s="15" t="n">
-        <v>2238934</v>
+        <v>1815208</v>
       </c>
       <c r="O112" s="15" t="n">
-        <v>1815208</v>
+        <v>2387383</v>
       </c>
       <c r="P112" s="15" t="n">
-        <v>2387383</v>
+        <v>1485345</v>
       </c>
       <c r="Q112" s="15" t="n">
-        <v>1485345</v>
+        <v>540119</v>
       </c>
       <c r="R112" s="15" t="n">
-        <v>540119</v>
+        <v>1140318</v>
       </c>
       <c r="S112" s="15" t="n">
-        <v>1140318</v>
+        <v>5298499</v>
       </c>
       <c r="T112" s="15" t="n">
-        <v>5298499</v>
+        <v>4550593</v>
       </c>
       <c r="U112" s="15" t="n">
-        <v>4550593</v>
+        <v>4356750</v>
       </c>
       <c r="V112" s="15" t="n">
-        <v>4356750</v>
+        <v>3630233</v>
       </c>
       <c r="W112" s="15" t="n">
-        <v>3630233</v>
+        <v>4715747</v>
       </c>
       <c r="X112" s="15" t="n">
-        <v>4715747</v>
+        <v>4857490</v>
       </c>
       <c r="Y112" s="15" t="n">
-        <v>4857490</v>
+        <v>6509610</v>
       </c>
       <c r="Z112" s="15" t="n">
-        <v>6509610</v>
+        <v>5066247</v>
       </c>
       <c r="AA112" s="15" t="n">
-        <v>5066247</v>
+        <v>3275449</v>
       </c>
       <c r="AB112" s="15" t="n">
-        <v>3275449</v>
+        <v>4858104</v>
       </c>
       <c r="AC112" s="15" t="n">
-        <v>4858104</v>
+        <v>8992667</v>
       </c>
       <c r="AD112" s="15" t="n">
-        <v>8992667</v>
+        <v>7076734</v>
       </c>
       <c r="AE112" s="15" t="n">
-        <v>7076734</v>
+        <v>3409255</v>
       </c>
       <c r="AF112" s="15" t="n">
-        <v>3409255</v>
+        <v>5246130</v>
       </c>
       <c r="AG112" s="15" t="n">
-        <v>5246130</v>
+        <v>5880746</v>
       </c>
       <c r="AH112" s="15" t="n">
-        <v>5880746</v>
-      </c>
-      <c r="AI112" s="15" t="n">
         <v>5792905</v>
+      </c>
+      <c r="AI112" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AJ112" s="15" t="s">
         <v>60</v>
@@ -17367,89 +17367,89 @@
       <c r="Z113" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AA113" s="16" t="s">
-        <v>60</v>
+      <c r="AA113" s="16" t="n">
+        <v>101410256</v>
       </c>
       <c r="AB113" s="16" t="n">
-        <v>101410256</v>
+        <v>4000000</v>
       </c>
       <c r="AC113" s="16" t="n">
-        <v>4000000</v>
+        <v>99900000</v>
       </c>
       <c r="AD113" s="16" t="n">
-        <v>99900000</v>
+        <v>102500000</v>
       </c>
       <c r="AE113" s="16" t="n">
-        <v>102500000</v>
+        <v>5415929</v>
       </c>
       <c r="AF113" s="16" t="n">
-        <v>5415929</v>
-      </c>
-      <c r="AG113" s="16" t="n">
         <v>5819102</v>
       </c>
-      <c r="AH113" s="16" t="s">
-        <v>60</v>
+      <c r="AG113" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH113" s="16" t="n">
+        <v>14402985</v>
       </c>
       <c r="AI113" s="16" t="n">
-        <v>14402985</v>
-      </c>
-      <c r="AJ113" s="16" t="n">
         <v>9298117</v>
       </c>
+      <c r="AJ113" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AK113" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AL113" s="16" t="s">
-        <v>60</v>
+      <c r="AL113" s="16" t="n">
+        <v>102163934</v>
       </c>
       <c r="AM113" s="16" t="n">
-        <v>102163934</v>
+        <v>4516383</v>
       </c>
       <c r="AN113" s="16" t="n">
-        <v>4516383</v>
+        <v>6584535</v>
       </c>
       <c r="AO113" s="16" t="n">
-        <v>6584535</v>
+        <v>6953459</v>
       </c>
       <c r="AP113" s="16" t="n">
-        <v>6953459</v>
+        <v>5442843</v>
       </c>
       <c r="AQ113" s="16" t="n">
-        <v>5442843</v>
+        <v>11971193</v>
       </c>
       <c r="AR113" s="16" t="n">
-        <v>11971193</v>
+        <v>6414685</v>
       </c>
       <c r="AS113" s="16" t="n">
-        <v>6414685</v>
+        <v>5131089</v>
       </c>
       <c r="AT113" s="16" t="n">
-        <v>5131089</v>
+        <v>688500000</v>
       </c>
       <c r="AU113" s="16" t="n">
-        <v>688500000</v>
+        <v>65490436</v>
       </c>
       <c r="AV113" s="16" t="n">
-        <v>65490436</v>
+        <v>11761543</v>
       </c>
       <c r="AW113" s="16" t="n">
-        <v>11761543</v>
+        <v>28581688</v>
       </c>
       <c r="AX113" s="16" t="n">
-        <v>28581688</v>
+        <v>9999164</v>
       </c>
       <c r="AY113" s="16" t="n">
-        <v>9999164</v>
-      </c>
-      <c r="AZ113" s="16" t="n">
         <v>10000000</v>
       </c>
-      <c r="BA113" s="16" t="s">
-        <v>60</v>
+      <c r="AZ113" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA113" s="16" t="n">
+        <v>29120510</v>
       </c>
       <c r="BB113" s="16" t="n">
-        <v>29120510</v>
+        <v>12047790</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17526,15 +17526,15 @@
       <c r="Z114" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA114" s="15" t="s">
-        <v>60</v>
+      <c r="AA114" s="15" t="n">
+        <v>8006803</v>
       </c>
       <c r="AB114" s="15" t="n">
-        <v>8006803</v>
-      </c>
-      <c r="AC114" s="15" t="n">
         <v>48327778</v>
       </c>
+      <c r="AC114" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="AD114" s="15" t="s">
         <v>60</v>
       </c>
@@ -17553,62 +17553,62 @@
       <c r="AI114" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AJ114" s="15" t="s">
-        <v>60</v>
+      <c r="AJ114" s="15" t="n">
+        <v>56044619</v>
       </c>
       <c r="AK114" s="15" t="n">
-        <v>56044619</v>
+        <v>30039761</v>
       </c>
       <c r="AL114" s="15" t="n">
-        <v>30039761</v>
+        <v>43382900</v>
       </c>
       <c r="AM114" s="15" t="n">
-        <v>43382900</v>
+        <v>26969863</v>
       </c>
       <c r="AN114" s="15" t="n">
-        <v>26969863</v>
+        <v>28529018</v>
       </c>
       <c r="AO114" s="15" t="n">
-        <v>28529018</v>
+        <v>29029851</v>
       </c>
       <c r="AP114" s="15" t="n">
-        <v>29029851</v>
+        <v>56092593</v>
       </c>
       <c r="AQ114" s="15" t="n">
-        <v>56092593</v>
+        <v>27405363</v>
       </c>
       <c r="AR114" s="15" t="n">
-        <v>27405363</v>
+        <v>85946154</v>
       </c>
       <c r="AS114" s="15" t="n">
-        <v>85946154</v>
+        <v>46660377</v>
       </c>
       <c r="AT114" s="15" t="n">
-        <v>46660377</v>
+        <v>28152709</v>
       </c>
       <c r="AU114" s="15" t="n">
-        <v>28152709</v>
+        <v>65294521</v>
       </c>
       <c r="AV114" s="15" t="n">
-        <v>65294521</v>
+        <v>58000000</v>
       </c>
       <c r="AW114" s="15" t="n">
+        <v>58421505</v>
+      </c>
+      <c r="AX114" s="15" t="n">
+        <v>57983193</v>
+      </c>
+      <c r="AY114" s="15" t="n">
         <v>58000000</v>
-      </c>
-      <c r="AX114" s="15" t="n">
-        <v>58421505</v>
-      </c>
-      <c r="AY114" s="15" t="n">
-        <v>57983193</v>
       </c>
       <c r="AZ114" s="15" t="n">
         <v>58000000</v>
       </c>
       <c r="BA114" s="15" t="n">
-        <v>58000000</v>
+        <v>77577279</v>
       </c>
       <c r="BB114" s="15" t="n">
-        <v>77577279</v>
+        <v>65667826</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17685,89 +17685,89 @@
       <c r="Z115" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AA115" s="16" t="s">
-        <v>60</v>
+      <c r="AA115" s="16" t="n">
+        <v>129000000</v>
       </c>
       <c r="AB115" s="16" t="n">
-        <v>129000000</v>
-      </c>
-      <c r="AC115" s="16" t="n">
         <v>573000000</v>
       </c>
+      <c r="AC115" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AD115" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AE115" s="16" t="s">
-        <v>60</v>
+      <c r="AE115" s="16" t="n">
+        <v>76150000</v>
       </c>
       <c r="AF115" s="16" t="n">
-        <v>76150000</v>
+        <v>67200000</v>
       </c>
       <c r="AG115" s="16" t="n">
-        <v>67200000</v>
+        <v>35750000</v>
       </c>
       <c r="AH115" s="16" t="n">
-        <v>35750000</v>
+        <v>36320732</v>
       </c>
       <c r="AI115" s="16" t="n">
-        <v>36320732</v>
+        <v>36282155</v>
       </c>
       <c r="AJ115" s="16" t="n">
-        <v>36282155</v>
+        <v>36540672</v>
       </c>
       <c r="AK115" s="16" t="n">
-        <v>36540672</v>
+        <v>34457648</v>
       </c>
       <c r="AL115" s="16" t="n">
-        <v>34457648</v>
+        <v>34408360</v>
       </c>
       <c r="AM115" s="16" t="n">
-        <v>34408360</v>
+        <v>16000000</v>
       </c>
       <c r="AN115" s="16" t="n">
-        <v>16000000</v>
+        <v>75000000</v>
       </c>
       <c r="AO115" s="16" t="n">
-        <v>75000000</v>
+        <v>101074413</v>
       </c>
       <c r="AP115" s="16" t="n">
-        <v>101074413</v>
+        <v>504300000</v>
       </c>
       <c r="AQ115" s="16" t="n">
-        <v>504300000</v>
+        <v>77000000</v>
       </c>
       <c r="AR115" s="16" t="n">
-        <v>77000000</v>
+        <v>35532110</v>
       </c>
       <c r="AS115" s="16" t="n">
-        <v>35532110</v>
+        <v>964833333</v>
       </c>
       <c r="AT115" s="16" t="n">
-        <v>964833333</v>
+        <v>7853755</v>
       </c>
       <c r="AU115" s="16" t="n">
-        <v>7853755</v>
+        <v>243189189</v>
       </c>
       <c r="AV115" s="16" t="n">
-        <v>243189189</v>
+        <v>235761538</v>
       </c>
       <c r="AW115" s="16" t="n">
-        <v>235761538</v>
+        <v>92123810</v>
       </c>
       <c r="AX115" s="16" t="n">
-        <v>92123810</v>
+        <v>233833333</v>
       </c>
       <c r="AY115" s="16" t="n">
-        <v>233833333</v>
+        <v>107200000</v>
       </c>
       <c r="AZ115" s="16" t="n">
-        <v>107200000</v>
+        <v>83279673</v>
       </c>
       <c r="BA115" s="16" t="n">
-        <v>83279673</v>
+        <v>106511628</v>
       </c>
       <c r="BB115" s="16" t="n">
-        <v>106511628</v>
+        <v>27505017</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17868,65 +17868,65 @@
       <c r="AH116" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI116" s="15" t="s">
-        <v>60</v>
+      <c r="AI116" s="15" t="n">
+        <v>5142252</v>
       </c>
       <c r="AJ116" s="15" t="n">
-        <v>5142252</v>
+        <v>8296379</v>
       </c>
       <c r="AK116" s="15" t="n">
-        <v>8296379</v>
+        <v>5981017</v>
       </c>
       <c r="AL116" s="15" t="n">
-        <v>5981017</v>
+        <v>5478974</v>
       </c>
       <c r="AM116" s="15" t="n">
-        <v>5478974</v>
+        <v>6591745</v>
       </c>
       <c r="AN116" s="15" t="n">
-        <v>6591745</v>
+        <v>6120147</v>
       </c>
       <c r="AO116" s="15" t="n">
-        <v>6120147</v>
+        <v>4812346</v>
       </c>
       <c r="AP116" s="15" t="n">
-        <v>4812346</v>
+        <v>8593750</v>
       </c>
       <c r="AQ116" s="15" t="n">
-        <v>8593750</v>
+        <v>10872407</v>
       </c>
       <c r="AR116" s="15" t="n">
-        <v>10872407</v>
+        <v>8298748</v>
       </c>
       <c r="AS116" s="15" t="n">
-        <v>8298748</v>
+        <v>11707986</v>
       </c>
       <c r="AT116" s="15" t="n">
-        <v>11707986</v>
+        <v>7383051</v>
       </c>
       <c r="AU116" s="15" t="n">
-        <v>7383051</v>
+        <v>7119277</v>
       </c>
       <c r="AV116" s="15" t="n">
-        <v>7119277</v>
+        <v>1739464</v>
       </c>
       <c r="AW116" s="15" t="n">
-        <v>1739464</v>
+        <v>2671915</v>
       </c>
       <c r="AX116" s="15" t="n">
-        <v>2671915</v>
+        <v>13553482</v>
       </c>
       <c r="AY116" s="15" t="n">
-        <v>13553482</v>
+        <v>8876061</v>
       </c>
       <c r="AZ116" s="15" t="n">
-        <v>8876061</v>
+        <v>6761434</v>
       </c>
       <c r="BA116" s="15" t="n">
-        <v>6761434</v>
+        <v>9601654</v>
       </c>
       <c r="BB116" s="15" t="n">
-        <v>9601654</v>
+        <v>2746304</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18042,38 +18042,38 @@
       <c r="AM117" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AN117" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO117" s="16" t="n">
+      <c r="AN117" s="16" t="n">
         <v>1207142857</v>
       </c>
-      <c r="AP117" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ117" s="16" t="n">
+      <c r="AO117" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP117" s="16" t="n">
         <v>1343333333</v>
       </c>
+      <c r="AQ117" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AR117" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AS117" s="16" t="s">
-        <v>60</v>
+      <c r="AS117" s="16" t="n">
+        <v>1365000000</v>
       </c>
       <c r="AT117" s="16" t="n">
-        <v>1365000000</v>
-      </c>
-      <c r="AU117" s="16" t="n">
         <v>1495000000</v>
       </c>
+      <c r="AU117" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AV117" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AW117" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX117" s="16" t="n">
+      <c r="AW117" s="16" t="n">
         <v>1137500000</v>
+      </c>
+      <c r="AX117" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AY117" s="16" t="s">
         <v>60</v>
@@ -18195,56 +18195,56 @@
       <c r="AK118" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL118" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM118" s="15" t="n">
+      <c r="AL118" s="15" t="n">
         <v>3187912</v>
       </c>
-      <c r="AN118" s="15" t="s">
-        <v>60</v>
+      <c r="AM118" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN118" s="15" t="n">
+        <v>3505713</v>
       </c>
       <c r="AO118" s="15" t="n">
-        <v>3505713</v>
-      </c>
-      <c r="AP118" s="15" t="n">
         <v>5885442</v>
       </c>
-      <c r="AQ118" s="15" t="s">
-        <v>60</v>
+      <c r="AP118" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ118" s="15" t="n">
+        <v>143000000</v>
       </c>
       <c r="AR118" s="15" t="n">
-        <v>143000000</v>
+        <v>787879</v>
       </c>
       <c r="AS118" s="15" t="n">
-        <v>787879</v>
+        <v>5723618</v>
       </c>
       <c r="AT118" s="15" t="n">
-        <v>5723618</v>
+        <v>4909307</v>
       </c>
       <c r="AU118" s="15" t="n">
-        <v>4909307</v>
+        <v>1534483</v>
       </c>
       <c r="AV118" s="15" t="n">
-        <v>1534483</v>
+        <v>345618182</v>
       </c>
       <c r="AW118" s="15" t="n">
-        <v>345618182</v>
-      </c>
-      <c r="AX118" s="15" t="n">
         <v>349954545</v>
       </c>
-      <c r="AY118" s="15" t="s">
-        <v>60</v>
+      <c r="AX118" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY118" s="15" t="n">
+        <v>349102564</v>
       </c>
       <c r="AZ118" s="15" t="n">
-        <v>349102564</v>
+        <v>6335789</v>
       </c>
       <c r="BA118" s="15" t="n">
-        <v>6335789</v>
-      </c>
-      <c r="BB118" s="15" t="n">
         <v>403611111</v>
+      </c>
+      <c r="BB118" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18345,65 +18345,65 @@
       <c r="AH119" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AI119" s="16" t="s">
-        <v>60</v>
+      <c r="AI119" s="16" t="n">
+        <v>11599143</v>
       </c>
       <c r="AJ119" s="16" t="n">
-        <v>11599143</v>
+        <v>14993235</v>
       </c>
       <c r="AK119" s="16" t="n">
-        <v>14993235</v>
-      </c>
-      <c r="AL119" s="16" t="n">
         <v>15000000</v>
       </c>
+      <c r="AL119" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AM119" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AN119" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO119" s="16" t="n">
+      <c r="AN119" s="16" t="n">
         <v>14999734</v>
       </c>
+      <c r="AO119" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AP119" s="16" t="s">
         <v>60</v>
       </c>
       <c r="AQ119" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AR119" s="16" t="s">
-        <v>60</v>
+      <c r="AR119" s="16" t="n">
+        <v>15000000</v>
       </c>
       <c r="AS119" s="16" t="n">
+        <v>15334443</v>
+      </c>
+      <c r="AT119" s="16" t="n">
+        <v>12809781</v>
+      </c>
+      <c r="AU119" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV119" s="16" t="n">
+        <v>15142857</v>
+      </c>
+      <c r="AW119" s="16" t="n">
         <v>15000000</v>
       </c>
-      <c r="AT119" s="16" t="n">
-        <v>15334443</v>
-      </c>
-      <c r="AU119" s="16" t="n">
-        <v>12809781</v>
-      </c>
-      <c r="AV119" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW119" s="16" t="n">
-        <v>15142857</v>
-      </c>
       <c r="AX119" s="16" t="n">
+        <v>15606218</v>
+      </c>
+      <c r="AY119" s="16" t="n">
         <v>15000000</v>
       </c>
-      <c r="AY119" s="16" t="n">
-        <v>15606218</v>
-      </c>
       <c r="AZ119" s="16" t="n">
+        <v>13394970</v>
+      </c>
+      <c r="BA119" s="16" t="n">
         <v>15000000</v>
       </c>
-      <c r="BA119" s="16" t="n">
-        <v>13394970</v>
-      </c>
-      <c r="BB119" s="16" t="n">
-        <v>15000000</v>
+      <c r="BB119" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18513,26 +18513,26 @@
       <c r="AK120" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL120" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM120" s="15" t="n">
+      <c r="AL120" s="15" t="n">
         <v>719792</v>
       </c>
+      <c r="AM120" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="AN120" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AO120" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP120" s="15" t="n">
+      <c r="AO120" s="15" t="n">
         <v>750000</v>
       </c>
+      <c r="AP120" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="AQ120" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AR120" s="15" t="s">
-        <v>60</v>
+      <c r="AR120" s="15" t="n">
+        <v>900000</v>
       </c>
       <c r="AS120" s="15" t="n">
         <v>900000</v>
@@ -18540,8 +18540,8 @@
       <c r="AT120" s="15" t="n">
         <v>900000</v>
       </c>
-      <c r="AU120" s="15" t="n">
-        <v>900000</v>
+      <c r="AU120" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AV120" s="15" t="s">
         <v>60</v>
@@ -18558,11 +18558,11 @@
       <c r="AZ120" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="BA120" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB120" s="15" t="n">
+      <c r="BA120" s="15" t="n">
         <v>700000</v>
+      </c>
+      <c r="BB120" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18705,11 +18705,11 @@
       <c r="AV121" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AW121" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX121" s="16" t="n">
+      <c r="AW121" s="16" t="n">
         <v>1980000000</v>
+      </c>
+      <c r="AX121" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AY121" s="16" t="s">
         <v>60</v>
@@ -18885,8 +18885,8 @@
       <c r="AJ123" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AK123" s="16" t="s">
-        <v>60</v>
+      <c r="AK123" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AL123" s="16" t="n">
         <v>0</v>
